--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -5,26 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A9908158-A4EE-4B2A-9C20-081F67F62D4F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D053422C-C8AD-4574-8E6C-55D11AC58B4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25568" windowHeight="10448" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20190" windowHeight="10568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19 Hospitalizations" sheetId="1" r:id="rId1"/>
     <sheet name="COVID-19 General Beds" sheetId="2" r:id="rId2"/>
     <sheet name="COVID-19 ICU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="143">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/10/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/11/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -306,6 +306,9 @@
     <t>2020-07-10</t>
   </si>
   <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -444,10 +447,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/10/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/11/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/10/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/11/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -467,17 +470,20 @@
       <sz val="14"/>
       <color rgb="FF003087"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF005CB9"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -511,14 +517,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,25 +838,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CN26"/>
+  <dimension ref="A1:CO26"/>
   <sheetViews>
-    <sheetView topLeftCell="BQ1" workbookViewId="0">
-      <selection activeCell="CM4" sqref="CM4:CN26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:92" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:93" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:92" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:93" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:92" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:93" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1128,13 +1131,16 @@
       <c r="CN3" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="CO3" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -1400,19 +1406,22 @@
       <c r="CL4">
         <v>38</v>
       </c>
-      <c r="CM4" s="4">
+      <c r="CM4">
         <v>41</v>
       </c>
-      <c r="CN4" s="4">
+      <c r="CN4">
         <v>46</v>
       </c>
+      <c r="CO4">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5">
         <v>34</v>
@@ -1678,19 +1687,22 @@
       <c r="CL5">
         <v>109</v>
       </c>
-      <c r="CM5" s="4">
+      <c r="CM5">
         <v>117</v>
       </c>
-      <c r="CN5" s="4">
+      <c r="CN5">
         <v>115</v>
       </c>
+      <c r="CO5">
+        <v>128</v>
+      </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1956,19 +1968,22 @@
       <c r="CL6">
         <v>28</v>
       </c>
-      <c r="CM6" s="4">
+      <c r="CM6">
         <v>33</v>
       </c>
-      <c r="CN6" s="4">
+      <c r="CN6">
         <v>32</v>
       </c>
+      <c r="CO6">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2234,19 +2249,22 @@
       <c r="CL7">
         <v>24</v>
       </c>
-      <c r="CM7" s="4">
+      <c r="CM7">
         <v>24</v>
       </c>
-      <c r="CN7" s="4">
+      <c r="CN7">
         <v>20</v>
       </c>
+      <c r="CO7">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8">
         <v>369</v>
@@ -2512,19 +2530,22 @@
       <c r="CL8">
         <v>1809</v>
       </c>
-      <c r="CM8" s="4">
+      <c r="CM8">
         <v>1826</v>
       </c>
-      <c r="CN8" s="4">
+      <c r="CN8">
         <v>1872</v>
       </c>
+      <c r="CO8">
+        <v>1825</v>
+      </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -2790,19 +2811,22 @@
       <c r="CL9">
         <v>53</v>
       </c>
-      <c r="CM9" s="4">
+      <c r="CM9">
         <v>58</v>
       </c>
-      <c r="CN9" s="4">
+      <c r="CN9">
         <v>66</v>
       </c>
+      <c r="CO9">
+        <v>74</v>
+      </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C10">
         <v>32</v>
@@ -3068,19 +3092,22 @@
       <c r="CL10">
         <v>148</v>
       </c>
-      <c r="CM10" s="4">
+      <c r="CM10">
         <v>151</v>
       </c>
-      <c r="CN10" s="4">
+      <c r="CN10">
         <v>162</v>
       </c>
+      <c r="CO10">
+        <v>159</v>
+      </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -3346,19 +3373,22 @@
       <c r="CL11">
         <v>52</v>
       </c>
-      <c r="CM11" s="4">
+      <c r="CM11">
         <v>59</v>
       </c>
-      <c r="CN11" s="4">
+      <c r="CN11">
         <v>64</v>
       </c>
+      <c r="CO11">
+        <v>65</v>
+      </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -3624,19 +3654,22 @@
       <c r="CL12">
         <v>259</v>
       </c>
-      <c r="CM12" s="4">
+      <c r="CM12">
         <v>260</v>
       </c>
-      <c r="CN12" s="4">
+      <c r="CN12">
         <v>261</v>
       </c>
+      <c r="CO12">
+        <v>251</v>
+      </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -3902,19 +3935,22 @@
       <c r="CL13">
         <v>87</v>
       </c>
-      <c r="CM13" s="4">
+      <c r="CM13">
         <v>101</v>
       </c>
-      <c r="CN13" s="4">
+      <c r="CN13">
         <v>106</v>
       </c>
+      <c r="CO13">
+        <v>114</v>
+      </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4180,19 +4216,22 @@
       <c r="CL14">
         <v>36</v>
       </c>
-      <c r="CM14" s="4">
+      <c r="CM14">
         <v>47</v>
       </c>
-      <c r="CN14" s="4">
+      <c r="CN14">
         <v>49</v>
       </c>
+      <c r="CO14">
+        <v>51</v>
+      </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -4458,19 +4497,22 @@
       <c r="CL15">
         <v>76</v>
       </c>
-      <c r="CM15" s="4">
+      <c r="CM15">
         <v>75</v>
       </c>
-      <c r="CN15" s="4">
+      <c r="CN15">
         <v>73</v>
       </c>
+      <c r="CO15">
+        <v>76</v>
+      </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -4736,19 +4778,22 @@
       <c r="CL16">
         <v>38</v>
       </c>
-      <c r="CM16" s="4">
+      <c r="CM16">
         <v>45</v>
       </c>
-      <c r="CN16" s="4">
+      <c r="CN16">
         <v>45</v>
       </c>
+      <c r="CO16">
+        <v>54</v>
+      </c>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C17">
         <v>24</v>
@@ -5014,19 +5059,22 @@
       <c r="CL17">
         <v>61</v>
       </c>
-      <c r="CM17" s="4">
+      <c r="CM17">
         <v>63</v>
       </c>
-      <c r="CN17" s="4">
+      <c r="CN17">
         <v>58</v>
       </c>
+      <c r="CO17">
+        <v>58</v>
+      </c>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -5292,19 +5340,22 @@
       <c r="CL18">
         <v>534</v>
       </c>
-      <c r="CM18" s="4">
+      <c r="CM18">
         <v>504</v>
       </c>
-      <c r="CN18" s="4">
+      <c r="CN18">
         <v>486</v>
       </c>
+      <c r="CO18">
+        <v>500</v>
+      </c>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C19">
         <v>57</v>
@@ -5570,19 +5621,22 @@
       <c r="CL19">
         <v>1414</v>
       </c>
-      <c r="CM19" s="4">
+      <c r="CM19">
         <v>1442</v>
       </c>
-      <c r="CN19" s="4">
+      <c r="CN19">
         <v>1439</v>
       </c>
+      <c r="CO19">
+        <v>1529</v>
+      </c>
     </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20">
         <v>516</v>
@@ -5848,19 +5902,22 @@
       <c r="CL20">
         <v>2700</v>
       </c>
-      <c r="CM20" s="4">
+      <c r="CM20">
         <v>2742</v>
       </c>
-      <c r="CN20" s="4">
+      <c r="CN20">
         <v>2826</v>
       </c>
+      <c r="CO20">
+        <v>2842</v>
+      </c>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C21">
         <v>76</v>
@@ -6126,19 +6183,22 @@
       <c r="CL21">
         <v>421</v>
       </c>
-      <c r="CM21" s="4">
+      <c r="CM21">
         <v>333</v>
       </c>
-      <c r="CN21" s="4">
+      <c r="CN21">
         <v>385</v>
       </c>
+      <c r="CO21">
+        <v>432</v>
+      </c>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -6404,19 +6464,22 @@
       <c r="CL22">
         <v>106</v>
       </c>
-      <c r="CM22" s="4">
+      <c r="CM22">
         <v>114</v>
       </c>
-      <c r="CN22" s="4">
+      <c r="CN22">
         <v>140</v>
       </c>
+      <c r="CO22">
+        <v>136</v>
+      </c>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23">
         <v>25</v>
@@ -6682,19 +6745,22 @@
       <c r="CL23">
         <v>110</v>
       </c>
-      <c r="CM23" s="4">
+      <c r="CM23">
         <v>116</v>
       </c>
-      <c r="CN23" s="4">
+      <c r="CN23">
         <v>123</v>
       </c>
+      <c r="CO23">
+        <v>150</v>
+      </c>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -6960,19 +7026,22 @@
       <c r="CL24">
         <v>328</v>
       </c>
-      <c r="CM24" s="4">
+      <c r="CM24">
         <v>322</v>
       </c>
-      <c r="CN24" s="4">
+      <c r="CN24">
         <v>341</v>
       </c>
+      <c r="CO24">
+        <v>337</v>
+      </c>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25">
         <v>57</v>
@@ -7238,19 +7307,22 @@
       <c r="CL25">
         <v>1179</v>
       </c>
-      <c r="CM25" s="4">
+      <c r="CM25">
         <v>1216</v>
       </c>
-      <c r="CN25" s="4">
+      <c r="CN25">
         <v>1293</v>
       </c>
+      <c r="CO25">
+        <v>1197</v>
+      </c>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C26">
         <v>1338</v>
@@ -7516,11 +7588,14 @@
       <c r="CL26">
         <v>9610</v>
       </c>
-      <c r="CM26" s="4">
+      <c r="CM26">
         <v>9689</v>
       </c>
-      <c r="CN26" s="4">
+      <c r="CN26">
         <v>10002</v>
+      </c>
+      <c r="CO26">
+        <v>10083</v>
       </c>
     </row>
   </sheetData>
@@ -7530,25 +7605,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CN26"/>
+  <dimension ref="A1:CO26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="CM4" sqref="CM4:CN26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:92" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:93" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:92" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:93" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:92" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:93" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7825,13 +7898,16 @@
       <c r="CN3" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="CO3" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4">
         <v>13</v>
@@ -8097,19 +8173,22 @@
       <c r="CL4">
         <v>24</v>
       </c>
-      <c r="CM4" s="4">
+      <c r="CM4">
         <v>25</v>
       </c>
-      <c r="CN4" s="4">
+      <c r="CN4">
         <v>28</v>
       </c>
+      <c r="CO4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -8375,19 +8454,22 @@
       <c r="CL5">
         <v>62</v>
       </c>
-      <c r="CM5" s="4">
+      <c r="CM5">
         <v>69</v>
       </c>
-      <c r="CN5" s="4">
+      <c r="CN5">
         <v>58</v>
       </c>
+      <c r="CO5">
+        <v>81</v>
+      </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -8653,19 +8735,22 @@
       <c r="CL6">
         <v>23</v>
       </c>
-      <c r="CM6" s="4">
+      <c r="CM6">
         <v>27</v>
       </c>
-      <c r="CN6" s="4">
+      <c r="CN6">
         <v>23</v>
       </c>
+      <c r="CO6">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -8931,19 +9016,22 @@
       <c r="CL7">
         <v>12</v>
       </c>
-      <c r="CM7" s="4">
+      <c r="CM7">
         <v>12</v>
       </c>
-      <c r="CN7" s="4">
+      <c r="CN7">
         <v>13</v>
       </c>
+      <c r="CO7">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8">
         <v>208</v>
@@ -9209,19 +9297,22 @@
       <c r="CL8">
         <v>1272</v>
       </c>
-      <c r="CM8" s="4">
+      <c r="CM8">
         <v>1265</v>
       </c>
-      <c r="CN8" s="4">
+      <c r="CN8">
         <v>1311</v>
       </c>
+      <c r="CO8">
+        <v>1266</v>
+      </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -9487,19 +9578,22 @@
       <c r="CL9">
         <v>33</v>
       </c>
-      <c r="CM9" s="4">
+      <c r="CM9">
         <v>38</v>
       </c>
-      <c r="CN9" s="4">
+      <c r="CN9">
         <v>42</v>
       </c>
+      <c r="CO9">
+        <v>48</v>
+      </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -9765,19 +9859,22 @@
       <c r="CL10">
         <v>104</v>
       </c>
-      <c r="CM10" s="4">
+      <c r="CM10">
         <v>103</v>
       </c>
-      <c r="CN10" s="4">
+      <c r="CN10">
         <v>112</v>
       </c>
+      <c r="CO10">
+        <v>107</v>
+      </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -10043,19 +10140,22 @@
       <c r="CL11">
         <v>33</v>
       </c>
-      <c r="CM11" s="4">
+      <c r="CM11">
         <v>38</v>
       </c>
-      <c r="CN11" s="4">
+      <c r="CN11">
         <v>38</v>
       </c>
+      <c r="CO11">
+        <v>45</v>
+      </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -10321,19 +10421,22 @@
       <c r="CL12">
         <v>184</v>
       </c>
-      <c r="CM12" s="4">
+      <c r="CM12">
         <v>179</v>
       </c>
-      <c r="CN12" s="4">
+      <c r="CN12">
         <v>177</v>
       </c>
+      <c r="CO12">
+        <v>171</v>
+      </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -10599,19 +10702,22 @@
       <c r="CL13">
         <v>49</v>
       </c>
-      <c r="CM13" s="4">
+      <c r="CM13">
         <v>58</v>
       </c>
-      <c r="CN13" s="4">
+      <c r="CN13">
         <v>57</v>
       </c>
+      <c r="CO13">
+        <v>64</v>
+      </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -10877,19 +10983,22 @@
       <c r="CL14">
         <v>26</v>
       </c>
-      <c r="CM14" s="4">
+      <c r="CM14">
         <v>38</v>
       </c>
-      <c r="CN14" s="4">
+      <c r="CN14">
         <v>39</v>
       </c>
+      <c r="CO14">
+        <v>42</v>
+      </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -11155,19 +11264,22 @@
       <c r="CL15">
         <v>58</v>
       </c>
-      <c r="CM15" s="4">
+      <c r="CM15">
         <v>59</v>
       </c>
-      <c r="CN15" s="4">
+      <c r="CN15">
         <v>53</v>
       </c>
+      <c r="CO15">
+        <v>55</v>
+      </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -11433,19 +11545,22 @@
       <c r="CL16">
         <v>14</v>
       </c>
-      <c r="CM16" s="4">
+      <c r="CM16">
         <v>21</v>
       </c>
-      <c r="CN16" s="4">
+      <c r="CN16">
         <v>21</v>
       </c>
+      <c r="CO16">
+        <v>31</v>
+      </c>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -11711,19 +11826,22 @@
       <c r="CL17">
         <v>56</v>
       </c>
-      <c r="CM17" s="4">
+      <c r="CM17">
         <v>55</v>
       </c>
-      <c r="CN17" s="4">
+      <c r="CN17">
         <v>48</v>
       </c>
+      <c r="CO17">
+        <v>52</v>
+      </c>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -11989,19 +12107,22 @@
       <c r="CL18">
         <v>377</v>
       </c>
-      <c r="CM18" s="4">
+      <c r="CM18">
         <v>319</v>
       </c>
-      <c r="CN18" s="4">
+      <c r="CN18">
         <v>335</v>
       </c>
+      <c r="CO18">
+        <v>347</v>
+      </c>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C19">
         <v>35</v>
@@ -12267,19 +12388,22 @@
       <c r="CL19">
         <v>1020</v>
       </c>
-      <c r="CM19" s="4">
+      <c r="CM19">
         <v>1016</v>
       </c>
-      <c r="CN19" s="4">
+      <c r="CN19">
         <v>1030</v>
       </c>
+      <c r="CO19">
+        <v>1091</v>
+      </c>
     </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20">
         <v>302</v>
@@ -12545,19 +12669,22 @@
       <c r="CL20">
         <v>1944</v>
       </c>
-      <c r="CM20" s="4">
+      <c r="CM20">
         <v>1964</v>
       </c>
-      <c r="CN20" s="4">
+      <c r="CN20">
         <v>1993</v>
       </c>
+      <c r="CO20">
+        <v>2011</v>
+      </c>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C21">
         <v>46</v>
@@ -12823,19 +12950,22 @@
       <c r="CL21">
         <v>316</v>
       </c>
-      <c r="CM21" s="4">
+      <c r="CM21">
         <v>229</v>
       </c>
-      <c r="CN21" s="4">
+      <c r="CN21">
         <v>299</v>
       </c>
+      <c r="CO21">
+        <v>316</v>
+      </c>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -13101,19 +13231,22 @@
       <c r="CL22">
         <v>77</v>
       </c>
-      <c r="CM22" s="4">
+      <c r="CM22">
         <v>85</v>
       </c>
-      <c r="CN22" s="4">
+      <c r="CN22">
         <v>86</v>
       </c>
+      <c r="CO22">
+        <v>103</v>
+      </c>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -13379,19 +13512,22 @@
       <c r="CL23">
         <v>71</v>
       </c>
-      <c r="CM23" s="4">
+      <c r="CM23">
         <v>82</v>
       </c>
-      <c r="CN23" s="4">
+      <c r="CN23">
         <v>85</v>
       </c>
+      <c r="CO23">
+        <v>102</v>
+      </c>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -13657,19 +13793,22 @@
       <c r="CL24">
         <v>222</v>
       </c>
-      <c r="CM24" s="4">
+      <c r="CM24">
         <v>204</v>
       </c>
-      <c r="CN24" s="4">
+      <c r="CN24">
         <v>229</v>
       </c>
+      <c r="CO24">
+        <v>223</v>
+      </c>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25">
         <v>39</v>
@@ -13935,19 +14074,22 @@
       <c r="CL25">
         <v>903</v>
       </c>
-      <c r="CM25" s="4">
+      <c r="CM25">
         <v>925</v>
       </c>
-      <c r="CN25" s="4">
+      <c r="CN25">
         <v>1002</v>
       </c>
+      <c r="CO25">
+        <v>944</v>
+      </c>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C26">
         <v>775</v>
@@ -14213,11 +14355,15 @@
       <c r="CL26">
         <v>6880</v>
       </c>
-      <c r="CM26" s="4">
+      <c r="CM26">
         <v>6811</v>
       </c>
-      <c r="CN26" s="4">
+      <c r="CN26">
         <v>7079</v>
+      </c>
+      <c r="CO26">
+        <f>SUM(CO4:CO25)</f>
+        <v>7170</v>
       </c>
     </row>
   </sheetData>
@@ -14227,23 +14373,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CN26"/>
+  <dimension ref="A1:CO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:92" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:93" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:92" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:93" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:92" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:93" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -14520,13 +14666,16 @@
       <c r="CN3" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="CO3" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -14792,19 +14941,22 @@
       <c r="CL4">
         <v>14</v>
       </c>
-      <c r="CM4" s="4">
+      <c r="CM4">
         <v>16</v>
       </c>
-      <c r="CN4" s="4">
+      <c r="CN4">
         <v>18</v>
       </c>
+      <c r="CO4">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -15070,19 +15222,22 @@
       <c r="CL5">
         <v>47</v>
       </c>
-      <c r="CM5" s="4">
+      <c r="CM5">
         <v>48</v>
       </c>
-      <c r="CN5" s="4">
+      <c r="CN5">
         <v>57</v>
       </c>
+      <c r="CO5">
+        <v>47</v>
+      </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -15348,19 +15503,22 @@
       <c r="CL6">
         <v>5</v>
       </c>
-      <c r="CM6" s="4">
+      <c r="CM6">
         <v>6</v>
       </c>
-      <c r="CN6" s="4">
+      <c r="CN6">
         <v>9</v>
       </c>
+      <c r="CO6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -15626,19 +15784,22 @@
       <c r="CL7">
         <v>12</v>
       </c>
-      <c r="CM7" s="4">
+      <c r="CM7">
         <v>12</v>
       </c>
-      <c r="CN7" s="4">
+      <c r="CN7">
         <v>7</v>
       </c>
+      <c r="CO7">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8">
         <v>161</v>
@@ -15904,19 +16065,22 @@
       <c r="CL8">
         <v>537</v>
       </c>
-      <c r="CM8" s="4">
+      <c r="CM8">
         <v>561</v>
       </c>
-      <c r="CN8" s="4">
+      <c r="CN8">
         <v>561</v>
       </c>
+      <c r="CO8">
+        <v>559</v>
+      </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -16182,19 +16346,22 @@
       <c r="CL9">
         <v>20</v>
       </c>
-      <c r="CM9" s="4">
+      <c r="CM9">
         <v>20</v>
       </c>
-      <c r="CN9" s="4">
+      <c r="CN9">
         <v>24</v>
       </c>
+      <c r="CO9">
+        <v>26</v>
+      </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -16460,19 +16627,22 @@
       <c r="CL10">
         <v>44</v>
       </c>
-      <c r="CM10" s="4">
+      <c r="CM10">
         <v>48</v>
       </c>
-      <c r="CN10" s="4">
+      <c r="CN10">
         <v>50</v>
       </c>
+      <c r="CO10">
+        <v>52</v>
+      </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -16738,19 +16908,22 @@
       <c r="CL11">
         <v>19</v>
       </c>
-      <c r="CM11" s="4">
+      <c r="CM11">
         <v>21</v>
       </c>
-      <c r="CN11" s="4">
+      <c r="CN11">
         <v>26</v>
       </c>
+      <c r="CO11">
+        <v>20</v>
+      </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -17016,19 +17189,22 @@
       <c r="CL12">
         <v>75</v>
       </c>
-      <c r="CM12" s="4">
+      <c r="CM12">
         <v>81</v>
       </c>
-      <c r="CN12" s="4">
+      <c r="CN12">
         <v>84</v>
       </c>
+      <c r="CO12">
+        <v>80</v>
+      </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -17294,19 +17470,22 @@
       <c r="CL13">
         <v>38</v>
       </c>
-      <c r="CM13" s="4">
+      <c r="CM13">
         <v>43</v>
       </c>
-      <c r="CN13" s="4">
+      <c r="CN13">
         <v>49</v>
       </c>
+      <c r="CO13">
+        <v>50</v>
+      </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -17572,19 +17751,22 @@
       <c r="CL14">
         <v>10</v>
       </c>
-      <c r="CM14" s="4">
+      <c r="CM14">
         <v>9</v>
       </c>
-      <c r="CN14" s="4">
+      <c r="CN14">
         <v>10</v>
       </c>
+      <c r="CO14">
+        <v>9</v>
+      </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -17850,19 +18032,22 @@
       <c r="CL15">
         <v>18</v>
       </c>
-      <c r="CM15" s="4">
+      <c r="CM15">
         <v>16</v>
       </c>
-      <c r="CN15" s="4">
+      <c r="CN15">
         <v>20</v>
       </c>
+      <c r="CO15">
+        <v>21</v>
+      </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -18128,19 +18313,22 @@
       <c r="CL16">
         <v>24</v>
       </c>
-      <c r="CM16" s="4">
+      <c r="CM16">
         <v>24</v>
       </c>
-      <c r="CN16" s="4">
+      <c r="CN16">
         <v>24</v>
       </c>
+      <c r="CO16">
+        <v>23</v>
+      </c>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -18406,19 +18594,22 @@
       <c r="CL17">
         <v>5</v>
       </c>
-      <c r="CM17" s="4">
+      <c r="CM17">
         <v>8</v>
       </c>
-      <c r="CN17" s="4">
+      <c r="CN17">
         <v>10</v>
       </c>
+      <c r="CO17">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -18684,19 +18875,22 @@
       <c r="CL18">
         <v>157</v>
       </c>
-      <c r="CM18" s="4">
+      <c r="CM18">
         <v>185</v>
       </c>
-      <c r="CN18" s="4">
+      <c r="CN18">
         <v>151</v>
       </c>
+      <c r="CO18">
+        <v>153</v>
+      </c>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C19">
         <v>22</v>
@@ -18962,19 +19156,22 @@
       <c r="CL19">
         <v>394</v>
       </c>
-      <c r="CM19" s="4">
+      <c r="CM19">
         <v>426</v>
       </c>
-      <c r="CN19" s="4">
+      <c r="CN19">
         <v>409</v>
       </c>
+      <c r="CO19">
+        <v>438</v>
+      </c>
     </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20">
         <v>214</v>
@@ -19240,19 +19437,22 @@
       <c r="CL20">
         <v>756</v>
       </c>
-      <c r="CM20" s="4">
+      <c r="CM20">
         <v>778</v>
       </c>
-      <c r="CN20" s="4">
+      <c r="CN20">
         <v>833</v>
       </c>
+      <c r="CO20">
+        <v>831</v>
+      </c>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C21">
         <v>30</v>
@@ -19518,19 +19718,22 @@
       <c r="CL21">
         <v>105</v>
       </c>
-      <c r="CM21" s="4">
+      <c r="CM21">
         <v>104</v>
       </c>
-      <c r="CN21" s="4">
+      <c r="CN21">
         <v>86</v>
       </c>
+      <c r="CO21">
+        <v>116</v>
+      </c>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -19796,19 +19999,22 @@
       <c r="CL22">
         <v>29</v>
       </c>
-      <c r="CM22" s="4">
+      <c r="CM22">
         <v>29</v>
       </c>
-      <c r="CN22" s="4">
+      <c r="CN22">
         <v>54</v>
       </c>
+      <c r="CO22">
+        <v>33</v>
+      </c>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -20074,19 +20280,22 @@
       <c r="CL23">
         <v>39</v>
       </c>
-      <c r="CM23" s="4">
+      <c r="CM23">
         <v>34</v>
       </c>
-      <c r="CN23" s="4">
+      <c r="CN23">
         <v>38</v>
       </c>
+      <c r="CO23">
+        <v>48</v>
+      </c>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -20352,19 +20561,22 @@
       <c r="CL24">
         <v>106</v>
       </c>
-      <c r="CM24" s="4">
+      <c r="CM24">
         <v>118</v>
       </c>
-      <c r="CN24" s="4">
+      <c r="CN24">
         <v>112</v>
       </c>
+      <c r="CO24">
+        <v>114</v>
+      </c>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -20630,19 +20842,22 @@
       <c r="CL25">
         <v>276</v>
       </c>
-      <c r="CM25" s="4">
+      <c r="CM25">
         <v>291</v>
       </c>
-      <c r="CN25" s="4">
+      <c r="CN25">
         <v>291</v>
       </c>
+      <c r="CO25">
+        <v>253</v>
+      </c>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:93" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C26">
         <v>563</v>
@@ -20908,11 +21123,15 @@
       <c r="CL26">
         <v>2730</v>
       </c>
-      <c r="CM26" s="4">
+      <c r="CM26">
         <v>2878</v>
       </c>
-      <c r="CN26" s="4">
+      <c r="CN26">
         <v>2923</v>
+      </c>
+      <c r="CO26">
+        <f>SUM(CO4:CO25)</f>
+        <v>2913</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D053422C-C8AD-4574-8E6C-55D11AC58B4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CD8DB0A1-69C9-4FB2-B91A-1655D8C918B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20190" windowHeight="10568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19 Hospitalizations" sheetId="1" r:id="rId1"/>
     <sheet name="COVID-19 General Beds" sheetId="2" r:id="rId2"/>
     <sheet name="COVID-19 ICU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="144">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/11/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/12/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -309,6 +309,9 @@
     <t>2020-07-11</t>
   </si>
   <si>
+    <t>2020-07-12</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -447,10 +450,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/11/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/12/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/11/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/12/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -470,20 +473,17 @@
       <sz val="14"/>
       <color rgb="FF003087"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF005CB9"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -838,23 +838,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CO26"/>
+  <dimension ref="A1:CP26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CP4" sqref="CP4:CP26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:93" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:94" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:93" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:94" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:93" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:94" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1134,13 +1136,16 @@
       <c r="CO3" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="CP3" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -1415,13 +1420,16 @@
       <c r="CO4">
         <v>48</v>
       </c>
+      <c r="CP4">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5">
         <v>34</v>
@@ -1696,13 +1704,16 @@
       <c r="CO5">
         <v>128</v>
       </c>
+      <c r="CP5">
+        <v>125</v>
+      </c>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1977,13 +1988,16 @@
       <c r="CO6">
         <v>35</v>
       </c>
+      <c r="CP6">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2258,13 +2272,16 @@
       <c r="CO7">
         <v>22</v>
       </c>
+      <c r="CP7">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8">
         <v>369</v>
@@ -2539,13 +2556,16 @@
       <c r="CO8">
         <v>1825</v>
       </c>
+      <c r="CP8">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -2820,13 +2840,16 @@
       <c r="CO9">
         <v>74</v>
       </c>
+      <c r="CP9">
+        <v>69</v>
+      </c>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C10">
         <v>32</v>
@@ -3101,13 +3124,16 @@
       <c r="CO10">
         <v>159</v>
       </c>
+      <c r="CP10">
+        <v>220</v>
+      </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -3382,13 +3408,16 @@
       <c r="CO11">
         <v>65</v>
       </c>
+      <c r="CP11">
+        <v>63</v>
+      </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -3663,13 +3692,16 @@
       <c r="CO12">
         <v>251</v>
       </c>
+      <c r="CP12">
+        <v>277</v>
+      </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -3944,13 +3976,16 @@
       <c r="CO13">
         <v>114</v>
       </c>
+      <c r="CP13">
+        <v>113</v>
+      </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4225,13 +4260,16 @@
       <c r="CO14">
         <v>51</v>
       </c>
+      <c r="CP14">
+        <v>41</v>
+      </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -4506,13 +4544,16 @@
       <c r="CO15">
         <v>76</v>
       </c>
+      <c r="CP15">
+        <v>77</v>
+      </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -4787,13 +4828,16 @@
       <c r="CO16">
         <v>54</v>
       </c>
+      <c r="CP16">
+        <v>58</v>
+      </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17">
         <v>24</v>
@@ -5068,13 +5112,16 @@
       <c r="CO17">
         <v>58</v>
       </c>
+      <c r="CP17">
+        <v>58</v>
+      </c>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -5349,13 +5396,16 @@
       <c r="CO18">
         <v>500</v>
       </c>
+      <c r="CP18">
+        <v>483</v>
+      </c>
     </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C19">
         <v>57</v>
@@ -5630,13 +5680,16 @@
       <c r="CO19">
         <v>1529</v>
       </c>
+      <c r="CP19">
+        <v>1490</v>
+      </c>
     </row>
-    <row r="20" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C20">
         <v>516</v>
@@ -5911,13 +5964,16 @@
       <c r="CO20">
         <v>2842</v>
       </c>
+      <c r="CP20">
+        <v>2863</v>
+      </c>
     </row>
-    <row r="21" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21">
         <v>76</v>
@@ -6192,13 +6248,16 @@
       <c r="CO21">
         <v>432</v>
       </c>
+      <c r="CP21">
+        <v>431</v>
+      </c>
     </row>
-    <row r="22" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -6473,13 +6532,16 @@
       <c r="CO22">
         <v>136</v>
       </c>
+      <c r="CP22">
+        <v>161</v>
+      </c>
     </row>
-    <row r="23" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C23">
         <v>25</v>
@@ -6754,13 +6816,16 @@
       <c r="CO23">
         <v>150</v>
       </c>
+      <c r="CP23">
+        <v>154</v>
+      </c>
     </row>
-    <row r="24" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -7035,13 +7100,16 @@
       <c r="CO24">
         <v>337</v>
       </c>
+      <c r="CP24">
+        <v>360</v>
+      </c>
     </row>
-    <row r="25" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C25">
         <v>57</v>
@@ -7316,13 +7384,16 @@
       <c r="CO25">
         <v>1197</v>
       </c>
+      <c r="CP25">
+        <v>1356</v>
+      </c>
     </row>
-    <row r="26" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C26">
         <v>1338</v>
@@ -7596,6 +7667,10 @@
       </c>
       <c r="CO26">
         <v>10083</v>
+      </c>
+      <c r="CP26">
+        <f>SUM(CP4:CP25)</f>
+        <v>10410</v>
       </c>
     </row>
   </sheetData>
@@ -7605,23 +7680,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CO26"/>
+  <dimension ref="A1:CP26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="CP4" sqref="CP4:CP26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:93" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:94" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:93" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:94" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:93" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:94" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7901,13 +7978,16 @@
       <c r="CO3" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="CP3" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4">
         <v>13</v>
@@ -8182,13 +8262,16 @@
       <c r="CO4">
         <v>30</v>
       </c>
+      <c r="CP4">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -8463,13 +8546,16 @@
       <c r="CO5">
         <v>81</v>
       </c>
+      <c r="CP5">
+        <v>81</v>
+      </c>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -8744,13 +8830,16 @@
       <c r="CO6">
         <v>26</v>
       </c>
+      <c r="CP6">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -9025,13 +9114,16 @@
       <c r="CO7">
         <v>15</v>
       </c>
+      <c r="CP7">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8">
         <v>208</v>
@@ -9306,13 +9398,16 @@
       <c r="CO8">
         <v>1266</v>
       </c>
+      <c r="CP8">
+        <v>1291</v>
+      </c>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -9587,13 +9682,16 @@
       <c r="CO9">
         <v>48</v>
       </c>
+      <c r="CP9">
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -9868,13 +9966,16 @@
       <c r="CO10">
         <v>107</v>
       </c>
+      <c r="CP10">
+        <v>167</v>
+      </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -10149,13 +10250,16 @@
       <c r="CO11">
         <v>45</v>
       </c>
+      <c r="CP11">
+        <v>46</v>
+      </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -10430,13 +10534,16 @@
       <c r="CO12">
         <v>171</v>
       </c>
+      <c r="CP12">
+        <v>186</v>
+      </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -10711,13 +10818,16 @@
       <c r="CO13">
         <v>64</v>
       </c>
+      <c r="CP13">
+        <v>67</v>
+      </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -10992,13 +11102,16 @@
       <c r="CO14">
         <v>42</v>
       </c>
+      <c r="CP14">
+        <v>33</v>
+      </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -11273,13 +11386,16 @@
       <c r="CO15">
         <v>55</v>
       </c>
+      <c r="CP15">
+        <v>56</v>
+      </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -11554,13 +11670,16 @@
       <c r="CO16">
         <v>31</v>
       </c>
+      <c r="CP16">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -11835,13 +11954,16 @@
       <c r="CO17">
         <v>52</v>
       </c>
+      <c r="CP17">
+        <v>50</v>
+      </c>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -12116,13 +12238,16 @@
       <c r="CO18">
         <v>347</v>
       </c>
+      <c r="CP18">
+        <v>326</v>
+      </c>
     </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C19">
         <v>35</v>
@@ -12397,13 +12522,16 @@
       <c r="CO19">
         <v>1091</v>
       </c>
+      <c r="CP19">
+        <v>1068</v>
+      </c>
     </row>
-    <row r="20" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C20">
         <v>302</v>
@@ -12678,13 +12806,16 @@
       <c r="CO20">
         <v>2011</v>
       </c>
+      <c r="CP20">
+        <v>2048</v>
+      </c>
     </row>
-    <row r="21" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21">
         <v>46</v>
@@ -12959,13 +13090,16 @@
       <c r="CO21">
         <v>316</v>
       </c>
+      <c r="CP21">
+        <v>323</v>
+      </c>
     </row>
-    <row r="22" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -13240,13 +13374,16 @@
       <c r="CO22">
         <v>103</v>
       </c>
+      <c r="CP22">
+        <v>123</v>
+      </c>
     </row>
-    <row r="23" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -13521,13 +13658,16 @@
       <c r="CO23">
         <v>102</v>
       </c>
+      <c r="CP23">
+        <v>103</v>
+      </c>
     </row>
-    <row r="24" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -13802,13 +13942,16 @@
       <c r="CO24">
         <v>223</v>
       </c>
+      <c r="CP24">
+        <v>258</v>
+      </c>
     </row>
-    <row r="25" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C25">
         <v>39</v>
@@ -14083,13 +14226,16 @@
       <c r="CO25">
         <v>944</v>
       </c>
+      <c r="CP25">
+        <v>1039</v>
+      </c>
     </row>
-    <row r="26" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C26">
         <v>775</v>
@@ -14362,8 +14508,11 @@
         <v>7079</v>
       </c>
       <c r="CO26">
-        <f>SUM(CO4:CO25)</f>
         <v>7170</v>
+      </c>
+      <c r="CP26">
+        <f>SUM(CP4:CP25)</f>
+        <v>7415</v>
       </c>
     </row>
   </sheetData>
@@ -14373,23 +14522,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CO26"/>
+  <dimension ref="A1:CP26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="CN25" sqref="CN25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:93" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:94" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:93" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:94" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:93" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:94" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -14669,13 +14820,16 @@
       <c r="CO3" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="CP3" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -14950,13 +15104,16 @@
       <c r="CO4">
         <v>18</v>
       </c>
+      <c r="CP4">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -15231,13 +15388,16 @@
       <c r="CO5">
         <v>47</v>
       </c>
+      <c r="CP5">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -15512,13 +15672,16 @@
       <c r="CO6">
         <v>9</v>
       </c>
+      <c r="CP6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -15793,13 +15956,16 @@
       <c r="CO7">
         <v>7</v>
       </c>
+      <c r="CP7">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8">
         <v>161</v>
@@ -16074,13 +16240,16 @@
       <c r="CO8">
         <v>559</v>
       </c>
+      <c r="CP8">
+        <v>604</v>
+      </c>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -16355,13 +16524,16 @@
       <c r="CO9">
         <v>26</v>
       </c>
+      <c r="CP9">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -16636,13 +16808,16 @@
       <c r="CO10">
         <v>52</v>
       </c>
+      <c r="CP10">
+        <v>53</v>
+      </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -16917,13 +17092,16 @@
       <c r="CO11">
         <v>20</v>
       </c>
+      <c r="CP11">
+        <v>17</v>
+      </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -17198,13 +17376,16 @@
       <c r="CO12">
         <v>80</v>
       </c>
+      <c r="CP12">
+        <v>91</v>
+      </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -17479,13 +17660,16 @@
       <c r="CO13">
         <v>50</v>
       </c>
+      <c r="CP13">
+        <v>46</v>
+      </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -17760,13 +17944,16 @@
       <c r="CO14">
         <v>9</v>
       </c>
+      <c r="CP14">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -18041,13 +18228,16 @@
       <c r="CO15">
         <v>21</v>
       </c>
+      <c r="CP15">
+        <v>21</v>
+      </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -18322,13 +18512,16 @@
       <c r="CO16">
         <v>23</v>
       </c>
+      <c r="CP16">
+        <v>25</v>
+      </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -18603,13 +18796,16 @@
       <c r="CO17">
         <v>6</v>
       </c>
+      <c r="CP17">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -18884,13 +19080,16 @@
       <c r="CO18">
         <v>153</v>
       </c>
+      <c r="CP18">
+        <v>157</v>
+      </c>
     </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C19">
         <v>22</v>
@@ -19165,13 +19364,16 @@
       <c r="CO19">
         <v>438</v>
       </c>
+      <c r="CP19">
+        <v>422</v>
+      </c>
     </row>
-    <row r="20" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C20">
         <v>214</v>
@@ -19446,13 +19648,16 @@
       <c r="CO20">
         <v>831</v>
       </c>
+      <c r="CP20">
+        <v>815</v>
+      </c>
     </row>
-    <row r="21" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21">
         <v>30</v>
@@ -19727,13 +19932,16 @@
       <c r="CO21">
         <v>116</v>
       </c>
+      <c r="CP21">
+        <v>108</v>
+      </c>
     </row>
-    <row r="22" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -20008,13 +20216,16 @@
       <c r="CO22">
         <v>33</v>
       </c>
+      <c r="CP22">
+        <v>38</v>
+      </c>
     </row>
-    <row r="23" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -20289,13 +20500,16 @@
       <c r="CO23">
         <v>48</v>
       </c>
+      <c r="CP23">
+        <v>51</v>
+      </c>
     </row>
-    <row r="24" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -20570,13 +20784,16 @@
       <c r="CO24">
         <v>114</v>
       </c>
+      <c r="CP24">
+        <v>102</v>
+      </c>
     </row>
-    <row r="25" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -20851,13 +21068,16 @@
       <c r="CO25">
         <v>253</v>
       </c>
+      <c r="CP25">
+        <v>317</v>
+      </c>
     </row>
-    <row r="26" spans="1:93" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C26">
         <v>563</v>
@@ -21130,8 +21350,11 @@
         <v>2923</v>
       </c>
       <c r="CO26">
-        <f>SUM(CO4:CO25)</f>
         <v>2913</v>
+      </c>
+      <c r="CP26">
+        <f>SUM(CP4:CP25)</f>
+        <v>2995</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="146">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/13/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/14/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -307,6 +307,9 @@
     <t>2020-07-13</t>
   </si>
   <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -445,10 +448,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/13/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/14/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/13/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/14/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -860,13 +863,16 @@
       <c r="CQ3" t="s" s="10">
         <v>96</v>
       </c>
+      <c r="CR3" t="s" s="10">
+        <v>97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1146,14 +1152,17 @@
       </c>
       <c r="CQ4" t="n">
         <v>46.0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1432,15 +1441,18 @@
         <v>125.0</v>
       </c>
       <c r="CQ5" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="CR5" t="n">
         <v>130.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -1720,14 +1732,17 @@
       </c>
       <c r="CQ6" t="n">
         <v>35.0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2007,14 +2022,17 @@
       </c>
       <c r="CQ7" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2294,14 +2312,17 @@
       </c>
       <c r="CQ8" t="n">
         <v>1867.0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>1834.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -2581,14 +2602,17 @@
       </c>
       <c r="CQ9" t="n">
         <v>70.0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -2868,14 +2892,17 @@
       </c>
       <c r="CQ10" t="n">
         <v>187.0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>197.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -3155,14 +3182,17 @@
       </c>
       <c r="CQ11" t="n">
         <v>60.0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -3442,14 +3472,17 @@
       </c>
       <c r="CQ12" t="n">
         <v>285.0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>283.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -3729,14 +3762,17 @@
       </c>
       <c r="CQ13" t="n">
         <v>113.0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -4015,15 +4051,18 @@
         <v>41.0</v>
       </c>
       <c r="CQ14" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CR14" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -4303,14 +4342,17 @@
       </c>
       <c r="CQ15" t="n">
         <v>75.0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -4590,14 +4632,17 @@
       </c>
       <c r="CQ16" t="n">
         <v>65.0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -4877,14 +4922,17 @@
       </c>
       <c r="CQ17" t="n">
         <v>54.0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -5164,14 +5212,17 @@
       </c>
       <c r="CQ18" t="n">
         <v>498.0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>518.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -5451,14 +5502,17 @@
       </c>
       <c r="CQ19" t="n">
         <v>1535.0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>1563.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -5738,14 +5792,17 @@
       </c>
       <c r="CQ20" t="n">
         <v>2842.0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>2914.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -6025,14 +6082,17 @@
       </c>
       <c r="CQ21" t="n">
         <v>458.0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>515.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -6312,14 +6372,17 @@
       </c>
       <c r="CQ22" t="n">
         <v>153.0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -6599,14 +6662,17 @@
       </c>
       <c r="CQ23" t="n">
         <v>149.0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>165.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -6886,14 +6952,17 @@
       </c>
       <c r="CQ24" t="n">
         <v>355.0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>348.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -7173,14 +7242,17 @@
       </c>
       <c r="CQ25" t="n">
         <v>1351.0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>1304.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -7460,6 +7532,9 @@
       </c>
       <c r="CQ26" t="n">
         <v>10405.0</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>10569.0</v>
       </c>
     </row>
   </sheetData>
@@ -7477,7 +7552,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -7771,13 +7846,16 @@
       <c r="CQ3" t="s" s="10">
         <v>96</v>
       </c>
+      <c r="CR3" t="s" s="10">
+        <v>97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -8056,15 +8134,18 @@
         <v>28.0</v>
       </c>
       <c r="CQ4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="CR4" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -8344,14 +8425,17 @@
       </c>
       <c r="CQ5" t="n">
         <v>84.0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -8631,14 +8715,17 @@
       </c>
       <c r="CQ6" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -8918,14 +9005,17 @@
       </c>
       <c r="CQ7" t="n">
         <v>23.0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -9205,14 +9295,17 @@
       </c>
       <c r="CQ8" t="n">
         <v>1274.0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>1243.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -9492,14 +9585,17 @@
       </c>
       <c r="CQ9" t="n">
         <v>46.0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -9779,14 +9875,17 @@
       </c>
       <c r="CQ10" t="n">
         <v>124.0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -10066,14 +10165,17 @@
       </c>
       <c r="CQ11" t="n">
         <v>44.0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -10353,14 +10455,17 @@
       </c>
       <c r="CQ12" t="n">
         <v>194.0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>184.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -10640,14 +10745,17 @@
       </c>
       <c r="CQ13" t="n">
         <v>67.0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -10927,14 +11035,17 @@
       </c>
       <c r="CQ14" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -11214,14 +11325,17 @@
       </c>
       <c r="CQ15" t="n">
         <v>54.0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -11501,14 +11615,17 @@
       </c>
       <c r="CQ16" t="n">
         <v>42.0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -11788,14 +11905,17 @@
       </c>
       <c r="CQ17" t="n">
         <v>45.0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -12075,14 +12195,17 @@
       </c>
       <c r="CQ18" t="n">
         <v>332.0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>345.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -12362,14 +12485,17 @@
       </c>
       <c r="CQ19" t="n">
         <v>1082.0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>1110.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -12649,14 +12775,17 @@
       </c>
       <c r="CQ20" t="n">
         <v>2007.0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>2080.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -12936,14 +13065,17 @@
       </c>
       <c r="CQ21" t="n">
         <v>342.0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>385.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -13223,14 +13355,17 @@
       </c>
       <c r="CQ22" t="n">
         <v>116.0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>117.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -13510,14 +13645,17 @@
       </c>
       <c r="CQ23" t="n">
         <v>102.0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -13797,14 +13935,17 @@
       </c>
       <c r="CQ24" t="n">
         <v>253.0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>230.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -14084,14 +14225,17 @@
       </c>
       <c r="CQ25" t="n">
         <v>1037.0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>976.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -14371,6 +14515,9 @@
       </c>
       <c r="CQ26" t="n">
         <v>7352.0</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>7425.0</v>
       </c>
     </row>
   </sheetData>
@@ -14388,7 +14535,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
@@ -14682,13 +14829,16 @@
       <c r="CQ3" t="s" s="10">
         <v>96</v>
       </c>
+      <c r="CR3" t="s" s="10">
+        <v>97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -14968,14 +15118,17 @@
       </c>
       <c r="CQ4" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -15255,14 +15408,17 @@
       </c>
       <c r="CQ5" t="n">
         <v>46.0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -15542,14 +15698,17 @@
       </c>
       <c r="CQ6" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -15829,14 +15988,17 @@
       </c>
       <c r="CQ7" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -16116,14 +16278,17 @@
       </c>
       <c r="CQ8" t="n">
         <v>593.0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>591.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -16403,14 +16568,17 @@
       </c>
       <c r="CQ9" t="n">
         <v>24.0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -16690,14 +16858,17 @@
       </c>
       <c r="CQ10" t="n">
         <v>63.0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -16977,14 +17148,17 @@
       </c>
       <c r="CQ11" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -17264,14 +17438,17 @@
       </c>
       <c r="CQ12" t="n">
         <v>91.0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -17551,14 +17728,17 @@
       </c>
       <c r="CQ13" t="n">
         <v>46.0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -17838,14 +18018,17 @@
       </c>
       <c r="CQ14" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -18125,14 +18308,17 @@
       </c>
       <c r="CQ15" t="n">
         <v>21.0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -18412,14 +18598,17 @@
       </c>
       <c r="CQ16" t="n">
         <v>23.0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -18699,14 +18888,17 @@
       </c>
       <c r="CQ17" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -18986,14 +19178,17 @@
       </c>
       <c r="CQ18" t="n">
         <v>166.0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>173.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -19272,15 +19467,18 @@
         <v>422.0</v>
       </c>
       <c r="CQ19" t="n">
+        <v>453.0</v>
+      </c>
+      <c r="CR19" t="n">
         <v>453.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -19560,14 +19758,17 @@
       </c>
       <c r="CQ20" t="n">
         <v>835.0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>834.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -19847,14 +20048,17 @@
       </c>
       <c r="CQ21" t="n">
         <v>116.0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -20134,14 +20338,17 @@
       </c>
       <c r="CQ22" t="n">
         <v>37.0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -20421,14 +20628,17 @@
       </c>
       <c r="CQ23" t="n">
         <v>47.0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -20708,14 +20918,17 @@
       </c>
       <c r="CQ24" t="n">
         <v>102.0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -20995,14 +21208,17 @@
       </c>
       <c r="CQ25" t="n">
         <v>314.0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>328.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -21282,6 +21498,9 @@
       </c>
       <c r="CQ26" t="n">
         <v>3053.0</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>3144.0</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="147">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/14/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/15/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -310,6 +310,9 @@
     <t>2020-07-14</t>
   </si>
   <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -448,10 +451,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/14/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/15/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/14/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/15/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -866,13 +869,16 @@
       <c r="CR3" t="s" s="10">
         <v>97</v>
       </c>
+      <c r="CS3" t="s" s="10">
+        <v>98</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1155,14 +1161,17 @@
       </c>
       <c r="CR4" t="n">
         <v>47.0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1445,14 +1454,17 @@
       </c>
       <c r="CR5" t="n">
         <v>130.0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>123.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -1735,14 +1747,17 @@
       </c>
       <c r="CR6" t="n">
         <v>33.0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2025,14 +2040,17 @@
       </c>
       <c r="CR7" t="n">
         <v>34.0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2315,14 +2333,17 @@
       </c>
       <c r="CR8" t="n">
         <v>1834.0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>1854.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -2604,15 +2625,18 @@
         <v>70.0</v>
       </c>
       <c r="CR9" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="CS9" t="n">
         <v>64.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -2895,14 +2919,17 @@
       </c>
       <c r="CR10" t="n">
         <v>197.0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>206.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -3185,14 +3212,17 @@
       </c>
       <c r="CR11" t="n">
         <v>73.0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -3475,14 +3505,17 @@
       </c>
       <c r="CR12" t="n">
         <v>283.0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>287.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -3765,14 +3798,17 @@
       </c>
       <c r="CR13" t="n">
         <v>121.0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -4054,15 +4090,18 @@
         <v>39.0</v>
       </c>
       <c r="CR14" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CS14" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -4345,14 +4384,17 @@
       </c>
       <c r="CR15" t="n">
         <v>100.0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -4635,14 +4677,17 @@
       </c>
       <c r="CR16" t="n">
         <v>70.0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -4925,14 +4970,17 @@
       </c>
       <c r="CR17" t="n">
         <v>62.0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -5215,14 +5263,17 @@
       </c>
       <c r="CR18" t="n">
         <v>518.0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>530.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -5505,14 +5556,17 @@
       </c>
       <c r="CR19" t="n">
         <v>1563.0</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>1549.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -5795,14 +5849,17 @@
       </c>
       <c r="CR20" t="n">
         <v>2914.0</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>2884.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -6085,14 +6142,17 @@
       </c>
       <c r="CR21" t="n">
         <v>515.0</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>436.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -6375,14 +6435,17 @@
       </c>
       <c r="CR22" t="n">
         <v>155.0</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>136.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -6665,14 +6728,17 @@
       </c>
       <c r="CR23" t="n">
         <v>165.0</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>159.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -6955,14 +7021,17 @@
       </c>
       <c r="CR24" t="n">
         <v>348.0</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>333.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -7245,14 +7314,17 @@
       </c>
       <c r="CR25" t="n">
         <v>1304.0</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>1300.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -7535,6 +7607,9 @@
       </c>
       <c r="CR26" t="n">
         <v>10569.0</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>10471.0</v>
       </c>
     </row>
   </sheetData>
@@ -7552,7 +7627,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
@@ -7849,13 +7924,16 @@
       <c r="CR3" t="s" s="10">
         <v>97</v>
       </c>
+      <c r="CS3" t="s" s="10">
+        <v>98</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -8138,14 +8216,17 @@
       </c>
       <c r="CR4" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -8428,14 +8509,17 @@
       </c>
       <c r="CR5" t="n">
         <v>82.0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -8718,14 +8802,17 @@
       </c>
       <c r="CR6" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -9008,14 +9095,17 @@
       </c>
       <c r="CR7" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -9298,14 +9388,17 @@
       </c>
       <c r="CR8" t="n">
         <v>1243.0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>1259.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -9588,14 +9681,17 @@
       </c>
       <c r="CR9" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -9878,14 +9974,17 @@
       </c>
       <c r="CR10" t="n">
         <v>130.0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>137.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -10168,14 +10267,17 @@
       </c>
       <c r="CR11" t="n">
         <v>53.0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -10458,14 +10560,17 @@
       </c>
       <c r="CR12" t="n">
         <v>184.0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>190.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -10748,14 +10853,17 @@
       </c>
       <c r="CR13" t="n">
         <v>76.0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -11038,14 +11146,17 @@
       </c>
       <c r="CR14" t="n">
         <v>29.0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -11328,14 +11439,17 @@
       </c>
       <c r="CR15" t="n">
         <v>71.0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -11618,14 +11732,17 @@
       </c>
       <c r="CR16" t="n">
         <v>44.0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -11908,14 +12025,17 @@
       </c>
       <c r="CR17" t="n">
         <v>47.0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -12198,14 +12318,17 @@
       </c>
       <c r="CR18" t="n">
         <v>345.0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>357.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -12488,14 +12611,17 @@
       </c>
       <c r="CR19" t="n">
         <v>1110.0</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>1095.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -12778,14 +12904,17 @@
       </c>
       <c r="CR20" t="n">
         <v>2080.0</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>2071.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -13068,14 +13197,17 @@
       </c>
       <c r="CR21" t="n">
         <v>385.0</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>321.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -13358,14 +13490,17 @@
       </c>
       <c r="CR22" t="n">
         <v>117.0</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -13648,14 +13783,17 @@
       </c>
       <c r="CR23" t="n">
         <v>111.0</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -13937,15 +14075,18 @@
         <v>253.0</v>
       </c>
       <c r="CR24" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="CS24" t="n">
         <v>230.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -14227,15 +14368,18 @@
         <v>1037.0</v>
       </c>
       <c r="CR25" t="n">
+        <v>976.0</v>
+      </c>
+      <c r="CS25" t="n">
         <v>976.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -14518,6 +14662,9 @@
       </c>
       <c r="CR26" t="n">
         <v>7425.0</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>7367.0</v>
       </c>
     </row>
   </sheetData>
@@ -14535,7 +14682,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
@@ -14832,13 +14979,16 @@
       <c r="CR3" t="s" s="10">
         <v>97</v>
       </c>
+      <c r="CS3" t="s" s="10">
+        <v>98</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -15121,14 +15271,17 @@
       </c>
       <c r="CR4" t="n">
         <v>20.0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -15411,14 +15564,17 @@
       </c>
       <c r="CR5" t="n">
         <v>48.0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -15700,15 +15856,18 @@
         <v>9.0</v>
       </c>
       <c r="CR6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CS6" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -15990,15 +16149,18 @@
         <v>15.0</v>
       </c>
       <c r="CR7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CS7" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -16281,14 +16443,17 @@
       </c>
       <c r="CR8" t="n">
         <v>591.0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>595.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -16571,14 +16736,17 @@
       </c>
       <c r="CR9" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -16861,14 +17029,17 @@
       </c>
       <c r="CR10" t="n">
         <v>67.0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -17150,15 +17321,18 @@
         <v>16.0</v>
       </c>
       <c r="CR11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="CS11" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -17441,14 +17615,17 @@
       </c>
       <c r="CR12" t="n">
         <v>99.0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -17731,14 +17908,17 @@
       </c>
       <c r="CR13" t="n">
         <v>45.0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -18021,14 +18201,17 @@
       </c>
       <c r="CR14" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -18311,14 +18494,17 @@
       </c>
       <c r="CR15" t="n">
         <v>29.0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -18601,14 +18787,17 @@
       </c>
       <c r="CR16" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -18891,14 +19080,17 @@
       </c>
       <c r="CR17" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -19180,15 +19372,18 @@
         <v>166.0</v>
       </c>
       <c r="CR18" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="CS18" t="n">
         <v>173.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -19471,14 +19666,17 @@
       </c>
       <c r="CR19" t="n">
         <v>453.0</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>454.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -19761,14 +19959,17 @@
       </c>
       <c r="CR20" t="n">
         <v>834.0</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>813.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -20051,14 +20252,17 @@
       </c>
       <c r="CR21" t="n">
         <v>130.0</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -20340,15 +20544,18 @@
         <v>37.0</v>
       </c>
       <c r="CR22" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CS22" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -20631,14 +20838,17 @@
       </c>
       <c r="CR23" t="n">
         <v>54.0</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -20921,14 +21131,17 @@
       </c>
       <c r="CR24" t="n">
         <v>118.0</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -21211,14 +21424,17 @@
       </c>
       <c r="CR25" t="n">
         <v>328.0</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>324.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -21501,6 +21717,9 @@
       </c>
       <c r="CR26" t="n">
         <v>3144.0</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>3104.0</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="150">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/17/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/18/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -319,6 +319,9 @@
     <t>2020-07-17</t>
   </si>
   <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -457,10 +460,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/17/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/18/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/17/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/18/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -884,13 +887,16 @@
       <c r="CU3" t="s" s="10">
         <v>100</v>
       </c>
+      <c r="CV3" t="s" s="10">
+        <v>101</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1182,14 +1188,17 @@
       </c>
       <c r="CU4" t="n">
         <v>58.0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1481,14 +1490,17 @@
       </c>
       <c r="CU5" t="n">
         <v>125.0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -1780,14 +1792,17 @@
       </c>
       <c r="CU6" t="n">
         <v>43.0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2079,14 +2094,17 @@
       </c>
       <c r="CU7" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2378,14 +2396,17 @@
       </c>
       <c r="CU8" t="n">
         <v>1918.0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>1889.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -2676,15 +2697,18 @@
         <v>57.0</v>
       </c>
       <c r="CU9" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="CV9" t="n">
         <v>68.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -2976,14 +3000,17 @@
       </c>
       <c r="CU10" t="n">
         <v>226.0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>222.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -3275,14 +3302,17 @@
       </c>
       <c r="CU11" t="n">
         <v>94.0</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -3574,14 +3604,17 @@
       </c>
       <c r="CU12" t="n">
         <v>268.0</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>292.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -3873,14 +3906,17 @@
       </c>
       <c r="CU13" t="n">
         <v>119.0</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>116.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -4172,14 +4208,17 @@
       </c>
       <c r="CU14" t="n">
         <v>41.0</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -4470,15 +4509,18 @@
         <v>84.0</v>
       </c>
       <c r="CU15" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="CV15" t="n">
         <v>92.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -4770,14 +4812,17 @@
       </c>
       <c r="CU16" t="n">
         <v>72.0</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -5069,14 +5114,17 @@
       </c>
       <c r="CU17" t="n">
         <v>68.0</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -5368,14 +5416,17 @@
       </c>
       <c r="CU18" t="n">
         <v>517.0</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>521.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -5667,14 +5718,17 @@
       </c>
       <c r="CU19" t="n">
         <v>1509.0</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>1520.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -5966,14 +6020,17 @@
       </c>
       <c r="CU20" t="n">
         <v>2763.0</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>2785.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -6265,14 +6322,17 @@
       </c>
       <c r="CU21" t="n">
         <v>411.0</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>413.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -6564,14 +6624,17 @@
       </c>
       <c r="CU22" t="n">
         <v>142.0</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>157.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -6863,14 +6926,17 @@
       </c>
       <c r="CU23" t="n">
         <v>162.0</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -7162,14 +7228,17 @@
       </c>
       <c r="CU24" t="n">
         <v>382.0</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>338.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -7461,14 +7530,17 @@
       </c>
       <c r="CU25" t="n">
         <v>1528.0</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>1571.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -7760,6 +7832,9 @@
       </c>
       <c r="CU26" t="n">
         <v>10632.0</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>10658.0</v>
       </c>
     </row>
   </sheetData>
@@ -7777,7 +7852,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
@@ -8083,13 +8158,16 @@
       <c r="CU3" t="s" s="10">
         <v>100</v>
       </c>
+      <c r="CV3" t="s" s="10">
+        <v>101</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -8381,14 +8459,17 @@
       </c>
       <c r="CU4" t="n">
         <v>34.0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -8680,14 +8761,17 @@
       </c>
       <c r="CU5" t="n">
         <v>82.0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -8979,14 +9063,17 @@
       </c>
       <c r="CU6" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -9278,14 +9365,17 @@
       </c>
       <c r="CU7" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -9577,14 +9667,17 @@
       </c>
       <c r="CU8" t="n">
         <v>1325.0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>1302.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -9876,14 +9969,17 @@
       </c>
       <c r="CU9" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -10175,14 +10271,17 @@
       </c>
       <c r="CU10" t="n">
         <v>154.0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>153.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -10474,14 +10573,17 @@
       </c>
       <c r="CU11" t="n">
         <v>68.0</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -10773,14 +10875,17 @@
       </c>
       <c r="CU12" t="n">
         <v>166.0</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>183.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -11072,14 +11177,17 @@
       </c>
       <c r="CU13" t="n">
         <v>76.0</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -11371,14 +11479,17 @@
       </c>
       <c r="CU14" t="n">
         <v>34.0</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -11669,15 +11780,18 @@
         <v>51.0</v>
       </c>
       <c r="CU15" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="CV15" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -11968,15 +12082,18 @@
         <v>50.0</v>
       </c>
       <c r="CU16" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="CV16" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -12267,15 +12384,18 @@
         <v>62.0</v>
       </c>
       <c r="CU17" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="CV17" t="n">
         <v>59.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -12567,14 +12687,17 @@
       </c>
       <c r="CU18" t="n">
         <v>357.0</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>336.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -12866,14 +12989,17 @@
       </c>
       <c r="CU19" t="n">
         <v>1043.0</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>1068.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -13165,14 +13291,17 @@
       </c>
       <c r="CU20" t="n">
         <v>1918.0</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>1946.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -13464,14 +13593,17 @@
       </c>
       <c r="CU21" t="n">
         <v>294.0</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>299.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -13763,14 +13895,17 @@
       </c>
       <c r="CU22" t="n">
         <v>110.0</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>120.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -14062,14 +14197,17 @@
       </c>
       <c r="CU23" t="n">
         <v>103.0</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -14361,14 +14499,17 @@
       </c>
       <c r="CU24" t="n">
         <v>254.0</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>213.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -14660,14 +14801,17 @@
       </c>
       <c r="CU25" t="n">
         <v>1146.0</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>1135.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -14959,6 +15103,9 @@
       </c>
       <c r="CU26" t="n">
         <v>7416.0</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>7395.0</v>
       </c>
     </row>
   </sheetData>
@@ -14976,7 +15123,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
@@ -15282,13 +15429,16 @@
       <c r="CU3" t="s" s="10">
         <v>100</v>
       </c>
+      <c r="CV3" t="s" s="10">
+        <v>101</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -15579,15 +15729,18 @@
         <v>20.0</v>
       </c>
       <c r="CU4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CV4" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -15879,14 +16032,17 @@
       </c>
       <c r="CU5" t="n">
         <v>43.0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -16177,15 +16333,18 @@
         <v>12.0</v>
       </c>
       <c r="CU6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CV6" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -16477,14 +16636,17 @@
       </c>
       <c r="CU7" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -16776,14 +16938,17 @@
       </c>
       <c r="CU8" t="n">
         <v>593.0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>587.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -17075,14 +17240,17 @@
       </c>
       <c r="CU9" t="n">
         <v>30.0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -17374,14 +17542,17 @@
       </c>
       <c r="CU10" t="n">
         <v>72.0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -17673,14 +17844,17 @@
       </c>
       <c r="CU11" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -17972,14 +18146,17 @@
       </c>
       <c r="CU12" t="n">
         <v>102.0</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -18271,14 +18448,17 @@
       </c>
       <c r="CU13" t="n">
         <v>43.0</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -18570,14 +18750,17 @@
       </c>
       <c r="CU14" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -18868,15 +19051,18 @@
         <v>33.0</v>
       </c>
       <c r="CU15" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="CV15" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -19168,14 +19354,17 @@
       </c>
       <c r="CU16" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -19467,14 +19656,17 @@
       </c>
       <c r="CU17" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -19766,14 +19958,17 @@
       </c>
       <c r="CU18" t="n">
         <v>160.0</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>185.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -20065,14 +20260,17 @@
       </c>
       <c r="CU19" t="n">
         <v>466.0</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>452.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -20364,14 +20562,17 @@
       </c>
       <c r="CU20" t="n">
         <v>845.0</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>839.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -20663,14 +20864,17 @@
       </c>
       <c r="CU21" t="n">
         <v>117.0</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -20962,14 +21166,17 @@
       </c>
       <c r="CU22" t="n">
         <v>32.0</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -21261,14 +21468,17 @@
       </c>
       <c r="CU23" t="n">
         <v>59.0</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -21560,14 +21770,17 @@
       </c>
       <c r="CU24" t="n">
         <v>128.0</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -21859,14 +22072,17 @@
       </c>
       <c r="CU25" t="n">
         <v>382.0</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>436.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -22158,6 +22374,9 @@
       </c>
       <c r="CU26" t="n">
         <v>3216.0</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>3263.0</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="151">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/18/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/19/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -322,6 +322,9 @@
     <t>2020-07-18</t>
   </si>
   <si>
+    <t>2020-07-19</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -460,10 +463,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/18/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/19/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/18/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/19/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -890,13 +893,16 @@
       <c r="CV3" t="s" s="10">
         <v>101</v>
       </c>
+      <c r="CW3" t="s" s="10">
+        <v>102</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1191,14 +1197,17 @@
       </c>
       <c r="CV4" t="n">
         <v>63.0</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1493,14 +1502,17 @@
       </c>
       <c r="CV5" t="n">
         <v>128.0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -1795,14 +1807,17 @@
       </c>
       <c r="CV6" t="n">
         <v>40.0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2097,14 +2112,17 @@
       </c>
       <c r="CV7" t="n">
         <v>29.0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2399,14 +2417,17 @@
       </c>
       <c r="CV8" t="n">
         <v>1889.0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>1901.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -2701,14 +2722,17 @@
       </c>
       <c r="CV9" t="n">
         <v>68.0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3003,14 +3027,17 @@
       </c>
       <c r="CV10" t="n">
         <v>222.0</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>221.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -3305,14 +3332,17 @@
       </c>
       <c r="CV11" t="n">
         <v>98.0</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -3607,14 +3637,17 @@
       </c>
       <c r="CV12" t="n">
         <v>292.0</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>270.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -3909,14 +3942,17 @@
       </c>
       <c r="CV13" t="n">
         <v>116.0</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -4211,14 +4247,17 @@
       </c>
       <c r="CV14" t="n">
         <v>39.0</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -4513,14 +4552,17 @@
       </c>
       <c r="CV15" t="n">
         <v>92.0</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -4815,14 +4857,17 @@
       </c>
       <c r="CV16" t="n">
         <v>73.0</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -5117,14 +5162,17 @@
       </c>
       <c r="CV17" t="n">
         <v>73.0</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -5419,14 +5467,17 @@
       </c>
       <c r="CV18" t="n">
         <v>521.0</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>522.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -5721,14 +5772,17 @@
       </c>
       <c r="CV19" t="n">
         <v>1520.0</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>1432.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -6023,14 +6077,17 @@
       </c>
       <c r="CV20" t="n">
         <v>2785.0</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>2742.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -6325,14 +6382,17 @@
       </c>
       <c r="CV21" t="n">
         <v>413.0</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>396.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -6627,14 +6687,17 @@
       </c>
       <c r="CV22" t="n">
         <v>157.0</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>162.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -6929,14 +6992,17 @@
       </c>
       <c r="CV23" t="n">
         <v>131.0</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>157.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -7231,14 +7297,17 @@
       </c>
       <c r="CV24" t="n">
         <v>338.0</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>426.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -7533,14 +7602,17 @@
       </c>
       <c r="CV25" t="n">
         <v>1571.0</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>1536.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -7835,6 +7907,9 @@
       </c>
       <c r="CV26" t="n">
         <v>10658.0</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>10592.0</v>
       </c>
     </row>
   </sheetData>
@@ -7852,7 +7927,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
@@ -8161,13 +8236,16 @@
       <c r="CV3" t="s" s="10">
         <v>101</v>
       </c>
+      <c r="CW3" t="s" s="10">
+        <v>102</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -8462,14 +8540,17 @@
       </c>
       <c r="CV4" t="n">
         <v>39.0</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -8764,14 +8845,17 @@
       </c>
       <c r="CV5" t="n">
         <v>81.0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -9066,14 +9150,17 @@
       </c>
       <c r="CV6" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -9368,14 +9455,17 @@
       </c>
       <c r="CV7" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -9670,14 +9760,17 @@
       </c>
       <c r="CV8" t="n">
         <v>1302.0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>1308.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -9972,14 +10065,17 @@
       </c>
       <c r="CV9" t="n">
         <v>35.0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -10274,14 +10370,17 @@
       </c>
       <c r="CV10" t="n">
         <v>153.0</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -10576,14 +10675,17 @@
       </c>
       <c r="CV11" t="n">
         <v>73.0</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -10878,14 +10980,17 @@
       </c>
       <c r="CV12" t="n">
         <v>183.0</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>170.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -11180,14 +11285,17 @@
       </c>
       <c r="CV13" t="n">
         <v>77.0</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -11482,14 +11590,17 @@
       </c>
       <c r="CV14" t="n">
         <v>30.0</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -11784,14 +11895,17 @@
       </c>
       <c r="CV15" t="n">
         <v>61.0</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -12086,14 +12200,17 @@
       </c>
       <c r="CV16" t="n">
         <v>47.0</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -12387,15 +12504,18 @@
         <v>59.0</v>
       </c>
       <c r="CV17" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="CW17" t="n">
         <v>59.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -12690,14 +12810,17 @@
       </c>
       <c r="CV18" t="n">
         <v>336.0</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>338.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -12992,14 +13115,17 @@
       </c>
       <c r="CV19" t="n">
         <v>1068.0</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>979.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -13294,14 +13420,17 @@
       </c>
       <c r="CV20" t="n">
         <v>1946.0</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>1795.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -13596,14 +13725,17 @@
       </c>
       <c r="CV21" t="n">
         <v>299.0</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>278.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -13898,14 +14030,17 @@
       </c>
       <c r="CV22" t="n">
         <v>120.0</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -14200,14 +14335,17 @@
       </c>
       <c r="CV23" t="n">
         <v>93.0</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -14502,14 +14640,17 @@
       </c>
       <c r="CV24" t="n">
         <v>213.0</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>274.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -14803,15 +14944,18 @@
         <v>1146.0</v>
       </c>
       <c r="CV25" t="n">
+        <v>1135.0</v>
+      </c>
+      <c r="CW25" t="n">
         <v>1135.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -15106,6 +15250,9 @@
       </c>
       <c r="CV26" t="n">
         <v>7395.0</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>7180.0</v>
       </c>
     </row>
   </sheetData>
@@ -15123,7 +15270,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
@@ -15432,13 +15579,16 @@
       <c r="CV3" t="s" s="10">
         <v>101</v>
       </c>
+      <c r="CW3" t="s" s="10">
+        <v>102</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -15733,14 +15883,17 @@
       </c>
       <c r="CV4" t="n">
         <v>24.0</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -16035,14 +16188,17 @@
       </c>
       <c r="CV5" t="n">
         <v>47.0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -16337,14 +16493,17 @@
       </c>
       <c r="CV6" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -16639,14 +16798,17 @@
       </c>
       <c r="CV7" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -16941,14 +17103,17 @@
       </c>
       <c r="CV8" t="n">
         <v>587.0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>593.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -17243,14 +17408,17 @@
       </c>
       <c r="CV9" t="n">
         <v>33.0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -17545,14 +17713,17 @@
       </c>
       <c r="CV10" t="n">
         <v>69.0</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -17847,14 +18018,17 @@
       </c>
       <c r="CV11" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -18149,14 +18323,17 @@
       </c>
       <c r="CV12" t="n">
         <v>109.0</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -18451,14 +18628,17 @@
       </c>
       <c r="CV13" t="n">
         <v>39.0</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -18752,15 +18932,18 @@
         <v>7.0</v>
       </c>
       <c r="CV14" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CW14" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -19055,14 +19238,17 @@
       </c>
       <c r="CV15" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -19357,14 +19543,17 @@
       </c>
       <c r="CV16" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -19659,14 +19848,17 @@
       </c>
       <c r="CV17" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -19961,14 +20153,17 @@
       </c>
       <c r="CV18" t="n">
         <v>185.0</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>184.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -20263,14 +20458,17 @@
       </c>
       <c r="CV19" t="n">
         <v>452.0</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>453.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -20565,14 +20763,17 @@
       </c>
       <c r="CV20" t="n">
         <v>839.0</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>947.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -20867,14 +21068,17 @@
       </c>
       <c r="CV21" t="n">
         <v>114.0</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -21168,15 +21372,18 @@
         <v>32.0</v>
       </c>
       <c r="CV22" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="CW22" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -21471,14 +21678,17 @@
       </c>
       <c r="CV23" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -21773,14 +21983,17 @@
       </c>
       <c r="CV24" t="n">
         <v>125.0</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -22075,14 +22288,17 @@
       </c>
       <c r="CV25" t="n">
         <v>436.0</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>401.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -22377,6 +22593,9 @@
       </c>
       <c r="CV26" t="n">
         <v>3263.0</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>3412.0</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="152">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/19/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/20/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -325,6 +325,9 @@
     <t>2020-07-19</t>
   </si>
   <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -463,10 +466,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/19/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/20/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/19/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/20/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -896,13 +899,16 @@
       <c r="CW3" t="s" s="10">
         <v>102</v>
       </c>
+      <c r="CX3" t="s" s="10">
+        <v>103</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1200,14 +1206,17 @@
       </c>
       <c r="CW4" t="n">
         <v>62.0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1505,14 +1514,17 @@
       </c>
       <c r="CW5" t="n">
         <v>114.0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -1810,14 +1822,17 @@
       </c>
       <c r="CW6" t="n">
         <v>41.0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2115,14 +2130,17 @@
       </c>
       <c r="CW7" t="n">
         <v>40.0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2420,14 +2438,17 @@
       </c>
       <c r="CW8" t="n">
         <v>1901.0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>1910.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -2725,14 +2746,17 @@
       </c>
       <c r="CW9" t="n">
         <v>75.0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3030,14 +3054,17 @@
       </c>
       <c r="CW10" t="n">
         <v>221.0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>242.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -3335,14 +3362,17 @@
       </c>
       <c r="CW11" t="n">
         <v>97.0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -3640,14 +3670,17 @@
       </c>
       <c r="CW12" t="n">
         <v>270.0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>286.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -3945,14 +3978,17 @@
       </c>
       <c r="CW13" t="n">
         <v>114.0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -4250,14 +4286,17 @@
       </c>
       <c r="CW14" t="n">
         <v>42.0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -4555,14 +4594,17 @@
       </c>
       <c r="CW15" t="n">
         <v>93.0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -4860,14 +4902,17 @@
       </c>
       <c r="CW16" t="n">
         <v>75.0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -5165,14 +5210,17 @@
       </c>
       <c r="CW17" t="n">
         <v>74.0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -5470,14 +5518,17 @@
       </c>
       <c r="CW18" t="n">
         <v>522.0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>542.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -5775,14 +5826,17 @@
       </c>
       <c r="CW19" t="n">
         <v>1432.0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>1473.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -6080,14 +6134,17 @@
       </c>
       <c r="CW20" t="n">
         <v>2742.0</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>2638.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -6385,14 +6442,17 @@
       </c>
       <c r="CW21" t="n">
         <v>396.0</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>381.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -6690,14 +6750,17 @@
       </c>
       <c r="CW22" t="n">
         <v>162.0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>167.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -6995,14 +7058,17 @@
       </c>
       <c r="CW23" t="n">
         <v>157.0</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -7300,14 +7366,17 @@
       </c>
       <c r="CW24" t="n">
         <v>426.0</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>430.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -7605,14 +7674,17 @@
       </c>
       <c r="CW25" t="n">
         <v>1536.0</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>1502.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -7910,6 +7982,9 @@
       </c>
       <c r="CW26" t="n">
         <v>10592.0</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>10569.0</v>
       </c>
     </row>
   </sheetData>
@@ -7927,7 +8002,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
@@ -8239,13 +8314,16 @@
       <c r="CW3" t="s" s="10">
         <v>102</v>
       </c>
+      <c r="CX3" t="s" s="10">
+        <v>103</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -8543,14 +8621,17 @@
       </c>
       <c r="CW4" t="n">
         <v>37.0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -8848,14 +8929,17 @@
       </c>
       <c r="CW5" t="n">
         <v>66.0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -9153,14 +9237,17 @@
       </c>
       <c r="CW6" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -9458,14 +9545,17 @@
       </c>
       <c r="CW7" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -9763,14 +9853,17 @@
       </c>
       <c r="CW8" t="n">
         <v>1308.0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>1345.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -10068,14 +10161,17 @@
       </c>
       <c r="CW9" t="n">
         <v>39.0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -10373,14 +10469,17 @@
       </c>
       <c r="CW10" t="n">
         <v>148.0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>167.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -10678,14 +10777,17 @@
       </c>
       <c r="CW11" t="n">
         <v>67.0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -10983,14 +11085,17 @@
       </c>
       <c r="CW12" t="n">
         <v>170.0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>180.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -11288,14 +11393,17 @@
       </c>
       <c r="CW13" t="n">
         <v>73.0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -11593,14 +11701,17 @@
       </c>
       <c r="CW14" t="n">
         <v>33.0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -11897,15 +12008,18 @@
         <v>61.0</v>
       </c>
       <c r="CW15" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CX15" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -12203,14 +12317,17 @@
       </c>
       <c r="CW16" t="n">
         <v>50.0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -12508,14 +12625,17 @@
       </c>
       <c r="CW17" t="n">
         <v>59.0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -12813,14 +12933,17 @@
       </c>
       <c r="CW18" t="n">
         <v>338.0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>358.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -13118,14 +13241,17 @@
       </c>
       <c r="CW19" t="n">
         <v>979.0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>1016.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -13423,14 +13549,17 @@
       </c>
       <c r="CW20" t="n">
         <v>1795.0</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>1864.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -13728,14 +13857,17 @@
       </c>
       <c r="CW21" t="n">
         <v>278.0</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>267.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -14033,14 +14165,17 @@
       </c>
       <c r="CW22" t="n">
         <v>125.0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>126.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -14338,14 +14473,17 @@
       </c>
       <c r="CW23" t="n">
         <v>96.0</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -14643,14 +14781,17 @@
       </c>
       <c r="CW24" t="n">
         <v>274.0</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>281.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -14948,14 +15089,17 @@
       </c>
       <c r="CW25" t="n">
         <v>1135.0</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>1131.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -15253,6 +15397,9 @@
       </c>
       <c r="CW26" t="n">
         <v>7180.0</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>7372.0</v>
       </c>
     </row>
   </sheetData>
@@ -15270,7 +15417,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -15582,13 +15729,16 @@
       <c r="CW3" t="s" s="10">
         <v>102</v>
       </c>
+      <c r="CX3" t="s" s="10">
+        <v>103</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -15885,15 +16035,18 @@
         <v>24.0</v>
       </c>
       <c r="CW4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CX4" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -16191,14 +16344,17 @@
       </c>
       <c r="CW5" t="n">
         <v>48.0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -16495,15 +16651,18 @@
         <v>12.0</v>
       </c>
       <c r="CW6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CX6" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -16801,14 +16960,17 @@
       </c>
       <c r="CW7" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -17106,14 +17268,17 @@
       </c>
       <c r="CW8" t="n">
         <v>593.0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>565.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -17411,14 +17576,17 @@
       </c>
       <c r="CW9" t="n">
         <v>36.0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -17716,14 +17884,17 @@
       </c>
       <c r="CW10" t="n">
         <v>73.0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -18021,14 +18192,17 @@
       </c>
       <c r="CW11" t="n">
         <v>30.0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -18326,14 +18500,17 @@
       </c>
       <c r="CW12" t="n">
         <v>100.0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -18631,14 +18808,17 @@
       </c>
       <c r="CW13" t="n">
         <v>41.0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -18935,15 +19115,18 @@
         <v>9.0</v>
       </c>
       <c r="CW14" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CX14" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -19241,14 +19424,17 @@
       </c>
       <c r="CW15" t="n">
         <v>39.0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -19546,14 +19732,17 @@
       </c>
       <c r="CW16" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -19851,14 +20040,17 @@
       </c>
       <c r="CW17" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -20155,15 +20347,18 @@
         <v>185.0</v>
       </c>
       <c r="CW18" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="CX18" t="n">
         <v>184.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -20461,14 +20656,17 @@
       </c>
       <c r="CW19" t="n">
         <v>453.0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>457.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -20766,14 +20964,17 @@
       </c>
       <c r="CW20" t="n">
         <v>947.0</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>774.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -21071,14 +21272,17 @@
       </c>
       <c r="CW21" t="n">
         <v>118.0</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -21376,14 +21580,17 @@
       </c>
       <c r="CW22" t="n">
         <v>37.0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -21681,14 +21888,17 @@
       </c>
       <c r="CW23" t="n">
         <v>61.0</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -21986,14 +22196,17 @@
       </c>
       <c r="CW24" t="n">
         <v>152.0</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>149.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -22291,14 +22504,17 @@
       </c>
       <c r="CW25" t="n">
         <v>401.0</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>371.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -22596,6 +22812,9 @@
       </c>
       <c r="CW26" t="n">
         <v>3412.0</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>3197.0</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="153">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/20/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/21/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -328,6 +328,9 @@
     <t>2020-07-20</t>
   </si>
   <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -466,10 +469,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/20/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/21/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/20/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/21/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -902,13 +905,16 @@
       <c r="CX3" t="s" s="10">
         <v>103</v>
       </c>
+      <c r="CY3" t="s" s="10">
+        <v>104</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1209,14 +1215,17 @@
       </c>
       <c r="CX4" t="n">
         <v>63.0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1516,15 +1525,18 @@
         <v>114.0</v>
       </c>
       <c r="CX5" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="CY5" t="n">
         <v>128.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -1825,14 +1837,17 @@
       </c>
       <c r="CX6" t="n">
         <v>40.0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2133,14 +2148,17 @@
       </c>
       <c r="CX7" t="n">
         <v>30.0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2441,14 +2459,17 @@
       </c>
       <c r="CX8" t="n">
         <v>1910.0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>1907.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -2749,14 +2770,17 @@
       </c>
       <c r="CX9" t="n">
         <v>74.0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3057,14 +3081,17 @@
       </c>
       <c r="CX10" t="n">
         <v>242.0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -3365,14 +3392,17 @@
       </c>
       <c r="CX11" t="n">
         <v>100.0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -3673,14 +3703,17 @@
       </c>
       <c r="CX12" t="n">
         <v>286.0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>302.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -3981,14 +4014,17 @@
       </c>
       <c r="CX13" t="n">
         <v>112.0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -4289,14 +4325,17 @@
       </c>
       <c r="CX14" t="n">
         <v>37.0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -4597,14 +4636,17 @@
       </c>
       <c r="CX15" t="n">
         <v>95.0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -4905,14 +4947,17 @@
       </c>
       <c r="CX16" t="n">
         <v>80.0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -5213,14 +5258,17 @@
       </c>
       <c r="CX17" t="n">
         <v>73.0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -5521,14 +5569,17 @@
       </c>
       <c r="CX18" t="n">
         <v>542.0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>577.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -5829,14 +5880,17 @@
       </c>
       <c r="CX19" t="n">
         <v>1473.0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>1475.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -6137,14 +6191,17 @@
       </c>
       <c r="CX20" t="n">
         <v>2638.0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>2803.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -6445,14 +6502,17 @@
       </c>
       <c r="CX21" t="n">
         <v>381.0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>372.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -6752,15 +6812,18 @@
         <v>162.0</v>
       </c>
       <c r="CX22" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="CY22" t="n">
         <v>167.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -7061,14 +7124,17 @@
       </c>
       <c r="CX23" t="n">
         <v>166.0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -7369,14 +7435,17 @@
       </c>
       <c r="CX24" t="n">
         <v>430.0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>414.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -7677,14 +7746,17 @@
       </c>
       <c r="CX25" t="n">
         <v>1502.0</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>1595.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -7985,6 +8057,9 @@
       </c>
       <c r="CX26" t="n">
         <v>10569.0</v>
+      </c>
+      <c r="CY26" t="n">
+        <v>10848.0</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8077,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -8317,13 +8392,16 @@
       <c r="CX3" t="s" s="10">
         <v>103</v>
       </c>
+      <c r="CY3" t="s" s="10">
+        <v>104</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -8624,14 +8702,17 @@
       </c>
       <c r="CX4" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -8932,14 +9013,17 @@
       </c>
       <c r="CX5" t="n">
         <v>78.0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -9240,14 +9324,17 @@
       </c>
       <c r="CX6" t="n">
         <v>30.0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -9548,14 +9635,17 @@
       </c>
       <c r="CX7" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -9856,14 +9946,17 @@
       </c>
       <c r="CX8" t="n">
         <v>1345.0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>1306.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -10164,14 +10257,17 @@
       </c>
       <c r="CX9" t="n">
         <v>35.0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -10472,14 +10568,17 @@
       </c>
       <c r="CX10" t="n">
         <v>167.0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -10780,14 +10879,17 @@
       </c>
       <c r="CX11" t="n">
         <v>71.0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -11088,14 +11190,17 @@
       </c>
       <c r="CX12" t="n">
         <v>180.0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>196.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -11396,14 +11501,17 @@
       </c>
       <c r="CX13" t="n">
         <v>74.0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -11704,14 +11812,17 @@
       </c>
       <c r="CX14" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -12012,14 +12123,17 @@
       </c>
       <c r="CX15" t="n">
         <v>54.0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -12320,14 +12434,17 @@
       </c>
       <c r="CX16" t="n">
         <v>53.0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -12627,15 +12744,18 @@
         <v>59.0</v>
       </c>
       <c r="CX17" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="CY17" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -12936,14 +13056,17 @@
       </c>
       <c r="CX18" t="n">
         <v>358.0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>393.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -13244,14 +13367,17 @@
       </c>
       <c r="CX19" t="n">
         <v>1016.0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>1024.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -13552,14 +13678,17 @@
       </c>
       <c r="CX20" t="n">
         <v>1864.0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>1965.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -13860,14 +13989,17 @@
       </c>
       <c r="CX21" t="n">
         <v>267.0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>258.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -14168,14 +14300,17 @@
       </c>
       <c r="CX22" t="n">
         <v>126.0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>120.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -14476,14 +14611,17 @@
       </c>
       <c r="CX23" t="n">
         <v>103.0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -14784,14 +14922,17 @@
       </c>
       <c r="CX24" t="n">
         <v>281.0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>290.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -15092,14 +15233,17 @@
       </c>
       <c r="CX25" t="n">
         <v>1131.0</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>1213.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -15400,6 +15544,9 @@
       </c>
       <c r="CX26" t="n">
         <v>7372.0</v>
+      </c>
+      <c r="CY26" t="n">
+        <v>7567.0</v>
       </c>
     </row>
   </sheetData>
@@ -15417,7 +15564,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
@@ -15732,13 +15879,16 @@
       <c r="CX3" t="s" s="10">
         <v>103</v>
       </c>
+      <c r="CY3" t="s" s="10">
+        <v>104</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -16039,14 +16189,17 @@
       </c>
       <c r="CX4" t="n">
         <v>25.0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -16347,14 +16500,17 @@
       </c>
       <c r="CX5" t="n">
         <v>50.0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -16654,15 +16810,18 @@
         <v>10.0</v>
       </c>
       <c r="CX6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CY6" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -16963,14 +17122,17 @@
       </c>
       <c r="CX7" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -17271,14 +17433,17 @@
       </c>
       <c r="CX8" t="n">
         <v>565.0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>601.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -17579,14 +17744,17 @@
       </c>
       <c r="CX9" t="n">
         <v>39.0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -17887,14 +18055,17 @@
       </c>
       <c r="CX10" t="n">
         <v>75.0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -18195,14 +18366,17 @@
       </c>
       <c r="CX11" t="n">
         <v>29.0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -18502,15 +18676,18 @@
         <v>100.0</v>
       </c>
       <c r="CX12" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="CY12" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -18810,15 +18987,18 @@
         <v>41.0</v>
       </c>
       <c r="CX13" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CY13" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -19119,14 +19299,17 @@
       </c>
       <c r="CX14" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -19427,14 +19610,17 @@
       </c>
       <c r="CX15" t="n">
         <v>41.0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -19735,14 +19921,17 @@
       </c>
       <c r="CX16" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -20043,14 +20232,17 @@
       </c>
       <c r="CX17" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -20350,15 +20542,18 @@
         <v>184.0</v>
       </c>
       <c r="CX18" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="CY18" t="n">
         <v>184.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -20659,14 +20854,17 @@
       </c>
       <c r="CX19" t="n">
         <v>457.0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>451.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -20967,14 +21165,17 @@
       </c>
       <c r="CX20" t="n">
         <v>774.0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>838.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -21274,15 +21475,18 @@
         <v>118.0</v>
       </c>
       <c r="CX21" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="CY21" t="n">
         <v>114.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -21583,14 +21787,17 @@
       </c>
       <c r="CX22" t="n">
         <v>41.0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -21891,14 +22098,17 @@
       </c>
       <c r="CX23" t="n">
         <v>63.0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -22199,14 +22409,17 @@
       </c>
       <c r="CX24" t="n">
         <v>149.0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -22507,14 +22720,17 @@
       </c>
       <c r="CX25" t="n">
         <v>371.0</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>382.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -22815,6 +23031,9 @@
       </c>
       <c r="CX26" t="n">
         <v>3197.0</v>
+      </c>
+      <c r="CY26" t="n">
+        <v>3281.0</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="154">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/21/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/22/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -331,6 +331,9 @@
     <t>2020-07-21</t>
   </si>
   <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -469,10 +472,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/21/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/22/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/21/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/22/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -908,13 +911,16 @@
       <c r="CY3" t="s" s="10">
         <v>104</v>
       </c>
+      <c r="CZ3" t="s" s="10">
+        <v>105</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1218,14 +1224,17 @@
       </c>
       <c r="CY4" t="n">
         <v>69.0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1529,14 +1538,17 @@
       </c>
       <c r="CY5" t="n">
         <v>128.0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -1840,14 +1852,17 @@
       </c>
       <c r="CY6" t="n">
         <v>41.0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2151,14 +2166,17 @@
       </c>
       <c r="CY7" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2462,14 +2480,17 @@
       </c>
       <c r="CY8" t="n">
         <v>1907.0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>1965.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -2773,14 +2794,17 @@
       </c>
       <c r="CY9" t="n">
         <v>75.0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3084,14 +3108,17 @@
       </c>
       <c r="CY10" t="n">
         <v>245.0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>259.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -3395,14 +3422,17 @@
       </c>
       <c r="CY11" t="n">
         <v>101.0</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -3706,14 +3736,17 @@
       </c>
       <c r="CY12" t="n">
         <v>302.0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>306.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -4017,14 +4050,17 @@
       </c>
       <c r="CY13" t="n">
         <v>110.0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>119.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -4327,15 +4363,18 @@
         <v>37.0</v>
       </c>
       <c r="CY14" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CZ14" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -4639,14 +4678,17 @@
       </c>
       <c r="CY15" t="n">
         <v>87.0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -4950,14 +4992,17 @@
       </c>
       <c r="CY16" t="n">
         <v>76.0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -5261,14 +5306,17 @@
       </c>
       <c r="CY17" t="n">
         <v>66.0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -5572,14 +5620,17 @@
       </c>
       <c r="CY18" t="n">
         <v>577.0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>575.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -5883,14 +5934,17 @@
       </c>
       <c r="CY19" t="n">
         <v>1475.0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>1432.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -6194,14 +6248,17 @@
       </c>
       <c r="CY20" t="n">
         <v>2803.0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>2729.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -6505,14 +6562,17 @@
       </c>
       <c r="CY21" t="n">
         <v>372.0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>417.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -6816,14 +6876,17 @@
       </c>
       <c r="CY22" t="n">
         <v>167.0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -7127,14 +7190,17 @@
       </c>
       <c r="CY23" t="n">
         <v>168.0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -7438,14 +7504,17 @@
       </c>
       <c r="CY24" t="n">
         <v>414.0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>411.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -7749,14 +7818,17 @@
       </c>
       <c r="CY25" t="n">
         <v>1595.0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>1606.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -8060,6 +8132,9 @@
       </c>
       <c r="CY26" t="n">
         <v>10848.0</v>
+      </c>
+      <c r="CZ26" t="n">
+        <v>10893.0</v>
       </c>
     </row>
   </sheetData>
@@ -8077,7 +8152,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
@@ -8395,13 +8470,16 @@
       <c r="CY3" t="s" s="10">
         <v>104</v>
       </c>
+      <c r="CZ3" t="s" s="10">
+        <v>105</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -8705,14 +8783,17 @@
       </c>
       <c r="CY4" t="n">
         <v>43.0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -9016,14 +9097,17 @@
       </c>
       <c r="CY5" t="n">
         <v>80.0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -9327,14 +9411,17 @@
       </c>
       <c r="CY6" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -9637,15 +9724,18 @@
         <v>16.0</v>
       </c>
       <c r="CY7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CZ7" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -9949,14 +10039,17 @@
       </c>
       <c r="CY8" t="n">
         <v>1306.0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>1363.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -10260,14 +10353,17 @@
       </c>
       <c r="CY9" t="n">
         <v>34.0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -10571,14 +10667,17 @@
       </c>
       <c r="CY10" t="n">
         <v>166.0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>179.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -10882,14 +10981,17 @@
       </c>
       <c r="CY11" t="n">
         <v>73.0</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -11193,14 +11295,17 @@
       </c>
       <c r="CY12" t="n">
         <v>196.0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>194.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -11504,14 +11609,17 @@
       </c>
       <c r="CY13" t="n">
         <v>72.0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -11815,14 +11923,17 @@
       </c>
       <c r="CY14" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -12126,14 +12237,17 @@
       </c>
       <c r="CY15" t="n">
         <v>50.0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -12437,14 +12551,17 @@
       </c>
       <c r="CY16" t="n">
         <v>50.0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -12748,14 +12865,17 @@
       </c>
       <c r="CY17" t="n">
         <v>57.0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -13059,14 +13179,17 @@
       </c>
       <c r="CY18" t="n">
         <v>393.0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>396.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -13370,14 +13493,17 @@
       </c>
       <c r="CY19" t="n">
         <v>1024.0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>970.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -13681,14 +13807,17 @@
       </c>
       <c r="CY20" t="n">
         <v>1965.0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>1890.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -13992,14 +14121,17 @@
       </c>
       <c r="CY21" t="n">
         <v>258.0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>299.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -14303,14 +14435,17 @@
       </c>
       <c r="CY22" t="n">
         <v>120.0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -14614,14 +14749,17 @@
       </c>
       <c r="CY23" t="n">
         <v>104.0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -14925,14 +15063,17 @@
       </c>
       <c r="CY24" t="n">
         <v>290.0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>280.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -15236,14 +15377,17 @@
       </c>
       <c r="CY25" t="n">
         <v>1213.0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>1205.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -15547,6 +15691,9 @@
       </c>
       <c r="CY26" t="n">
         <v>7567.0</v>
+      </c>
+      <c r="CZ26" t="n">
+        <v>7564.0</v>
       </c>
     </row>
   </sheetData>
@@ -15564,7 +15711,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">
@@ -15882,13 +16029,16 @@
       <c r="CY3" t="s" s="10">
         <v>104</v>
       </c>
+      <c r="CZ3" t="s" s="10">
+        <v>105</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -16192,14 +16342,17 @@
       </c>
       <c r="CY4" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -16502,15 +16655,18 @@
         <v>50.0</v>
       </c>
       <c r="CY5" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="CZ5" t="n">
         <v>48.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -16814,14 +16970,17 @@
       </c>
       <c r="CY6" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -17125,14 +17284,17 @@
       </c>
       <c r="CY7" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -17436,14 +17598,17 @@
       </c>
       <c r="CY8" t="n">
         <v>601.0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>602.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -17747,14 +17912,17 @@
       </c>
       <c r="CY9" t="n">
         <v>41.0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -18058,14 +18226,17 @@
       </c>
       <c r="CY10" t="n">
         <v>79.0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -18368,15 +18539,18 @@
         <v>29.0</v>
       </c>
       <c r="CY11" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CZ11" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -18680,14 +18854,17 @@
       </c>
       <c r="CY12" t="n">
         <v>106.0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -18991,14 +19168,17 @@
       </c>
       <c r="CY13" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -19302,14 +19482,17 @@
       </c>
       <c r="CY14" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -19612,15 +19795,18 @@
         <v>41.0</v>
       </c>
       <c r="CY15" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="CZ15" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -19923,15 +20109,18 @@
         <v>27.0</v>
       </c>
       <c r="CY16" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CZ16" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -20235,14 +20424,17 @@
       </c>
       <c r="CY17" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -20546,14 +20738,17 @@
       </c>
       <c r="CY18" t="n">
         <v>184.0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>179.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -20857,14 +21052,17 @@
       </c>
       <c r="CY19" t="n">
         <v>451.0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>462.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -21168,14 +21366,17 @@
       </c>
       <c r="CY20" t="n">
         <v>838.0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>839.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -21479,14 +21680,17 @@
       </c>
       <c r="CY21" t="n">
         <v>114.0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -21790,14 +21994,17 @@
       </c>
       <c r="CY22" t="n">
         <v>47.0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -22101,14 +22308,17 @@
       </c>
       <c r="CY23" t="n">
         <v>64.0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -22412,14 +22622,17 @@
       </c>
       <c r="CY24" t="n">
         <v>124.0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -22723,14 +22936,17 @@
       </c>
       <c r="CY25" t="n">
         <v>382.0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>401.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -23034,6 +23250,9 @@
       </c>
       <c r="CY26" t="n">
         <v>3281.0</v>
+      </c>
+      <c r="CZ26" t="n">
+        <v>3329.0</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{50EE9682-0A0E-44D1-B7FE-0356C274142C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A32E62DF-54EC-4B06-A061-72EDC60F0400}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="COVID-19 General Beds" sheetId="2" r:id="rId2"/>
     <sheet name="COVID-19 ICU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="158">
   <si>
     <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/23/20 at 9:30 AM CST</t>
   </si>
@@ -492,7 +492,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>* DSHS is reporting incomplete hospitalization numbers today (7/23) due to a transition in reporting to comply with new federal requirements. For July 23, 84.5 percent of hospitals reported complete data to DSHS, resulting in a partial data set and the appearance of a drop in hospitalizations. DSHS continues to work with Texas hospitals during this transition to ensure all facilities can fully report the data required.</t>
+    <t>2020-07-24</t>
+  </si>
+  <si>
+    <t>* DSHS is reporting incomplete hospitalization numbers on 7/23 and 7/24 due to a transition in reporting to comply with new federal requirements. For July 24, 90 percent of hospitals reported complete data to DSHS, resulting in a partial data set and the appearance of a drop in hospitalizations. DSHS continues to work with Texas hospitals during this transition to ensure all facilities can fully report the data required.</t>
   </si>
 </sst>
 </file>
@@ -512,17 +515,20 @@
       <sz val="14"/>
       <color rgb="FF003087"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF005CB9"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -895,7 +901,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DA28"/>
+  <dimension ref="A1:DB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
@@ -903,20 +909,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:105" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:106" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:105" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="DA2" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="DB2" s="4" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="3" spans="1:105" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1232,8 +1241,11 @@
       <c r="DA3" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="DB3" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -1549,8 +1561,11 @@
       <c r="DA4">
         <v>65</v>
       </c>
+      <c r="DB4">
+        <v>82</v>
+      </c>
     </row>
-    <row r="5" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -1866,8 +1881,11 @@
       <c r="DA5">
         <v>142</v>
       </c>
+      <c r="DB5">
+        <v>203</v>
+      </c>
     </row>
-    <row r="6" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -2183,8 +2201,11 @@
       <c r="DA6">
         <v>52</v>
       </c>
+      <c r="DB6">
+        <v>46</v>
+      </c>
     </row>
-    <row r="7" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2500,8 +2521,11 @@
       <c r="DA7">
         <v>60</v>
       </c>
+      <c r="DB7">
+        <v>63</v>
+      </c>
     </row>
-    <row r="8" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -2817,8 +2841,11 @@
       <c r="DA8">
         <v>1810</v>
       </c>
+      <c r="DB8">
+        <v>1925</v>
+      </c>
     </row>
-    <row r="9" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -3134,8 +3161,11 @@
       <c r="DA9">
         <v>82</v>
       </c>
+      <c r="DB9">
+        <v>122</v>
+      </c>
     </row>
-    <row r="10" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -3451,8 +3481,11 @@
       <c r="DA10">
         <v>271</v>
       </c>
+      <c r="DB10">
+        <v>244</v>
+      </c>
     </row>
-    <row r="11" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -3768,8 +3801,11 @@
       <c r="DA11">
         <v>104</v>
       </c>
+      <c r="DB11">
+        <v>101</v>
+      </c>
     </row>
-    <row r="12" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -4085,8 +4121,11 @@
       <c r="DA12">
         <v>183</v>
       </c>
+      <c r="DB12">
+        <v>317</v>
+      </c>
     </row>
-    <row r="13" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -4402,8 +4441,11 @@
       <c r="DA13">
         <v>47</v>
       </c>
+      <c r="DB13">
+        <v>116</v>
+      </c>
     </row>
-    <row r="14" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -4719,8 +4761,11 @@
       <c r="DA14">
         <v>37</v>
       </c>
+      <c r="DB14">
+        <v>40</v>
+      </c>
     </row>
-    <row r="15" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -5036,8 +5081,11 @@
       <c r="DA15">
         <v>142</v>
       </c>
+      <c r="DB15">
+        <v>83</v>
+      </c>
     </row>
-    <row r="16" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -5353,8 +5401,11 @@
       <c r="DA16">
         <v>79</v>
       </c>
+      <c r="DB16">
+        <v>82</v>
+      </c>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -5670,8 +5721,11 @@
       <c r="DA17">
         <v>64</v>
       </c>
+      <c r="DB17">
+        <v>60</v>
+      </c>
     </row>
-    <row r="18" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -5987,8 +6041,11 @@
       <c r="DA18">
         <v>160</v>
       </c>
+      <c r="DB18">
+        <v>302</v>
+      </c>
     </row>
-    <row r="19" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -6304,8 +6361,11 @@
       <c r="DA19">
         <v>619</v>
       </c>
+      <c r="DB19">
+        <v>908</v>
+      </c>
     </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -6621,8 +6681,11 @@
       <c r="DA20">
         <v>2369</v>
       </c>
+      <c r="DB20">
+        <v>2531</v>
+      </c>
     </row>
-    <row r="21" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -6938,8 +7001,11 @@
       <c r="DA21">
         <v>430</v>
       </c>
+      <c r="DB21">
+        <v>415</v>
+      </c>
     </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -7255,8 +7321,11 @@
       <c r="DA22">
         <v>178</v>
       </c>
+      <c r="DB22">
+        <v>184</v>
+      </c>
     </row>
-    <row r="23" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -7572,8 +7641,11 @@
       <c r="DA23">
         <v>167</v>
       </c>
+      <c r="DB23">
+        <v>180</v>
+      </c>
     </row>
-    <row r="24" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -7889,8 +7961,11 @@
       <c r="DA24">
         <v>528</v>
       </c>
+      <c r="DB24">
+        <v>448</v>
+      </c>
     </row>
-    <row r="25" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -8206,8 +8281,11 @@
       <c r="DA25">
         <v>1269</v>
       </c>
+      <c r="DB25">
+        <v>1584</v>
+      </c>
     </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -8523,10 +8601,13 @@
       <c r="DA26">
         <v>8858</v>
       </c>
+      <c r="DB26">
+        <v>10036</v>
+      </c>
     </row>
-    <row r="28" spans="1:105" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -8536,28 +8617,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DA28"/>
+  <dimension ref="A1:DB28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="DA2" sqref="DA2:DB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:105" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:106" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:105" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="DA2" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="DB2" s="4" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="3" spans="1:105" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8873,8 +8957,11 @@
       <c r="DA3" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="DB3" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -9190,8 +9277,11 @@
       <c r="DA4">
         <v>33</v>
       </c>
+      <c r="DB4">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -9507,8 +9597,11 @@
       <c r="DA5">
         <v>90</v>
       </c>
+      <c r="DB5">
+        <v>95</v>
+      </c>
     </row>
-    <row r="6" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -9824,8 +9917,11 @@
       <c r="DA6">
         <v>28</v>
       </c>
+      <c r="DB6">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -10141,8 +10237,11 @@
       <c r="DA7">
         <v>24</v>
       </c>
+      <c r="DB7">
+        <v>26</v>
+      </c>
     </row>
-    <row r="8" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -10458,8 +10557,11 @@
       <c r="DA8">
         <v>848</v>
       </c>
+      <c r="DB8">
+        <v>1283</v>
+      </c>
     </row>
-    <row r="9" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -10775,8 +10877,11 @@
       <c r="DA9">
         <v>48</v>
       </c>
+      <c r="DB9">
+        <v>59</v>
+      </c>
     </row>
-    <row r="10" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -11092,8 +11197,11 @@
       <c r="DA10">
         <v>196</v>
       </c>
+      <c r="DB10">
+        <v>168</v>
+      </c>
     </row>
-    <row r="11" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -11409,8 +11517,11 @@
       <c r="DA11">
         <v>71</v>
       </c>
+      <c r="DB11">
+        <v>69</v>
+      </c>
     </row>
-    <row r="12" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -11726,8 +11837,11 @@
       <c r="DA12">
         <v>113</v>
       </c>
+      <c r="DB12">
+        <v>212</v>
+      </c>
     </row>
-    <row r="13" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -12043,8 +12157,11 @@
       <c r="DA13">
         <v>33</v>
       </c>
+      <c r="DB13">
+        <v>73</v>
+      </c>
     </row>
-    <row r="14" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -12360,8 +12477,11 @@
       <c r="DA14">
         <v>26</v>
       </c>
+      <c r="DB14">
+        <v>32</v>
+      </c>
     </row>
-    <row r="15" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -12677,8 +12797,11 @@
       <c r="DA15">
         <v>66</v>
       </c>
+      <c r="DB15">
+        <v>58</v>
+      </c>
     </row>
-    <row r="16" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -12994,8 +13117,11 @@
       <c r="DA16">
         <v>51</v>
       </c>
+      <c r="DB16">
+        <v>56</v>
+      </c>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -13311,8 +13437,11 @@
       <c r="DA17">
         <v>50</v>
       </c>
+      <c r="DB17">
+        <v>48</v>
+      </c>
     </row>
-    <row r="18" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -13628,8 +13757,11 @@
       <c r="DA18">
         <v>108</v>
       </c>
+      <c r="DB18">
+        <v>188</v>
+      </c>
     </row>
-    <row r="19" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -13945,8 +14077,11 @@
       <c r="DA19">
         <v>355</v>
       </c>
+      <c r="DB19">
+        <v>581</v>
+      </c>
     </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -14262,8 +14397,11 @@
       <c r="DA20">
         <v>1675</v>
       </c>
+      <c r="DB20">
+        <v>1740</v>
+      </c>
     </row>
-    <row r="21" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -14579,8 +14717,11 @@
       <c r="DA21">
         <v>303</v>
       </c>
+      <c r="DB21">
+        <v>290</v>
+      </c>
     </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -14896,8 +15037,11 @@
       <c r="DA22">
         <v>131</v>
       </c>
+      <c r="DB22">
+        <v>133</v>
+      </c>
     </row>
-    <row r="23" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -15213,8 +15357,11 @@
       <c r="DA23">
         <v>103</v>
       </c>
+      <c r="DB23">
+        <v>116</v>
+      </c>
     </row>
-    <row r="24" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -15530,8 +15677,11 @@
       <c r="DA24">
         <v>372</v>
       </c>
+      <c r="DB24">
+        <v>293</v>
+      </c>
     </row>
-    <row r="25" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -15847,8 +15997,11 @@
       <c r="DA25">
         <v>974</v>
       </c>
+      <c r="DB25">
+        <v>1224</v>
+      </c>
     </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -16164,10 +16317,13 @@
       <c r="DA26">
         <v>5698</v>
       </c>
+      <c r="DB26">
+        <v>6808</v>
+      </c>
     </row>
-    <row r="28" spans="1:105" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -16177,28 +16333,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:DA28"/>
+  <dimension ref="A1:DB28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="DA2" sqref="DA2:DB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:105" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:106" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:105" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="DA2" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="DB2" s="4" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="3" spans="1:105" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -16514,8 +16673,11 @@
       <c r="DA3" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="DB3" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -16831,8 +16993,11 @@
       <c r="DA4">
         <v>32</v>
       </c>
+      <c r="DB4">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -17148,8 +17313,11 @@
       <c r="DA5">
         <v>52</v>
       </c>
+      <c r="DB5">
+        <v>108</v>
+      </c>
     </row>
-    <row r="6" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -17465,8 +17633,11 @@
       <c r="DA6">
         <v>24</v>
       </c>
+      <c r="DB6">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -17782,8 +17953,11 @@
       <c r="DA7">
         <v>36</v>
       </c>
+      <c r="DB7">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -18099,8 +18273,11 @@
       <c r="DA8">
         <v>962</v>
       </c>
+      <c r="DB8">
+        <v>642</v>
+      </c>
     </row>
-    <row r="9" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -18416,8 +18593,11 @@
       <c r="DA9">
         <v>34</v>
       </c>
+      <c r="DB9">
+        <v>63</v>
+      </c>
     </row>
-    <row r="10" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -18733,8 +18913,11 @@
       <c r="DA10">
         <v>75</v>
       </c>
+      <c r="DB10">
+        <v>76</v>
+      </c>
     </row>
-    <row r="11" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -19050,8 +19233,11 @@
       <c r="DA11">
         <v>33</v>
       </c>
+      <c r="DB11">
+        <v>32</v>
+      </c>
     </row>
-    <row r="12" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -19367,8 +19553,11 @@
       <c r="DA12">
         <v>70</v>
       </c>
+      <c r="DB12">
+        <v>105</v>
+      </c>
     </row>
-    <row r="13" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -19684,8 +19873,11 @@
       <c r="DA13">
         <v>14</v>
       </c>
+      <c r="DB13">
+        <v>43</v>
+      </c>
     </row>
-    <row r="14" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -20001,8 +20193,11 @@
       <c r="DA14">
         <v>11</v>
       </c>
+      <c r="DB14">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -20318,8 +20513,11 @@
       <c r="DA15">
         <v>76</v>
       </c>
+      <c r="DB15">
+        <v>25</v>
+      </c>
     </row>
-    <row r="16" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -20635,8 +20833,11 @@
       <c r="DA16">
         <v>28</v>
       </c>
+      <c r="DB16">
+        <v>26</v>
+      </c>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -20952,8 +21153,11 @@
       <c r="DA17">
         <v>14</v>
       </c>
+      <c r="DB17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="18" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -21269,8 +21473,11 @@
       <c r="DA18">
         <v>52</v>
       </c>
+      <c r="DB18">
+        <v>114</v>
+      </c>
     </row>
-    <row r="19" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -21586,8 +21793,11 @@
       <c r="DA19">
         <v>264</v>
       </c>
+      <c r="DB19">
+        <v>327</v>
+      </c>
     </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -21903,8 +22113,11 @@
       <c r="DA20">
         <v>694</v>
       </c>
+      <c r="DB20">
+        <v>791</v>
+      </c>
     </row>
-    <row r="21" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -22220,8 +22433,11 @@
       <c r="DA21">
         <v>127</v>
       </c>
+      <c r="DB21">
+        <v>125</v>
+      </c>
     </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -22537,8 +22753,11 @@
       <c r="DA22">
         <v>47</v>
       </c>
+      <c r="DB22">
+        <v>51</v>
+      </c>
     </row>
-    <row r="23" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -22854,8 +23073,11 @@
       <c r="DA23">
         <v>64</v>
       </c>
+      <c r="DB23">
+        <v>64</v>
+      </c>
     </row>
-    <row r="24" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -23171,8 +23393,11 @@
       <c r="DA24">
         <v>156</v>
       </c>
+      <c r="DB24">
+        <v>155</v>
+      </c>
     </row>
-    <row r="25" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -23488,8 +23713,11 @@
       <c r="DA25">
         <v>295</v>
       </c>
+      <c r="DB25">
+        <v>360</v>
+      </c>
     </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:106" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -23805,10 +24033,13 @@
       <c r="DA26">
         <v>3160</v>
       </c>
+      <c r="DB26">
+        <v>3228</v>
+      </c>
     </row>
-    <row r="28" spans="1:105" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A32E62DF-54EC-4B06-A061-72EDC60F0400}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{58DA0FC7-2D9F-4C89-B274-50A6CCD97CAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="COVID-19 General Beds" sheetId="2" r:id="rId2"/>
     <sheet name="COVID-19 ICU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="160">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/23/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/25/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -345,6 +345,12 @@
     <t>2020-07-23</t>
   </si>
   <si>
+    <t>2020-07-24</t>
+  </si>
+  <si>
+    <t>2020-07-25</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -412,6 +418,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Amarillo</t>
@@ -483,26 +492,23 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/23/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/25/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/23/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/25/20 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>* DSHS is reporting incomplete hospitalization numbers 7/23-7/25 due to a transition in reporting to comply with new federal requirements. For July 25, 89 percent of hospitals reported complete data to DSHS, resulting in a partial data set and the appearance of a drop in hospitalizations. DSHS continues to work with Texas hospitals during this transition to ensure all facilities can fully report the data required.</t>
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>2020-07-24</t>
-  </si>
-  <si>
-    <t>* DSHS is reporting incomplete hospitalization numbers on 7/23 and 7/24 due to a transition in reporting to comply with new federal requirements. For July 24, 90 percent of hospitals reported complete data to DSHS, resulting in a partial data set and the appearance of a drop in hospitalizations. DSHS continues to work with Texas hospitals during this transition to ensure all facilities can fully report the data required.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -515,26 +521,17 @@
       <sz val="14"/>
       <color rgb="FF003087"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF005CB9"/>
       <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -574,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -583,9 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,7 +895,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DB28"/>
+  <dimension ref="A1:DC28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
@@ -909,23 +903,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:106" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:107" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="DA2" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="DB2" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+      <c r="DC2" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1242,15 +1239,18 @@
         <v>106</v>
       </c>
       <c r="DB3" s="3" t="s">
-        <v>156</v>
+        <v>107</v>
+      </c>
+      <c r="DC3" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -1564,13 +1564,16 @@
       <c r="DB4">
         <v>82</v>
       </c>
+      <c r="DC4">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C5">
         <v>34</v>
@@ -1884,13 +1887,16 @@
       <c r="DB5">
         <v>203</v>
       </c>
+      <c r="DC5">
+        <v>190</v>
+      </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2204,13 +2210,16 @@
       <c r="DB6">
         <v>46</v>
       </c>
+      <c r="DC6">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2524,13 +2533,16 @@
       <c r="DB7">
         <v>63</v>
       </c>
+      <c r="DC7">
+        <v>61</v>
+      </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C8">
         <v>369</v>
@@ -2844,13 +2856,16 @@
       <c r="DB8">
         <v>1925</v>
       </c>
+      <c r="DC8">
+        <v>1716</v>
+      </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -3164,13 +3179,16 @@
       <c r="DB9">
         <v>122</v>
       </c>
+      <c r="DC9">
+        <v>132</v>
+      </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C10">
         <v>32</v>
@@ -3484,13 +3502,16 @@
       <c r="DB10">
         <v>244</v>
       </c>
+      <c r="DC10">
+        <v>234</v>
+      </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -3804,13 +3825,16 @@
       <c r="DB11">
         <v>101</v>
       </c>
+      <c r="DC11">
+        <v>108</v>
+      </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -4124,13 +4148,16 @@
       <c r="DB12">
         <v>317</v>
       </c>
+      <c r="DC12">
+        <v>322</v>
+      </c>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -4444,13 +4471,16 @@
       <c r="DB13">
         <v>116</v>
       </c>
+      <c r="DC13">
+        <v>125</v>
+      </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4764,13 +4794,16 @@
       <c r="DB14">
         <v>40</v>
       </c>
+      <c r="DC14">
+        <v>41</v>
+      </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -5084,13 +5117,16 @@
       <c r="DB15">
         <v>83</v>
       </c>
+      <c r="DC15">
+        <v>70</v>
+      </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -5404,13 +5440,16 @@
       <c r="DB16">
         <v>82</v>
       </c>
+      <c r="DC16">
+        <v>78</v>
+      </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C17">
         <v>24</v>
@@ -5724,13 +5763,16 @@
       <c r="DB17">
         <v>60</v>
       </c>
+      <c r="DC17">
+        <v>60</v>
+      </c>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -6044,13 +6086,16 @@
       <c r="DB18">
         <v>302</v>
       </c>
+      <c r="DC18">
+        <v>429</v>
+      </c>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C19">
         <v>57</v>
@@ -6364,13 +6409,16 @@
       <c r="DB19">
         <v>908</v>
       </c>
+      <c r="DC19">
+        <v>934</v>
+      </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C20">
         <v>516</v>
@@ -6684,13 +6732,16 @@
       <c r="DB20">
         <v>2531</v>
       </c>
+      <c r="DC20">
+        <v>2471</v>
+      </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C21">
         <v>76</v>
@@ -7004,13 +7055,16 @@
       <c r="DB21">
         <v>415</v>
       </c>
+      <c r="DC21">
+        <v>418</v>
+      </c>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -7324,13 +7378,16 @@
       <c r="DB22">
         <v>184</v>
       </c>
+      <c r="DC22">
+        <v>179</v>
+      </c>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C23">
         <v>25</v>
@@ -7644,13 +7701,16 @@
       <c r="DB23">
         <v>180</v>
       </c>
+      <c r="DC23">
+        <v>164</v>
+      </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -7964,13 +8024,16 @@
       <c r="DB24">
         <v>448</v>
       </c>
+      <c r="DC24">
+        <v>445</v>
+      </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C25">
         <v>57</v>
@@ -8284,13 +8347,16 @@
       <c r="DB25">
         <v>1584</v>
       </c>
+      <c r="DC25">
+        <v>1531</v>
+      </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C26">
         <v>1338</v>
@@ -8604,10 +8670,24 @@
       <c r="DB26">
         <v>10036</v>
       </c>
+      <c r="DC26">
+        <v>9827</v>
+      </c>
     </row>
-    <row r="28" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>157</v>
+    <row r="27" spans="1:107" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:107" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -8617,31 +8697,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DB28"/>
+  <dimension ref="A1:DC28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="DA2" sqref="DA2:DB2"/>
+      <selection activeCell="DC2" sqref="DA2:DC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:106" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:107" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="DA2" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="DB2" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+      <c r="DC2" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8958,15 +9041,18 @@
         <v>106</v>
       </c>
       <c r="DB3" s="3" t="s">
-        <v>156</v>
+        <v>107</v>
+      </c>
+      <c r="DC3" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C4">
         <v>13</v>
@@ -9280,13 +9366,16 @@
       <c r="DB4">
         <v>40</v>
       </c>
+      <c r="DC4">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -9600,13 +9689,16 @@
       <c r="DB5">
         <v>95</v>
       </c>
+      <c r="DC5">
+        <v>82</v>
+      </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -9920,13 +10012,16 @@
       <c r="DB6">
         <v>24</v>
       </c>
+      <c r="DC6">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -10240,13 +10335,16 @@
       <c r="DB7">
         <v>26</v>
       </c>
+      <c r="DC7">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C8">
         <v>208</v>
@@ -10560,13 +10658,16 @@
       <c r="DB8">
         <v>1283</v>
       </c>
+      <c r="DC8">
+        <v>1167</v>
+      </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -10880,13 +10981,16 @@
       <c r="DB9">
         <v>59</v>
       </c>
+      <c r="DC9">
+        <v>67</v>
+      </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -11200,13 +11304,16 @@
       <c r="DB10">
         <v>168</v>
       </c>
+      <c r="DC10">
+        <v>156</v>
+      </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -11520,13 +11627,16 @@
       <c r="DB11">
         <v>69</v>
       </c>
+      <c r="DC11">
+        <v>74</v>
+      </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -11840,13 +11950,16 @@
       <c r="DB12">
         <v>212</v>
       </c>
+      <c r="DC12">
+        <v>213</v>
+      </c>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -12160,13 +12273,16 @@
       <c r="DB13">
         <v>73</v>
       </c>
+      <c r="DC13">
+        <v>80</v>
+      </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -12480,13 +12596,16 @@
       <c r="DB14">
         <v>32</v>
       </c>
+      <c r="DC14">
+        <v>31</v>
+      </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -12800,13 +12919,16 @@
       <c r="DB15">
         <v>58</v>
       </c>
+      <c r="DC15">
+        <v>47</v>
+      </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -13120,13 +13242,16 @@
       <c r="DB16">
         <v>56</v>
       </c>
+      <c r="DC16">
+        <v>52</v>
+      </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -13440,13 +13565,16 @@
       <c r="DB17">
         <v>48</v>
       </c>
+      <c r="DC17">
+        <v>47</v>
+      </c>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -13760,13 +13888,16 @@
       <c r="DB18">
         <v>188</v>
       </c>
+      <c r="DC18">
+        <v>290</v>
+      </c>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C19">
         <v>35</v>
@@ -14080,13 +14211,16 @@
       <c r="DB19">
         <v>581</v>
       </c>
+      <c r="DC19">
+        <v>594</v>
+      </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C20">
         <v>302</v>
@@ -14400,13 +14534,16 @@
       <c r="DB20">
         <v>1740</v>
       </c>
+      <c r="DC20">
+        <v>1691</v>
+      </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C21">
         <v>46</v>
@@ -14720,13 +14857,16 @@
       <c r="DB21">
         <v>290</v>
       </c>
+      <c r="DC21">
+        <v>292</v>
+      </c>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -15040,13 +15180,16 @@
       <c r="DB22">
         <v>133</v>
       </c>
+      <c r="DC22">
+        <v>126</v>
+      </c>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -15360,13 +15503,16 @@
       <c r="DB23">
         <v>116</v>
       </c>
+      <c r="DC23">
+        <v>105</v>
+      </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -15680,13 +15826,16 @@
       <c r="DB24">
         <v>293</v>
       </c>
+      <c r="DC24">
+        <v>290</v>
+      </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C25">
         <v>39</v>
@@ -16000,13 +16149,16 @@
       <c r="DB25">
         <v>1224</v>
       </c>
+      <c r="DC25">
+        <v>1156</v>
+      </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C26">
         <v>775</v>
@@ -16320,10 +16472,24 @@
       <c r="DB26">
         <v>6808</v>
       </c>
+      <c r="DC26">
+        <v>6647</v>
+      </c>
     </row>
-    <row r="28" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>157</v>
+    <row r="27" spans="1:107" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:107" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -16333,31 +16499,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:DB28"/>
+  <dimension ref="A1:DC28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="DA2" sqref="DA2:DB2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:106" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:107" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="DA2" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="DB2" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+      <c r="DC2" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -16674,15 +16843,18 @@
         <v>106</v>
       </c>
       <c r="DB3" s="3" t="s">
-        <v>156</v>
+        <v>107</v>
+      </c>
+      <c r="DC3" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -16996,13 +17168,16 @@
       <c r="DB4">
         <v>42</v>
       </c>
+      <c r="DC4">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -17316,13 +17491,16 @@
       <c r="DB5">
         <v>108</v>
       </c>
+      <c r="DC5">
+        <v>108</v>
+      </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -17636,13 +17814,16 @@
       <c r="DB6">
         <v>22</v>
       </c>
+      <c r="DC6">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -17956,13 +18137,16 @@
       <c r="DB7">
         <v>37</v>
       </c>
+      <c r="DC7">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C8">
         <v>161</v>
@@ -18276,13 +18460,16 @@
       <c r="DB8">
         <v>642</v>
       </c>
+      <c r="DC8">
+        <v>549</v>
+      </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -18596,13 +18783,16 @@
       <c r="DB9">
         <v>63</v>
       </c>
+      <c r="DC9">
+        <v>65</v>
+      </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -18916,13 +19106,16 @@
       <c r="DB10">
         <v>76</v>
       </c>
+      <c r="DC10">
+        <v>78</v>
+      </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -19236,13 +19429,16 @@
       <c r="DB11">
         <v>32</v>
       </c>
+      <c r="DC11">
+        <v>34</v>
+      </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -19556,13 +19752,16 @@
       <c r="DB12">
         <v>105</v>
       </c>
+      <c r="DC12">
+        <v>109</v>
+      </c>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -19876,13 +20075,16 @@
       <c r="DB13">
         <v>43</v>
       </c>
+      <c r="DC13">
+        <v>45</v>
+      </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -20196,13 +20398,16 @@
       <c r="DB14">
         <v>8</v>
       </c>
+      <c r="DC14">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -20516,13 +20721,16 @@
       <c r="DB15">
         <v>25</v>
       </c>
+      <c r="DC15">
+        <v>23</v>
+      </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -20836,13 +21044,16 @@
       <c r="DB16">
         <v>26</v>
       </c>
+      <c r="DC16">
+        <v>26</v>
+      </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -21156,13 +21367,16 @@
       <c r="DB17">
         <v>12</v>
       </c>
+      <c r="DC17">
+        <v>13</v>
+      </c>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -21476,13 +21690,16 @@
       <c r="DB18">
         <v>114</v>
       </c>
+      <c r="DC18">
+        <v>139</v>
+      </c>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C19">
         <v>22</v>
@@ -21796,13 +22013,16 @@
       <c r="DB19">
         <v>327</v>
       </c>
+      <c r="DC19">
+        <v>340</v>
+      </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C20">
         <v>214</v>
@@ -22116,13 +22336,16 @@
       <c r="DB20">
         <v>791</v>
       </c>
+      <c r="DC20">
+        <v>780</v>
+      </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C21">
         <v>30</v>
@@ -22436,13 +22659,16 @@
       <c r="DB21">
         <v>125</v>
       </c>
+      <c r="DC21">
+        <v>126</v>
+      </c>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -22756,13 +22982,16 @@
       <c r="DB22">
         <v>51</v>
       </c>
+      <c r="DC22">
+        <v>53</v>
+      </c>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -23076,13 +23305,16 @@
       <c r="DB23">
         <v>64</v>
       </c>
+      <c r="DC23">
+        <v>59</v>
+      </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -23396,13 +23628,16 @@
       <c r="DB24">
         <v>155</v>
       </c>
+      <c r="DC24">
+        <v>155</v>
+      </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -23716,13 +23951,16 @@
       <c r="DB25">
         <v>360</v>
       </c>
+      <c r="DC25">
+        <v>375</v>
+      </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C26">
         <v>563</v>
@@ -24036,10 +24274,24 @@
       <c r="DB26">
         <v>3228</v>
       </c>
+      <c r="DC26">
+        <v>3180</v>
+      </c>
     </row>
-    <row r="28" spans="1:106" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>157</v>
+    <row r="27" spans="1:107" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:107" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{58DA0FC7-2D9F-4C89-B274-50A6CCD97CAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3DB2AA4-DD02-4DE7-8720-7C036333E807}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,15 +17,12 @@
     <sheet name="COVID-19 General Beds" sheetId="2" r:id="rId2"/>
     <sheet name="COVID-19 ICU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="160">
-  <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/25/20 at 9:30 AM CST</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="161">
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
   </si>
@@ -492,23 +489,29 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/25/20 at 9:30 AM CST</t>
+    <t>*</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/25/20 at 9:30 AM CST</t>
+    <t>* DSHS is reporting incomplete hospitalization numbers 7/23-7/26 due to a transition in reporting to comply with new federal requirements. For July 26, 85 percent of hospitals reported complete data to DSHS, resulting in a partial data set and the appearance of a drop in hospitalizations. DSHS continues to work with Texas hospitals during this transition to ensure all facilities can fully report the data required.</t>
   </si>
   <si>
-    <t>* DSHS is reporting incomplete hospitalization numbers 7/23-7/25 due to a transition in reporting to comply with new federal requirements. For July 25, 89 percent of hospitals reported complete data to DSHS, resulting in a partial data set and the appearance of a drop in hospitalizations. DSHS continues to work with Texas hospitals during this transition to ensure all facilities can fully report the data required.</t>
+    <t>2020-07-26</t>
   </si>
   <si>
-    <t>*</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/26/20 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/265/20 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/26/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -532,6 +535,13 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -568,10 +578,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -581,9 +592,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -895,362 +910,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DC28"/>
+  <dimension ref="A1:DD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:107" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:108" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:108" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA2" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="DB2" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="DC2" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="DD2" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:108" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AX3" s="3" t="s">
+      <c r="AY3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="BA3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BB3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BC3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BD3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BE3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BF3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BG3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BG3" s="3" t="s">
+      <c r="BH3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BH3" s="3" t="s">
+      <c r="BI3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BI3" s="3" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BJ3" s="3" t="s">
+      <c r="BK3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BK3" s="3" t="s">
+      <c r="BL3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BL3" s="3" t="s">
+      <c r="BM3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BM3" s="3" t="s">
+      <c r="BN3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BN3" s="3" t="s">
+      <c r="BO3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BO3" s="3" t="s">
+      <c r="BP3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BP3" s="3" t="s">
+      <c r="BQ3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BQ3" s="3" t="s">
+      <c r="BR3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="BS3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BS3" s="3" t="s">
+      <c r="BT3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BT3" s="3" t="s">
+      <c r="BU3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BU3" s="3" t="s">
+      <c r="BV3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BV3" s="3" t="s">
+      <c r="BW3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BW3" s="3" t="s">
+      <c r="BX3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="BY3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BY3" s="3" t="s">
+      <c r="BZ3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="BZ3" s="3" t="s">
+      <c r="CA3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="CA3" s="3" t="s">
+      <c r="CB3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CB3" s="3" t="s">
+      <c r="CC3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CC3" s="3" t="s">
+      <c r="CD3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CE3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="CE3" s="3" t="s">
+      <c r="CF3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="CF3" s="3" t="s">
+      <c r="CG3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CG3" s="3" t="s">
+      <c r="CH3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="CH3" s="3" t="s">
+      <c r="CI3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="CI3" s="3" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="CJ3" s="3" t="s">
+      <c r="CK3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="CK3" s="3" t="s">
+      <c r="CL3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="CL3" s="3" t="s">
+      <c r="CM3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="CM3" s="3" t="s">
+      <c r="CN3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CN3" s="3" t="s">
+      <c r="CO3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="CO3" s="3" t="s">
+      <c r="CP3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="CP3" s="3" t="s">
+      <c r="CQ3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="CQ3" s="3" t="s">
+      <c r="CR3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CR3" s="3" t="s">
+      <c r="CS3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="CS3" s="3" t="s">
+      <c r="CT3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="CT3" s="3" t="s">
+      <c r="CU3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="CU3" s="3" t="s">
+      <c r="CV3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="CV3" s="3" t="s">
+      <c r="CW3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CW3" s="3" t="s">
+      <c r="CX3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="CX3" s="3" t="s">
+      <c r="CY3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="CY3" s="3" t="s">
+      <c r="CZ3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="CZ3" s="3" t="s">
+      <c r="DA3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="DA3" s="3" t="s">
+      <c r="DB3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="DB3" s="3" t="s">
+      <c r="DC3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="DC3" s="3" t="s">
+      <c r="DD3" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:108" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>109</v>
-      </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -1567,13 +1588,16 @@
       <c r="DC4">
         <v>75</v>
       </c>
+      <c r="DD4" s="7">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>34</v>
@@ -1890,13 +1914,16 @@
       <c r="DC5">
         <v>190</v>
       </c>
+      <c r="DD5" s="7">
+        <v>198</v>
+      </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2213,13 +2240,16 @@
       <c r="DC6">
         <v>44</v>
       </c>
+      <c r="DD6" s="7">
+        <v>51</v>
+      </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2536,13 +2566,16 @@
       <c r="DC7">
         <v>61</v>
       </c>
+      <c r="DD7" s="7">
+        <v>57</v>
+      </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8">
         <v>369</v>
@@ -2859,13 +2892,16 @@
       <c r="DC8">
         <v>1716</v>
       </c>
+      <c r="DD8" s="7">
+        <v>1701</v>
+      </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -3182,13 +3218,16 @@
       <c r="DC9">
         <v>132</v>
       </c>
+      <c r="DD9" s="7">
+        <v>191</v>
+      </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10">
         <v>32</v>
@@ -3505,13 +3544,16 @@
       <c r="DC10">
         <v>234</v>
       </c>
+      <c r="DD10" s="7">
+        <v>247</v>
+      </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -3828,13 +3870,16 @@
       <c r="DC11">
         <v>108</v>
       </c>
+      <c r="DD11" s="7">
+        <v>67</v>
+      </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -4151,13 +4196,16 @@
       <c r="DC12">
         <v>322</v>
       </c>
+      <c r="DD12" s="7">
+        <v>195</v>
+      </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -4474,13 +4522,16 @@
       <c r="DC13">
         <v>125</v>
       </c>
+      <c r="DD13" s="7">
+        <v>123</v>
+      </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4797,13 +4848,16 @@
       <c r="DC14">
         <v>41</v>
       </c>
+      <c r="DD14" s="7">
+        <v>48</v>
+      </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -5120,13 +5174,16 @@
       <c r="DC15">
         <v>70</v>
       </c>
+      <c r="DD15" s="7">
+        <v>68</v>
+      </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -5443,13 +5500,16 @@
       <c r="DC16">
         <v>78</v>
       </c>
+      <c r="DD16" s="7">
+        <v>78</v>
+      </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17">
         <v>24</v>
@@ -5766,13 +5826,16 @@
       <c r="DC17">
         <v>60</v>
       </c>
+      <c r="DD17" s="7">
+        <v>67</v>
+      </c>
     </row>
-    <row r="18" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -6089,13 +6152,16 @@
       <c r="DC18">
         <v>429</v>
       </c>
+      <c r="DD18" s="7">
+        <v>515</v>
+      </c>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19">
         <v>57</v>
@@ -6412,13 +6478,16 @@
       <c r="DC19">
         <v>934</v>
       </c>
+      <c r="DD19" s="7">
+        <v>1066</v>
+      </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20">
         <v>516</v>
@@ -6735,13 +6804,16 @@
       <c r="DC20">
         <v>2471</v>
       </c>
+      <c r="DD20" s="7">
+        <v>2855</v>
+      </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21">
         <v>76</v>
@@ -7058,13 +7130,16 @@
       <c r="DC21">
         <v>418</v>
       </c>
+      <c r="DD21" s="7">
+        <v>407</v>
+      </c>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -7381,13 +7456,16 @@
       <c r="DC22">
         <v>179</v>
       </c>
+      <c r="DD22" s="7">
+        <v>174</v>
+      </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23">
         <v>25</v>
@@ -7704,13 +7782,16 @@
       <c r="DC23">
         <v>164</v>
       </c>
+      <c r="DD23" s="7">
+        <v>224</v>
+      </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -8027,13 +8108,16 @@
       <c r="DC24">
         <v>445</v>
       </c>
+      <c r="DD24" s="7">
+        <v>437</v>
+      </c>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25">
         <v>57</v>
@@ -8350,13 +8434,16 @@
       <c r="DC25">
         <v>1531</v>
       </c>
+      <c r="DD25" s="7">
+        <v>1262</v>
+      </c>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26">
         <v>1338</v>
@@ -8673,21 +8760,24 @@
       <c r="DC26">
         <v>9827</v>
       </c>
+      <c r="DD26" s="5">
+        <v>10075</v>
+      </c>
     </row>
-    <row r="27" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -8697,362 +8787,368 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DC28"/>
+  <dimension ref="A1:DD28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="DC2" sqref="DA2:DC2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:107" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:108" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:108" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA2" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="DB2" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="DC2" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="DD2" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:108" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AX3" s="3" t="s">
+      <c r="AY3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="BA3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BB3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BC3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BD3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BE3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BF3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BG3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BG3" s="3" t="s">
+      <c r="BH3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BH3" s="3" t="s">
+      <c r="BI3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BI3" s="3" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BJ3" s="3" t="s">
+      <c r="BK3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BK3" s="3" t="s">
+      <c r="BL3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BL3" s="3" t="s">
+      <c r="BM3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BM3" s="3" t="s">
+      <c r="BN3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BN3" s="3" t="s">
+      <c r="BO3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BO3" s="3" t="s">
+      <c r="BP3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BP3" s="3" t="s">
+      <c r="BQ3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BQ3" s="3" t="s">
+      <c r="BR3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="BS3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BS3" s="3" t="s">
+      <c r="BT3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BT3" s="3" t="s">
+      <c r="BU3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BU3" s="3" t="s">
+      <c r="BV3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BV3" s="3" t="s">
+      <c r="BW3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BW3" s="3" t="s">
+      <c r="BX3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="BY3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BY3" s="3" t="s">
+      <c r="BZ3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="BZ3" s="3" t="s">
+      <c r="CA3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="CA3" s="3" t="s">
+      <c r="CB3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CB3" s="3" t="s">
+      <c r="CC3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CC3" s="3" t="s">
+      <c r="CD3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CE3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="CE3" s="3" t="s">
+      <c r="CF3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="CF3" s="3" t="s">
+      <c r="CG3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CG3" s="3" t="s">
+      <c r="CH3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="CH3" s="3" t="s">
+      <c r="CI3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="CI3" s="3" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="CJ3" s="3" t="s">
+      <c r="CK3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="CK3" s="3" t="s">
+      <c r="CL3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="CL3" s="3" t="s">
+      <c r="CM3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="CM3" s="3" t="s">
+      <c r="CN3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CN3" s="3" t="s">
+      <c r="CO3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="CO3" s="3" t="s">
+      <c r="CP3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="CP3" s="3" t="s">
+      <c r="CQ3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="CQ3" s="3" t="s">
+      <c r="CR3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CR3" s="3" t="s">
+      <c r="CS3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="CS3" s="3" t="s">
+      <c r="CT3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="CT3" s="3" t="s">
+      <c r="CU3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="CU3" s="3" t="s">
+      <c r="CV3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="CV3" s="3" t="s">
+      <c r="CW3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CW3" s="3" t="s">
+      <c r="CX3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="CX3" s="3" t="s">
+      <c r="CY3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="CY3" s="3" t="s">
+      <c r="CZ3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="CZ3" s="3" t="s">
+      <c r="DA3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="DA3" s="3" t="s">
+      <c r="DB3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="DB3" s="3" t="s">
+      <c r="DC3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="DC3" s="3" t="s">
+      <c r="DD3" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:108" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>109</v>
-      </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4">
         <v>13</v>
@@ -9369,13 +9465,16 @@
       <c r="DC4">
         <v>35</v>
       </c>
+      <c r="DD4" s="6">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -9692,13 +9791,16 @@
       <c r="DC5">
         <v>82</v>
       </c>
+      <c r="DD5" s="6">
+        <v>85</v>
+      </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -10015,13 +10117,16 @@
       <c r="DC6">
         <v>23</v>
       </c>
+      <c r="DD6" s="6">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -10338,13 +10443,16 @@
       <c r="DC7">
         <v>29</v>
       </c>
+      <c r="DD7" s="6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8">
         <v>208</v>
@@ -10661,13 +10769,16 @@
       <c r="DC8">
         <v>1167</v>
       </c>
+      <c r="DD8" s="6">
+        <v>1191</v>
+      </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -10984,13 +11095,16 @@
       <c r="DC9">
         <v>67</v>
       </c>
+      <c r="DD9" s="6">
+        <v>113</v>
+      </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -11307,13 +11421,16 @@
       <c r="DC10">
         <v>156</v>
       </c>
+      <c r="DD10" s="6">
+        <v>166</v>
+      </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -11630,13 +11747,16 @@
       <c r="DC11">
         <v>74</v>
       </c>
+      <c r="DD11" s="6">
+        <v>47</v>
+      </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -11953,13 +12073,16 @@
       <c r="DC12">
         <v>213</v>
       </c>
+      <c r="DD12" s="6">
+        <v>133</v>
+      </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -12276,13 +12399,16 @@
       <c r="DC13">
         <v>80</v>
       </c>
+      <c r="DD13" s="6">
+        <v>82</v>
+      </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -12599,13 +12725,16 @@
       <c r="DC14">
         <v>31</v>
       </c>
+      <c r="DD14" s="6">
+        <v>38</v>
+      </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -12922,13 +13051,16 @@
       <c r="DC15">
         <v>47</v>
       </c>
+      <c r="DD15" s="6">
+        <v>46</v>
+      </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -13245,13 +13377,16 @@
       <c r="DC16">
         <v>52</v>
       </c>
+      <c r="DD16" s="6">
+        <v>51</v>
+      </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -13568,13 +13703,16 @@
       <c r="DC17">
         <v>47</v>
       </c>
+      <c r="DD17" s="6">
+        <v>53</v>
+      </c>
     </row>
-    <row r="18" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -13891,13 +14029,16 @@
       <c r="DC18">
         <v>290</v>
       </c>
+      <c r="DD18" s="6">
+        <v>284</v>
+      </c>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19">
         <v>35</v>
@@ -14214,13 +14355,16 @@
       <c r="DC19">
         <v>594</v>
       </c>
+      <c r="DD19" s="6">
+        <v>651</v>
+      </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20">
         <v>302</v>
@@ -14537,13 +14681,16 @@
       <c r="DC20">
         <v>1691</v>
       </c>
+      <c r="DD20" s="6">
+        <v>2103</v>
+      </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21">
         <v>46</v>
@@ -14860,13 +15007,16 @@
       <c r="DC21">
         <v>292</v>
       </c>
+      <c r="DD21" s="6">
+        <v>279</v>
+      </c>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -15183,13 +15333,16 @@
       <c r="DC22">
         <v>126</v>
       </c>
+      <c r="DD22" s="6">
+        <v>125</v>
+      </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -15506,13 +15659,16 @@
       <c r="DC23">
         <v>105</v>
       </c>
+      <c r="DD23" s="6">
+        <v>123</v>
+      </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -15829,13 +15985,16 @@
       <c r="DC24">
         <v>290</v>
       </c>
+      <c r="DD24" s="6">
+        <v>282</v>
+      </c>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25">
         <v>39</v>
@@ -16152,13 +16311,16 @@
       <c r="DC25">
         <v>1156</v>
       </c>
+      <c r="DD25" s="6">
+        <v>916</v>
+      </c>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26">
         <v>775</v>
@@ -16475,21 +16637,24 @@
       <c r="DC26">
         <v>6647</v>
       </c>
+      <c r="DD26" s="5">
+        <v>6849</v>
+      </c>
     </row>
-    <row r="27" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -16499,362 +16664,366 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:DC28"/>
+  <dimension ref="A1:DD28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:107" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:108" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:108" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DA2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="DB2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="DC2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD2" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:108" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="CB3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="CK3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="CM3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="CN3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CO3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="CP3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="CQ3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="CR3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CT3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="CU3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="CV3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="CW3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CX3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="CY3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CZ3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="DB3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="DC3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="DD3" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="DA2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="DB2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="DC2" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:107" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BO3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="BP3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BQ3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="BS3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BT3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BU3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BV3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BW3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="BX3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BY3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="CA3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="CB3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="CC3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="CD3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="CE3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="CF3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="CH3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="CI3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CJ3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="CK3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="CL3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="CM3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="CN3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="CO3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="CP3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="CQ3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="CR3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="CS3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="CT3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="CU3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="CV3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="CW3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="CX3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="CY3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="CZ3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="DA3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="DB3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="DC3" s="3" t="s">
+    <row r="4" spans="1:108" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>109</v>
-      </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -17171,13 +17340,16 @@
       <c r="DC4">
         <v>40</v>
       </c>
+      <c r="DD4">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -17494,13 +17666,16 @@
       <c r="DC5">
         <v>108</v>
       </c>
+      <c r="DD5">
+        <v>113</v>
+      </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -17817,13 +17992,16 @@
       <c r="DC6">
         <v>21</v>
       </c>
+      <c r="DD6">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -18140,13 +18318,16 @@
       <c r="DC7">
         <v>32</v>
       </c>
+      <c r="DD7">
+        <v>28</v>
+      </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8">
         <v>161</v>
@@ -18463,13 +18644,16 @@
       <c r="DC8">
         <v>549</v>
       </c>
+      <c r="DD8">
+        <v>510</v>
+      </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -18786,13 +18970,16 @@
       <c r="DC9">
         <v>65</v>
       </c>
+      <c r="DD9">
+        <v>78</v>
+      </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -19109,13 +19296,16 @@
       <c r="DC10">
         <v>78</v>
       </c>
+      <c r="DD10">
+        <v>81</v>
+      </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -19432,13 +19622,16 @@
       <c r="DC11">
         <v>34</v>
       </c>
+      <c r="DD11">
+        <v>20</v>
+      </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -19755,13 +19948,16 @@
       <c r="DC12">
         <v>109</v>
       </c>
+      <c r="DD12">
+        <v>62</v>
+      </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -20078,13 +20274,16 @@
       <c r="DC13">
         <v>45</v>
       </c>
+      <c r="DD13">
+        <v>41</v>
+      </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -20401,13 +20600,16 @@
       <c r="DC14">
         <v>10</v>
       </c>
+      <c r="DD14">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -20724,13 +20926,16 @@
       <c r="DC15">
         <v>23</v>
       </c>
+      <c r="DD15">
+        <v>22</v>
+      </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -21047,13 +21252,16 @@
       <c r="DC16">
         <v>26</v>
       </c>
+      <c r="DD16">
+        <v>27</v>
+      </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -21370,13 +21578,16 @@
       <c r="DC17">
         <v>13</v>
       </c>
+      <c r="DD17">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -21693,13 +21904,16 @@
       <c r="DC18">
         <v>139</v>
       </c>
+      <c r="DD18">
+        <v>231</v>
+      </c>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19">
         <v>22</v>
@@ -22016,13 +22230,16 @@
       <c r="DC19">
         <v>340</v>
       </c>
+      <c r="DD19">
+        <v>398</v>
+      </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20">
         <v>214</v>
@@ -22339,13 +22556,16 @@
       <c r="DC20">
         <v>780</v>
       </c>
+      <c r="DD20">
+        <v>752</v>
+      </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21">
         <v>30</v>
@@ -22662,13 +22882,16 @@
       <c r="DC21">
         <v>126</v>
       </c>
+      <c r="DD21">
+        <v>128</v>
+      </c>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -22985,13 +23208,16 @@
       <c r="DC22">
         <v>53</v>
       </c>
+      <c r="DD22">
+        <v>49</v>
+      </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -23308,13 +23534,16 @@
       <c r="DC23">
         <v>59</v>
       </c>
+      <c r="DD23">
+        <v>101</v>
+      </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -23631,13 +23860,16 @@
       <c r="DC24">
         <v>155</v>
       </c>
+      <c r="DD24">
+        <v>155</v>
+      </c>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -23954,13 +24186,16 @@
       <c r="DC25">
         <v>375</v>
       </c>
+      <c r="DD25">
+        <v>346</v>
+      </c>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26">
         <v>563</v>
@@ -24277,21 +24512,24 @@
       <c r="DC26">
         <v>3180</v>
       </c>
+      <c r="DD26">
+        <v>3209</v>
+      </c>
     </row>
-    <row r="27" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:107" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:108" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3DB2AA4-DD02-4DE7-8720-7C036333E807}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{52BE76FB-FA7F-42CA-809F-50FA76D504F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="162">
+  <si>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/27/20 at 9:30 AM CST</t>
+  </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
   </si>
@@ -348,6 +351,12 @@
     <t>2020-07-25</t>
   </si>
   <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -489,29 +498,23 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>*</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/27/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>* DSHS is reporting incomplete hospitalization numbers 7/23-7/26 due to a transition in reporting to comply with new federal requirements. For July 26, 85 percent of hospitals reported complete data to DSHS, resulting in a partial data set and the appearance of a drop in hospitalizations. DSHS continues to work with Texas hospitals during this transition to ensure all facilities can fully report the data required.</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/27/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>2020-07-26</t>
+    <t>* DSHS is reporting incomplete hospitalization numbers 7/23-7/27 due to a transition in reporting to comply with new federal requirements. For July 27, 82 percent of hospitals reported complete data to DSHS, resulting in a partial data set and the appearance of a drop in hospitalizations. DSHS continues to work with Texas hospitals during this transition to ensure all facilities can fully report the data required.</t>
   </si>
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/26/20 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/265/20 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/26/20 at 9:30 AM CST</t>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -535,13 +538,6 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -578,11 +574,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -592,13 +587,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -910,368 +901,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DD28"/>
+  <dimension ref="A1:DE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:108" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:109" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:108" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:109" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA2" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="DB2" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="DC2" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="DD2" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+      <c r="DE2" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:108" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:109" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AT3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BG3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BJ3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BK3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BN3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BP3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BQ3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BR3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BS3" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BT3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BU3" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BV3" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BW3" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BX3" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BY3" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BZ3" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CA3" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CB3" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CC3" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CD3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CE3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CF3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CG3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CH3" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CI3" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CJ3" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CK3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CL3" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CN3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CO3" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CR3" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CS3" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CT3" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CU3" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CV3" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CW3" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="CX3" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="CY3" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="CZ3" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="DA3" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DB3" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DC3" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="DD3" s="3" t="s">
-        <v>157</v>
+        <v>109</v>
+      </c>
+      <c r="DE3" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -1588,16 +1583,19 @@
       <c r="DC4">
         <v>75</v>
       </c>
-      <c r="DD4" s="7">
+      <c r="DD4">
         <v>44</v>
       </c>
+      <c r="DE4">
+        <v>77</v>
+      </c>
     </row>
-    <row r="5" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>34</v>
@@ -1914,16 +1912,19 @@
       <c r="DC5">
         <v>190</v>
       </c>
-      <c r="DD5" s="7">
+      <c r="DD5">
         <v>198</v>
       </c>
+      <c r="DE5">
+        <v>185</v>
+      </c>
     </row>
-    <row r="6" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2240,16 +2241,19 @@
       <c r="DC6">
         <v>44</v>
       </c>
-      <c r="DD6" s="7">
+      <c r="DD6">
         <v>51</v>
       </c>
+      <c r="DE6">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2566,16 +2570,19 @@
       <c r="DC7">
         <v>61</v>
       </c>
-      <c r="DD7" s="7">
+      <c r="DD7">
         <v>57</v>
       </c>
+      <c r="DE7">
+        <v>58</v>
+      </c>
     </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C8">
         <v>369</v>
@@ -2892,16 +2899,19 @@
       <c r="DC8">
         <v>1716</v>
       </c>
-      <c r="DD8" s="7">
+      <c r="DD8">
         <v>1701</v>
       </c>
+      <c r="DE8">
+        <v>1634</v>
+      </c>
     </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -3218,16 +3228,19 @@
       <c r="DC9">
         <v>132</v>
       </c>
-      <c r="DD9" s="7">
+      <c r="DD9">
         <v>191</v>
       </c>
+      <c r="DE9">
+        <v>125</v>
+      </c>
     </row>
-    <row r="10" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C10">
         <v>32</v>
@@ -3544,16 +3557,19 @@
       <c r="DC10">
         <v>234</v>
       </c>
-      <c r="DD10" s="7">
+      <c r="DD10">
         <v>247</v>
       </c>
+      <c r="DE10">
+        <v>255</v>
+      </c>
     </row>
-    <row r="11" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -3870,16 +3886,19 @@
       <c r="DC11">
         <v>108</v>
       </c>
-      <c r="DD11" s="7">
+      <c r="DD11">
         <v>67</v>
       </c>
+      <c r="DE11">
+        <v>224</v>
+      </c>
     </row>
-    <row r="12" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -4196,16 +4215,19 @@
       <c r="DC12">
         <v>322</v>
       </c>
-      <c r="DD12" s="7">
+      <c r="DD12">
         <v>195</v>
       </c>
+      <c r="DE12">
+        <v>288</v>
+      </c>
     </row>
-    <row r="13" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -4522,16 +4544,19 @@
       <c r="DC13">
         <v>125</v>
       </c>
-      <c r="DD13" s="7">
+      <c r="DD13">
         <v>123</v>
       </c>
+      <c r="DE13">
+        <v>117</v>
+      </c>
     </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4848,16 +4873,19 @@
       <c r="DC14">
         <v>41</v>
       </c>
-      <c r="DD14" s="7">
+      <c r="DD14">
         <v>48</v>
       </c>
+      <c r="DE14">
+        <v>81</v>
+      </c>
     </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -5174,16 +5202,19 @@
       <c r="DC15">
         <v>70</v>
       </c>
-      <c r="DD15" s="7">
+      <c r="DD15">
         <v>68</v>
       </c>
+      <c r="DE15">
+        <v>66</v>
+      </c>
     </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -5500,16 +5531,19 @@
       <c r="DC16">
         <v>78</v>
       </c>
-      <c r="DD16" s="7">
+      <c r="DD16">
         <v>78</v>
       </c>
+      <c r="DE16">
+        <v>83</v>
+      </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C17">
         <v>24</v>
@@ -5826,16 +5860,19 @@
       <c r="DC17">
         <v>60</v>
       </c>
-      <c r="DD17" s="7">
+      <c r="DD17">
         <v>67</v>
       </c>
+      <c r="DE17">
+        <v>59</v>
+      </c>
     </row>
-    <row r="18" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -6152,16 +6189,19 @@
       <c r="DC18">
         <v>429</v>
       </c>
-      <c r="DD18" s="7">
+      <c r="DD18">
         <v>515</v>
       </c>
+      <c r="DE18">
+        <v>536</v>
+      </c>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C19">
         <v>57</v>
@@ -6478,16 +6518,19 @@
       <c r="DC19">
         <v>934</v>
       </c>
-      <c r="DD19" s="7">
+      <c r="DD19">
         <v>1066</v>
       </c>
+      <c r="DE19">
+        <v>1041</v>
+      </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C20">
         <v>516</v>
@@ -6804,16 +6847,19 @@
       <c r="DC20">
         <v>2471</v>
       </c>
-      <c r="DD20" s="7">
+      <c r="DD20">
         <v>2855</v>
       </c>
+      <c r="DE20">
+        <v>1986</v>
+      </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C21">
         <v>76</v>
@@ -7130,16 +7176,19 @@
       <c r="DC21">
         <v>418</v>
       </c>
-      <c r="DD21" s="7">
+      <c r="DD21">
         <v>407</v>
       </c>
+      <c r="DE21">
+        <v>583</v>
+      </c>
     </row>
-    <row r="22" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -7456,16 +7505,19 @@
       <c r="DC22">
         <v>179</v>
       </c>
-      <c r="DD22" s="7">
+      <c r="DD22">
         <v>174</v>
       </c>
+      <c r="DE22">
+        <v>179</v>
+      </c>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C23">
         <v>25</v>
@@ -7782,16 +7834,19 @@
       <c r="DC23">
         <v>164</v>
       </c>
-      <c r="DD23" s="7">
+      <c r="DD23">
         <v>224</v>
       </c>
+      <c r="DE23">
+        <v>170</v>
+      </c>
     </row>
-    <row r="24" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -8108,16 +8163,19 @@
       <c r="DC24">
         <v>445</v>
       </c>
-      <c r="DD24" s="7">
+      <c r="DD24">
         <v>437</v>
       </c>
+      <c r="DE24">
+        <v>448</v>
+      </c>
     </row>
-    <row r="25" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C25">
         <v>57</v>
@@ -8434,16 +8492,19 @@
       <c r="DC25">
         <v>1531</v>
       </c>
-      <c r="DD25" s="7">
+      <c r="DD25">
         <v>1262</v>
       </c>
+      <c r="DE25">
+        <v>1547</v>
+      </c>
     </row>
-    <row r="26" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C26">
         <v>1338</v>
@@ -8760,24 +8821,28 @@
       <c r="DC26">
         <v>9827</v>
       </c>
-      <c r="DD26" s="5">
+      <c r="DD26">
         <v>10075</v>
       </c>
+      <c r="DE26">
+        <f>SUM(DE4:DE25)</f>
+        <v>9781</v>
+      </c>
     </row>
-    <row r="27" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -8787,368 +8852,374 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DD28"/>
+  <dimension ref="A1:DE28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="DA2" sqref="DA2:DE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:108" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:109" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:108" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:109" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA2" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="DB2" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="DC2" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="DD2" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+      <c r="DE2" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:108" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:109" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AT3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BG3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BJ3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BK3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BN3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BP3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BQ3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BR3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BS3" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BT3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BU3" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BV3" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BW3" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BX3" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BY3" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BZ3" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CA3" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CB3" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CC3" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CD3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CE3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CF3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CG3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CH3" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CI3" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CJ3" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CK3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CL3" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CN3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CO3" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CR3" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CS3" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CT3" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CU3" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CV3" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CW3" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="CX3" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="CY3" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="CZ3" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="DA3" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DB3" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DC3" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="DD3" s="3" t="s">
-        <v>157</v>
+        <v>109</v>
+      </c>
+      <c r="DE3" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C4">
         <v>13</v>
@@ -9465,16 +9536,19 @@
       <c r="DC4">
         <v>35</v>
       </c>
-      <c r="DD4" s="6">
+      <c r="DD4">
         <v>22</v>
       </c>
+      <c r="DE4">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -9791,16 +9865,19 @@
       <c r="DC5">
         <v>82</v>
       </c>
-      <c r="DD5" s="6">
+      <c r="DD5">
         <v>85</v>
       </c>
+      <c r="DE5">
+        <v>71</v>
+      </c>
     </row>
-    <row r="6" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -10117,16 +10194,19 @@
       <c r="DC6">
         <v>23</v>
       </c>
-      <c r="DD6" s="6">
+      <c r="DD6">
         <v>30</v>
       </c>
+      <c r="DE6">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -10443,16 +10523,19 @@
       <c r="DC7">
         <v>29</v>
       </c>
-      <c r="DD7" s="6">
+      <c r="DD7">
         <v>29</v>
       </c>
+      <c r="DE7">
+        <v>31</v>
+      </c>
     </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C8">
         <v>208</v>
@@ -10769,16 +10852,19 @@
       <c r="DC8">
         <v>1167</v>
       </c>
-      <c r="DD8" s="6">
+      <c r="DD8">
         <v>1191</v>
       </c>
+      <c r="DE8">
+        <v>1111</v>
+      </c>
     </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -11095,16 +11181,19 @@
       <c r="DC9">
         <v>67</v>
       </c>
-      <c r="DD9" s="6">
+      <c r="DD9">
         <v>113</v>
       </c>
+      <c r="DE9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -11421,16 +11510,19 @@
       <c r="DC10">
         <v>156</v>
       </c>
-      <c r="DD10" s="6">
+      <c r="DD10">
         <v>166</v>
       </c>
+      <c r="DE10">
+        <v>174</v>
+      </c>
     </row>
-    <row r="11" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -11747,16 +11839,19 @@
       <c r="DC11">
         <v>74</v>
       </c>
-      <c r="DD11" s="6">
+      <c r="DD11">
         <v>47</v>
       </c>
+      <c r="DE11">
+        <v>143</v>
+      </c>
     </row>
-    <row r="12" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -12073,16 +12168,19 @@
       <c r="DC12">
         <v>213</v>
       </c>
-      <c r="DD12" s="6">
+      <c r="DD12">
         <v>133</v>
       </c>
+      <c r="DE12">
+        <v>180</v>
+      </c>
     </row>
-    <row r="13" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -12399,16 +12497,19 @@
       <c r="DC13">
         <v>80</v>
       </c>
-      <c r="DD13" s="6">
+      <c r="DD13">
         <v>82</v>
       </c>
+      <c r="DE13">
+        <v>75</v>
+      </c>
     </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -12725,16 +12826,19 @@
       <c r="DC14">
         <v>31</v>
       </c>
-      <c r="DD14" s="6">
+      <c r="DD14">
         <v>38</v>
       </c>
+      <c r="DE14">
+        <v>70</v>
+      </c>
     </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -13051,16 +13155,19 @@
       <c r="DC15">
         <v>47</v>
       </c>
-      <c r="DD15" s="6">
+      <c r="DD15">
         <v>46</v>
       </c>
+      <c r="DE15">
+        <v>42</v>
+      </c>
     </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -13377,16 +13484,19 @@
       <c r="DC16">
         <v>52</v>
       </c>
-      <c r="DD16" s="6">
+      <c r="DD16">
         <v>51</v>
       </c>
+      <c r="DE16">
+        <v>56</v>
+      </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -13703,16 +13813,19 @@
       <c r="DC17">
         <v>47</v>
       </c>
-      <c r="DD17" s="6">
+      <c r="DD17">
         <v>53</v>
       </c>
+      <c r="DE17">
+        <v>48</v>
+      </c>
     </row>
-    <row r="18" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -14029,16 +14142,19 @@
       <c r="DC18">
         <v>290</v>
       </c>
-      <c r="DD18" s="6">
+      <c r="DD18">
         <v>284</v>
       </c>
+      <c r="DE18">
+        <v>282</v>
+      </c>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C19">
         <v>35</v>
@@ -14355,16 +14471,19 @@
       <c r="DC19">
         <v>594</v>
       </c>
-      <c r="DD19" s="6">
+      <c r="DD19">
         <v>651</v>
       </c>
+      <c r="DE19">
+        <v>635</v>
+      </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C20">
         <v>302</v>
@@ -14681,16 +14800,19 @@
       <c r="DC20">
         <v>1691</v>
       </c>
-      <c r="DD20" s="6">
+      <c r="DD20">
         <v>2103</v>
       </c>
+      <c r="DE20">
+        <v>1309</v>
+      </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C21">
         <v>46</v>
@@ -15007,16 +15129,19 @@
       <c r="DC21">
         <v>292</v>
       </c>
-      <c r="DD21" s="6">
+      <c r="DD21">
         <v>279</v>
       </c>
+      <c r="DE21">
+        <v>415</v>
+      </c>
     </row>
-    <row r="22" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -15333,16 +15458,19 @@
       <c r="DC22">
         <v>126</v>
       </c>
-      <c r="DD22" s="6">
+      <c r="DD22">
         <v>125</v>
       </c>
+      <c r="DE22">
+        <v>129</v>
+      </c>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -15659,16 +15787,19 @@
       <c r="DC23">
         <v>105</v>
       </c>
-      <c r="DD23" s="6">
+      <c r="DD23">
         <v>123</v>
       </c>
+      <c r="DE23">
+        <v>107</v>
+      </c>
     </row>
-    <row r="24" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -15985,16 +16116,19 @@
       <c r="DC24">
         <v>290</v>
       </c>
-      <c r="DD24" s="6">
+      <c r="DD24">
         <v>282</v>
       </c>
+      <c r="DE24">
+        <v>289</v>
+      </c>
     </row>
-    <row r="25" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C25">
         <v>39</v>
@@ -16311,16 +16445,19 @@
       <c r="DC25">
         <v>1156</v>
       </c>
-      <c r="DD25" s="6">
+      <c r="DD25">
         <v>916</v>
       </c>
+      <c r="DE25">
+        <v>1154</v>
+      </c>
     </row>
-    <row r="26" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C26">
         <v>775</v>
@@ -16637,24 +16774,28 @@
       <c r="DC26">
         <v>6647</v>
       </c>
-      <c r="DD26" s="5">
+      <c r="DD26">
         <v>6849</v>
       </c>
+      <c r="DE26">
+        <f>SUM(DE4:DE25)</f>
+        <v>6438</v>
+      </c>
     </row>
-    <row r="27" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -16664,366 +16805,374 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:DD28"/>
+  <dimension ref="A1:DE28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="DA2" sqref="DA2:DE2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:108" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:109" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:108" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:109" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA2" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="DB2" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="DC2" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="DD2" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
+      </c>
+      <c r="DE2" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:108" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:109" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AT3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BG3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BJ3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BK3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BN3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BP3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BQ3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BR3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BS3" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BT3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BU3" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BV3" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BW3" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BX3" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BY3" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BZ3" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CA3" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CB3" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CC3" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CD3" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CE3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CF3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CG3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CH3" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CI3" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CJ3" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CK3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CL3" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CN3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CO3" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CR3" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CS3" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CT3" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CU3" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CV3" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CW3" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="CX3" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="CY3" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="CZ3" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="DA3" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DB3" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DC3" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="DD3" s="3" t="s">
-        <v>157</v>
+        <v>109</v>
+      </c>
+      <c r="DE3" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -17343,13 +17492,16 @@
       <c r="DD4">
         <v>22</v>
       </c>
+      <c r="DE4">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -17669,13 +17821,16 @@
       <c r="DD5">
         <v>113</v>
       </c>
+      <c r="DE5">
+        <v>114</v>
+      </c>
     </row>
-    <row r="6" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -17995,13 +18150,16 @@
       <c r="DD6">
         <v>21</v>
       </c>
+      <c r="DE6">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -18321,13 +18479,16 @@
       <c r="DD7">
         <v>28</v>
       </c>
+      <c r="DE7">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C8">
         <v>161</v>
@@ -18647,13 +18808,16 @@
       <c r="DD8">
         <v>510</v>
       </c>
+      <c r="DE8">
+        <v>523</v>
+      </c>
     </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -18973,13 +19137,16 @@
       <c r="DD9">
         <v>78</v>
       </c>
+      <c r="DE9">
+        <v>64</v>
+      </c>
     </row>
-    <row r="10" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -19299,13 +19466,16 @@
       <c r="DD10">
         <v>81</v>
       </c>
+      <c r="DE10">
+        <v>81</v>
+      </c>
     </row>
-    <row r="11" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -19625,13 +19795,16 @@
       <c r="DD11">
         <v>20</v>
       </c>
+      <c r="DE11">
+        <v>81</v>
+      </c>
     </row>
-    <row r="12" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -19951,13 +20124,16 @@
       <c r="DD12">
         <v>62</v>
       </c>
+      <c r="DE12">
+        <v>108</v>
+      </c>
     </row>
-    <row r="13" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -20277,13 +20453,16 @@
       <c r="DD13">
         <v>41</v>
       </c>
+      <c r="DE13">
+        <v>42</v>
+      </c>
     </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -20603,13 +20782,16 @@
       <c r="DD14">
         <v>10</v>
       </c>
+      <c r="DE14">
+        <v>11</v>
+      </c>
     </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -20929,13 +21111,16 @@
       <c r="DD15">
         <v>22</v>
       </c>
+      <c r="DE15">
+        <v>24</v>
+      </c>
     </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -21255,13 +21440,16 @@
       <c r="DD16">
         <v>27</v>
       </c>
+      <c r="DE16">
+        <v>27</v>
+      </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -21581,13 +21769,16 @@
       <c r="DD17">
         <v>14</v>
       </c>
+      <c r="DE17">
+        <v>11</v>
+      </c>
     </row>
-    <row r="18" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -21907,13 +22098,16 @@
       <c r="DD18">
         <v>231</v>
       </c>
+      <c r="DE18">
+        <v>254</v>
+      </c>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C19">
         <v>22</v>
@@ -22233,13 +22427,16 @@
       <c r="DD19">
         <v>398</v>
       </c>
+      <c r="DE19">
+        <v>406</v>
+      </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C20">
         <v>214</v>
@@ -22559,13 +22756,16 @@
       <c r="DD20">
         <v>752</v>
       </c>
+      <c r="DE20">
+        <v>677</v>
+      </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C21">
         <v>30</v>
@@ -22885,13 +23085,16 @@
       <c r="DD21">
         <v>128</v>
       </c>
+      <c r="DE21">
+        <v>168</v>
+      </c>
     </row>
-    <row r="22" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -23211,13 +23414,16 @@
       <c r="DD22">
         <v>49</v>
       </c>
+      <c r="DE22">
+        <v>50</v>
+      </c>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -23537,13 +23743,16 @@
       <c r="DD23">
         <v>101</v>
       </c>
+      <c r="DE23">
+        <v>63</v>
+      </c>
     </row>
-    <row r="24" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -23863,13 +24072,16 @@
       <c r="DD24">
         <v>155</v>
       </c>
+      <c r="DE24">
+        <v>159</v>
+      </c>
     </row>
-    <row r="25" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -24189,13 +24401,16 @@
       <c r="DD25">
         <v>346</v>
       </c>
+      <c r="DE25">
+        <v>393</v>
+      </c>
     </row>
-    <row r="26" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C26">
         <v>563</v>
@@ -24515,21 +24730,25 @@
       <c r="DD26">
         <v>3209</v>
       </c>
+      <c r="DE26">
+        <f>SUM(DE4:DE25)</f>
+        <v>3343</v>
+      </c>
     </row>
-    <row r="27" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:108" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -5,26 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{52BE76FB-FA7F-42CA-809F-50FA76D504F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B33143C-1D1D-4895-8664-8F6E4A803387}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24008" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19 Hospitalizations" sheetId="1" r:id="rId1"/>
     <sheet name="COVID-19 General Beds" sheetId="2" r:id="rId2"/>
     <sheet name="COVID-19 ICU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="162">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/27/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/28/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -357,6 +357,9 @@
     <t>2020-07-27</t>
   </si>
   <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -498,16 +501,13 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/27/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/28/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/27/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/28/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>* DSHS is reporting incomplete hospitalization numbers 7/23-7/27 due to a transition in reporting to comply with new federal requirements. For July 27, 82 percent of hospitals reported complete data to DSHS, resulting in a partial data set and the appearance of a drop in hospitalizations. DSHS continues to work with Texas hospitals during this transition to ensure all facilities can fully report the data required.</t>
-  </si>
-  <si>
-    <t>*</t>
+    <t>* DSHS is reporting incomplete hospitalization numbers 7/23-7/28 due to a transition in reporting to comply with new federal requirements. For July 28, 91 percent of hospitals reported complete data to DSHS, resulting in a partial data set and the appearance of a drop in hospitalizations. DSHS continues to work with Texas hospitals during this transition to ensure all facilities can fully report the data required.</t>
   </si>
 </sst>
 </file>
@@ -540,18 +540,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -577,14 +571,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -901,38 +892,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DE28"/>
+  <dimension ref="A1:DF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:109" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:110" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:109" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:110" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="DA2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="DB2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="DC2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="DD2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="DE2" s="4" t="s">
-        <v>161</v>
-      </c>
     </row>
-    <row r="3" spans="1:109" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:110" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1260,13 +1238,16 @@
       <c r="DE3" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="DF3" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="4" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -1589,13 +1570,16 @@
       <c r="DE4">
         <v>77</v>
       </c>
+      <c r="DF4">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5">
         <v>34</v>
@@ -1918,13 +1902,16 @@
       <c r="DE5">
         <v>185</v>
       </c>
+      <c r="DF5">
+        <v>127</v>
+      </c>
     </row>
-    <row r="6" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2247,13 +2234,16 @@
       <c r="DE6">
         <v>39</v>
       </c>
+      <c r="DF6">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2576,13 +2566,16 @@
       <c r="DE7">
         <v>58</v>
       </c>
+      <c r="DF7">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C8">
         <v>369</v>
@@ -2905,13 +2898,16 @@
       <c r="DE8">
         <v>1634</v>
       </c>
+      <c r="DF8">
+        <v>1642</v>
+      </c>
     </row>
-    <row r="9" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -3234,13 +3230,16 @@
       <c r="DE9">
         <v>125</v>
       </c>
+      <c r="DF9">
+        <v>121</v>
+      </c>
     </row>
-    <row r="10" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10">
         <v>32</v>
@@ -3563,13 +3562,16 @@
       <c r="DE10">
         <v>255</v>
       </c>
+      <c r="DF10">
+        <v>270</v>
+      </c>
     </row>
-    <row r="11" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -3892,13 +3894,16 @@
       <c r="DE11">
         <v>224</v>
       </c>
+      <c r="DF11">
+        <v>129</v>
+      </c>
     </row>
-    <row r="12" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -4221,13 +4226,16 @@
       <c r="DE12">
         <v>288</v>
       </c>
+      <c r="DF12">
+        <v>282</v>
+      </c>
     </row>
-    <row r="13" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -4550,13 +4558,16 @@
       <c r="DE13">
         <v>117</v>
       </c>
+      <c r="DF13">
+        <v>102</v>
+      </c>
     </row>
-    <row r="14" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4879,13 +4890,16 @@
       <c r="DE14">
         <v>81</v>
       </c>
+      <c r="DF14">
+        <v>48</v>
+      </c>
     </row>
-    <row r="15" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -5208,13 +5222,16 @@
       <c r="DE15">
         <v>66</v>
       </c>
+      <c r="DF15">
+        <v>74</v>
+      </c>
     </row>
-    <row r="16" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -5537,13 +5554,16 @@
       <c r="DE16">
         <v>83</v>
       </c>
+      <c r="DF16">
+        <v>82</v>
+      </c>
     </row>
-    <row r="17" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17">
         <v>24</v>
@@ -5866,13 +5886,16 @@
       <c r="DE17">
         <v>59</v>
       </c>
+      <c r="DF17">
+        <v>62</v>
+      </c>
     </row>
-    <row r="18" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -6195,13 +6218,16 @@
       <c r="DE18">
         <v>536</v>
       </c>
+      <c r="DF18">
+        <v>429</v>
+      </c>
     </row>
-    <row r="19" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19">
         <v>57</v>
@@ -6524,13 +6550,16 @@
       <c r="DE19">
         <v>1041</v>
       </c>
+      <c r="DF19">
+        <v>1187</v>
+      </c>
     </row>
-    <row r="20" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C20">
         <v>516</v>
@@ -6853,13 +6882,16 @@
       <c r="DE20">
         <v>1986</v>
       </c>
+      <c r="DF20">
+        <v>2391</v>
+      </c>
     </row>
-    <row r="21" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C21">
         <v>76</v>
@@ -7182,13 +7214,16 @@
       <c r="DE21">
         <v>583</v>
       </c>
+      <c r="DF21">
+        <v>328</v>
+      </c>
     </row>
-    <row r="22" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -7511,13 +7546,16 @@
       <c r="DE22">
         <v>179</v>
       </c>
+      <c r="DF22">
+        <v>184</v>
+      </c>
     </row>
-    <row r="23" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C23">
         <v>25</v>
@@ -7840,13 +7878,16 @@
       <c r="DE23">
         <v>170</v>
       </c>
+      <c r="DF23">
+        <v>179</v>
+      </c>
     </row>
-    <row r="24" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -8169,13 +8210,16 @@
       <c r="DE24">
         <v>448</v>
       </c>
+      <c r="DF24">
+        <v>445</v>
+      </c>
     </row>
-    <row r="25" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C25">
         <v>57</v>
@@ -8498,13 +8542,16 @@
       <c r="DE25">
         <v>1547</v>
       </c>
+      <c r="DF25">
+        <v>1392</v>
+      </c>
     </row>
-    <row r="26" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C26">
         <v>1338</v>
@@ -8825,24 +8872,26 @@
         <v>10075</v>
       </c>
       <c r="DE26">
-        <f>SUM(DE4:DE25)</f>
         <v>9781</v>
       </c>
+      <c r="DF26">
+        <v>9593</v>
+      </c>
     </row>
-    <row r="27" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -8852,40 +8901,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DE28"/>
+  <dimension ref="A1:DF28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="DA2" sqref="DA2:DE2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:109" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:110" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:109" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:110" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="DA2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="DB2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="DC2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="DD2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="DE2" s="4" t="s">
-        <v>161</v>
-      </c>
     </row>
-    <row r="3" spans="1:109" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:110" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9213,13 +9245,16 @@
       <c r="DE3" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="DF3" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="4" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>13</v>
@@ -9542,13 +9577,16 @@
       <c r="DE4">
         <v>33</v>
       </c>
+      <c r="DF4">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -9871,13 +9909,16 @@
       <c r="DE5">
         <v>71</v>
       </c>
+      <c r="DF5">
+        <v>74</v>
+      </c>
     </row>
-    <row r="6" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -10200,13 +10241,16 @@
       <c r="DE6">
         <v>23</v>
       </c>
+      <c r="DF6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -10529,13 +10573,16 @@
       <c r="DE7">
         <v>31</v>
       </c>
+      <c r="DF7">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C8">
         <v>208</v>
@@ -10858,13 +10905,16 @@
       <c r="DE8">
         <v>1111</v>
       </c>
+      <c r="DF8">
+        <v>1096</v>
+      </c>
     </row>
-    <row r="9" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -11187,13 +11237,16 @@
       <c r="DE9">
         <v>61</v>
       </c>
+      <c r="DF9">
+        <v>62</v>
+      </c>
     </row>
-    <row r="10" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -11516,13 +11569,16 @@
       <c r="DE10">
         <v>174</v>
       </c>
+      <c r="DF10">
+        <v>182</v>
+      </c>
     </row>
-    <row r="11" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -11845,13 +11901,16 @@
       <c r="DE11">
         <v>143</v>
       </c>
+      <c r="DF11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -12174,13 +12233,16 @@
       <c r="DE12">
         <v>180</v>
       </c>
+      <c r="DF12">
+        <v>168</v>
+      </c>
     </row>
-    <row r="13" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -12503,13 +12565,16 @@
       <c r="DE13">
         <v>75</v>
       </c>
+      <c r="DF13">
+        <v>66</v>
+      </c>
     </row>
-    <row r="14" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -12832,13 +12897,16 @@
       <c r="DE14">
         <v>70</v>
       </c>
+      <c r="DF14">
+        <v>38</v>
+      </c>
     </row>
-    <row r="15" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -13161,13 +13229,16 @@
       <c r="DE15">
         <v>42</v>
       </c>
+      <c r="DF15">
+        <v>47</v>
+      </c>
     </row>
-    <row r="16" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -13490,13 +13561,16 @@
       <c r="DE16">
         <v>56</v>
       </c>
+      <c r="DF16">
+        <v>54</v>
+      </c>
     </row>
-    <row r="17" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -13819,13 +13893,16 @@
       <c r="DE17">
         <v>48</v>
       </c>
+      <c r="DF17">
+        <v>50</v>
+      </c>
     </row>
-    <row r="18" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -14148,13 +14225,16 @@
       <c r="DE18">
         <v>282</v>
       </c>
+      <c r="DF18">
+        <v>287</v>
+      </c>
     </row>
-    <row r="19" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19">
         <v>35</v>
@@ -14477,13 +14557,16 @@
       <c r="DE19">
         <v>635</v>
       </c>
+      <c r="DF19">
+        <v>764</v>
+      </c>
     </row>
-    <row r="20" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C20">
         <v>302</v>
@@ -14806,13 +14889,16 @@
       <c r="DE20">
         <v>1309</v>
       </c>
+      <c r="DF20">
+        <v>1636</v>
+      </c>
     </row>
-    <row r="21" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C21">
         <v>46</v>
@@ -15135,13 +15221,16 @@
       <c r="DE21">
         <v>415</v>
       </c>
+      <c r="DF21">
+        <v>229</v>
+      </c>
     </row>
-    <row r="22" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -15464,13 +15553,16 @@
       <c r="DE22">
         <v>129</v>
       </c>
+      <c r="DF22">
+        <v>134</v>
+      </c>
     </row>
-    <row r="23" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -15793,13 +15885,16 @@
       <c r="DE23">
         <v>107</v>
       </c>
+      <c r="DF23">
+        <v>115</v>
+      </c>
     </row>
-    <row r="24" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -16122,13 +16217,16 @@
       <c r="DE24">
         <v>289</v>
       </c>
+      <c r="DF24">
+        <v>295</v>
+      </c>
     </row>
-    <row r="25" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C25">
         <v>39</v>
@@ -16451,13 +16549,16 @@
       <c r="DE25">
         <v>1154</v>
       </c>
+      <c r="DF25">
+        <v>982</v>
+      </c>
     </row>
-    <row r="26" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C26">
         <v>775</v>
@@ -16778,24 +16879,26 @@
         <v>6849</v>
       </c>
       <c r="DE26">
-        <f>SUM(DE4:DE25)</f>
         <v>6438</v>
       </c>
+      <c r="DF26">
+        <v>6457</v>
+      </c>
     </row>
-    <row r="27" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -16805,40 +16908,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:DE28"/>
+  <dimension ref="A1:DF28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="DA2" sqref="DA2:DE2"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:109" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:110" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:109" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:110" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="DA2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="DB2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="DC2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="DD2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="DE2" s="4" t="s">
-        <v>161</v>
-      </c>
     </row>
-    <row r="3" spans="1:109" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:110" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -17166,13 +17254,16 @@
       <c r="DE3" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="DF3" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="4" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -17495,13 +17586,16 @@
       <c r="DE4">
         <v>44</v>
       </c>
+      <c r="DF4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -17824,13 +17918,16 @@
       <c r="DE5">
         <v>114</v>
       </c>
+      <c r="DF5">
+        <v>53</v>
+      </c>
     </row>
-    <row r="6" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -18153,13 +18250,16 @@
       <c r="DE6">
         <v>16</v>
       </c>
+      <c r="DF6">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -18482,13 +18582,16 @@
       <c r="DE7">
         <v>27</v>
       </c>
+      <c r="DF7">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C8">
         <v>161</v>
@@ -18811,13 +18914,16 @@
       <c r="DE8">
         <v>523</v>
       </c>
+      <c r="DF8">
+        <v>546</v>
+      </c>
     </row>
-    <row r="9" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -19140,13 +19246,16 @@
       <c r="DE9">
         <v>64</v>
       </c>
+      <c r="DF9">
+        <v>59</v>
+      </c>
     </row>
-    <row r="10" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -19469,13 +19578,16 @@
       <c r="DE10">
         <v>81</v>
       </c>
+      <c r="DF10">
+        <v>88</v>
+      </c>
     </row>
-    <row r="11" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -19798,13 +19910,16 @@
       <c r="DE11">
         <v>81</v>
       </c>
+      <c r="DF11">
+        <v>29</v>
+      </c>
     </row>
-    <row r="12" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -20127,13 +20242,16 @@
       <c r="DE12">
         <v>108</v>
       </c>
+      <c r="DF12">
+        <v>114</v>
+      </c>
     </row>
-    <row r="13" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -20456,13 +20574,16 @@
       <c r="DE13">
         <v>42</v>
       </c>
+      <c r="DF13">
+        <v>36</v>
+      </c>
     </row>
-    <row r="14" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -20785,13 +20906,16 @@
       <c r="DE14">
         <v>11</v>
       </c>
+      <c r="DF14">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -21114,13 +21238,16 @@
       <c r="DE15">
         <v>24</v>
       </c>
+      <c r="DF15">
+        <v>27</v>
+      </c>
     </row>
-    <row r="16" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -21443,13 +21570,16 @@
       <c r="DE16">
         <v>27</v>
       </c>
+      <c r="DF16">
+        <v>28</v>
+      </c>
     </row>
-    <row r="17" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -21772,13 +21902,16 @@
       <c r="DE17">
         <v>11</v>
       </c>
+      <c r="DF17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="18" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -22101,13 +22234,16 @@
       <c r="DE18">
         <v>254</v>
       </c>
+      <c r="DF18">
+        <v>142</v>
+      </c>
     </row>
-    <row r="19" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19">
         <v>22</v>
@@ -22430,13 +22566,16 @@
       <c r="DE19">
         <v>406</v>
       </c>
+      <c r="DF19">
+        <v>423</v>
+      </c>
     </row>
-    <row r="20" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C20">
         <v>214</v>
@@ -22759,13 +22898,16 @@
       <c r="DE20">
         <v>677</v>
       </c>
+      <c r="DF20">
+        <v>755</v>
+      </c>
     </row>
-    <row r="21" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C21">
         <v>30</v>
@@ -23088,13 +23230,16 @@
       <c r="DE21">
         <v>168</v>
       </c>
+      <c r="DF21">
+        <v>99</v>
+      </c>
     </row>
-    <row r="22" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -23417,13 +23562,16 @@
       <c r="DE22">
         <v>50</v>
       </c>
+      <c r="DF22">
+        <v>50</v>
+      </c>
     </row>
-    <row r="23" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -23746,13 +23894,16 @@
       <c r="DE23">
         <v>63</v>
       </c>
+      <c r="DF23">
+        <v>64</v>
+      </c>
     </row>
-    <row r="24" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -24075,13 +24226,16 @@
       <c r="DE24">
         <v>159</v>
       </c>
+      <c r="DF24">
+        <v>150</v>
+      </c>
     </row>
-    <row r="25" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -24404,13 +24558,16 @@
       <c r="DE25">
         <v>393</v>
       </c>
+      <c r="DF25">
+        <v>410</v>
+      </c>
     </row>
-    <row r="26" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C26">
         <v>563</v>
@@ -24731,24 +24888,26 @@
         <v>3209</v>
       </c>
       <c r="DE26">
-        <f>SUM(DE4:DE25)</f>
         <v>3343</v>
       </c>
+      <c r="DF26">
+        <v>3136</v>
+      </c>
     </row>
-    <row r="27" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:110" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B33143C-1D1D-4895-8664-8F6E4A803387}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C9759A6E-9C79-4EA4-8FB8-CB30C0421528}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24008" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11828" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19 Hospitalizations" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="163">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/28/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/29/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -360,6 +360,9 @@
     <t>2020-07-28</t>
   </si>
   <si>
+    <t>2020-07-29</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -501,13 +504,13 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/28/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/29/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/28/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/29/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>* DSHS is reporting incomplete hospitalization numbers 7/23-7/28 due to a transition in reporting to comply with new federal requirements. For July 28, 91 percent of hospitals reported complete data to DSHS, resulting in a partial data set and the appearance of a drop in hospitalizations. DSHS continues to work with Texas hospitals during this transition to ensure all facilities can fully report the data required.</t>
+    <t>* DSHS is reporting incomplete hospitalization numbers 7/23-7/28 due to a transition in reporting to comply with new federal requirements. DSHS continues to work with Texas hospitals during this transition to ensure all facilities can fully report the data required.</t>
   </si>
 </sst>
 </file>
@@ -892,25 +895,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DF28"/>
+  <dimension ref="A1:DG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:110" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:111" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:110" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:111" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:110" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:111" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1241,13 +1244,16 @@
       <c r="DF3" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="DG3" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="4" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -1573,13 +1579,16 @@
       <c r="DF4">
         <v>36</v>
       </c>
+      <c r="DG4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C5">
         <v>34</v>
@@ -1905,13 +1914,16 @@
       <c r="DF5">
         <v>127</v>
       </c>
+      <c r="DG5">
+        <v>105</v>
+      </c>
     </row>
-    <row r="6" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2237,13 +2249,16 @@
       <c r="DF6">
         <v>36</v>
       </c>
+      <c r="DG6">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2569,13 +2584,16 @@
       <c r="DF7">
         <v>47</v>
       </c>
+      <c r="DG7">
+        <v>54</v>
+      </c>
     </row>
-    <row r="8" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C8">
         <v>369</v>
@@ -2901,13 +2919,16 @@
       <c r="DF8">
         <v>1642</v>
       </c>
+      <c r="DG8">
+        <v>1723</v>
+      </c>
     </row>
-    <row r="9" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -3233,13 +3254,16 @@
       <c r="DF9">
         <v>121</v>
       </c>
+      <c r="DG9">
+        <v>126</v>
+      </c>
     </row>
-    <row r="10" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10">
         <v>32</v>
@@ -3565,13 +3589,16 @@
       <c r="DF10">
         <v>270</v>
       </c>
+      <c r="DG10">
+        <v>272</v>
+      </c>
     </row>
-    <row r="11" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -3897,13 +3924,16 @@
       <c r="DF11">
         <v>129</v>
       </c>
+      <c r="DG11">
+        <v>88</v>
+      </c>
     </row>
-    <row r="12" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -4229,13 +4259,16 @@
       <c r="DF12">
         <v>282</v>
       </c>
+      <c r="DG12">
+        <v>266</v>
+      </c>
     </row>
-    <row r="13" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -4561,13 +4594,16 @@
       <c r="DF13">
         <v>102</v>
       </c>
+      <c r="DG13">
+        <v>98</v>
+      </c>
     </row>
-    <row r="14" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4893,13 +4929,16 @@
       <c r="DF14">
         <v>48</v>
       </c>
+      <c r="DG14">
+        <v>45</v>
+      </c>
     </row>
-    <row r="15" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -5225,13 +5264,16 @@
       <c r="DF15">
         <v>74</v>
       </c>
+      <c r="DG15">
+        <v>78</v>
+      </c>
     </row>
-    <row r="16" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -5557,13 +5599,16 @@
       <c r="DF16">
         <v>82</v>
       </c>
+      <c r="DG16">
+        <v>88</v>
+      </c>
     </row>
-    <row r="17" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C17">
         <v>24</v>
@@ -5889,13 +5934,16 @@
       <c r="DF17">
         <v>62</v>
       </c>
+      <c r="DG17">
+        <v>69</v>
+      </c>
     </row>
-    <row r="18" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -6221,13 +6269,16 @@
       <c r="DF18">
         <v>429</v>
       </c>
+      <c r="DG18">
+        <v>420</v>
+      </c>
     </row>
-    <row r="19" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C19">
         <v>57</v>
@@ -6553,13 +6604,16 @@
       <c r="DF19">
         <v>1187</v>
       </c>
+      <c r="DG19">
+        <v>1157</v>
+      </c>
     </row>
-    <row r="20" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C20">
         <v>516</v>
@@ -6885,13 +6939,16 @@
       <c r="DF20">
         <v>2391</v>
       </c>
+      <c r="DG20">
+        <v>2296</v>
+      </c>
     </row>
-    <row r="21" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21">
         <v>76</v>
@@ -7217,13 +7274,16 @@
       <c r="DF21">
         <v>328</v>
       </c>
+      <c r="DG21">
+        <v>384</v>
+      </c>
     </row>
-    <row r="22" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -7549,13 +7609,16 @@
       <c r="DF22">
         <v>184</v>
       </c>
+      <c r="DG22">
+        <v>183</v>
+      </c>
     </row>
-    <row r="23" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C23">
         <v>25</v>
@@ -7881,13 +7944,16 @@
       <c r="DF23">
         <v>179</v>
       </c>
+      <c r="DG23">
+        <v>253</v>
+      </c>
     </row>
-    <row r="24" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -8213,13 +8279,16 @@
       <c r="DF24">
         <v>445</v>
       </c>
+      <c r="DG24">
+        <v>438</v>
+      </c>
     </row>
-    <row r="25" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C25">
         <v>57</v>
@@ -8545,13 +8614,16 @@
       <c r="DF25">
         <v>1392</v>
       </c>
+      <c r="DG25">
+        <v>1379</v>
+      </c>
     </row>
-    <row r="26" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C26">
         <v>1338</v>
@@ -8877,21 +8949,24 @@
       <c r="DF26">
         <v>9593</v>
       </c>
+      <c r="DG26">
+        <v>9595</v>
+      </c>
     </row>
-    <row r="27" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -8901,23 +8976,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DF28"/>
+  <dimension ref="A1:DG28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:110" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:111" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:110" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:111" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:110" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:111" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9248,13 +9325,16 @@
       <c r="DF3" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="DG3" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="4" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>13</v>
@@ -9580,13 +9660,16 @@
       <c r="DF4">
         <v>24</v>
       </c>
+      <c r="DG4">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -9912,13 +9995,16 @@
       <c r="DF5">
         <v>74</v>
       </c>
+      <c r="DG5">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -10244,13 +10330,16 @@
       <c r="DF6">
         <v>20</v>
       </c>
+      <c r="DG6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -10576,13 +10665,16 @@
       <c r="DF7">
         <v>34</v>
       </c>
+      <c r="DG7">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C8">
         <v>208</v>
@@ -10908,13 +11000,16 @@
       <c r="DF8">
         <v>1096</v>
       </c>
+      <c r="DG8">
+        <v>1159</v>
+      </c>
     </row>
-    <row r="9" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -11240,13 +11335,16 @@
       <c r="DF9">
         <v>62</v>
       </c>
+      <c r="DG9">
+        <v>65</v>
+      </c>
     </row>
-    <row r="10" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -11572,13 +11670,16 @@
       <c r="DF10">
         <v>182</v>
       </c>
+      <c r="DG10">
+        <v>184</v>
+      </c>
     </row>
-    <row r="11" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -11904,13 +12005,16 @@
       <c r="DF11">
         <v>100</v>
       </c>
+      <c r="DG11">
+        <v>65</v>
+      </c>
     </row>
-    <row r="12" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -12236,13 +12340,16 @@
       <c r="DF12">
         <v>168</v>
       </c>
+      <c r="DG12">
+        <v>160</v>
+      </c>
     </row>
-    <row r="13" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -12568,13 +12675,16 @@
       <c r="DF13">
         <v>66</v>
       </c>
+      <c r="DG13">
+        <v>61</v>
+      </c>
     </row>
-    <row r="14" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -12900,13 +13010,16 @@
       <c r="DF14">
         <v>38</v>
       </c>
+      <c r="DG14">
+        <v>39</v>
+      </c>
     </row>
-    <row r="15" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -13232,13 +13345,16 @@
       <c r="DF15">
         <v>47</v>
       </c>
+      <c r="DG15">
+        <v>53</v>
+      </c>
     </row>
-    <row r="16" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -13564,13 +13680,16 @@
       <c r="DF16">
         <v>54</v>
       </c>
+      <c r="DG16">
+        <v>59</v>
+      </c>
     </row>
-    <row r="17" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -13896,13 +14015,16 @@
       <c r="DF17">
         <v>50</v>
       </c>
+      <c r="DG17">
+        <v>57</v>
+      </c>
     </row>
-    <row r="18" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -14228,13 +14350,16 @@
       <c r="DF18">
         <v>287</v>
       </c>
+      <c r="DG18">
+        <v>284</v>
+      </c>
     </row>
-    <row r="19" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C19">
         <v>35</v>
@@ -14560,13 +14685,16 @@
       <c r="DF19">
         <v>764</v>
       </c>
+      <c r="DG19">
+        <v>762</v>
+      </c>
     </row>
-    <row r="20" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C20">
         <v>302</v>
@@ -14892,13 +15020,16 @@
       <c r="DF20">
         <v>1636</v>
       </c>
+      <c r="DG20">
+        <v>1548</v>
+      </c>
     </row>
-    <row r="21" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21">
         <v>46</v>
@@ -15224,13 +15355,16 @@
       <c r="DF21">
         <v>229</v>
       </c>
+      <c r="DG21">
+        <v>270</v>
+      </c>
     </row>
-    <row r="22" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -15556,13 +15690,16 @@
       <c r="DF22">
         <v>134</v>
       </c>
+      <c r="DG22">
+        <v>133</v>
+      </c>
     </row>
-    <row r="23" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -15888,13 +16025,16 @@
       <c r="DF23">
         <v>115</v>
       </c>
+      <c r="DG23">
+        <v>181</v>
+      </c>
     </row>
-    <row r="24" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -16220,13 +16360,16 @@
       <c r="DF24">
         <v>295</v>
       </c>
+      <c r="DG24">
+        <v>301</v>
+      </c>
     </row>
-    <row r="25" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C25">
         <v>39</v>
@@ -16552,13 +16695,16 @@
       <c r="DF25">
         <v>982</v>
       </c>
+      <c r="DG25">
+        <v>992</v>
+      </c>
     </row>
-    <row r="26" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C26">
         <v>775</v>
@@ -16884,21 +17030,24 @@
       <c r="DF26">
         <v>6457</v>
       </c>
+      <c r="DG26">
+        <v>6508</v>
+      </c>
     </row>
-    <row r="27" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -16908,25 +17057,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:DF28"/>
+  <dimension ref="A1:DG28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:110" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:111" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:110" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:111" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:110" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:111" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -17257,13 +17404,16 @@
       <c r="DF3" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="DG3" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="4" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -17589,13 +17739,16 @@
       <c r="DF4">
         <v>12</v>
       </c>
+      <c r="DG4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -17921,13 +18074,16 @@
       <c r="DF5">
         <v>53</v>
       </c>
+      <c r="DG5">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -18253,13 +18409,16 @@
       <c r="DF6">
         <v>16</v>
       </c>
+      <c r="DG6">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -18585,13 +18744,16 @@
       <c r="DF7">
         <v>13</v>
       </c>
+      <c r="DG7">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C8">
         <v>161</v>
@@ -18917,13 +19079,16 @@
       <c r="DF8">
         <v>546</v>
       </c>
+      <c r="DG8">
+        <v>564</v>
+      </c>
     </row>
-    <row r="9" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -19249,13 +19414,16 @@
       <c r="DF9">
         <v>59</v>
       </c>
+      <c r="DG9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -19581,13 +19749,16 @@
       <c r="DF10">
         <v>88</v>
       </c>
+      <c r="DG10">
+        <v>88</v>
+      </c>
     </row>
-    <row r="11" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -19913,13 +20084,16 @@
       <c r="DF11">
         <v>29</v>
       </c>
+      <c r="DG11">
+        <v>23</v>
+      </c>
     </row>
-    <row r="12" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -20245,13 +20419,16 @@
       <c r="DF12">
         <v>114</v>
       </c>
+      <c r="DG12">
+        <v>106</v>
+      </c>
     </row>
-    <row r="13" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -20577,13 +20754,16 @@
       <c r="DF13">
         <v>36</v>
       </c>
+      <c r="DG13">
+        <v>37</v>
+      </c>
     </row>
-    <row r="14" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -20909,13 +21089,16 @@
       <c r="DF14">
         <v>10</v>
       </c>
+      <c r="DG14">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -21241,13 +21424,16 @@
       <c r="DF15">
         <v>27</v>
       </c>
+      <c r="DG15">
+        <v>25</v>
+      </c>
     </row>
-    <row r="16" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -21573,13 +21759,16 @@
       <c r="DF16">
         <v>28</v>
       </c>
+      <c r="DG16">
+        <v>29</v>
+      </c>
     </row>
-    <row r="17" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -21905,13 +22094,16 @@
       <c r="DF17">
         <v>12</v>
       </c>
+      <c r="DG17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="18" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -22237,13 +22429,16 @@
       <c r="DF18">
         <v>142</v>
       </c>
+      <c r="DG18">
+        <v>136</v>
+      </c>
     </row>
-    <row r="19" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C19">
         <v>22</v>
@@ -22569,13 +22764,16 @@
       <c r="DF19">
         <v>423</v>
       </c>
+      <c r="DG19">
+        <v>395</v>
+      </c>
     </row>
-    <row r="20" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C20">
         <v>214</v>
@@ -22901,13 +23099,16 @@
       <c r="DF20">
         <v>755</v>
       </c>
+      <c r="DG20">
+        <v>748</v>
+      </c>
     </row>
-    <row r="21" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21">
         <v>30</v>
@@ -23233,13 +23434,16 @@
       <c r="DF21">
         <v>99</v>
       </c>
+      <c r="DG21">
+        <v>114</v>
+      </c>
     </row>
-    <row r="22" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -23565,13 +23769,16 @@
       <c r="DF22">
         <v>50</v>
       </c>
+      <c r="DG22">
+        <v>50</v>
+      </c>
     </row>
-    <row r="23" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -23897,13 +24104,16 @@
       <c r="DF23">
         <v>64</v>
       </c>
+      <c r="DG23">
+        <v>72</v>
+      </c>
     </row>
-    <row r="24" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -24229,13 +24439,16 @@
       <c r="DF24">
         <v>150</v>
       </c>
+      <c r="DG24">
+        <v>137</v>
+      </c>
     </row>
-    <row r="25" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -24561,13 +24774,16 @@
       <c r="DF25">
         <v>410</v>
       </c>
+      <c r="DG25">
+        <v>387</v>
+      </c>
     </row>
-    <row r="26" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C26">
         <v>563</v>
@@ -24893,21 +25109,24 @@
       <c r="DF26">
         <v>3136</v>
       </c>
+      <c r="DG26">
+        <v>3087</v>
+      </c>
     </row>
-    <row r="27" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:110" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:111" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="165">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/30/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/31/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -358,6 +358,9 @@
     <t>2020-07-30</t>
   </si>
   <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -502,10 +505,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/30/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/31/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/30/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/31/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -968,13 +971,16 @@
       <c r="DH3" t="s" s="10">
         <v>113</v>
       </c>
+      <c r="DI3" t="s" s="10">
+        <v>114</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1305,14 +1311,17 @@
       </c>
       <c r="DH4" t="n">
         <v>70.0</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1643,14 +1652,17 @@
       </c>
       <c r="DH5" t="n">
         <v>130.0</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>134.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -1981,14 +1993,17 @@
       </c>
       <c r="DH6" t="n">
         <v>34.0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2319,14 +2334,17 @@
       </c>
       <c r="DH7" t="n">
         <v>61.0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2657,14 +2675,17 @@
       </c>
       <c r="DH8" t="n">
         <v>1648.0</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>1582.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -2995,14 +3016,17 @@
       </c>
       <c r="DH9" t="n">
         <v>123.0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3333,14 +3357,17 @@
       </c>
       <c r="DH10" t="n">
         <v>269.0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>251.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -3661,7 +3688,7 @@
         <v>67.0</v>
       </c>
       <c r="DE11" t="n">
-        <v>224.0</v>
+        <v>95.0</v>
       </c>
       <c r="DF11" t="n">
         <v>129.0</v>
@@ -3671,14 +3698,17 @@
       </c>
       <c r="DH11" t="n">
         <v>100.0</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4009,14 +4039,17 @@
       </c>
       <c r="DH12" t="n">
         <v>279.0</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>264.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -4347,14 +4380,17 @@
       </c>
       <c r="DH13" t="n">
         <v>103.0</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -4685,14 +4721,17 @@
       </c>
       <c r="DH14" t="n">
         <v>54.0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5023,14 +5062,17 @@
       </c>
       <c r="DH15" t="n">
         <v>111.0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -5361,14 +5403,17 @@
       </c>
       <c r="DH16" t="n">
         <v>78.0</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -5699,14 +5744,17 @@
       </c>
       <c r="DH17" t="n">
         <v>70.0</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -6037,14 +6085,17 @@
       </c>
       <c r="DH18" t="n">
         <v>384.0</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>378.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -6365,7 +6416,7 @@
         <v>1066.0</v>
       </c>
       <c r="DE19" t="n">
-        <v>1041.0</v>
+        <v>1073.0</v>
       </c>
       <c r="DF19" t="n">
         <v>1187.0</v>
@@ -6375,14 +6426,17 @@
       </c>
       <c r="DH19" t="n">
         <v>1106.0</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>1075.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -6703,7 +6757,7 @@
         <v>2855.0</v>
       </c>
       <c r="DE20" t="n">
-        <v>1986.0</v>
+        <v>2288.0</v>
       </c>
       <c r="DF20" t="n">
         <v>2391.0</v>
@@ -6713,14 +6767,17 @@
       </c>
       <c r="DH20" t="n">
         <v>2136.0</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>2177.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -7041,7 +7098,7 @@
         <v>407.0</v>
       </c>
       <c r="DE21" t="n">
-        <v>583.0</v>
+        <v>391.0</v>
       </c>
       <c r="DF21" t="n">
         <v>328.0</v>
@@ -7051,14 +7108,17 @@
       </c>
       <c r="DH21" t="n">
         <v>364.0</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>386.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -7389,14 +7449,17 @@
       </c>
       <c r="DH22" t="n">
         <v>167.0</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>163.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -7727,14 +7790,17 @@
       </c>
       <c r="DH23" t="n">
         <v>190.0</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>219.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -8065,14 +8131,17 @@
       </c>
       <c r="DH24" t="n">
         <v>422.0</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>482.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -8403,14 +8472,17 @@
       </c>
       <c r="DH25" t="n">
         <v>1397.0</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>1449.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -8731,7 +8803,7 @@
         <v>10075.0</v>
       </c>
       <c r="DE26" t="n">
-        <v>9781.0</v>
+        <v>9794.0</v>
       </c>
       <c r="DF26" t="n">
         <v>9593.0</v>
@@ -8741,14 +8813,17 @@
       </c>
       <c r="DH26" t="n">
         <v>9296.0</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>9336.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -8860,13 +8935,14 @@
       <c r="DF27"/>
       <c r="DG27"/>
       <c r="DH27"/>
+      <c r="DI27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" t="s">
         <v>138</v>
-      </c>
-      <c r="B28" t="s">
-        <v>137</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -8978,6 +9054,7 @@
       <c r="DF28"/>
       <c r="DG28"/>
       <c r="DH28"/>
+      <c r="DI28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -8994,7 +9071,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
@@ -9339,13 +9416,16 @@
       <c r="DH3" t="s" s="10">
         <v>113</v>
       </c>
+      <c r="DI3" t="s" s="10">
+        <v>114</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -9676,14 +9756,17 @@
       </c>
       <c r="DH4" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -10013,15 +10096,18 @@
         <v>55.0</v>
       </c>
       <c r="DH5" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="DI5" t="n">
         <v>73.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -10352,14 +10438,17 @@
       </c>
       <c r="DH6" t="n">
         <v>22.0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -10690,14 +10779,17 @@
       </c>
       <c r="DH7" t="n">
         <v>32.0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -11028,14 +11120,17 @@
       </c>
       <c r="DH8" t="n">
         <v>1080.0</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>1021.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -11366,14 +11461,17 @@
       </c>
       <c r="DH9" t="n">
         <v>68.0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -11704,14 +11802,17 @@
       </c>
       <c r="DH10" t="n">
         <v>180.0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -12032,7 +12133,7 @@
         <v>47.0</v>
       </c>
       <c r="DE11" t="n">
-        <v>143.0</v>
+        <v>50.0</v>
       </c>
       <c r="DF11" t="n">
         <v>100.0</v>
@@ -12042,14 +12143,17 @@
       </c>
       <c r="DH11" t="n">
         <v>71.0</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -12380,14 +12484,17 @@
       </c>
       <c r="DH12" t="n">
         <v>174.0</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>162.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -12718,14 +12825,17 @@
       </c>
       <c r="DH13" t="n">
         <v>62.0</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -13056,14 +13166,17 @@
       </c>
       <c r="DH14" t="n">
         <v>46.0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -13394,14 +13507,17 @@
       </c>
       <c r="DH15" t="n">
         <v>82.0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -13732,14 +13848,17 @@
       </c>
       <c r="DH16" t="n">
         <v>51.0</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -14070,14 +14189,17 @@
       </c>
       <c r="DH17" t="n">
         <v>59.0</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -14408,14 +14530,17 @@
       </c>
       <c r="DH18" t="n">
         <v>250.0</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>244.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -14736,7 +14861,7 @@
         <v>651.0</v>
       </c>
       <c r="DE19" t="n">
-        <v>635.0</v>
+        <v>640.0</v>
       </c>
       <c r="DF19" t="n">
         <v>764.0</v>
@@ -14746,14 +14871,17 @@
       </c>
       <c r="DH19" t="n">
         <v>724.0</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>677.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -15074,7 +15202,7 @@
         <v>2103.0</v>
       </c>
       <c r="DE20" t="n">
-        <v>1309.0</v>
+        <v>1526.0</v>
       </c>
       <c r="DF20" t="n">
         <v>1636.0</v>
@@ -15084,14 +15212,17 @@
       </c>
       <c r="DH20" t="n">
         <v>1441.0</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>1390.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -15412,7 +15543,7 @@
         <v>279.0</v>
       </c>
       <c r="DE21" t="n">
-        <v>415.0</v>
+        <v>272.0</v>
       </c>
       <c r="DF21" t="n">
         <v>229.0</v>
@@ -15422,14 +15553,17 @@
       </c>
       <c r="DH21" t="n">
         <v>180.0</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>283.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -15760,14 +15894,17 @@
       </c>
       <c r="DH22" t="n">
         <v>120.0</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>123.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -16098,14 +16235,17 @@
       </c>
       <c r="DH23" t="n">
         <v>120.0</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -16436,14 +16576,17 @@
       </c>
       <c r="DH24" t="n">
         <v>284.0</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>341.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -16774,14 +16917,17 @@
       </c>
       <c r="DH25" t="n">
         <v>980.0</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>1036.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -17102,7 +17248,7 @@
         <v>6849.0</v>
       </c>
       <c r="DE26" t="n">
-        <v>6438.0</v>
+        <v>6424.0</v>
       </c>
       <c r="DF26" t="n">
         <v>6457.0</v>
@@ -17112,14 +17258,17 @@
       </c>
       <c r="DH26" t="n">
         <v>6141.0</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>6165.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -17231,13 +17380,14 @@
       <c r="DF27"/>
       <c r="DG27"/>
       <c r="DH27"/>
+      <c r="DI27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" t="s">
         <v>138</v>
-      </c>
-      <c r="B28" t="s">
-        <v>137</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -17349,6 +17499,7 @@
       <c r="DF28"/>
       <c r="DG28"/>
       <c r="DH28"/>
+      <c r="DI28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -17365,7 +17516,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2">
@@ -17710,13 +17861,16 @@
       <c r="DH3" t="s" s="10">
         <v>113</v>
       </c>
+      <c r="DI3" t="s" s="10">
+        <v>114</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -18046,15 +18200,18 @@
         <v>9.0</v>
       </c>
       <c r="DH4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DI4" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -18385,14 +18542,17 @@
       </c>
       <c r="DH5" t="n">
         <v>55.0</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -18722,15 +18882,18 @@
         <v>16.0</v>
       </c>
       <c r="DH6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="DI6" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -19061,14 +19224,17 @@
       </c>
       <c r="DH7" t="n">
         <v>28.0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -19399,14 +19565,17 @@
       </c>
       <c r="DH8" t="n">
         <v>543.0</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>536.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -19736,15 +19905,18 @@
         <v>61.0</v>
       </c>
       <c r="DH9" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="DI9" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -20075,14 +20247,17 @@
       </c>
       <c r="DH10" t="n">
         <v>89.0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -20403,7 +20578,7 @@
         <v>20.0</v>
       </c>
       <c r="DE11" t="n">
-        <v>81.0</v>
+        <v>45.0</v>
       </c>
       <c r="DF11" t="n">
         <v>29.0</v>
@@ -20413,14 +20588,17 @@
       </c>
       <c r="DH11" t="n">
         <v>29.0</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -20751,14 +20929,17 @@
       </c>
       <c r="DH12" t="n">
         <v>104.0</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -21089,14 +21270,17 @@
       </c>
       <c r="DH13" t="n">
         <v>40.0</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -21427,14 +21611,17 @@
       </c>
       <c r="DH14" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -21765,14 +21952,17 @@
       </c>
       <c r="DH15" t="n">
         <v>29.0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -22103,14 +22293,17 @@
       </c>
       <c r="DH16" t="n">
         <v>27.0</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -22441,14 +22634,17 @@
       </c>
       <c r="DH17" t="n">
         <v>11.0</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -22778,15 +22974,18 @@
         <v>136.0</v>
       </c>
       <c r="DH18" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="DI18" t="n">
         <v>134.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -23107,7 +23306,7 @@
         <v>398.0</v>
       </c>
       <c r="DE19" t="n">
-        <v>406.0</v>
+        <v>415.0</v>
       </c>
       <c r="DF19" t="n">
         <v>423.0</v>
@@ -23117,14 +23316,17 @@
       </c>
       <c r="DH19" t="n">
         <v>382.0</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>387.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -23445,7 +23647,7 @@
         <v>752.0</v>
       </c>
       <c r="DE20" t="n">
-        <v>677.0</v>
+        <v>762.0</v>
       </c>
       <c r="DF20" t="n">
         <v>755.0</v>
@@ -23455,14 +23657,17 @@
       </c>
       <c r="DH20" t="n">
         <v>695.0</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>777.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -23783,7 +23988,7 @@
         <v>128.0</v>
       </c>
       <c r="DE21" t="n">
-        <v>168.0</v>
+        <v>119.0</v>
       </c>
       <c r="DF21" t="n">
         <v>99.0</v>
@@ -23793,14 +23998,17 @@
       </c>
       <c r="DH21" t="n">
         <v>96.0</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -24131,14 +24339,17 @@
       </c>
       <c r="DH22" t="n">
         <v>47.0</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -24469,14 +24680,17 @@
       </c>
       <c r="DH23" t="n">
         <v>70.0</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -24807,14 +25021,17 @@
       </c>
       <c r="DH24" t="n">
         <v>138.0</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>141.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -25145,14 +25362,17 @@
       </c>
       <c r="DH25" t="n">
         <v>417.0</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>413.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -25473,7 +25693,7 @@
         <v>3209.0</v>
       </c>
       <c r="DE26" t="n">
-        <v>3343.0</v>
+        <v>3352.0</v>
       </c>
       <c r="DF26" t="n">
         <v>3136.0</v>
@@ -25483,14 +25703,17 @@
       </c>
       <c r="DH26" t="n">
         <v>3036.0</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>3117.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -25602,13 +25825,14 @@
       <c r="DF27"/>
       <c r="DG27"/>
       <c r="DH27"/>
+      <c r="DI27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" t="s">
         <v>138</v>
-      </c>
-      <c r="B28" t="s">
-        <v>137</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -25720,6 +25944,7 @@
       <c r="DF28"/>
       <c r="DG28"/>
       <c r="DH28"/>
+      <c r="DI28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="166">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 07/31/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/01/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -361,6 +361,9 @@
     <t>2020-07-31</t>
   </si>
   <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -505,10 +508,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 07/31/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/01/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 07/31/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/01/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -974,13 +977,16 @@
       <c r="DI3" t="s" s="10">
         <v>114</v>
       </c>
+      <c r="DJ3" t="s" s="10">
+        <v>115</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1314,14 +1320,17 @@
       </c>
       <c r="DI4" t="n">
         <v>71.0</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1655,14 +1664,17 @@
       </c>
       <c r="DI5" t="n">
         <v>134.0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -1996,14 +2008,17 @@
       </c>
       <c r="DI6" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2337,14 +2352,17 @@
       </c>
       <c r="DI7" t="n">
         <v>66.0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2678,14 +2696,17 @@
       </c>
       <c r="DI8" t="n">
         <v>1582.0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>1558.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3018,15 +3039,18 @@
         <v>123.0</v>
       </c>
       <c r="DI9" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="DJ9" t="n">
         <v>113.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3360,14 +3384,17 @@
       </c>
       <c r="DI10" t="n">
         <v>251.0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -3701,14 +3728,17 @@
       </c>
       <c r="DI11" t="n">
         <v>92.0</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4042,14 +4072,17 @@
       </c>
       <c r="DI12" t="n">
         <v>264.0</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>277.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -4383,14 +4416,17 @@
       </c>
       <c r="DI13" t="n">
         <v>105.0</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -4724,14 +4760,17 @@
       </c>
       <c r="DI14" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5065,14 +5104,17 @@
       </c>
       <c r="DI15" t="n">
         <v>106.0</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -5406,14 +5448,17 @@
       </c>
       <c r="DI16" t="n">
         <v>71.0</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -5747,14 +5792,17 @@
       </c>
       <c r="DI17" t="n">
         <v>68.0</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -6088,14 +6136,17 @@
       </c>
       <c r="DI18" t="n">
         <v>378.0</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>365.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -6429,14 +6480,17 @@
       </c>
       <c r="DI19" t="n">
         <v>1075.0</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>1089.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -6770,14 +6824,17 @@
       </c>
       <c r="DI20" t="n">
         <v>2177.0</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>2049.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -7111,14 +7168,17 @@
       </c>
       <c r="DI21" t="n">
         <v>386.0</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>360.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -7452,14 +7512,17 @@
       </c>
       <c r="DI22" t="n">
         <v>163.0</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>162.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -7793,14 +7856,17 @@
       </c>
       <c r="DI23" t="n">
         <v>219.0</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>225.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -8134,14 +8200,17 @@
       </c>
       <c r="DI24" t="n">
         <v>482.0</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>434.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -8475,14 +8544,17 @@
       </c>
       <c r="DI25" t="n">
         <v>1449.0</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>1310.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -8816,14 +8888,17 @@
       </c>
       <c r="DI26" t="n">
         <v>9336.0</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>17938.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -8936,13 +9011,14 @@
       <c r="DG27"/>
       <c r="DH27"/>
       <c r="DI27"/>
+      <c r="DJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
         <v>139</v>
-      </c>
-      <c r="B28" t="s">
-        <v>138</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -9055,6 +9131,7 @@
       <c r="DG28"/>
       <c r="DH28"/>
       <c r="DI28"/>
+      <c r="DJ28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -9071,7 +9148,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2">
@@ -9419,13 +9496,16 @@
       <c r="DI3" t="s" s="10">
         <v>114</v>
       </c>
+      <c r="DJ3" t="s" s="10">
+        <v>115</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -9759,14 +9839,17 @@
       </c>
       <c r="DI4" t="n">
         <v>43.0</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -10100,14 +10183,17 @@
       </c>
       <c r="DI5" t="n">
         <v>73.0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -10441,14 +10527,17 @@
       </c>
       <c r="DI6" t="n">
         <v>30.0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -10782,14 +10871,17 @@
       </c>
       <c r="DI7" t="n">
         <v>28.0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -11123,14 +11215,17 @@
       </c>
       <c r="DI8" t="n">
         <v>1021.0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>1011.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -11464,14 +11559,17 @@
       </c>
       <c r="DI9" t="n">
         <v>58.0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -11805,14 +11903,17 @@
       </c>
       <c r="DI10" t="n">
         <v>166.0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>160.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -12146,14 +12247,17 @@
       </c>
       <c r="DI11" t="n">
         <v>67.0</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -12487,14 +12591,17 @@
       </c>
       <c r="DI12" t="n">
         <v>162.0</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>170.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -12828,14 +12935,17 @@
       </c>
       <c r="DI13" t="n">
         <v>63.0</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -13169,14 +13279,17 @@
       </c>
       <c r="DI14" t="n">
         <v>36.0</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -13510,14 +13623,17 @@
       </c>
       <c r="DI15" t="n">
         <v>79.0</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -13850,15 +13966,18 @@
         <v>51.0</v>
       </c>
       <c r="DI16" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="DJ16" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -14192,14 +14311,17 @@
       </c>
       <c r="DI17" t="n">
         <v>58.0</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -14533,14 +14655,17 @@
       </c>
       <c r="DI18" t="n">
         <v>244.0</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>230.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -14874,14 +14999,17 @@
       </c>
       <c r="DI19" t="n">
         <v>677.0</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>664.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -15215,14 +15343,17 @@
       </c>
       <c r="DI20" t="n">
         <v>1390.0</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>1258.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -15556,14 +15687,17 @@
       </c>
       <c r="DI21" t="n">
         <v>283.0</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>260.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -15897,14 +16031,17 @@
       </c>
       <c r="DI22" t="n">
         <v>123.0</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>120.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -16238,14 +16375,17 @@
       </c>
       <c r="DI23" t="n">
         <v>146.0</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>151.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -16579,14 +16719,17 @@
       </c>
       <c r="DI24" t="n">
         <v>341.0</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>293.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -16920,14 +17063,17 @@
       </c>
       <c r="DI25" t="n">
         <v>1036.0</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>918.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -17261,14 +17407,17 @@
       </c>
       <c r="DI26" t="n">
         <v>6165.0</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>11588.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -17381,13 +17530,14 @@
       <c r="DG27"/>
       <c r="DH27"/>
       <c r="DI27"/>
+      <c r="DJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
         <v>139</v>
-      </c>
-      <c r="B28" t="s">
-        <v>138</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -17500,6 +17650,7 @@
       <c r="DG28"/>
       <c r="DH28"/>
       <c r="DI28"/>
+      <c r="DJ28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -17516,7 +17667,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
@@ -17864,13 +18015,16 @@
       <c r="DI3" t="s" s="10">
         <v>114</v>
       </c>
+      <c r="DJ3" t="s" s="10">
+        <v>115</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -18203,15 +18357,18 @@
         <v>28.0</v>
       </c>
       <c r="DI4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DJ4" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -18544,15 +18701,18 @@
         <v>55.0</v>
       </c>
       <c r="DI5" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DJ5" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -18885,15 +19045,18 @@
         <v>12.0</v>
       </c>
       <c r="DI6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="DJ6" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -19227,14 +19390,17 @@
       </c>
       <c r="DI7" t="n">
         <v>37.0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -19568,14 +19734,17 @@
       </c>
       <c r="DI8" t="n">
         <v>536.0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>518.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -19909,14 +20078,17 @@
       </c>
       <c r="DI9" t="n">
         <v>55.0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -20249,15 +20421,18 @@
         <v>89.0</v>
       </c>
       <c r="DI10" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="DJ10" t="n">
         <v>85.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -20591,14 +20766,17 @@
       </c>
       <c r="DI11" t="n">
         <v>25.0</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -20932,14 +21110,17 @@
       </c>
       <c r="DI12" t="n">
         <v>100.0</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -21273,14 +21454,17 @@
       </c>
       <c r="DI13" t="n">
         <v>41.0</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -21613,15 +21797,18 @@
         <v>7.0</v>
       </c>
       <c r="DI14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="DJ14" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -21955,14 +22142,17 @@
       </c>
       <c r="DI15" t="n">
         <v>27.0</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -22296,14 +22486,17 @@
       </c>
       <c r="DI16" t="n">
         <v>30.0</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -22636,15 +22829,18 @@
         <v>11.0</v>
       </c>
       <c r="DI17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DJ17" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -22978,14 +23174,17 @@
       </c>
       <c r="DI18" t="n">
         <v>134.0</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>135.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -23319,14 +23518,17 @@
       </c>
       <c r="DI19" t="n">
         <v>387.0</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>401.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -23660,14 +23862,17 @@
       </c>
       <c r="DI20" t="n">
         <v>777.0</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>791.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -24001,14 +24206,17 @@
       </c>
       <c r="DI21" t="n">
         <v>103.0</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -24342,14 +24550,17 @@
       </c>
       <c r="DI22" t="n">
         <v>40.0</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -24683,14 +24894,17 @@
       </c>
       <c r="DI23" t="n">
         <v>73.0</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -25023,15 +25237,18 @@
         <v>138.0</v>
       </c>
       <c r="DI24" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="DJ24" t="n">
         <v>141.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -25365,14 +25582,17 @@
       </c>
       <c r="DI25" t="n">
         <v>413.0</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>392.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -25706,14 +25926,17 @@
       </c>
       <c r="DI26" t="n">
         <v>3117.0</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>6230.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -25826,13 +26049,14 @@
       <c r="DG27"/>
       <c r="DH27"/>
       <c r="DI27"/>
+      <c r="DJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
         <v>139</v>
-      </c>
-      <c r="B28" t="s">
-        <v>138</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -25945,6 +26169,7 @@
       <c r="DG28"/>
       <c r="DH28"/>
       <c r="DI28"/>
+      <c r="DJ28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="168">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/01/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/03/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -364,6 +364,12 @@
     <t>2020-08-01</t>
   </si>
   <si>
+    <t>2020-08-02</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -508,10 +514,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/01/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/03/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/01/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/03/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -980,13 +986,19 @@
       <c r="DJ3" t="s" s="10">
         <v>115</v>
       </c>
+      <c r="DK3" t="s" s="10">
+        <v>116</v>
+      </c>
+      <c r="DL3" t="s" s="10">
+        <v>117</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1323,14 +1335,20 @@
       </c>
       <c r="DJ4" t="n">
         <v>77.0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1667,14 +1685,20 @@
       </c>
       <c r="DJ5" t="n">
         <v>127.0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>162.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2011,14 +2035,20 @@
       </c>
       <c r="DJ6" t="n">
         <v>38.0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2354,15 +2384,21 @@
         <v>66.0</v>
       </c>
       <c r="DJ7" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="DL7" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2699,14 +2735,20 @@
       </c>
       <c r="DJ8" t="n">
         <v>1558.0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>1523.0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>1576.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3043,14 +3085,20 @@
       </c>
       <c r="DJ9" t="n">
         <v>113.0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3387,14 +3435,20 @@
       </c>
       <c r="DJ10" t="n">
         <v>245.0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>243.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -3731,14 +3785,20 @@
       </c>
       <c r="DJ11" t="n">
         <v>144.0</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4075,14 +4135,20 @@
       </c>
       <c r="DJ12" t="n">
         <v>277.0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>290.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -4418,15 +4484,21 @@
         <v>105.0</v>
       </c>
       <c r="DJ13" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="DL13" t="n">
         <v>90.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -4763,14 +4835,20 @@
       </c>
       <c r="DJ14" t="n">
         <v>41.0</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5107,14 +5185,20 @@
       </c>
       <c r="DJ15" t="n">
         <v>64.0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -5451,14 +5535,20 @@
       </c>
       <c r="DJ16" t="n">
         <v>70.0</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -5795,14 +5885,20 @@
       </c>
       <c r="DJ17" t="n">
         <v>70.0</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -6139,14 +6235,20 @@
       </c>
       <c r="DJ18" t="n">
         <v>365.0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>348.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -6483,14 +6585,20 @@
       </c>
       <c r="DJ19" t="n">
         <v>1089.0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>964.0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>1012.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -6827,14 +6935,20 @@
       </c>
       <c r="DJ20" t="n">
         <v>2049.0</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>2077.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -7171,14 +7285,20 @@
       </c>
       <c r="DJ21" t="n">
         <v>360.0</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>371.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -7515,14 +7635,20 @@
       </c>
       <c r="DJ22" t="n">
         <v>162.0</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>165.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -7859,14 +7985,20 @@
       </c>
       <c r="DJ23" t="n">
         <v>225.0</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>219.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -8203,14 +8335,20 @@
       </c>
       <c r="DJ24" t="n">
         <v>434.0</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>385.0</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>372.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -8547,14 +8685,20 @@
       </c>
       <c r="DJ25" t="n">
         <v>1310.0</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>1249.0</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>1260.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -8890,15 +9034,21 @@
         <v>9336.0</v>
       </c>
       <c r="DJ26" t="n">
-        <v>17938.0</v>
+        <v>8969.0</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>8610.0</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>8819.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -9012,13 +9162,15 @@
       <c r="DH27"/>
       <c r="DI27"/>
       <c r="DJ27"/>
+      <c r="DK27"/>
+      <c r="DL27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -9132,6 +9284,8 @@
       <c r="DH28"/>
       <c r="DI28"/>
       <c r="DJ28"/>
+      <c r="DK28"/>
+      <c r="DL28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -9148,7 +9302,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2">
@@ -9499,13 +9653,19 @@
       <c r="DJ3" t="s" s="10">
         <v>115</v>
       </c>
+      <c r="DK3" t="s" s="10">
+        <v>116</v>
+      </c>
+      <c r="DL3" t="s" s="10">
+        <v>117</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -9841,15 +10001,21 @@
         <v>43.0</v>
       </c>
       <c r="DJ4" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="DL4" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -10186,14 +10352,20 @@
       </c>
       <c r="DJ5" t="n">
         <v>67.0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -10530,14 +10702,20 @@
       </c>
       <c r="DJ6" t="n">
         <v>26.0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -10874,14 +11052,20 @@
       </c>
       <c r="DJ7" t="n">
         <v>25.0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -11218,14 +11402,20 @@
       </c>
       <c r="DJ8" t="n">
         <v>1011.0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>1018.0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>1041.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -11562,14 +11752,20 @@
       </c>
       <c r="DJ9" t="n">
         <v>57.0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -11906,14 +12102,20 @@
       </c>
       <c r="DJ10" t="n">
         <v>160.0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>154.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -12250,14 +12452,20 @@
       </c>
       <c r="DJ11" t="n">
         <v>104.0</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -12594,14 +12802,20 @@
       </c>
       <c r="DJ12" t="n">
         <v>170.0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>186.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -12938,14 +13152,20 @@
       </c>
       <c r="DJ13" t="n">
         <v>50.0</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -13282,14 +13502,20 @@
       </c>
       <c r="DJ14" t="n">
         <v>35.0</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -13626,14 +13852,20 @@
       </c>
       <c r="DJ15" t="n">
         <v>45.0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -13970,14 +14202,20 @@
       </c>
       <c r="DJ16" t="n">
         <v>41.0</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -14314,14 +14552,20 @@
       </c>
       <c r="DJ17" t="n">
         <v>60.0</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -14658,14 +14902,20 @@
       </c>
       <c r="DJ18" t="n">
         <v>230.0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>221.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -15002,14 +15252,20 @@
       </c>
       <c r="DJ19" t="n">
         <v>664.0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>631.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -15346,14 +15602,20 @@
       </c>
       <c r="DJ20" t="n">
         <v>1258.0</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>1226.0</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>1280.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -15690,14 +15952,20 @@
       </c>
       <c r="DJ21" t="n">
         <v>260.0</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>255.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -16034,14 +16302,20 @@
       </c>
       <c r="DJ22" t="n">
         <v>120.0</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -16378,14 +16652,20 @@
       </c>
       <c r="DJ23" t="n">
         <v>151.0</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -16722,14 +17002,20 @@
       </c>
       <c r="DJ24" t="n">
         <v>293.0</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>234.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -17066,14 +17352,20 @@
       </c>
       <c r="DJ25" t="n">
         <v>918.0</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>846.0</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>873.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -17409,15 +17701,21 @@
         <v>6165.0</v>
       </c>
       <c r="DJ26" t="n">
-        <v>11588.0</v>
+        <v>5794.0</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>5534.0</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>5714.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -17531,13 +17829,15 @@
       <c r="DH27"/>
       <c r="DI27"/>
       <c r="DJ27"/>
+      <c r="DK27"/>
+      <c r="DL27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -17651,6 +17951,8 @@
       <c r="DH28"/>
       <c r="DI28"/>
       <c r="DJ28"/>
+      <c r="DK28"/>
+      <c r="DL28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -17667,7 +17969,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
@@ -18018,13 +18320,19 @@
       <c r="DJ3" t="s" s="10">
         <v>115</v>
       </c>
+      <c r="DK3" t="s" s="10">
+        <v>116</v>
+      </c>
+      <c r="DL3" t="s" s="10">
+        <v>117</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -18361,14 +18669,20 @@
       </c>
       <c r="DJ4" t="n">
         <v>28.0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -18705,14 +19019,20 @@
       </c>
       <c r="DJ5" t="n">
         <v>57.0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -19049,14 +19369,20 @@
       </c>
       <c r="DJ6" t="n">
         <v>12.0</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -19393,14 +19719,20 @@
       </c>
       <c r="DJ7" t="n">
         <v>36.0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -19737,14 +20069,20 @@
       </c>
       <c r="DJ8" t="n">
         <v>518.0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>481.0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>509.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -20081,14 +20419,20 @@
       </c>
       <c r="DJ9" t="n">
         <v>56.0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -20425,14 +20769,20 @@
       </c>
       <c r="DJ10" t="n">
         <v>85.0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -20769,14 +21119,20 @@
       </c>
       <c r="DJ11" t="n">
         <v>40.0</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -21113,14 +21469,20 @@
       </c>
       <c r="DJ12" t="n">
         <v>105.0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -21457,14 +21819,20 @@
       </c>
       <c r="DJ13" t="n">
         <v>39.0</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -21801,14 +22169,20 @@
       </c>
       <c r="DJ14" t="n">
         <v>6.0</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -22145,14 +22519,20 @@
       </c>
       <c r="DJ15" t="n">
         <v>19.0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -22489,14 +22869,20 @@
       </c>
       <c r="DJ16" t="n">
         <v>29.0</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -22833,14 +23219,20 @@
       </c>
       <c r="DJ17" t="n">
         <v>10.0</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -23177,14 +23569,20 @@
       </c>
       <c r="DJ18" t="n">
         <v>135.0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -23521,14 +23919,20 @@
       </c>
       <c r="DJ19" t="n">
         <v>401.0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>372.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -23865,14 +24269,20 @@
       </c>
       <c r="DJ20" t="n">
         <v>791.0</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>777.0</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>778.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -24209,14 +24619,20 @@
       </c>
       <c r="DJ21" t="n">
         <v>99.0</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>116.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -24553,14 +24969,20 @@
       </c>
       <c r="DJ22" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -24897,14 +25319,20 @@
       </c>
       <c r="DJ23" t="n">
         <v>74.0</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -25241,14 +25669,20 @@
       </c>
       <c r="DJ24" t="n">
         <v>141.0</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -25585,14 +26019,20 @@
       </c>
       <c r="DJ25" t="n">
         <v>392.0</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>403.0</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>387.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -25928,15 +26368,21 @@
         <v>3117.0</v>
       </c>
       <c r="DJ26" t="n">
-        <v>6230.0</v>
+        <v>3115.0</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>3014.0</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>3045.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -26050,13 +26496,15 @@
       <c r="DH27"/>
       <c r="DI27"/>
       <c r="DJ27"/>
+      <c r="DK27"/>
+      <c r="DL27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -26170,6 +26618,8 @@
       <c r="DH28"/>
       <c r="DI28"/>
       <c r="DJ28"/>
+      <c r="DK28"/>
+      <c r="DL28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="169">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/03/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/04/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -370,6 +370,9 @@
     <t>2020-08-03</t>
   </si>
   <si>
+    <t>2020-08-04</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -514,10 +517,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/03/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/04/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/03/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/04/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -992,13 +995,16 @@
       <c r="DL3" t="s" s="10">
         <v>117</v>
       </c>
+      <c r="DM3" t="s" s="10">
+        <v>118</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1341,14 +1347,17 @@
       </c>
       <c r="DL4" t="n">
         <v>78.0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1691,14 +1700,17 @@
       </c>
       <c r="DL5" t="n">
         <v>162.0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2041,14 +2053,17 @@
       </c>
       <c r="DL6" t="n">
         <v>45.0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2391,14 +2406,17 @@
       </c>
       <c r="DL7" t="n">
         <v>61.0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2741,14 +2759,17 @@
       </c>
       <c r="DL8" t="n">
         <v>1576.0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>1544.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3091,14 +3112,17 @@
       </c>
       <c r="DL9" t="n">
         <v>112.0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3441,14 +3465,17 @@
       </c>
       <c r="DL10" t="n">
         <v>243.0</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>256.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -3791,14 +3818,17 @@
       </c>
       <c r="DL11" t="n">
         <v>97.0</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4141,14 +4171,17 @@
       </c>
       <c r="DL12" t="n">
         <v>290.0</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>288.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -4491,14 +4524,17 @@
       </c>
       <c r="DL13" t="n">
         <v>90.0</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -4841,14 +4877,17 @@
       </c>
       <c r="DL14" t="n">
         <v>49.0</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5191,14 +5230,17 @@
       </c>
       <c r="DL15" t="n">
         <v>58.0</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -5541,14 +5583,17 @@
       </c>
       <c r="DL16" t="n">
         <v>67.0</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -5891,14 +5936,17 @@
       </c>
       <c r="DL17" t="n">
         <v>67.0</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -6241,14 +6289,17 @@
       </c>
       <c r="DL18" t="n">
         <v>348.0</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>347.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -6591,14 +6642,17 @@
       </c>
       <c r="DL19" t="n">
         <v>1012.0</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>1089.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -6941,14 +6995,17 @@
       </c>
       <c r="DL20" t="n">
         <v>2077.0</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>1936.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -7291,14 +7348,17 @@
       </c>
       <c r="DL21" t="n">
         <v>371.0</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>345.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -7641,14 +7701,17 @@
       </c>
       <c r="DL22" t="n">
         <v>165.0</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>167.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -7991,14 +8054,17 @@
       </c>
       <c r="DL23" t="n">
         <v>219.0</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>221.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -8341,14 +8407,17 @@
       </c>
       <c r="DL24" t="n">
         <v>372.0</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>371.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -8691,14 +8760,17 @@
       </c>
       <c r="DL25" t="n">
         <v>1260.0</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>1243.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -9041,14 +9113,17 @@
       </c>
       <c r="DL26" t="n">
         <v>8819.0</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>8674.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -9164,13 +9239,14 @@
       <c r="DJ27"/>
       <c r="DK27"/>
       <c r="DL27"/>
+      <c r="DM27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
         <v>142</v>
-      </c>
-      <c r="B28" t="s">
-        <v>141</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -9286,6 +9362,7 @@
       <c r="DJ28"/>
       <c r="DK28"/>
       <c r="DL28"/>
+      <c r="DM28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -9302,7 +9379,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
@@ -9659,13 +9736,16 @@
       <c r="DL3" t="s" s="10">
         <v>117</v>
       </c>
+      <c r="DM3" t="s" s="10">
+        <v>118</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -10008,14 +10088,17 @@
       </c>
       <c r="DL4" t="n">
         <v>49.0</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -10358,14 +10441,17 @@
       </c>
       <c r="DL5" t="n">
         <v>104.0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -10708,14 +10794,17 @@
       </c>
       <c r="DL6" t="n">
         <v>31.0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -11058,14 +11147,17 @@
       </c>
       <c r="DL7" t="n">
         <v>23.0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -11408,14 +11500,17 @@
       </c>
       <c r="DL8" t="n">
         <v>1041.0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>1022.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -11758,14 +11853,17 @@
       </c>
       <c r="DL9" t="n">
         <v>59.0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -12108,14 +12206,17 @@
       </c>
       <c r="DL10" t="n">
         <v>154.0</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>163.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -12458,14 +12559,17 @@
       </c>
       <c r="DL11" t="n">
         <v>68.0</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -12808,14 +12912,17 @@
       </c>
       <c r="DL12" t="n">
         <v>186.0</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>191.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -13158,14 +13265,17 @@
       </c>
       <c r="DL13" t="n">
         <v>54.0</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -13507,15 +13617,18 @@
         <v>38.0</v>
       </c>
       <c r="DL14" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="DM14" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -13857,15 +13970,18 @@
         <v>42.0</v>
       </c>
       <c r="DL15" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="DM15" t="n">
         <v>43.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -14208,14 +14324,17 @@
       </c>
       <c r="DL16" t="n">
         <v>43.0</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -14558,14 +14677,17 @@
       </c>
       <c r="DL17" t="n">
         <v>55.0</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -14908,14 +15030,17 @@
       </c>
       <c r="DL18" t="n">
         <v>221.0</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>226.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -15258,14 +15383,17 @@
       </c>
       <c r="DL19" t="n">
         <v>631.0</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>684.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -15608,14 +15736,17 @@
       </c>
       <c r="DL20" t="n">
         <v>1280.0</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>1180.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -15958,14 +16089,17 @@
       </c>
       <c r="DL21" t="n">
         <v>255.0</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>239.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -16308,14 +16442,17 @@
       </c>
       <c r="DL22" t="n">
         <v>127.0</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -16658,14 +16795,17 @@
       </c>
       <c r="DL23" t="n">
         <v>146.0</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -17008,14 +17148,17 @@
       </c>
       <c r="DL24" t="n">
         <v>234.0</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>242.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -17358,14 +17501,17 @@
       </c>
       <c r="DL25" t="n">
         <v>873.0</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>859.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -17708,14 +17854,17 @@
       </c>
       <c r="DL26" t="n">
         <v>5714.0</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>5628.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -17831,13 +17980,14 @@
       <c r="DJ27"/>
       <c r="DK27"/>
       <c r="DL27"/>
+      <c r="DM27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
         <v>142</v>
-      </c>
-      <c r="B28" t="s">
-        <v>141</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -17953,6 +18103,7 @@
       <c r="DJ28"/>
       <c r="DK28"/>
       <c r="DL28"/>
+      <c r="DM28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -17969,7 +18120,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
@@ -18326,13 +18477,16 @@
       <c r="DL3" t="s" s="10">
         <v>117</v>
       </c>
+      <c r="DM3" t="s" s="10">
+        <v>118</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -18674,15 +18828,18 @@
         <v>29.0</v>
       </c>
       <c r="DL4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="DM4" t="n">
         <v>29.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -19024,15 +19181,18 @@
         <v>57.0</v>
       </c>
       <c r="DL5" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="DM5" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -19375,14 +19535,17 @@
       </c>
       <c r="DL6" t="n">
         <v>14.0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -19725,14 +19888,17 @@
       </c>
       <c r="DL7" t="n">
         <v>38.0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -20075,14 +20241,17 @@
       </c>
       <c r="DL8" t="n">
         <v>509.0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>498.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -20425,14 +20594,17 @@
       </c>
       <c r="DL9" t="n">
         <v>53.0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -20775,14 +20947,17 @@
       </c>
       <c r="DL10" t="n">
         <v>89.0</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -21124,15 +21299,18 @@
         <v>27.0</v>
       </c>
       <c r="DL11" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="DM11" t="n">
         <v>29.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -21475,14 +21653,17 @@
       </c>
       <c r="DL12" t="n">
         <v>103.0</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -21825,14 +22006,17 @@
       </c>
       <c r="DL13" t="n">
         <v>35.0</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -22175,14 +22359,17 @@
       </c>
       <c r="DL14" t="n">
         <v>12.0</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -22525,14 +22712,17 @@
       </c>
       <c r="DL15" t="n">
         <v>15.0</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -22874,15 +23064,18 @@
         <v>25.0</v>
       </c>
       <c r="DL16" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DM16" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -23225,14 +23418,17 @@
       </c>
       <c r="DL17" t="n">
         <v>12.0</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -23575,14 +23771,17 @@
       </c>
       <c r="DL18" t="n">
         <v>127.0</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -23925,14 +24124,17 @@
       </c>
       <c r="DL19" t="n">
         <v>372.0</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>393.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -24275,14 +24477,17 @@
       </c>
       <c r="DL20" t="n">
         <v>778.0</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>756.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -24625,14 +24830,17 @@
       </c>
       <c r="DL21" t="n">
         <v>116.0</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -24975,14 +25183,17 @@
       </c>
       <c r="DL22" t="n">
         <v>38.0</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -25325,14 +25536,17 @@
       </c>
       <c r="DL23" t="n">
         <v>73.0</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -25675,14 +25889,17 @@
       </c>
       <c r="DL24" t="n">
         <v>138.0</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>129.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -26025,14 +26242,17 @@
       </c>
       <c r="DL25" t="n">
         <v>387.0</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>384.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -26375,14 +26595,17 @@
       </c>
       <c r="DL26" t="n">
         <v>3045.0</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>3006.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -26498,13 +26721,14 @@
       <c r="DJ27"/>
       <c r="DK27"/>
       <c r="DL27"/>
+      <c r="DM27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
         <v>142</v>
-      </c>
-      <c r="B28" t="s">
-        <v>141</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -26620,6 +26844,7 @@
       <c r="DJ28"/>
       <c r="DK28"/>
       <c r="DL28"/>
+      <c r="DM28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="170">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/04/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/05/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -373,6 +373,9 @@
     <t>2020-08-04</t>
   </si>
   <si>
+    <t>2020-08-05</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -517,10 +520,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/04/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/05/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/04/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/05/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -998,13 +1001,16 @@
       <c r="DM3" t="s" s="10">
         <v>118</v>
       </c>
+      <c r="DN3" t="s" s="10">
+        <v>119</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1350,14 +1356,17 @@
       </c>
       <c r="DM4" t="n">
         <v>79.0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1703,14 +1712,17 @@
       </c>
       <c r="DM5" t="n">
         <v>130.0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2056,14 +2068,17 @@
       </c>
       <c r="DM6" t="n">
         <v>44.0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2409,14 +2424,17 @@
       </c>
       <c r="DM7" t="n">
         <v>58.0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2762,14 +2780,17 @@
       </c>
       <c r="DM8" t="n">
         <v>1544.0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>1497.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3114,15 +3135,18 @@
         <v>112.0</v>
       </c>
       <c r="DM9" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="DN9" t="n">
         <v>109.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3468,14 +3492,17 @@
       </c>
       <c r="DM10" t="n">
         <v>256.0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>250.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -3821,14 +3848,17 @@
       </c>
       <c r="DM11" t="n">
         <v>105.0</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4174,14 +4204,17 @@
       </c>
       <c r="DM12" t="n">
         <v>288.0</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>250.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -4527,14 +4560,17 @@
       </c>
       <c r="DM13" t="n">
         <v>94.0</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -4880,14 +4916,17 @@
       </c>
       <c r="DM14" t="n">
         <v>46.0</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5233,14 +5272,17 @@
       </c>
       <c r="DM15" t="n">
         <v>61.0</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -5586,14 +5628,17 @@
       </c>
       <c r="DM16" t="n">
         <v>68.0</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -5939,14 +5984,17 @@
       </c>
       <c r="DM17" t="n">
         <v>73.0</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -6292,14 +6340,17 @@
       </c>
       <c r="DM18" t="n">
         <v>347.0</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>342.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -6645,14 +6696,17 @@
       </c>
       <c r="DM19" t="n">
         <v>1089.0</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>1035.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -6998,14 +7052,17 @@
       </c>
       <c r="DM20" t="n">
         <v>1936.0</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>1923.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -7351,14 +7408,17 @@
       </c>
       <c r="DM21" t="n">
         <v>345.0</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>348.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -7704,14 +7764,17 @@
       </c>
       <c r="DM22" t="n">
         <v>167.0</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -8056,15 +8119,18 @@
         <v>219.0</v>
       </c>
       <c r="DM23" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="DN23" t="n">
         <v>221.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -8410,14 +8476,17 @@
       </c>
       <c r="DM24" t="n">
         <v>371.0</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>372.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -8763,14 +8832,17 @@
       </c>
       <c r="DM25" t="n">
         <v>1243.0</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>1212.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -9116,14 +9188,17 @@
       </c>
       <c r="DM26" t="n">
         <v>8674.0</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>8455.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -9240,13 +9315,14 @@
       <c r="DK27"/>
       <c r="DL27"/>
       <c r="DM27"/>
+      <c r="DN27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s">
         <v>143</v>
-      </c>
-      <c r="B28" t="s">
-        <v>142</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -9363,6 +9439,7 @@
       <c r="DK28"/>
       <c r="DL28"/>
       <c r="DM28"/>
+      <c r="DN28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -9379,7 +9456,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
@@ -9739,13 +9816,16 @@
       <c r="DM3" t="s" s="10">
         <v>118</v>
       </c>
+      <c r="DN3" t="s" s="10">
+        <v>119</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -10091,14 +10171,17 @@
       </c>
       <c r="DM4" t="n">
         <v>50.0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -10444,14 +10527,17 @@
       </c>
       <c r="DM5" t="n">
         <v>73.0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -10796,15 +10882,18 @@
         <v>31.0</v>
       </c>
       <c r="DM6" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DN6" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -11150,14 +11239,17 @@
       </c>
       <c r="DM7" t="n">
         <v>18.0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -11503,14 +11595,17 @@
       </c>
       <c r="DM8" t="n">
         <v>1022.0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>993.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -11856,14 +11951,17 @@
       </c>
       <c r="DM9" t="n">
         <v>54.0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -12209,14 +12307,17 @@
       </c>
       <c r="DM10" t="n">
         <v>163.0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>167.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -12562,14 +12663,17 @@
       </c>
       <c r="DM11" t="n">
         <v>76.0</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -12915,14 +13019,17 @@
       </c>
       <c r="DM12" t="n">
         <v>191.0</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>165.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -13268,14 +13375,17 @@
       </c>
       <c r="DM13" t="n">
         <v>62.0</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -13621,14 +13731,17 @@
       </c>
       <c r="DM14" t="n">
         <v>37.0</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -13974,14 +14087,17 @@
       </c>
       <c r="DM15" t="n">
         <v>43.0</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -14327,14 +14443,17 @@
       </c>
       <c r="DM16" t="n">
         <v>44.0</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -14680,14 +14799,17 @@
       </c>
       <c r="DM17" t="n">
         <v>62.0</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -15033,14 +15155,17 @@
       </c>
       <c r="DM18" t="n">
         <v>226.0</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>224.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -15386,14 +15511,17 @@
       </c>
       <c r="DM19" t="n">
         <v>684.0</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>644.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -15739,14 +15867,17 @@
       </c>
       <c r="DM20" t="n">
         <v>1180.0</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>1246.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -16091,15 +16222,18 @@
         <v>255.0</v>
       </c>
       <c r="DM21" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="DN21" t="n">
         <v>239.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -16445,14 +16579,17 @@
       </c>
       <c r="DM22" t="n">
         <v>124.0</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>122.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -16798,14 +16935,17 @@
       </c>
       <c r="DM23" t="n">
         <v>152.0</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -17151,14 +17291,17 @@
       </c>
       <c r="DM24" t="n">
         <v>242.0</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>224.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -17504,14 +17647,17 @@
       </c>
       <c r="DM25" t="n">
         <v>859.0</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>813.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -17857,14 +18003,17 @@
       </c>
       <c r="DM26" t="n">
         <v>5628.0</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>5490.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -17981,13 +18130,14 @@
       <c r="DK27"/>
       <c r="DL27"/>
       <c r="DM27"/>
+      <c r="DN27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s">
         <v>143</v>
-      </c>
-      <c r="B28" t="s">
-        <v>142</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -18104,6 +18254,7 @@
       <c r="DK28"/>
       <c r="DL28"/>
       <c r="DM28"/>
+      <c r="DN28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -18120,7 +18271,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
@@ -18480,13 +18631,16 @@
       <c r="DM3" t="s" s="10">
         <v>118</v>
       </c>
+      <c r="DN3" t="s" s="10">
+        <v>119</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -18831,15 +18985,18 @@
         <v>29.0</v>
       </c>
       <c r="DM4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="DN4" t="n">
         <v>29.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -19185,14 +19342,17 @@
       </c>
       <c r="DM5" t="n">
         <v>54.0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -19538,14 +19698,17 @@
       </c>
       <c r="DM6" t="n">
         <v>17.0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -19891,14 +20054,17 @@
       </c>
       <c r="DM7" t="n">
         <v>40.0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -20244,14 +20410,17 @@
       </c>
       <c r="DM8" t="n">
         <v>498.0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>475.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -20597,14 +20766,17 @@
       </c>
       <c r="DM9" t="n">
         <v>55.0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -20950,14 +21122,17 @@
       </c>
       <c r="DM10" t="n">
         <v>93.0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -21303,14 +21478,17 @@
       </c>
       <c r="DM11" t="n">
         <v>29.0</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -21656,14 +21834,17 @@
       </c>
       <c r="DM12" t="n">
         <v>96.0</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -22009,14 +22190,17 @@
       </c>
       <c r="DM13" t="n">
         <v>32.0</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -22361,15 +22545,18 @@
         <v>12.0</v>
       </c>
       <c r="DM14" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DN14" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -22715,14 +22902,17 @@
       </c>
       <c r="DM15" t="n">
         <v>18.0</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -23068,14 +23258,17 @@
       </c>
       <c r="DM16" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -23421,14 +23614,17 @@
       </c>
       <c r="DM17" t="n">
         <v>11.0</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -23774,14 +23970,17 @@
       </c>
       <c r="DM18" t="n">
         <v>121.0</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -24127,14 +24326,17 @@
       </c>
       <c r="DM19" t="n">
         <v>393.0</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>378.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -24480,14 +24682,17 @@
       </c>
       <c r="DM20" t="n">
         <v>756.0</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>675.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -24833,14 +25038,17 @@
       </c>
       <c r="DM21" t="n">
         <v>106.0</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -25186,14 +25394,17 @@
       </c>
       <c r="DM22" t="n">
         <v>43.0</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -25539,14 +25750,17 @@
       </c>
       <c r="DM23" t="n">
         <v>69.0</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -25892,14 +26106,17 @@
       </c>
       <c r="DM24" t="n">
         <v>129.0</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -26245,14 +26462,17 @@
       </c>
       <c r="DM25" t="n">
         <v>384.0</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>399.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -26598,14 +26818,17 @@
       </c>
       <c r="DM26" t="n">
         <v>3006.0</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>2917.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -26722,13 +26945,14 @@
       <c r="DK27"/>
       <c r="DL27"/>
       <c r="DM27"/>
+      <c r="DN27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s">
         <v>143</v>
-      </c>
-      <c r="B28" t="s">
-        <v>142</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -26845,6 +27069,7 @@
       <c r="DK28"/>
       <c r="DL28"/>
       <c r="DM28"/>
+      <c r="DN28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="171">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/05/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/06/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -376,6 +376,9 @@
     <t>2020-08-05</t>
   </si>
   <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -520,10 +523,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/05/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/06/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/05/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/06/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -1004,13 +1007,16 @@
       <c r="DN3" t="s" s="10">
         <v>119</v>
       </c>
+      <c r="DO3" t="s" s="10">
+        <v>120</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1359,14 +1365,17 @@
       </c>
       <c r="DN4" t="n">
         <v>72.0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1715,14 +1724,17 @@
       </c>
       <c r="DN5" t="n">
         <v>118.0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2071,14 +2083,17 @@
       </c>
       <c r="DN6" t="n">
         <v>46.0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2427,14 +2442,17 @@
       </c>
       <c r="DN7" t="n">
         <v>65.0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2783,14 +2801,17 @@
       </c>
       <c r="DN8" t="n">
         <v>1497.0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>1443.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3139,14 +3160,17 @@
       </c>
       <c r="DN9" t="n">
         <v>109.0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3495,14 +3519,17 @@
       </c>
       <c r="DN10" t="n">
         <v>250.0</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>259.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -3851,14 +3878,17 @@
       </c>
       <c r="DN11" t="n">
         <v>100.0</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4207,14 +4237,17 @@
       </c>
       <c r="DN12" t="n">
         <v>250.0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>255.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -4563,14 +4596,17 @@
       </c>
       <c r="DN13" t="n">
         <v>82.0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -4919,14 +4955,17 @@
       </c>
       <c r="DN14" t="n">
         <v>53.0</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5275,14 +5314,17 @@
       </c>
       <c r="DN15" t="n">
         <v>69.0</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -5631,14 +5673,17 @@
       </c>
       <c r="DN16" t="n">
         <v>63.0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -5987,14 +6032,17 @@
       </c>
       <c r="DN17" t="n">
         <v>62.0</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -6342,15 +6390,18 @@
         <v>347.0</v>
       </c>
       <c r="DN18" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="DO18" t="n">
         <v>342.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -6699,14 +6750,17 @@
       </c>
       <c r="DN19" t="n">
         <v>1035.0</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>1010.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -7055,14 +7109,17 @@
       </c>
       <c r="DN20" t="n">
         <v>1923.0</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>1839.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -7411,14 +7468,17 @@
       </c>
       <c r="DN21" t="n">
         <v>348.0</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>368.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -7767,14 +7827,17 @@
       </c>
       <c r="DN22" t="n">
         <v>166.0</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>159.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -8123,14 +8186,17 @@
       </c>
       <c r="DN23" t="n">
         <v>221.0</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>219.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -8479,14 +8545,17 @@
       </c>
       <c r="DN24" t="n">
         <v>372.0</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>392.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -8835,14 +8904,17 @@
       </c>
       <c r="DN25" t="n">
         <v>1212.0</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>1185.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -9191,14 +9263,17 @@
       </c>
       <c r="DN26" t="n">
         <v>8455.0</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>8302.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -9316,13 +9391,14 @@
       <c r="DL27"/>
       <c r="DM27"/>
       <c r="DN27"/>
+      <c r="DO27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s">
         <v>144</v>
-      </c>
-      <c r="B28" t="s">
-        <v>143</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -9440,6 +9516,7 @@
       <c r="DL28"/>
       <c r="DM28"/>
       <c r="DN28"/>
+      <c r="DO28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -9456,7 +9533,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
@@ -9819,13 +9896,16 @@
       <c r="DN3" t="s" s="10">
         <v>119</v>
       </c>
+      <c r="DO3" t="s" s="10">
+        <v>120</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -10174,14 +10254,17 @@
       </c>
       <c r="DN4" t="n">
         <v>43.0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -10530,14 +10613,17 @@
       </c>
       <c r="DN5" t="n">
         <v>59.0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -10886,14 +10972,17 @@
       </c>
       <c r="DN6" t="n">
         <v>27.0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -11242,14 +11331,17 @@
       </c>
       <c r="DN7" t="n">
         <v>20.0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -11598,14 +11690,17 @@
       </c>
       <c r="DN8" t="n">
         <v>993.0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>979.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -11954,14 +12049,17 @@
       </c>
       <c r="DN9" t="n">
         <v>53.0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -12310,14 +12408,17 @@
       </c>
       <c r="DN10" t="n">
         <v>167.0</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>173.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -12666,14 +12767,17 @@
       </c>
       <c r="DN11" t="n">
         <v>73.0</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -13022,14 +13126,17 @@
       </c>
       <c r="DN12" t="n">
         <v>165.0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -13378,14 +13485,17 @@
       </c>
       <c r="DN13" t="n">
         <v>53.0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -13734,14 +13844,17 @@
       </c>
       <c r="DN14" t="n">
         <v>44.0</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -14090,14 +14203,17 @@
       </c>
       <c r="DN15" t="n">
         <v>45.0</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -14446,14 +14562,17 @@
       </c>
       <c r="DN16" t="n">
         <v>40.0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -14802,14 +14921,17 @@
       </c>
       <c r="DN17" t="n">
         <v>48.0</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -15158,14 +15280,17 @@
       </c>
       <c r="DN18" t="n">
         <v>224.0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>221.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -15514,14 +15639,17 @@
       </c>
       <c r="DN19" t="n">
         <v>644.0</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>609.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -15870,14 +15998,17 @@
       </c>
       <c r="DN20" t="n">
         <v>1246.0</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>1191.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -16226,14 +16357,17 @@
       </c>
       <c r="DN21" t="n">
         <v>239.0</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>253.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -16582,14 +16716,17 @@
       </c>
       <c r="DN22" t="n">
         <v>122.0</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -16938,14 +17075,17 @@
       </c>
       <c r="DN23" t="n">
         <v>148.0</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -17294,14 +17434,17 @@
       </c>
       <c r="DN24" t="n">
         <v>224.0</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>264.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -17650,14 +17793,17 @@
       </c>
       <c r="DN25" t="n">
         <v>813.0</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>777.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -18006,14 +18152,17 @@
       </c>
       <c r="DN26" t="n">
         <v>5490.0</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>5387.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -18131,13 +18280,14 @@
       <c r="DL27"/>
       <c r="DM27"/>
       <c r="DN27"/>
+      <c r="DO27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s">
         <v>144</v>
-      </c>
-      <c r="B28" t="s">
-        <v>143</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -18255,6 +18405,7 @@
       <c r="DL28"/>
       <c r="DM28"/>
       <c r="DN28"/>
+      <c r="DO28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -18271,7 +18422,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2">
@@ -18634,13 +18785,16 @@
       <c r="DN3" t="s" s="10">
         <v>119</v>
       </c>
+      <c r="DO3" t="s" s="10">
+        <v>120</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -18989,14 +19143,17 @@
       </c>
       <c r="DN4" t="n">
         <v>29.0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -19345,14 +19502,17 @@
       </c>
       <c r="DN5" t="n">
         <v>58.0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -19701,14 +19861,17 @@
       </c>
       <c r="DN6" t="n">
         <v>19.0</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -20057,14 +20220,17 @@
       </c>
       <c r="DN7" t="n">
         <v>45.0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -20413,14 +20579,17 @@
       </c>
       <c r="DN8" t="n">
         <v>475.0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>437.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -20769,14 +20938,17 @@
       </c>
       <c r="DN9" t="n">
         <v>56.0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -21125,14 +21297,17 @@
       </c>
       <c r="DN10" t="n">
         <v>83.0</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -21481,14 +21656,17 @@
       </c>
       <c r="DN11" t="n">
         <v>27.0</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -21837,14 +22015,17 @@
       </c>
       <c r="DN12" t="n">
         <v>85.0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -22193,14 +22374,17 @@
       </c>
       <c r="DN13" t="n">
         <v>29.0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -22548,15 +22732,18 @@
         <v>9.0</v>
       </c>
       <c r="DN14" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DO14" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -22905,14 +23092,17 @@
       </c>
       <c r="DN15" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -23261,14 +23451,17 @@
       </c>
       <c r="DN16" t="n">
         <v>23.0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -23617,14 +23810,17 @@
       </c>
       <c r="DN17" t="n">
         <v>14.0</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -23972,15 +24168,18 @@
         <v>121.0</v>
       </c>
       <c r="DN18" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="DO18" t="n">
         <v>115.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -24329,14 +24528,17 @@
       </c>
       <c r="DN19" t="n">
         <v>378.0</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>385.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -24685,14 +24887,17 @@
       </c>
       <c r="DN20" t="n">
         <v>675.0</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>647.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -25041,14 +25246,17 @@
       </c>
       <c r="DN21" t="n">
         <v>109.0</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -25396,15 +25604,18 @@
         <v>43.0</v>
       </c>
       <c r="DN22" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="DO22" t="n">
         <v>44.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -25753,14 +25964,17 @@
       </c>
       <c r="DN23" t="n">
         <v>73.0</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -26109,14 +26323,17 @@
       </c>
       <c r="DN24" t="n">
         <v>148.0</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -26465,14 +26682,17 @@
       </c>
       <c r="DN25" t="n">
         <v>399.0</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>408.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -26821,14 +27041,17 @@
       </c>
       <c r="DN26" t="n">
         <v>2917.0</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>2863.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -26946,13 +27169,14 @@
       <c r="DL27"/>
       <c r="DM27"/>
       <c r="DN27"/>
+      <c r="DO27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s">
         <v>144</v>
-      </c>
-      <c r="B28" t="s">
-        <v>143</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -27070,6 +27294,7 @@
       <c r="DL28"/>
       <c r="DM28"/>
       <c r="DN28"/>
+      <c r="DO28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="172">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/06/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/07/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -379,6 +379,9 @@
     <t>2020-08-06</t>
   </si>
   <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -523,10 +526,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/06/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/07/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/06/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/07/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -1010,13 +1013,16 @@
       <c r="DO3" t="s" s="10">
         <v>120</v>
       </c>
+      <c r="DP3" t="s" s="10">
+        <v>121</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1367,15 +1373,18 @@
         <v>72.0</v>
       </c>
       <c r="DO4" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DP4" t="n">
         <v>75.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1727,14 +1736,17 @@
       </c>
       <c r="DO5" t="n">
         <v>113.0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>123.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2086,14 +2098,17 @@
       </c>
       <c r="DO6" t="n">
         <v>51.0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2445,14 +2460,17 @@
       </c>
       <c r="DO7" t="n">
         <v>66.0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2804,14 +2822,17 @@
       </c>
       <c r="DO8" t="n">
         <v>1443.0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>1397.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3163,14 +3184,17 @@
       </c>
       <c r="DO9" t="n">
         <v>102.0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3522,14 +3546,17 @@
       </c>
       <c r="DO10" t="n">
         <v>259.0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>263.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -3881,14 +3908,17 @@
       </c>
       <c r="DO11" t="n">
         <v>92.0</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4240,14 +4270,17 @@
       </c>
       <c r="DO12" t="n">
         <v>255.0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>236.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -4599,14 +4632,17 @@
       </c>
       <c r="DO13" t="n">
         <v>83.0</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -4958,14 +4994,17 @@
       </c>
       <c r="DO14" t="n">
         <v>51.0</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5317,14 +5356,17 @@
       </c>
       <c r="DO15" t="n">
         <v>73.0</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -5676,14 +5718,17 @@
       </c>
       <c r="DO16" t="n">
         <v>68.0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -6035,14 +6080,17 @@
       </c>
       <c r="DO17" t="n">
         <v>57.0</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -6394,14 +6442,17 @@
       </c>
       <c r="DO18" t="n">
         <v>342.0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>326.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -6753,14 +6804,17 @@
       </c>
       <c r="DO19" t="n">
         <v>1010.0</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>944.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -7112,14 +7166,17 @@
       </c>
       <c r="DO20" t="n">
         <v>1839.0</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>1871.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -7471,14 +7528,17 @@
       </c>
       <c r="DO21" t="n">
         <v>368.0</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>289.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -7830,14 +7890,17 @@
       </c>
       <c r="DO22" t="n">
         <v>159.0</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -8189,14 +8252,17 @@
       </c>
       <c r="DO23" t="n">
         <v>219.0</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>209.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -8548,14 +8614,17 @@
       </c>
       <c r="DO24" t="n">
         <v>392.0</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>371.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -8907,14 +8976,17 @@
       </c>
       <c r="DO25" t="n">
         <v>1185.0</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>1201.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -9266,14 +9338,17 @@
       </c>
       <c r="DO26" t="n">
         <v>8302.0</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>8065.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -9392,13 +9467,14 @@
       <c r="DM27"/>
       <c r="DN27"/>
       <c r="DO27"/>
+      <c r="DP27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
         <v>145</v>
-      </c>
-      <c r="B28" t="s">
-        <v>144</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -9517,6 +9593,7 @@
       <c r="DM28"/>
       <c r="DN28"/>
       <c r="DO28"/>
+      <c r="DP28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -9533,7 +9610,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2">
@@ -9899,13 +9976,16 @@
       <c r="DO3" t="s" s="10">
         <v>120</v>
       </c>
+      <c r="DP3" t="s" s="10">
+        <v>121</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -10256,15 +10336,18 @@
         <v>43.0</v>
       </c>
       <c r="DO4" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="DP4" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -10616,14 +10699,17 @@
       </c>
       <c r="DO5" t="n">
         <v>55.0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -10975,14 +11061,17 @@
       </c>
       <c r="DO6" t="n">
         <v>31.0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -11334,14 +11423,17 @@
       </c>
       <c r="DO7" t="n">
         <v>22.0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -11693,14 +11785,17 @@
       </c>
       <c r="DO8" t="n">
         <v>979.0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>937.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -12052,14 +12147,17 @@
       </c>
       <c r="DO9" t="n">
         <v>50.0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -12411,14 +12509,17 @@
       </c>
       <c r="DO10" t="n">
         <v>173.0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>176.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -12770,14 +12871,17 @@
       </c>
       <c r="DO11" t="n">
         <v>67.0</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -13129,14 +13233,17 @@
       </c>
       <c r="DO12" t="n">
         <v>166.0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -13488,14 +13595,17 @@
       </c>
       <c r="DO13" t="n">
         <v>55.0</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -13846,15 +13956,18 @@
         <v>44.0</v>
       </c>
       <c r="DO14" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DP14" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -14206,14 +14319,17 @@
       </c>
       <c r="DO15" t="n">
         <v>50.0</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -14565,14 +14681,17 @@
       </c>
       <c r="DO16" t="n">
         <v>45.0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -14924,14 +15043,17 @@
       </c>
       <c r="DO17" t="n">
         <v>39.0</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -15283,14 +15405,17 @@
       </c>
       <c r="DO18" t="n">
         <v>221.0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>214.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -15642,14 +15767,17 @@
       </c>
       <c r="DO19" t="n">
         <v>609.0</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>579.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -16001,14 +16129,17 @@
       </c>
       <c r="DO20" t="n">
         <v>1191.0</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>1212.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -16360,14 +16491,17 @@
       </c>
       <c r="DO21" t="n">
         <v>253.0</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -16719,14 +16853,17 @@
       </c>
       <c r="DO22" t="n">
         <v>115.0</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -17078,14 +17215,17 @@
       </c>
       <c r="DO23" t="n">
         <v>144.0</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>136.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -17437,14 +17577,17 @@
       </c>
       <c r="DO24" t="n">
         <v>264.0</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>247.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -17796,14 +17939,17 @@
       </c>
       <c r="DO25" t="n">
         <v>777.0</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>791.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -18155,14 +18301,17 @@
       </c>
       <c r="DO26" t="n">
         <v>5387.0</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>5212.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -18281,13 +18430,14 @@
       <c r="DM27"/>
       <c r="DN27"/>
       <c r="DO27"/>
+      <c r="DP27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
         <v>145</v>
-      </c>
-      <c r="B28" t="s">
-        <v>144</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -18406,6 +18556,7 @@
       <c r="DM28"/>
       <c r="DN28"/>
       <c r="DO28"/>
+      <c r="DP28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -18422,7 +18573,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
@@ -18788,13 +18939,16 @@
       <c r="DO3" t="s" s="10">
         <v>120</v>
       </c>
+      <c r="DP3" t="s" s="10">
+        <v>121</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -19145,15 +19299,18 @@
         <v>29.0</v>
       </c>
       <c r="DO4" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="DP4" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -19504,15 +19661,18 @@
         <v>58.0</v>
       </c>
       <c r="DO5" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DP5" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -19863,15 +20023,18 @@
         <v>19.0</v>
       </c>
       <c r="DO6" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="DP6" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -20223,14 +20386,17 @@
       </c>
       <c r="DO7" t="n">
         <v>44.0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -20582,14 +20748,17 @@
       </c>
       <c r="DO8" t="n">
         <v>437.0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>431.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -20941,14 +21110,17 @@
       </c>
       <c r="DO9" t="n">
         <v>52.0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -21300,14 +21472,17 @@
       </c>
       <c r="DO10" t="n">
         <v>86.0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -21659,14 +21834,17 @@
       </c>
       <c r="DO11" t="n">
         <v>25.0</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -22018,14 +22196,17 @@
       </c>
       <c r="DO12" t="n">
         <v>89.0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -22377,14 +22558,17 @@
       </c>
       <c r="DO13" t="n">
         <v>28.0</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -22736,14 +22920,17 @@
       </c>
       <c r="DO14" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -23094,15 +23281,18 @@
         <v>24.0</v>
       </c>
       <c r="DO15" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DP15" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -23454,14 +23644,17 @@
       </c>
       <c r="DO16" t="n">
         <v>22.0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -23813,14 +24006,17 @@
       </c>
       <c r="DO17" t="n">
         <v>18.0</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -24172,14 +24368,17 @@
       </c>
       <c r="DO18" t="n">
         <v>115.0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -24531,14 +24730,17 @@
       </c>
       <c r="DO19" t="n">
         <v>385.0</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>350.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -24890,14 +25092,17 @@
       </c>
       <c r="DO20" t="n">
         <v>647.0</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>603.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -25249,14 +25454,17 @@
       </c>
       <c r="DO21" t="n">
         <v>115.0</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -25608,14 +25816,17 @@
       </c>
       <c r="DO22" t="n">
         <v>44.0</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -25967,14 +26178,17 @@
       </c>
       <c r="DO23" t="n">
         <v>75.0</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -26326,14 +26540,17 @@
       </c>
       <c r="DO24" t="n">
         <v>128.0</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -26685,14 +26902,17 @@
       </c>
       <c r="DO25" t="n">
         <v>408.0</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>410.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -27044,14 +27264,17 @@
       </c>
       <c r="DO26" t="n">
         <v>2863.0</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>2742.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -27170,13 +27393,14 @@
       <c r="DM27"/>
       <c r="DN27"/>
       <c r="DO27"/>
+      <c r="DP27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
         <v>145</v>
-      </c>
-      <c r="B28" t="s">
-        <v>144</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -27295,6 +27519,7 @@
       <c r="DM28"/>
       <c r="DN28"/>
       <c r="DO28"/>
+      <c r="DP28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="174">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/07/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/08/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -382,6 +382,12 @@
     <t>2020-08-07</t>
   </si>
   <si>
+    <t>2020-08-08.x</t>
+  </si>
+  <si>
+    <t>2020-08-08.y</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -526,10 +532,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/07/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/08/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/07/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/08/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -1016,13 +1022,19 @@
       <c r="DP3" t="s" s="10">
         <v>121</v>
       </c>
+      <c r="DQ3" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="DR3" t="s" s="10">
+        <v>123</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1377,14 +1389,20 @@
       </c>
       <c r="DP4" t="n">
         <v>75.0</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1739,14 +1757,20 @@
       </c>
       <c r="DP5" t="n">
         <v>123.0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>117.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2101,14 +2125,20 @@
       </c>
       <c r="DP6" t="n">
         <v>44.0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2463,14 +2493,20 @@
       </c>
       <c r="DP7" t="n">
         <v>62.0</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2825,14 +2861,20 @@
       </c>
       <c r="DP8" t="n">
         <v>1397.0</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>1337.0</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>1337.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3187,14 +3229,20 @@
       </c>
       <c r="DP9" t="n">
         <v>113.0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3549,14 +3597,20 @@
       </c>
       <c r="DP10" t="n">
         <v>263.0</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>262.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -3911,14 +3965,20 @@
       </c>
       <c r="DP11" t="n">
         <v>88.0</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4273,14 +4333,20 @@
       </c>
       <c r="DP12" t="n">
         <v>236.0</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>231.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -4635,14 +4701,20 @@
       </c>
       <c r="DP13" t="n">
         <v>71.0</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -4996,15 +5068,21 @@
         <v>51.0</v>
       </c>
       <c r="DP14" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DR14" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5359,14 +5437,20 @@
       </c>
       <c r="DP15" t="n">
         <v>67.0</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -5721,14 +5805,20 @@
       </c>
       <c r="DP16" t="n">
         <v>71.0</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -6083,14 +6173,20 @@
       </c>
       <c r="DP17" t="n">
         <v>48.0</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -6445,14 +6541,20 @@
       </c>
       <c r="DP18" t="n">
         <v>326.0</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>302.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -6807,14 +6909,20 @@
       </c>
       <c r="DP19" t="n">
         <v>944.0</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>929.0</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>929.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -7169,14 +7277,20 @@
       </c>
       <c r="DP20" t="n">
         <v>1871.0</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>1798.0</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>1798.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -7531,14 +7645,20 @@
       </c>
       <c r="DP21" t="n">
         <v>289.0</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>317.0</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>317.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -7892,15 +8012,21 @@
         <v>159.0</v>
       </c>
       <c r="DP22" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="DR22" t="n">
         <v>144.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -8255,14 +8381,20 @@
       </c>
       <c r="DP23" t="n">
         <v>209.0</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>201.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -8617,14 +8749,20 @@
       </c>
       <c r="DP24" t="n">
         <v>371.0</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>356.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -8979,14 +9117,20 @@
       </c>
       <c r="DP25" t="n">
         <v>1201.0</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>1213.0</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>1213.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -9341,14 +9485,20 @@
       </c>
       <c r="DP26" t="n">
         <v>8065.0</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>7872.0</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>7872.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -9468,13 +9618,15 @@
       <c r="DN27"/>
       <c r="DO27"/>
       <c r="DP27"/>
+      <c r="DQ27"/>
+      <c r="DR27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -9594,6 +9746,8 @@
       <c r="DN28"/>
       <c r="DO28"/>
       <c r="DP28"/>
+      <c r="DQ28"/>
+      <c r="DR28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -9610,7 +9764,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
@@ -9979,13 +10133,19 @@
       <c r="DP3" t="s" s="10">
         <v>121</v>
       </c>
+      <c r="DQ3" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="DR3" t="s" s="10">
+        <v>123</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -10340,14 +10500,20 @@
       </c>
       <c r="DP4" t="n">
         <v>39.0</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -10702,14 +10868,20 @@
       </c>
       <c r="DP5" t="n">
         <v>65.0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -11064,14 +11236,20 @@
       </c>
       <c r="DP6" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -11425,15 +11603,21 @@
         <v>22.0</v>
       </c>
       <c r="DP7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="DR7" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -11788,14 +11972,20 @@
       </c>
       <c r="DP8" t="n">
         <v>937.0</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>877.0</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>877.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -12150,14 +12340,20 @@
       </c>
       <c r="DP9" t="n">
         <v>54.0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -12512,14 +12708,20 @@
       </c>
       <c r="DP10" t="n">
         <v>176.0</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>177.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -12874,14 +13076,20 @@
       </c>
       <c r="DP11" t="n">
         <v>69.0</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -13236,14 +13444,20 @@
       </c>
       <c r="DP12" t="n">
         <v>148.0</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>151.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -13598,14 +13812,20 @@
       </c>
       <c r="DP13" t="n">
         <v>44.0</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -13959,15 +14179,21 @@
         <v>42.0</v>
       </c>
       <c r="DP14" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DR14" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -14321,15 +14547,21 @@
         <v>50.0</v>
       </c>
       <c r="DP15" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DR15" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -14684,14 +14916,20 @@
       </c>
       <c r="DP16" t="n">
         <v>50.0</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -15046,14 +15284,20 @@
       </c>
       <c r="DP17" t="n">
         <v>33.0</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -15408,14 +15652,20 @@
       </c>
       <c r="DP18" t="n">
         <v>214.0</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -15770,14 +16020,20 @@
       </c>
       <c r="DP19" t="n">
         <v>579.0</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>560.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -16132,14 +16388,20 @@
       </c>
       <c r="DP20" t="n">
         <v>1212.0</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>1185.0</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>1185.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -16494,14 +16756,20 @@
       </c>
       <c r="DP21" t="n">
         <v>181.0</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>210.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -16856,14 +17124,20 @@
       </c>
       <c r="DP22" t="n">
         <v>109.0</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -17218,14 +17492,20 @@
       </c>
       <c r="DP23" t="n">
         <v>136.0</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>129.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -17580,14 +17860,20 @@
       </c>
       <c r="DP24" t="n">
         <v>247.0</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>224.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -17942,14 +18228,20 @@
       </c>
       <c r="DP25" t="n">
         <v>791.0</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>730.0</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>730.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -18304,14 +18596,20 @@
       </c>
       <c r="DP26" t="n">
         <v>5212.0</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>5003.0</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>5003.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -18431,13 +18729,15 @@
       <c r="DN27"/>
       <c r="DO27"/>
       <c r="DP27"/>
+      <c r="DQ27"/>
+      <c r="DR27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -18557,6 +18857,8 @@
       <c r="DN28"/>
       <c r="DO28"/>
       <c r="DP28"/>
+      <c r="DQ28"/>
+      <c r="DR28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -18573,7 +18875,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
@@ -18942,13 +19244,19 @@
       <c r="DP3" t="s" s="10">
         <v>121</v>
       </c>
+      <c r="DQ3" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="DR3" t="s" s="10">
+        <v>123</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -19303,14 +19611,20 @@
       </c>
       <c r="DP4" t="n">
         <v>36.0</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -19665,14 +19979,20 @@
       </c>
       <c r="DP5" t="n">
         <v>57.0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -20027,14 +20347,20 @@
       </c>
       <c r="DP6" t="n">
         <v>20.0</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -20389,14 +20715,20 @@
       </c>
       <c r="DP7" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -20751,14 +21083,20 @@
       </c>
       <c r="DP8" t="n">
         <v>431.0</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>434.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -21113,14 +21451,20 @@
       </c>
       <c r="DP9" t="n">
         <v>59.0</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -21475,14 +21819,20 @@
       </c>
       <c r="DP10" t="n">
         <v>87.0</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -21837,14 +22187,20 @@
       </c>
       <c r="DP11" t="n">
         <v>19.0</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -22199,14 +22555,20 @@
       </c>
       <c r="DP12" t="n">
         <v>87.0</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -22561,14 +22923,20 @@
       </c>
       <c r="DP13" t="n">
         <v>26.0</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -22922,15 +23290,21 @@
         <v>9.0</v>
       </c>
       <c r="DP14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DR14" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -23285,14 +23659,20 @@
       </c>
       <c r="DP15" t="n">
         <v>23.0</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -23647,14 +24027,20 @@
       </c>
       <c r="DP16" t="n">
         <v>20.0</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -24009,14 +24395,20 @@
       </c>
       <c r="DP17" t="n">
         <v>15.0</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -24371,14 +24763,20 @@
       </c>
       <c r="DP18" t="n">
         <v>107.0</v>
+      </c>
+      <c r="DQ18" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -24733,14 +25131,20 @@
       </c>
       <c r="DP19" t="n">
         <v>350.0</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>354.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -25095,14 +25499,20 @@
       </c>
       <c r="DP20" t="n">
         <v>603.0</v>
+      </c>
+      <c r="DQ20" t="n">
+        <v>611.0</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>611.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -25457,14 +25867,20 @@
       </c>
       <c r="DP21" t="n">
         <v>108.0</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -25819,14 +26235,20 @@
       </c>
       <c r="DP22" t="n">
         <v>35.0</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -26181,14 +26603,20 @@
       </c>
       <c r="DP23" t="n">
         <v>73.0</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -26543,14 +26971,20 @@
       </c>
       <c r="DP24" t="n">
         <v>124.0</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>132.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -26905,14 +27339,20 @@
       </c>
       <c r="DP25" t="n">
         <v>410.0</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>399.0</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>399.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -27267,14 +27707,20 @@
       </c>
       <c r="DP26" t="n">
         <v>2742.0</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>2730.0</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>2730.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -27394,13 +27840,15 @@
       <c r="DN27"/>
       <c r="DO27"/>
       <c r="DP27"/>
+      <c r="DQ27"/>
+      <c r="DR27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -27520,6 +27968,8 @@
       <c r="DN28"/>
       <c r="DO28"/>
       <c r="DP28"/>
+      <c r="DQ28"/>
+      <c r="DR28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="175">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/08/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/09/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -388,6 +388,9 @@
     <t>2020-08-08.y</t>
   </si>
   <si>
+    <t>2020-08-09</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -532,10 +535,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/08/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/09/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/08/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/09/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -1028,13 +1031,16 @@
       <c r="DR3" t="s" s="10">
         <v>123</v>
       </c>
+      <c r="DS3" t="s" s="10">
+        <v>124</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1395,14 +1401,17 @@
       </c>
       <c r="DR4" t="n">
         <v>74.0</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1763,14 +1772,17 @@
       </c>
       <c r="DR5" t="n">
         <v>117.0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2131,14 +2143,17 @@
       </c>
       <c r="DR6" t="n">
         <v>43.0</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2499,14 +2514,17 @@
       </c>
       <c r="DR7" t="n">
         <v>60.0</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2867,14 +2885,17 @@
       </c>
       <c r="DR8" t="n">
         <v>1337.0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>1322.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3235,14 +3256,17 @@
       </c>
       <c r="DR9" t="n">
         <v>111.0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3603,14 +3627,17 @@
       </c>
       <c r="DR10" t="n">
         <v>262.0</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>247.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -3971,14 +3998,17 @@
       </c>
       <c r="DR11" t="n">
         <v>66.0</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4339,14 +4369,17 @@
       </c>
       <c r="DR12" t="n">
         <v>231.0</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>211.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -4706,15 +4739,18 @@
         <v>70.0</v>
       </c>
       <c r="DR13" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="DS13" t="n">
         <v>70.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5075,14 +5111,17 @@
       </c>
       <c r="DR14" t="n">
         <v>52.0</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5443,14 +5482,17 @@
       </c>
       <c r="DR15" t="n">
         <v>65.0</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -5811,14 +5853,17 @@
       </c>
       <c r="DR16" t="n">
         <v>75.0</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -6179,14 +6224,17 @@
       </c>
       <c r="DR17" t="n">
         <v>49.0</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -6547,14 +6595,17 @@
       </c>
       <c r="DR18" t="n">
         <v>302.0</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>297.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -6915,14 +6966,17 @@
       </c>
       <c r="DR19" t="n">
         <v>929.0</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>909.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -7283,14 +7337,17 @@
       </c>
       <c r="DR20" t="n">
         <v>1798.0</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>1629.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -7651,14 +7708,17 @@
       </c>
       <c r="DR21" t="n">
         <v>317.0</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>283.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -8019,14 +8079,17 @@
       </c>
       <c r="DR22" t="n">
         <v>144.0</v>
+      </c>
+      <c r="DS22" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -8387,14 +8450,17 @@
       </c>
       <c r="DR23" t="n">
         <v>201.0</v>
+      </c>
+      <c r="DS23" t="n">
+        <v>196.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -8755,14 +8821,17 @@
       </c>
       <c r="DR24" t="n">
         <v>356.0</v>
+      </c>
+      <c r="DS24" t="n">
+        <v>351.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -9123,14 +9192,17 @@
       </c>
       <c r="DR25" t="n">
         <v>1213.0</v>
+      </c>
+      <c r="DS25" t="n">
+        <v>1109.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -9491,14 +9563,17 @@
       </c>
       <c r="DR26" t="n">
         <v>7872.0</v>
+      </c>
+      <c r="DS26" t="n">
+        <v>7437.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -9620,13 +9695,14 @@
       <c r="DP27"/>
       <c r="DQ27"/>
       <c r="DR27"/>
+      <c r="DS27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
         <v>148</v>
-      </c>
-      <c r="B28" t="s">
-        <v>147</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -9748,6 +9824,7 @@
       <c r="DP28"/>
       <c r="DQ28"/>
       <c r="DR28"/>
+      <c r="DS28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -9764,7 +9841,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
@@ -10139,13 +10216,16 @@
       <c r="DR3" t="s" s="10">
         <v>123</v>
       </c>
+      <c r="DS3" t="s" s="10">
+        <v>124</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -10506,14 +10586,17 @@
       </c>
       <c r="DR4" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -10874,14 +10957,17 @@
       </c>
       <c r="DR5" t="n">
         <v>56.0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -11242,14 +11328,17 @@
       </c>
       <c r="DR6" t="n">
         <v>22.0</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -11610,14 +11699,17 @@
       </c>
       <c r="DR7" t="n">
         <v>20.0</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -11978,14 +12070,17 @@
       </c>
       <c r="DR8" t="n">
         <v>877.0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>859.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -12346,14 +12441,17 @@
       </c>
       <c r="DR9" t="n">
         <v>53.0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -12714,14 +12812,17 @@
       </c>
       <c r="DR10" t="n">
         <v>177.0</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -13082,14 +13183,17 @@
       </c>
       <c r="DR11" t="n">
         <v>54.0</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -13450,14 +13554,17 @@
       </c>
       <c r="DR12" t="n">
         <v>151.0</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -13818,14 +13925,17 @@
       </c>
       <c r="DR13" t="n">
         <v>45.0</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -14186,14 +14296,17 @@
       </c>
       <c r="DR14" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -14554,14 +14667,17 @@
       </c>
       <c r="DR15" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -14922,14 +15038,17 @@
       </c>
       <c r="DR16" t="n">
         <v>52.0</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -15290,14 +15409,17 @@
       </c>
       <c r="DR17" t="n">
         <v>38.0</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -15658,14 +15780,17 @@
       </c>
       <c r="DR18" t="n">
         <v>189.0</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>195.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -16026,14 +16151,17 @@
       </c>
       <c r="DR19" t="n">
         <v>560.0</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>549.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -16394,14 +16522,17 @@
       </c>
       <c r="DR20" t="n">
         <v>1185.0</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>1066.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -16762,14 +16893,17 @@
       </c>
       <c r="DR21" t="n">
         <v>210.0</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>192.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -17130,14 +17264,17 @@
       </c>
       <c r="DR22" t="n">
         <v>105.0</v>
+      </c>
+      <c r="DS22" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -17498,14 +17635,17 @@
       </c>
       <c r="DR23" t="n">
         <v>129.0</v>
+      </c>
+      <c r="DS23" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -17866,14 +18006,17 @@
       </c>
       <c r="DR24" t="n">
         <v>224.0</v>
+      </c>
+      <c r="DS24" t="n">
+        <v>220.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -18234,14 +18377,17 @@
       </c>
       <c r="DR25" t="n">
         <v>730.0</v>
+      </c>
+      <c r="DS25" t="n">
+        <v>642.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -18602,14 +18748,17 @@
       </c>
       <c r="DR26" t="n">
         <v>5003.0</v>
+      </c>
+      <c r="DS26" t="n">
+        <v>4697.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -18731,13 +18880,14 @@
       <c r="DP27"/>
       <c r="DQ27"/>
       <c r="DR27"/>
+      <c r="DS27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
         <v>148</v>
-      </c>
-      <c r="B28" t="s">
-        <v>147</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -18859,6 +19009,7 @@
       <c r="DP28"/>
       <c r="DQ28"/>
       <c r="DR28"/>
+      <c r="DS28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -18875,7 +19026,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
@@ -19250,13 +19401,16 @@
       <c r="DR3" t="s" s="10">
         <v>123</v>
       </c>
+      <c r="DS3" t="s" s="10">
+        <v>124</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -19617,14 +19771,17 @@
       </c>
       <c r="DR4" t="n">
         <v>32.0</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -19985,14 +20142,17 @@
       </c>
       <c r="DR5" t="n">
         <v>60.0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -20352,15 +20512,18 @@
         <v>21.0</v>
       </c>
       <c r="DR6" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="DS6" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -20721,14 +20884,17 @@
       </c>
       <c r="DR7" t="n">
         <v>40.0</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -21089,14 +21255,17 @@
       </c>
       <c r="DR8" t="n">
         <v>434.0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>433.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -21457,14 +21626,17 @@
       </c>
       <c r="DR9" t="n">
         <v>58.0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -21825,14 +21997,17 @@
       </c>
       <c r="DR10" t="n">
         <v>85.0</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -22193,14 +22368,17 @@
       </c>
       <c r="DR11" t="n">
         <v>12.0</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -22561,14 +22739,17 @@
       </c>
       <c r="DR12" t="n">
         <v>78.0</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -22929,14 +23110,17 @@
       </c>
       <c r="DR13" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -23296,15 +23480,18 @@
         <v>10.0</v>
       </c>
       <c r="DR14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DS14" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -23665,14 +23852,17 @@
       </c>
       <c r="DR15" t="n">
         <v>21.0</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -24033,14 +24223,17 @@
       </c>
       <c r="DR16" t="n">
         <v>22.0</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -24401,14 +24594,17 @@
       </c>
       <c r="DR17" t="n">
         <v>11.0</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -24769,14 +24965,17 @@
       </c>
       <c r="DR18" t="n">
         <v>108.0</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -25137,14 +25336,17 @@
       </c>
       <c r="DR19" t="n">
         <v>354.0</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>345.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -25505,14 +25707,17 @@
       </c>
       <c r="DR20" t="n">
         <v>611.0</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>563.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -25873,14 +26078,17 @@
       </c>
       <c r="DR21" t="n">
         <v>107.0</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -26241,14 +26449,17 @@
       </c>
       <c r="DR22" t="n">
         <v>39.0</v>
+      </c>
+      <c r="DS22" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -26609,14 +26820,17 @@
       </c>
       <c r="DR23" t="n">
         <v>72.0</v>
+      </c>
+      <c r="DS23" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -26977,14 +27191,17 @@
       </c>
       <c r="DR24" t="n">
         <v>132.0</v>
+      </c>
+      <c r="DS24" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -27345,14 +27562,17 @@
       </c>
       <c r="DR25" t="n">
         <v>399.0</v>
+      </c>
+      <c r="DS25" t="n">
+        <v>383.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -27713,14 +27933,17 @@
       </c>
       <c r="DR26" t="n">
         <v>2730.0</v>
+      </c>
+      <c r="DS26" t="n">
+        <v>2608.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -27842,13 +28065,14 @@
       <c r="DP27"/>
       <c r="DQ27"/>
       <c r="DR27"/>
+      <c r="DS27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
         <v>148</v>
-      </c>
-      <c r="B28" t="s">
-        <v>147</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -27970,6 +28194,7 @@
       <c r="DP28"/>
       <c r="DQ28"/>
       <c r="DR28"/>
+      <c r="DS28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="177">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/11/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/12/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -394,6 +394,9 @@
     <t>2020-08-11</t>
   </si>
   <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -538,10 +541,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/11/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/12/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/11/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/12/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -1040,13 +1043,16 @@
       <c r="DT3" t="s" s="10">
         <v>125</v>
       </c>
+      <c r="DU3" t="s" s="10">
+        <v>126</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1412,15 +1418,18 @@
         <v>73.0</v>
       </c>
       <c r="DT4" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="DU4" t="n">
         <v>76.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1787,14 +1796,17 @@
       </c>
       <c r="DT5" t="n">
         <v>109.0</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2160,15 +2172,18 @@
         <v>44.0</v>
       </c>
       <c r="DT6" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DU6" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2535,14 +2550,17 @@
       </c>
       <c r="DT7" t="n">
         <v>47.0</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2909,14 +2927,17 @@
       </c>
       <c r="DT8" t="n">
         <v>1235.0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>1229.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3283,14 +3304,17 @@
       </c>
       <c r="DT9" t="n">
         <v>110.0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3657,14 +3681,17 @@
       </c>
       <c r="DT10" t="n">
         <v>235.0</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>228.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4031,14 +4058,17 @@
       </c>
       <c r="DT11" t="n">
         <v>74.0</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4405,14 +4435,17 @@
       </c>
       <c r="DT12" t="n">
         <v>208.0</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>185.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -4779,14 +4812,17 @@
       </c>
       <c r="DT13" t="n">
         <v>75.0</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5153,14 +5189,17 @@
       </c>
       <c r="DT14" t="n">
         <v>52.0</v>
+      </c>
+      <c r="DU14" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5527,14 +5566,17 @@
       </c>
       <c r="DT15" t="n">
         <v>60.0</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -5901,14 +5943,17 @@
       </c>
       <c r="DT16" t="n">
         <v>65.0</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -6275,14 +6320,17 @@
       </c>
       <c r="DT17" t="n">
         <v>48.0</v>
+      </c>
+      <c r="DU17" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -6649,14 +6697,17 @@
       </c>
       <c r="DT18" t="n">
         <v>300.0</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>290.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -7023,14 +7074,17 @@
       </c>
       <c r="DT19" t="n">
         <v>856.0</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>846.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -7397,14 +7451,17 @@
       </c>
       <c r="DT20" t="n">
         <v>1563.0</v>
+      </c>
+      <c r="DU20" t="n">
+        <v>1512.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -7771,14 +7828,17 @@
       </c>
       <c r="DT21" t="n">
         <v>288.0</v>
+      </c>
+      <c r="DU21" t="n">
+        <v>277.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -8145,14 +8205,17 @@
       </c>
       <c r="DT22" t="n">
         <v>119.0</v>
+      </c>
+      <c r="DU22" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -8519,14 +8582,17 @@
       </c>
       <c r="DT23" t="n">
         <v>195.0</v>
+      </c>
+      <c r="DU23" t="n">
+        <v>175.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -8893,14 +8959,17 @@
       </c>
       <c r="DT24" t="n">
         <v>363.0</v>
+      </c>
+      <c r="DU24" t="n">
+        <v>353.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -9267,14 +9336,17 @@
       </c>
       <c r="DT25" t="n">
         <v>1093.0</v>
+      </c>
+      <c r="DU25" t="n">
+        <v>1083.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -9641,14 +9713,17 @@
       </c>
       <c r="DT26" t="n">
         <v>7216.0</v>
+      </c>
+      <c r="DU26" t="n">
+        <v>7028.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -9772,13 +9847,14 @@
       <c r="DR27"/>
       <c r="DS27"/>
       <c r="DT27"/>
+      <c r="DU27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" t="s">
         <v>150</v>
-      </c>
-      <c r="B28" t="s">
-        <v>149</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -9902,6 +9978,7 @@
       <c r="DR28"/>
       <c r="DS28"/>
       <c r="DT28"/>
+      <c r="DU28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -9918,7 +9995,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2">
@@ -10299,13 +10376,16 @@
       <c r="DT3" t="s" s="10">
         <v>125</v>
       </c>
+      <c r="DU3" t="s" s="10">
+        <v>126</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -10672,14 +10752,17 @@
       </c>
       <c r="DT4" t="n">
         <v>41.0</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -11046,14 +11129,17 @@
       </c>
       <c r="DT5" t="n">
         <v>56.0</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -11420,14 +11506,17 @@
       </c>
       <c r="DT6" t="n">
         <v>26.0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -11794,14 +11883,17 @@
       </c>
       <c r="DT7" t="n">
         <v>15.0</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -12168,14 +12260,17 @@
       </c>
       <c r="DT8" t="n">
         <v>794.0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>810.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -12542,14 +12637,17 @@
       </c>
       <c r="DT9" t="n">
         <v>54.0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -12915,15 +13013,18 @@
         <v>156.0</v>
       </c>
       <c r="DT10" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="DU10" t="n">
         <v>154.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -13290,14 +13391,17 @@
       </c>
       <c r="DT11" t="n">
         <v>49.0</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -13664,14 +13768,17 @@
       </c>
       <c r="DT12" t="n">
         <v>133.0</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>117.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -14038,14 +14145,17 @@
       </c>
       <c r="DT13" t="n">
         <v>47.0</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -14412,14 +14522,17 @@
       </c>
       <c r="DT14" t="n">
         <v>43.0</v>
+      </c>
+      <c r="DU14" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -14786,14 +14899,17 @@
       </c>
       <c r="DT15" t="n">
         <v>39.0</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -15160,14 +15276,17 @@
       </c>
       <c r="DT16" t="n">
         <v>43.0</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -15534,14 +15653,17 @@
       </c>
       <c r="DT17" t="n">
         <v>36.0</v>
+      </c>
+      <c r="DU17" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -15908,14 +16030,17 @@
       </c>
       <c r="DT18" t="n">
         <v>190.0</v>
+      </c>
+      <c r="DU18" t="n">
+        <v>178.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -16282,14 +16407,17 @@
       </c>
       <c r="DT19" t="n">
         <v>541.0</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>533.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -16656,14 +16784,17 @@
       </c>
       <c r="DT20" t="n">
         <v>1008.0</v>
+      </c>
+      <c r="DU20" t="n">
+        <v>964.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -17030,14 +17161,17 @@
       </c>
       <c r="DT21" t="n">
         <v>194.0</v>
+      </c>
+      <c r="DU21" t="n">
+        <v>191.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -17404,14 +17538,17 @@
       </c>
       <c r="DT22" t="n">
         <v>85.0</v>
+      </c>
+      <c r="DU22" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -17778,14 +17915,17 @@
       </c>
       <c r="DT23" t="n">
         <v>127.0</v>
+      </c>
+      <c r="DU23" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -18152,14 +18292,17 @@
       </c>
       <c r="DT24" t="n">
         <v>244.0</v>
+      </c>
+      <c r="DU24" t="n">
+        <v>235.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -18526,14 +18669,17 @@
       </c>
       <c r="DT25" t="n">
         <v>649.0</v>
+      </c>
+      <c r="DU25" t="n">
+        <v>633.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -18900,14 +19046,17 @@
       </c>
       <c r="DT26" t="n">
         <v>4568.0</v>
+      </c>
+      <c r="DU26" t="n">
+        <v>4436.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -19031,13 +19180,14 @@
       <c r="DR27"/>
       <c r="DS27"/>
       <c r="DT27"/>
+      <c r="DU27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" t="s">
         <v>150</v>
-      </c>
-      <c r="B28" t="s">
-        <v>149</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -19161,6 +19311,7 @@
       <c r="DR28"/>
       <c r="DS28"/>
       <c r="DT28"/>
+      <c r="DU28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -19177,7 +19328,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
@@ -19558,13 +19709,16 @@
       <c r="DT3" t="s" s="10">
         <v>125</v>
       </c>
+      <c r="DU3" t="s" s="10">
+        <v>126</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -19931,14 +20085,17 @@
       </c>
       <c r="DT4" t="n">
         <v>35.0</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -20304,15 +20461,18 @@
         <v>53.0</v>
       </c>
       <c r="DT5" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="DU5" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -20679,14 +20839,17 @@
       </c>
       <c r="DT6" t="n">
         <v>19.0</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -21053,14 +21216,17 @@
       </c>
       <c r="DT7" t="n">
         <v>32.0</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -21427,14 +21593,17 @@
       </c>
       <c r="DT8" t="n">
         <v>420.0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>399.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -21801,14 +21970,17 @@
       </c>
       <c r="DT9" t="n">
         <v>56.0</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -22175,14 +22347,17 @@
       </c>
       <c r="DT10" t="n">
         <v>81.0</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -22549,14 +22724,17 @@
       </c>
       <c r="DT11" t="n">
         <v>25.0</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -22923,14 +23101,17 @@
       </c>
       <c r="DT12" t="n">
         <v>75.0</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -23297,14 +23478,17 @@
       </c>
       <c r="DT13" t="n">
         <v>28.0</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -23670,15 +23854,18 @@
         <v>10.0</v>
       </c>
       <c r="DT14" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DU14" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -24045,14 +24232,17 @@
       </c>
       <c r="DT15" t="n">
         <v>21.0</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -24419,14 +24609,17 @@
       </c>
       <c r="DT16" t="n">
         <v>22.0</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -24793,14 +24986,17 @@
       </c>
       <c r="DT17" t="n">
         <v>12.0</v>
+      </c>
+      <c r="DU17" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -25166,15 +25362,18 @@
         <v>100.0</v>
       </c>
       <c r="DT18" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="DU18" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -25540,15 +25739,18 @@
         <v>312.0</v>
       </c>
       <c r="DT19" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="DU19" t="n">
         <v>304.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -25915,14 +26117,17 @@
       </c>
       <c r="DT20" t="n">
         <v>514.0</v>
+      </c>
+      <c r="DU20" t="n">
+        <v>547.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -26289,14 +26494,17 @@
       </c>
       <c r="DT21" t="n">
         <v>93.0</v>
+      </c>
+      <c r="DU21" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -26662,15 +26870,18 @@
         <v>38.0</v>
       </c>
       <c r="DT22" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="DU22" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -27037,14 +27248,17 @@
       </c>
       <c r="DT23" t="n">
         <v>68.0</v>
+      </c>
+      <c r="DU23" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -27411,14 +27625,17 @@
       </c>
       <c r="DT24" t="n">
         <v>119.0</v>
+      </c>
+      <c r="DU24" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -27785,14 +28002,17 @@
       </c>
       <c r="DT25" t="n">
         <v>369.0</v>
+      </c>
+      <c r="DU25" t="n">
+        <v>376.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -28159,14 +28379,17 @@
       </c>
       <c r="DT26" t="n">
         <v>2495.0</v>
+      </c>
+      <c r="DU26" t="n">
+        <v>2479.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -28290,13 +28513,14 @@
       <c r="DR27"/>
       <c r="DS27"/>
       <c r="DT27"/>
+      <c r="DU27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" t="s">
         <v>150</v>
-      </c>
-      <c r="B28" t="s">
-        <v>149</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -28420,6 +28644,7 @@
       <c r="DR28"/>
       <c r="DS28"/>
       <c r="DT28"/>
+      <c r="DU28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="178">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/12/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/13/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -397,6 +397,9 @@
     <t>2020-08-12</t>
   </si>
   <si>
+    <t>2020-08-13</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -541,10 +544,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/12/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/13/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/12/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/13/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -1046,13 +1049,16 @@
       <c r="DU3" t="s" s="10">
         <v>126</v>
       </c>
+      <c r="DV3" t="s" s="10">
+        <v>127</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1422,14 +1428,17 @@
       </c>
       <c r="DU4" t="n">
         <v>76.0</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1799,14 +1808,17 @@
       </c>
       <c r="DU5" t="n">
         <v>111.0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2176,14 +2188,17 @@
       </c>
       <c r="DU6" t="n">
         <v>45.0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2553,14 +2568,17 @@
       </c>
       <c r="DU7" t="n">
         <v>43.0</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2930,14 +2948,17 @@
       </c>
       <c r="DU8" t="n">
         <v>1229.0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>1200.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3306,15 +3327,18 @@
         <v>110.0</v>
       </c>
       <c r="DU9" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="DV9" t="n">
         <v>105.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3684,14 +3708,17 @@
       </c>
       <c r="DU10" t="n">
         <v>228.0</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>230.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4061,14 +4088,17 @@
       </c>
       <c r="DU11" t="n">
         <v>64.0</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4438,14 +4468,17 @@
       </c>
       <c r="DU12" t="n">
         <v>185.0</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>194.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -4815,14 +4848,17 @@
       </c>
       <c r="DU13" t="n">
         <v>71.0</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5192,14 +5228,17 @@
       </c>
       <c r="DU14" t="n">
         <v>60.0</v>
+      </c>
+      <c r="DV14" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5569,14 +5608,17 @@
       </c>
       <c r="DU15" t="n">
         <v>65.0</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -5946,14 +5988,17 @@
       </c>
       <c r="DU16" t="n">
         <v>64.0</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -6323,14 +6368,17 @@
       </c>
       <c r="DU17" t="n">
         <v>46.0</v>
+      </c>
+      <c r="DV17" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -6700,14 +6748,17 @@
       </c>
       <c r="DU18" t="n">
         <v>290.0</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>310.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -7077,14 +7128,17 @@
       </c>
       <c r="DU19" t="n">
         <v>846.0</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>796.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -7454,14 +7508,17 @@
       </c>
       <c r="DU20" t="n">
         <v>1512.0</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>1531.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -7831,14 +7888,17 @@
       </c>
       <c r="DU21" t="n">
         <v>277.0</v>
+      </c>
+      <c r="DV21" t="n">
+        <v>306.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -8208,14 +8268,17 @@
       </c>
       <c r="DU22" t="n">
         <v>100.0</v>
+      </c>
+      <c r="DV22" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -8584,15 +8647,18 @@
         <v>195.0</v>
       </c>
       <c r="DU23" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="DV23" t="n">
         <v>175.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -8962,14 +9028,17 @@
       </c>
       <c r="DU24" t="n">
         <v>353.0</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>301.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -9339,14 +9408,17 @@
       </c>
       <c r="DU25" t="n">
         <v>1083.0</v>
+      </c>
+      <c r="DV25" t="n">
+        <v>985.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -9716,14 +9788,17 @@
       </c>
       <c r="DU26" t="n">
         <v>7028.0</v>
+      </c>
+      <c r="DV26" t="n">
+        <v>6879.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -9848,13 +9923,14 @@
       <c r="DS27"/>
       <c r="DT27"/>
       <c r="DU27"/>
+      <c r="DV27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s">
         <v>151</v>
-      </c>
-      <c r="B28" t="s">
-        <v>150</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -9979,6 +10055,7 @@
       <c r="DS28"/>
       <c r="DT28"/>
       <c r="DU28"/>
+      <c r="DV28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -9995,7 +10072,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
@@ -10379,13 +10456,16 @@
       <c r="DU3" t="s" s="10">
         <v>126</v>
       </c>
+      <c r="DV3" t="s" s="10">
+        <v>127</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -10755,14 +10835,17 @@
       </c>
       <c r="DU4" t="n">
         <v>39.0</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -11132,14 +11215,17 @@
       </c>
       <c r="DU5" t="n">
         <v>57.0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -11509,14 +11595,17 @@
       </c>
       <c r="DU6" t="n">
         <v>27.0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -11885,15 +11974,18 @@
         <v>15.0</v>
       </c>
       <c r="DU7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="DV7" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -12263,14 +12355,17 @@
       </c>
       <c r="DU8" t="n">
         <v>810.0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>802.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -12640,14 +12735,17 @@
       </c>
       <c r="DU9" t="n">
         <v>52.0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -13017,14 +13115,17 @@
       </c>
       <c r="DU10" t="n">
         <v>154.0</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -13394,14 +13495,17 @@
       </c>
       <c r="DU11" t="n">
         <v>52.0</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -13771,14 +13875,17 @@
       </c>
       <c r="DU12" t="n">
         <v>117.0</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -14148,14 +14255,17 @@
       </c>
       <c r="DU13" t="n">
         <v>44.0</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -14525,14 +14635,17 @@
       </c>
       <c r="DU14" t="n">
         <v>51.0</v>
+      </c>
+      <c r="DV14" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -14901,15 +15014,18 @@
         <v>39.0</v>
       </c>
       <c r="DU15" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DV15" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -15279,14 +15395,17 @@
       </c>
       <c r="DU16" t="n">
         <v>41.0</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -15656,14 +15775,17 @@
       </c>
       <c r="DU17" t="n">
         <v>33.0</v>
+      </c>
+      <c r="DV17" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -16033,14 +16155,17 @@
       </c>
       <c r="DU18" t="n">
         <v>178.0</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>196.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -16410,14 +16535,17 @@
       </c>
       <c r="DU19" t="n">
         <v>533.0</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>497.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -16787,14 +16915,17 @@
       </c>
       <c r="DU20" t="n">
         <v>964.0</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>974.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -17164,14 +17295,17 @@
       </c>
       <c r="DU21" t="n">
         <v>191.0</v>
+      </c>
+      <c r="DV21" t="n">
+        <v>211.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -17540,15 +17674,18 @@
         <v>85.0</v>
       </c>
       <c r="DU22" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="DV22" t="n">
         <v>66.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -17918,14 +18055,17 @@
       </c>
       <c r="DU23" t="n">
         <v>101.0</v>
+      </c>
+      <c r="DV23" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -18295,14 +18435,17 @@
       </c>
       <c r="DU24" t="n">
         <v>235.0</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>207.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -18672,14 +18815,17 @@
       </c>
       <c r="DU25" t="n">
         <v>633.0</v>
+      </c>
+      <c r="DV25" t="n">
+        <v>539.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -19049,14 +19195,17 @@
       </c>
       <c r="DU26" t="n">
         <v>4436.0</v>
+      </c>
+      <c r="DV26" t="n">
+        <v>4331.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -19181,13 +19330,14 @@
       <c r="DS27"/>
       <c r="DT27"/>
       <c r="DU27"/>
+      <c r="DV27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s">
         <v>151</v>
-      </c>
-      <c r="B28" t="s">
-        <v>150</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -19312,6 +19462,7 @@
       <c r="DS28"/>
       <c r="DT28"/>
       <c r="DU28"/>
+      <c r="DV28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -19328,7 +19479,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
@@ -19712,13 +19863,16 @@
       <c r="DU3" t="s" s="10">
         <v>126</v>
       </c>
+      <c r="DV3" t="s" s="10">
+        <v>127</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -20088,14 +20242,17 @@
       </c>
       <c r="DU4" t="n">
         <v>36.0</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -20465,14 +20622,17 @@
       </c>
       <c r="DU5" t="n">
         <v>53.0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -20842,14 +21002,17 @@
       </c>
       <c r="DU6" t="n">
         <v>18.0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -21219,14 +21382,17 @@
       </c>
       <c r="DU7" t="n">
         <v>30.0</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -21596,14 +21762,17 @@
       </c>
       <c r="DU8" t="n">
         <v>399.0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>374.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -21973,14 +22142,17 @@
       </c>
       <c r="DU9" t="n">
         <v>53.0</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -22350,14 +22522,17 @@
       </c>
       <c r="DU10" t="n">
         <v>74.0</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -22727,14 +22902,17 @@
       </c>
       <c r="DU11" t="n">
         <v>12.0</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -23104,14 +23282,17 @@
       </c>
       <c r="DU12" t="n">
         <v>67.0</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -23481,14 +23662,17 @@
       </c>
       <c r="DU13" t="n">
         <v>27.0</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -23858,14 +24042,17 @@
       </c>
       <c r="DU14" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DV14" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -24235,14 +24422,17 @@
       </c>
       <c r="DU15" t="n">
         <v>20.0</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -24611,15 +24801,18 @@
         <v>22.0</v>
       </c>
       <c r="DU16" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DV16" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -24989,14 +25182,17 @@
       </c>
       <c r="DU17" t="n">
         <v>13.0</v>
+      </c>
+      <c r="DV17" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -25366,14 +25562,17 @@
       </c>
       <c r="DU18" t="n">
         <v>106.0</v>
+      </c>
+      <c r="DV18" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -25743,14 +25942,17 @@
       </c>
       <c r="DU19" t="n">
         <v>304.0</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>291.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -26120,14 +26322,17 @@
       </c>
       <c r="DU20" t="n">
         <v>547.0</v>
+      </c>
+      <c r="DV20" t="n">
+        <v>555.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -26497,14 +26702,17 @@
       </c>
       <c r="DU21" t="n">
         <v>86.0</v>
+      </c>
+      <c r="DV21" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -26874,14 +27082,17 @@
       </c>
       <c r="DU22" t="n">
         <v>34.0</v>
+      </c>
+      <c r="DV22" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -27251,14 +27462,17 @@
       </c>
       <c r="DU23" t="n">
         <v>74.0</v>
+      </c>
+      <c r="DV23" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -27628,14 +27842,17 @@
       </c>
       <c r="DU24" t="n">
         <v>118.0</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -28005,14 +28222,17 @@
       </c>
       <c r="DU25" t="n">
         <v>376.0</v>
+      </c>
+      <c r="DV25" t="n">
+        <v>373.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -28382,14 +28602,17 @@
       </c>
       <c r="DU26" t="n">
         <v>2479.0</v>
+      </c>
+      <c r="DV26" t="n">
+        <v>2435.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -28514,13 +28737,14 @@
       <c r="DS27"/>
       <c r="DT27"/>
       <c r="DU27"/>
+      <c r="DV27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s">
         <v>151</v>
-      </c>
-      <c r="B28" t="s">
-        <v>150</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -28645,6 +28869,7 @@
       <c r="DS28"/>
       <c r="DT28"/>
       <c r="DU28"/>
+      <c r="DV28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="179">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/13/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/14/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -400,6 +400,9 @@
     <t>2020-08-13</t>
   </si>
   <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -544,10 +547,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/13/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/14/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/13/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/14/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -1052,13 +1055,16 @@
       <c r="DV3" t="s" s="10">
         <v>127</v>
       </c>
+      <c r="DW3" t="s" s="10">
+        <v>128</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1431,14 +1437,17 @@
       </c>
       <c r="DV4" t="n">
         <v>72.0</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1811,14 +1820,17 @@
       </c>
       <c r="DV5" t="n">
         <v>108.0</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2191,14 +2203,17 @@
       </c>
       <c r="DV6" t="n">
         <v>44.0</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2571,14 +2586,17 @@
       </c>
       <c r="DV7" t="n">
         <v>45.0</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2951,14 +2969,17 @@
       </c>
       <c r="DV8" t="n">
         <v>1200.0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>1218.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3331,14 +3352,17 @@
       </c>
       <c r="DV9" t="n">
         <v>105.0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3711,14 +3735,17 @@
       </c>
       <c r="DV10" t="n">
         <v>230.0</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>212.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4091,14 +4118,17 @@
       </c>
       <c r="DV11" t="n">
         <v>79.0</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4471,14 +4501,17 @@
       </c>
       <c r="DV12" t="n">
         <v>194.0</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>183.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -4851,14 +4884,17 @@
       </c>
       <c r="DV13" t="n">
         <v>77.0</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5231,14 +5267,17 @@
       </c>
       <c r="DV14" t="n">
         <v>56.0</v>
+      </c>
+      <c r="DW14" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5611,14 +5650,17 @@
       </c>
       <c r="DV15" t="n">
         <v>59.0</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -5990,15 +6032,18 @@
         <v>64.0</v>
       </c>
       <c r="DV16" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="DW16" t="n">
         <v>62.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -6371,14 +6416,17 @@
       </c>
       <c r="DV17" t="n">
         <v>43.0</v>
+      </c>
+      <c r="DW17" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -6751,14 +6799,17 @@
       </c>
       <c r="DV18" t="n">
         <v>310.0</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>295.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -7131,14 +7182,17 @@
       </c>
       <c r="DV19" t="n">
         <v>796.0</v>
+      </c>
+      <c r="DW19" t="n">
+        <v>734.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -7511,14 +7565,17 @@
       </c>
       <c r="DV20" t="n">
         <v>1531.0</v>
+      </c>
+      <c r="DW20" t="n">
+        <v>1453.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -7891,14 +7948,17 @@
       </c>
       <c r="DV21" t="n">
         <v>306.0</v>
+      </c>
+      <c r="DW21" t="n">
+        <v>292.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -8271,14 +8331,17 @@
       </c>
       <c r="DV22" t="n">
         <v>101.0</v>
+      </c>
+      <c r="DW22" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -8651,14 +8714,17 @@
       </c>
       <c r="DV23" t="n">
         <v>175.0</v>
+      </c>
+      <c r="DW23" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -9031,14 +9097,17 @@
       </c>
       <c r="DV24" t="n">
         <v>301.0</v>
+      </c>
+      <c r="DW24" t="n">
+        <v>299.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -9411,14 +9480,17 @@
       </c>
       <c r="DV25" t="n">
         <v>985.0</v>
+      </c>
+      <c r="DW25" t="n">
+        <v>967.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -9791,14 +9863,17 @@
       </c>
       <c r="DV26" t="n">
         <v>6879.0</v>
+      </c>
+      <c r="DW26" t="n">
+        <v>6632.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -9924,13 +9999,14 @@
       <c r="DT27"/>
       <c r="DU27"/>
       <c r="DV27"/>
+      <c r="DW27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
         <v>152</v>
-      </c>
-      <c r="B28" t="s">
-        <v>151</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -10056,6 +10132,7 @@
       <c r="DT28"/>
       <c r="DU28"/>
       <c r="DV28"/>
+      <c r="DW28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -10072,7 +10149,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
@@ -10459,13 +10536,16 @@
       <c r="DV3" t="s" s="10">
         <v>127</v>
       </c>
+      <c r="DW3" t="s" s="10">
+        <v>128</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -10838,14 +10918,17 @@
       </c>
       <c r="DV4" t="n">
         <v>38.0</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -11218,14 +11301,17 @@
       </c>
       <c r="DV5" t="n">
         <v>56.0</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -11597,15 +11683,18 @@
         <v>27.0</v>
       </c>
       <c r="DV6" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="DW6" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -11978,14 +12067,17 @@
       </c>
       <c r="DV7" t="n">
         <v>13.0</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -12358,14 +12450,17 @@
       </c>
       <c r="DV8" t="n">
         <v>802.0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>813.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -12738,14 +12833,17 @@
       </c>
       <c r="DV9" t="n">
         <v>54.0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -13118,14 +13216,17 @@
       </c>
       <c r="DV10" t="n">
         <v>152.0</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>135.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -13497,15 +13598,18 @@
         <v>52.0</v>
       </c>
       <c r="DV11" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="DW11" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -13878,14 +13982,17 @@
       </c>
       <c r="DV12" t="n">
         <v>124.0</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -14258,14 +14365,17 @@
       </c>
       <c r="DV13" t="n">
         <v>52.0</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -14638,14 +14748,17 @@
       </c>
       <c r="DV14" t="n">
         <v>49.0</v>
+      </c>
+      <c r="DW14" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -15018,14 +15131,17 @@
       </c>
       <c r="DV15" t="n">
         <v>45.0</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -15398,14 +15514,17 @@
       </c>
       <c r="DV16" t="n">
         <v>39.0</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -15778,14 +15897,17 @@
       </c>
       <c r="DV17" t="n">
         <v>32.0</v>
+      </c>
+      <c r="DW17" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -16158,14 +16280,17 @@
       </c>
       <c r="DV18" t="n">
         <v>196.0</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>187.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -16538,14 +16663,17 @@
       </c>
       <c r="DV19" t="n">
         <v>497.0</v>
+      </c>
+      <c r="DW19" t="n">
+        <v>438.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -16918,14 +17046,17 @@
       </c>
       <c r="DV20" t="n">
         <v>974.0</v>
+      </c>
+      <c r="DW20" t="n">
+        <v>908.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -17298,14 +17429,17 @@
       </c>
       <c r="DV21" t="n">
         <v>211.0</v>
+      </c>
+      <c r="DW21" t="n">
+        <v>194.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -17678,14 +17812,17 @@
       </c>
       <c r="DV22" t="n">
         <v>66.0</v>
+      </c>
+      <c r="DW22" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -18058,14 +18195,17 @@
       </c>
       <c r="DV23" t="n">
         <v>102.0</v>
+      </c>
+      <c r="DW23" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -18438,14 +18578,17 @@
       </c>
       <c r="DV24" t="n">
         <v>207.0</v>
+      </c>
+      <c r="DW24" t="n">
+        <v>208.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -18818,14 +18961,17 @@
       </c>
       <c r="DV25" t="n">
         <v>539.0</v>
+      </c>
+      <c r="DW25" t="n">
+        <v>535.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -19198,14 +19344,17 @@
       </c>
       <c r="DV26" t="n">
         <v>4331.0</v>
+      </c>
+      <c r="DW26" t="n">
+        <v>4120.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -19331,13 +19480,14 @@
       <c r="DT27"/>
       <c r="DU27"/>
       <c r="DV27"/>
+      <c r="DW27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
         <v>152</v>
-      </c>
-      <c r="B28" t="s">
-        <v>151</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -19463,6 +19613,7 @@
       <c r="DT28"/>
       <c r="DU28"/>
       <c r="DV28"/>
+      <c r="DW28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -19479,7 +19630,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2">
@@ -19866,13 +20017,16 @@
       <c r="DV3" t="s" s="10">
         <v>127</v>
       </c>
+      <c r="DW3" t="s" s="10">
+        <v>128</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -20245,14 +20399,17 @@
       </c>
       <c r="DV4" t="n">
         <v>33.0</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -20625,14 +20782,17 @@
       </c>
       <c r="DV5" t="n">
         <v>51.0</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -21005,14 +21165,17 @@
       </c>
       <c r="DV6" t="n">
         <v>19.0</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -21385,14 +21548,17 @@
       </c>
       <c r="DV7" t="n">
         <v>32.0</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -21765,14 +21931,17 @@
       </c>
       <c r="DV8" t="n">
         <v>374.0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>378.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -22145,14 +22314,17 @@
       </c>
       <c r="DV9" t="n">
         <v>51.0</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -22525,14 +22697,17 @@
       </c>
       <c r="DV10" t="n">
         <v>78.0</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -22905,14 +23080,17 @@
       </c>
       <c r="DV11" t="n">
         <v>21.0</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -23285,14 +23463,17 @@
       </c>
       <c r="DV12" t="n">
         <v>69.0</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -23665,14 +23846,17 @@
       </c>
       <c r="DV13" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -24045,14 +24229,17 @@
       </c>
       <c r="DV14" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DW14" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -24425,14 +24612,17 @@
       </c>
       <c r="DV15" t="n">
         <v>14.0</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -24805,14 +24995,17 @@
       </c>
       <c r="DV16" t="n">
         <v>23.0</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -25185,14 +25378,17 @@
       </c>
       <c r="DV17" t="n">
         <v>11.0</v>
+      </c>
+      <c r="DW17" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -25565,14 +25761,17 @@
       </c>
       <c r="DV18" t="n">
         <v>112.0</v>
+      </c>
+      <c r="DW18" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -25945,14 +26144,17 @@
       </c>
       <c r="DV19" t="n">
         <v>291.0</v>
+      </c>
+      <c r="DW19" t="n">
+        <v>285.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -26325,14 +26527,17 @@
       </c>
       <c r="DV20" t="n">
         <v>555.0</v>
+      </c>
+      <c r="DW20" t="n">
+        <v>531.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -26705,14 +26910,17 @@
       </c>
       <c r="DV21" t="n">
         <v>95.0</v>
+      </c>
+      <c r="DW21" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -27084,15 +27292,18 @@
         <v>34.0</v>
       </c>
       <c r="DV22" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="DW22" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -27465,14 +27676,17 @@
       </c>
       <c r="DV23" t="n">
         <v>73.0</v>
+      </c>
+      <c r="DW23" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -27845,14 +28059,17 @@
       </c>
       <c r="DV24" t="n">
         <v>94.0</v>
+      </c>
+      <c r="DW24" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -28225,14 +28442,17 @@
       </c>
       <c r="DV25" t="n">
         <v>373.0</v>
+      </c>
+      <c r="DW25" t="n">
+        <v>358.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -28605,14 +28825,17 @@
       </c>
       <c r="DV26" t="n">
         <v>2435.0</v>
+      </c>
+      <c r="DW26" t="n">
+        <v>2380.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -28738,13 +28961,14 @@
       <c r="DT27"/>
       <c r="DU27"/>
       <c r="DV27"/>
+      <c r="DW27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
         <v>152</v>
-      </c>
-      <c r="B28" t="s">
-        <v>151</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -28870,6 +29094,7 @@
       <c r="DT28"/>
       <c r="DU28"/>
       <c r="DV28"/>
+      <c r="DW28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="180">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/14/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/15/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -403,6 +403,9 @@
     <t>2020-08-14</t>
   </si>
   <si>
+    <t>2020-08-15</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -547,10 +550,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/14/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/15/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/14/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/15/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -1058,13 +1061,16 @@
       <c r="DW3" t="s" s="10">
         <v>128</v>
       </c>
+      <c r="DX3" t="s" s="10">
+        <v>129</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1440,14 +1446,17 @@
       </c>
       <c r="DW4" t="n">
         <v>55.0</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1823,14 +1832,17 @@
       </c>
       <c r="DW5" t="n">
         <v>97.0</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2206,14 +2218,17 @@
       </c>
       <c r="DW6" t="n">
         <v>45.0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2589,14 +2604,17 @@
       </c>
       <c r="DW7" t="n">
         <v>47.0</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2971,15 +2989,18 @@
         <v>1200.0</v>
       </c>
       <c r="DW8" t="n">
+        <v>1218.0</v>
+      </c>
+      <c r="DX8" t="n">
         <v>1218.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3355,14 +3376,17 @@
       </c>
       <c r="DW9" t="n">
         <v>104.0</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3738,14 +3762,17 @@
       </c>
       <c r="DW10" t="n">
         <v>212.0</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>218.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4121,14 +4148,17 @@
       </c>
       <c r="DW11" t="n">
         <v>82.0</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4504,14 +4534,17 @@
       </c>
       <c r="DW12" t="n">
         <v>183.0</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>161.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -4887,14 +4920,17 @@
       </c>
       <c r="DW13" t="n">
         <v>72.0</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5270,14 +5306,17 @@
       </c>
       <c r="DW14" t="n">
         <v>49.0</v>
+      </c>
+      <c r="DX14" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5653,14 +5692,17 @@
       </c>
       <c r="DW15" t="n">
         <v>66.0</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6036,14 +6078,17 @@
       </c>
       <c r="DW16" t="n">
         <v>62.0</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -6419,14 +6464,17 @@
       </c>
       <c r="DW17" t="n">
         <v>39.0</v>
+      </c>
+      <c r="DX17" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -6802,14 +6850,17 @@
       </c>
       <c r="DW18" t="n">
         <v>295.0</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>287.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -7185,14 +7236,17 @@
       </c>
       <c r="DW19" t="n">
         <v>734.0</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>704.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -7568,14 +7622,17 @@
       </c>
       <c r="DW20" t="n">
         <v>1453.0</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>1455.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -7951,14 +8008,17 @@
       </c>
       <c r="DW21" t="n">
         <v>292.0</v>
+      </c>
+      <c r="DX21" t="n">
+        <v>288.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -8334,14 +8394,17 @@
       </c>
       <c r="DW22" t="n">
         <v>93.0</v>
+      </c>
+      <c r="DX22" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -8717,14 +8780,17 @@
       </c>
       <c r="DW23" t="n">
         <v>168.0</v>
+      </c>
+      <c r="DX23" t="n">
+        <v>183.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -9100,14 +9166,17 @@
       </c>
       <c r="DW24" t="n">
         <v>299.0</v>
+      </c>
+      <c r="DX24" t="n">
+        <v>288.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -9483,14 +9552,17 @@
       </c>
       <c r="DW25" t="n">
         <v>967.0</v>
+      </c>
+      <c r="DX25" t="n">
+        <v>918.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -9866,14 +9938,17 @@
       </c>
       <c r="DW26" t="n">
         <v>6632.0</v>
+      </c>
+      <c r="DX26" t="n">
+        <v>6481.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -10000,13 +10075,14 @@
       <c r="DU27"/>
       <c r="DV27"/>
       <c r="DW27"/>
+      <c r="DX27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" t="s">
         <v>153</v>
-      </c>
-      <c r="B28" t="s">
-        <v>152</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -10133,6 +10209,7 @@
       <c r="DU28"/>
       <c r="DV28"/>
       <c r="DW28"/>
+      <c r="DX28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -10149,7 +10226,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2">
@@ -10539,13 +10616,16 @@
       <c r="DW3" t="s" s="10">
         <v>128</v>
       </c>
+      <c r="DX3" t="s" s="10">
+        <v>129</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -10921,14 +11001,17 @@
       </c>
       <c r="DW4" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -11304,14 +11387,17 @@
       </c>
       <c r="DW5" t="n">
         <v>48.0</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -11687,14 +11773,17 @@
       </c>
       <c r="DW6" t="n">
         <v>25.0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -12070,14 +12159,17 @@
       </c>
       <c r="DW7" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -12453,14 +12545,17 @@
       </c>
       <c r="DW8" t="n">
         <v>813.0</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>814.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -12836,14 +12931,17 @@
       </c>
       <c r="DW9" t="n">
         <v>51.0</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -13219,14 +13317,17 @@
       </c>
       <c r="DW10" t="n">
         <v>135.0</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -13602,14 +13703,17 @@
       </c>
       <c r="DW11" t="n">
         <v>58.0</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -13985,14 +14089,17 @@
       </c>
       <c r="DW12" t="n">
         <v>127.0</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -14368,14 +14475,17 @@
       </c>
       <c r="DW13" t="n">
         <v>46.0</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -14751,14 +14861,17 @@
       </c>
       <c r="DW14" t="n">
         <v>43.0</v>
+      </c>
+      <c r="DX14" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -15134,14 +15247,17 @@
       </c>
       <c r="DW15" t="n">
         <v>48.0</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -15517,14 +15633,17 @@
       </c>
       <c r="DW16" t="n">
         <v>38.0</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -15899,15 +16018,18 @@
         <v>32.0</v>
       </c>
       <c r="DW17" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DX17" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -16283,14 +16405,17 @@
       </c>
       <c r="DW18" t="n">
         <v>187.0</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>182.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -16666,14 +16791,17 @@
       </c>
       <c r="DW19" t="n">
         <v>438.0</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>417.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -17049,14 +17177,17 @@
       </c>
       <c r="DW20" t="n">
         <v>908.0</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>900.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -17432,14 +17563,17 @@
       </c>
       <c r="DW21" t="n">
         <v>194.0</v>
+      </c>
+      <c r="DX21" t="n">
+        <v>191.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -17815,14 +17949,17 @@
       </c>
       <c r="DW22" t="n">
         <v>58.0</v>
+      </c>
+      <c r="DX22" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -18198,14 +18335,17 @@
       </c>
       <c r="DW23" t="n">
         <v>99.0</v>
+      </c>
+      <c r="DX23" t="n">
+        <v>119.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -18581,14 +18721,17 @@
       </c>
       <c r="DW24" t="n">
         <v>208.0</v>
+      </c>
+      <c r="DX24" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -18964,14 +19107,17 @@
       </c>
       <c r="DW25" t="n">
         <v>535.0</v>
+      </c>
+      <c r="DX25" t="n">
+        <v>499.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -19347,14 +19493,17 @@
       </c>
       <c r="DW26" t="n">
         <v>4120.0</v>
+      </c>
+      <c r="DX26" t="n">
+        <v>4032.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -19481,13 +19630,14 @@
       <c r="DU27"/>
       <c r="DV27"/>
       <c r="DW27"/>
+      <c r="DX27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" t="s">
         <v>153</v>
-      </c>
-      <c r="B28" t="s">
-        <v>152</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -19614,6 +19764,7 @@
       <c r="DU28"/>
       <c r="DV28"/>
       <c r="DW28"/>
+      <c r="DX28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -19630,7 +19781,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2">
@@ -20020,13 +20171,16 @@
       <c r="DW3" t="s" s="10">
         <v>128</v>
       </c>
+      <c r="DX3" t="s" s="10">
+        <v>129</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -20402,14 +20556,17 @@
       </c>
       <c r="DW4" t="n">
         <v>30.0</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -20785,14 +20942,17 @@
       </c>
       <c r="DW5" t="n">
         <v>48.0</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -21168,14 +21328,17 @@
       </c>
       <c r="DW6" t="n">
         <v>20.0</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -21551,14 +21714,17 @@
       </c>
       <c r="DW7" t="n">
         <v>38.0</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -21933,15 +22099,18 @@
         <v>374.0</v>
       </c>
       <c r="DW8" t="n">
+        <v>378.0</v>
+      </c>
+      <c r="DX8" t="n">
         <v>378.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -22316,15 +22485,18 @@
         <v>51.0</v>
       </c>
       <c r="DW9" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="DX9" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -22700,14 +22872,17 @@
       </c>
       <c r="DW10" t="n">
         <v>77.0</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -23082,15 +23257,18 @@
         <v>21.0</v>
       </c>
       <c r="DW11" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DX11" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -23466,14 +23644,17 @@
       </c>
       <c r="DW12" t="n">
         <v>56.0</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -23849,14 +24030,17 @@
       </c>
       <c r="DW13" t="n">
         <v>25.0</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -24232,14 +24416,17 @@
       </c>
       <c r="DW14" t="n">
         <v>6.0</v>
+      </c>
+      <c r="DX14" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -24615,14 +24802,17 @@
       </c>
       <c r="DW15" t="n">
         <v>18.0</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -24998,14 +25188,17 @@
       </c>
       <c r="DW16" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -25381,14 +25574,17 @@
       </c>
       <c r="DW17" t="n">
         <v>10.0</v>
+      </c>
+      <c r="DX17" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -25764,14 +25960,17 @@
       </c>
       <c r="DW18" t="n">
         <v>106.0</v>
+      </c>
+      <c r="DX18" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -26147,14 +26346,17 @@
       </c>
       <c r="DW19" t="n">
         <v>285.0</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>277.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -26530,14 +26732,17 @@
       </c>
       <c r="DW20" t="n">
         <v>531.0</v>
+      </c>
+      <c r="DX20" t="n">
+        <v>521.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -26913,14 +27118,17 @@
       </c>
       <c r="DW21" t="n">
         <v>98.0</v>
+      </c>
+      <c r="DX21" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -27296,14 +27504,17 @@
       </c>
       <c r="DW22" t="n">
         <v>35.0</v>
+      </c>
+      <c r="DX22" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -27679,14 +27890,17 @@
       </c>
       <c r="DW23" t="n">
         <v>69.0</v>
+      </c>
+      <c r="DX23" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -28062,14 +28276,17 @@
       </c>
       <c r="DW24" t="n">
         <v>91.0</v>
+      </c>
+      <c r="DX24" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -28445,14 +28662,17 @@
       </c>
       <c r="DW25" t="n">
         <v>358.0</v>
+      </c>
+      <c r="DX25" t="n">
+        <v>353.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -28828,14 +29048,17 @@
       </c>
       <c r="DW26" t="n">
         <v>2380.0</v>
+      </c>
+      <c r="DX26" t="n">
+        <v>2306.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -28962,13 +29185,14 @@
       <c r="DU27"/>
       <c r="DV27"/>
       <c r="DW27"/>
+      <c r="DX27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" t="s">
         <v>153</v>
-      </c>
-      <c r="B28" t="s">
-        <v>152</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -29095,6 +29319,7 @@
       <c r="DU28"/>
       <c r="DV28"/>
       <c r="DW28"/>
+      <c r="DX28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="182">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/15/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/16/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -406,6 +406,12 @@
     <t>2020-08-15</t>
   </si>
   <si>
+    <t>2020-08-16.x</t>
+  </si>
+  <si>
+    <t>2020-08-16.y</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -550,10 +556,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/15/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/16/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/15/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/16/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -1064,13 +1070,19 @@
       <c r="DX3" t="s" s="10">
         <v>129</v>
       </c>
+      <c r="DY3" t="s" s="10">
+        <v>130</v>
+      </c>
+      <c r="DZ3" t="s" s="10">
+        <v>131</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1449,14 +1461,20 @@
       </c>
       <c r="DX4" t="n">
         <v>58.0</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1835,14 +1853,20 @@
       </c>
       <c r="DX5" t="n">
         <v>86.0</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2221,14 +2245,20 @@
       </c>
       <c r="DX6" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2607,14 +2637,20 @@
       </c>
       <c r="DX7" t="n">
         <v>46.0</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -2993,14 +3029,20 @@
       </c>
       <c r="DX8" t="n">
         <v>1218.0</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>1155.0</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>1155.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3379,14 +3421,20 @@
       </c>
       <c r="DX9" t="n">
         <v>94.0</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3765,14 +3813,20 @@
       </c>
       <c r="DX10" t="n">
         <v>218.0</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>229.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4151,14 +4205,20 @@
       </c>
       <c r="DX11" t="n">
         <v>84.0</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4536,15 +4596,21 @@
         <v>183.0</v>
       </c>
       <c r="DX12" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="DZ12" t="n">
         <v>161.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -4923,14 +4989,20 @@
       </c>
       <c r="DX13" t="n">
         <v>65.0</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5308,15 +5380,21 @@
         <v>49.0</v>
       </c>
       <c r="DX14" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DY14" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DZ14" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5695,14 +5773,20 @@
       </c>
       <c r="DX15" t="n">
         <v>65.0</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6081,14 +6165,20 @@
       </c>
       <c r="DX16" t="n">
         <v>53.0</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -6467,14 +6557,20 @@
       </c>
       <c r="DX17" t="n">
         <v>37.0</v>
+      </c>
+      <c r="DY17" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DZ17" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -6853,14 +6949,20 @@
       </c>
       <c r="DX18" t="n">
         <v>287.0</v>
+      </c>
+      <c r="DY18" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>272.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -7239,14 +7341,20 @@
       </c>
       <c r="DX19" t="n">
         <v>704.0</v>
+      </c>
+      <c r="DY19" t="n">
+        <v>684.0</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>684.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -7625,14 +7733,20 @@
       </c>
       <c r="DX20" t="n">
         <v>1455.0</v>
+      </c>
+      <c r="DY20" t="n">
+        <v>1342.0</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>1342.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -8011,14 +8125,20 @@
       </c>
       <c r="DX21" t="n">
         <v>288.0</v>
+      </c>
+      <c r="DY21" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="DZ21" t="n">
+        <v>289.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -8397,14 +8517,20 @@
       </c>
       <c r="DX22" t="n">
         <v>86.0</v>
+      </c>
+      <c r="DY22" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="DZ22" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -8783,14 +8909,20 @@
       </c>
       <c r="DX23" t="n">
         <v>183.0</v>
+      </c>
+      <c r="DY23" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="DZ23" t="n">
+        <v>182.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -9169,14 +9301,20 @@
       </c>
       <c r="DX24" t="n">
         <v>288.0</v>
+      </c>
+      <c r="DY24" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>285.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -9555,14 +9693,20 @@
       </c>
       <c r="DX25" t="n">
         <v>918.0</v>
+      </c>
+      <c r="DY25" t="n">
+        <v>906.0</v>
+      </c>
+      <c r="DZ25" t="n">
+        <v>906.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -9941,14 +10085,20 @@
       </c>
       <c r="DX26" t="n">
         <v>6481.0</v>
+      </c>
+      <c r="DY26" t="n">
+        <v>6266.0</v>
+      </c>
+      <c r="DZ26" t="n">
+        <v>6267.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -10076,13 +10226,15 @@
       <c r="DV27"/>
       <c r="DW27"/>
       <c r="DX27"/>
+      <c r="DY27"/>
+      <c r="DZ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -10210,6 +10362,8 @@
       <c r="DV28"/>
       <c r="DW28"/>
       <c r="DX28"/>
+      <c r="DY28"/>
+      <c r="DZ28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -10226,7 +10380,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2">
@@ -10619,13 +10773,19 @@
       <c r="DX3" t="s" s="10">
         <v>129</v>
       </c>
+      <c r="DY3" t="s" s="10">
+        <v>130</v>
+      </c>
+      <c r="DZ3" t="s" s="10">
+        <v>131</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -11003,15 +11163,21 @@
         <v>24.0</v>
       </c>
       <c r="DX4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="DZ4" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -11390,14 +11556,20 @@
       </c>
       <c r="DX5" t="n">
         <v>49.0</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -11776,14 +11948,20 @@
       </c>
       <c r="DX6" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -12162,14 +12340,20 @@
       </c>
       <c r="DX7" t="n">
         <v>13.0</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -12548,14 +12732,20 @@
       </c>
       <c r="DX8" t="n">
         <v>814.0</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>771.0</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>771.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -12934,14 +13124,20 @@
       </c>
       <c r="DX9" t="n">
         <v>41.0</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -13320,14 +13516,20 @@
       </c>
       <c r="DX10" t="n">
         <v>144.0</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>158.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -13706,14 +13908,20 @@
       </c>
       <c r="DX11" t="n">
         <v>60.0</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -14092,14 +14300,20 @@
       </c>
       <c r="DX12" t="n">
         <v>108.0</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -14478,14 +14692,20 @@
       </c>
       <c r="DX13" t="n">
         <v>44.0</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -14863,15 +15083,21 @@
         <v>43.0</v>
       </c>
       <c r="DX14" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DY14" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="DZ14" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -15250,14 +15476,20 @@
       </c>
       <c r="DX15" t="n">
         <v>43.0</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -15636,14 +15868,20 @@
       </c>
       <c r="DX16" t="n">
         <v>30.0</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -16021,15 +16259,21 @@
         <v>28.0</v>
       </c>
       <c r="DX17" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DY17" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DZ17" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -16408,14 +16652,20 @@
       </c>
       <c r="DX18" t="n">
         <v>182.0</v>
+      </c>
+      <c r="DY18" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="DZ18" t="n">
+        <v>170.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -16794,14 +17044,20 @@
       </c>
       <c r="DX19" t="n">
         <v>417.0</v>
+      </c>
+      <c r="DY19" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>388.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -17180,14 +17436,20 @@
       </c>
       <c r="DX20" t="n">
         <v>900.0</v>
+      </c>
+      <c r="DY20" t="n">
+        <v>842.0</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>842.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -17565,15 +17827,21 @@
         <v>194.0</v>
       </c>
       <c r="DX21" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="DY21" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="DZ21" t="n">
         <v>191.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -17952,14 +18220,20 @@
       </c>
       <c r="DX22" t="n">
         <v>57.0</v>
+      </c>
+      <c r="DY22" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="DZ22" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -18338,14 +18612,20 @@
       </c>
       <c r="DX23" t="n">
         <v>119.0</v>
+      </c>
+      <c r="DY23" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="DZ23" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -18724,14 +19004,20 @@
       </c>
       <c r="DX24" t="n">
         <v>200.0</v>
+      </c>
+      <c r="DY24" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>194.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -19110,14 +19396,20 @@
       </c>
       <c r="DX25" t="n">
         <v>499.0</v>
+      </c>
+      <c r="DY25" t="n">
+        <v>495.0</v>
+      </c>
+      <c r="DZ25" t="n">
+        <v>495.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -19496,14 +19788,20 @@
       </c>
       <c r="DX26" t="n">
         <v>4032.0</v>
+      </c>
+      <c r="DY26" t="n">
+        <v>3876.0</v>
+      </c>
+      <c r="DZ26" t="n">
+        <v>3877.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -19631,13 +19929,15 @@
       <c r="DV27"/>
       <c r="DW27"/>
       <c r="DX27"/>
+      <c r="DY27"/>
+      <c r="DZ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -19765,6 +20065,8 @@
       <c r="DV28"/>
       <c r="DW28"/>
       <c r="DX28"/>
+      <c r="DY28"/>
+      <c r="DZ28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -19781,7 +20083,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
@@ -20174,13 +20476,19 @@
       <c r="DX3" t="s" s="10">
         <v>129</v>
       </c>
+      <c r="DY3" t="s" s="10">
+        <v>130</v>
+      </c>
+      <c r="DZ3" t="s" s="10">
+        <v>131</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -20559,14 +20867,20 @@
       </c>
       <c r="DX4" t="n">
         <v>26.0</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -20945,14 +21259,20 @@
       </c>
       <c r="DX5" t="n">
         <v>35.0</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -21331,14 +21651,20 @@
       </c>
       <c r="DX6" t="n">
         <v>18.0</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -21717,14 +22043,20 @@
       </c>
       <c r="DX7" t="n">
         <v>33.0</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -22103,14 +22435,20 @@
       </c>
       <c r="DX8" t="n">
         <v>378.0</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>361.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -22489,14 +22827,20 @@
       </c>
       <c r="DX9" t="n">
         <v>53.0</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -22875,14 +23219,20 @@
       </c>
       <c r="DX10" t="n">
         <v>74.0</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -23261,14 +23611,20 @@
       </c>
       <c r="DX11" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -23647,14 +24003,20 @@
       </c>
       <c r="DX12" t="n">
         <v>53.0</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -24033,14 +24395,20 @@
       </c>
       <c r="DX13" t="n">
         <v>20.0</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -24418,15 +24786,21 @@
         <v>6.0</v>
       </c>
       <c r="DX14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DY14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DZ14" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -24805,14 +25179,20 @@
       </c>
       <c r="DX15" t="n">
         <v>22.0</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -25191,14 +25571,20 @@
       </c>
       <c r="DX16" t="n">
         <v>23.0</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -25577,14 +25963,20 @@
       </c>
       <c r="DX17" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DY17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DZ17" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -25962,15 +26354,21 @@
         <v>106.0</v>
       </c>
       <c r="DX18" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="DY18" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="DZ18" t="n">
         <v>102.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -26349,14 +26747,20 @@
       </c>
       <c r="DX19" t="n">
         <v>277.0</v>
+      </c>
+      <c r="DY19" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>283.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -26735,14 +27139,20 @@
       </c>
       <c r="DX20" t="n">
         <v>521.0</v>
+      </c>
+      <c r="DY20" t="n">
+        <v>486.0</v>
+      </c>
+      <c r="DZ20" t="n">
+        <v>486.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -27121,14 +27531,20 @@
       </c>
       <c r="DX21" t="n">
         <v>97.0</v>
+      </c>
+      <c r="DY21" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="DZ21" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -27507,14 +27923,20 @@
       </c>
       <c r="DX22" t="n">
         <v>29.0</v>
+      </c>
+      <c r="DY22" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="DZ22" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -27893,14 +28315,20 @@
       </c>
       <c r="DX23" t="n">
         <v>64.0</v>
+      </c>
+      <c r="DY23" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="DZ23" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -28279,14 +28707,20 @@
       </c>
       <c r="DX24" t="n">
         <v>88.0</v>
+      </c>
+      <c r="DY24" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -28665,14 +29099,20 @@
       </c>
       <c r="DX25" t="n">
         <v>353.0</v>
+      </c>
+      <c r="DY25" t="n">
+        <v>346.0</v>
+      </c>
+      <c r="DZ25" t="n">
+        <v>346.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -29051,14 +29491,20 @@
       </c>
       <c r="DX26" t="n">
         <v>2306.0</v>
+      </c>
+      <c r="DY26" t="n">
+        <v>2269.0</v>
+      </c>
+      <c r="DZ26" t="n">
+        <v>2269.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -29186,13 +29632,15 @@
       <c r="DV27"/>
       <c r="DW27"/>
       <c r="DX27"/>
+      <c r="DY27"/>
+      <c r="DZ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -29320,6 +29768,8 @@
       <c r="DV28"/>
       <c r="DW28"/>
       <c r="DX28"/>
+      <c r="DY28"/>
+      <c r="DZ28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="183">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/16/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/17/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -412,6 +412,9 @@
     <t>2020-08-16.y</t>
   </si>
   <si>
+    <t>2020-08-17</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -556,10 +559,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/16/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/17/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/16/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/17/20 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -1076,13 +1079,16 @@
       <c r="DZ3" t="s" s="10">
         <v>131</v>
       </c>
+      <c r="EA3" t="s" s="10">
+        <v>132</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1466,15 +1472,18 @@
         <v>59.0</v>
       </c>
       <c r="DZ4" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="EA4" t="n">
         <v>59.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1859,14 +1868,17 @@
       </c>
       <c r="DZ5" t="n">
         <v>84.0</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2251,14 +2263,17 @@
       </c>
       <c r="DZ6" t="n">
         <v>46.0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2643,14 +2658,17 @@
       </c>
       <c r="DZ7" t="n">
         <v>42.0</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3035,14 +3053,17 @@
       </c>
       <c r="DZ8" t="n">
         <v>1155.0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>1146.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3427,14 +3448,17 @@
       </c>
       <c r="DZ9" t="n">
         <v>103.0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3819,14 +3843,17 @@
       </c>
       <c r="DZ10" t="n">
         <v>229.0</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>225.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4211,14 +4238,17 @@
       </c>
       <c r="DZ11" t="n">
         <v>75.0</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4603,14 +4633,17 @@
       </c>
       <c r="DZ12" t="n">
         <v>161.0</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -4995,14 +5028,17 @@
       </c>
       <c r="DZ13" t="n">
         <v>69.0</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5387,14 +5423,17 @@
       </c>
       <c r="DZ14" t="n">
         <v>45.0</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5778,15 +5817,18 @@
         <v>67.0</v>
       </c>
       <c r="DZ15" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="EA15" t="n">
         <v>67.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6171,14 +6213,17 @@
       </c>
       <c r="DZ16" t="n">
         <v>51.0</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -6562,15 +6607,18 @@
         <v>38.0</v>
       </c>
       <c r="DZ17" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="EA17" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -6955,14 +7003,17 @@
       </c>
       <c r="DZ18" t="n">
         <v>272.0</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>275.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -7347,14 +7398,17 @@
       </c>
       <c r="DZ19" t="n">
         <v>684.0</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>676.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -7739,14 +7793,17 @@
       </c>
       <c r="DZ20" t="n">
         <v>1342.0</v>
+      </c>
+      <c r="EA20" t="n">
+        <v>1316.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -8131,14 +8188,17 @@
       </c>
       <c r="DZ21" t="n">
         <v>289.0</v>
+      </c>
+      <c r="EA21" t="n">
+        <v>309.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -8523,14 +8583,17 @@
       </c>
       <c r="DZ22" t="n">
         <v>83.0</v>
+      </c>
+      <c r="EA22" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -8915,14 +8978,17 @@
       </c>
       <c r="DZ23" t="n">
         <v>182.0</v>
+      </c>
+      <c r="EA23" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -9307,14 +9373,17 @@
       </c>
       <c r="DZ24" t="n">
         <v>285.0</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>286.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -9699,14 +9768,17 @@
       </c>
       <c r="DZ25" t="n">
         <v>906.0</v>
+      </c>
+      <c r="EA25" t="n">
+        <v>839.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -10091,14 +10163,17 @@
       </c>
       <c r="DZ26" t="n">
         <v>6267.0</v>
+      </c>
+      <c r="EA26" t="n">
+        <v>6200.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -10228,13 +10303,14 @@
       <c r="DX27"/>
       <c r="DY27"/>
       <c r="DZ27"/>
+      <c r="EA27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" t="s">
         <v>156</v>
-      </c>
-      <c r="B28" t="s">
-        <v>155</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -10364,6 +10440,7 @@
       <c r="DX28"/>
       <c r="DY28"/>
       <c r="DZ28"/>
+      <c r="EA28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -10380,7 +10457,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
@@ -10779,13 +10856,16 @@
       <c r="DZ3" t="s" s="10">
         <v>131</v>
       </c>
+      <c r="EA3" t="s" s="10">
+        <v>132</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -11169,15 +11249,18 @@
         <v>31.0</v>
       </c>
       <c r="DZ4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="EA4" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -11561,15 +11644,18 @@
         <v>54.0</v>
       </c>
       <c r="DZ5" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="EA5" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -11954,14 +12040,17 @@
       </c>
       <c r="DZ6" t="n">
         <v>26.0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -12346,14 +12435,17 @@
       </c>
       <c r="DZ7" t="n">
         <v>16.0</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -12738,14 +12830,17 @@
       </c>
       <c r="DZ8" t="n">
         <v>771.0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>753.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -13130,14 +13225,17 @@
       </c>
       <c r="DZ9" t="n">
         <v>46.0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -13522,14 +13620,17 @@
       </c>
       <c r="DZ10" t="n">
         <v>158.0</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -13914,14 +14015,17 @@
       </c>
       <c r="DZ11" t="n">
         <v>52.0</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -14306,14 +14410,17 @@
       </c>
       <c r="DZ12" t="n">
         <v>99.0</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -14698,14 +14805,17 @@
       </c>
       <c r="DZ13" t="n">
         <v>45.0</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -15090,14 +15200,17 @@
       </c>
       <c r="DZ14" t="n">
         <v>38.0</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -15481,15 +15594,18 @@
         <v>46.0</v>
       </c>
       <c r="DZ15" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="EA15" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -15874,14 +15990,17 @@
       </c>
       <c r="DZ16" t="n">
         <v>27.0</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -16266,14 +16385,17 @@
       </c>
       <c r="DZ17" t="n">
         <v>28.0</v>
+      </c>
+      <c r="EA17" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -16658,14 +16780,17 @@
       </c>
       <c r="DZ18" t="n">
         <v>170.0</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>178.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -17050,14 +17175,17 @@
       </c>
       <c r="DZ19" t="n">
         <v>388.0</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>396.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -17442,14 +17570,17 @@
       </c>
       <c r="DZ20" t="n">
         <v>842.0</v>
+      </c>
+      <c r="EA20" t="n">
+        <v>808.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -17834,14 +17965,17 @@
       </c>
       <c r="DZ21" t="n">
         <v>191.0</v>
+      </c>
+      <c r="EA21" t="n">
+        <v>224.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -18225,15 +18359,18 @@
         <v>50.0</v>
       </c>
       <c r="DZ22" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="EA22" t="n">
         <v>50.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -18618,14 +18755,17 @@
       </c>
       <c r="DZ23" t="n">
         <v>110.0</v>
+      </c>
+      <c r="EA23" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -19010,14 +19150,17 @@
       </c>
       <c r="DZ24" t="n">
         <v>194.0</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>199.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -19402,14 +19545,17 @@
       </c>
       <c r="DZ25" t="n">
         <v>495.0</v>
+      </c>
+      <c r="EA25" t="n">
+        <v>491.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -19794,14 +19940,17 @@
       </c>
       <c r="DZ26" t="n">
         <v>3877.0</v>
+      </c>
+      <c r="EA26" t="n">
+        <v>3895.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -19931,13 +20080,14 @@
       <c r="DX27"/>
       <c r="DY27"/>
       <c r="DZ27"/>
+      <c r="EA27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" t="s">
         <v>156</v>
-      </c>
-      <c r="B28" t="s">
-        <v>155</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -20067,6 +20217,7 @@
       <c r="DX28"/>
       <c r="DY28"/>
       <c r="DZ28"/>
+      <c r="EA28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -20083,7 +20234,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2">
@@ -20482,13 +20633,16 @@
       <c r="DZ3" t="s" s="10">
         <v>131</v>
       </c>
+      <c r="EA3" t="s" s="10">
+        <v>132</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -20872,15 +21026,18 @@
         <v>27.0</v>
       </c>
       <c r="DZ4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="EA4" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -21265,14 +21422,17 @@
       </c>
       <c r="DZ5" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -21657,14 +21817,17 @@
       </c>
       <c r="DZ6" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -22049,14 +22212,17 @@
       </c>
       <c r="DZ7" t="n">
         <v>26.0</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -22441,14 +22607,17 @@
       </c>
       <c r="DZ8" t="n">
         <v>361.0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>368.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -22833,14 +23002,17 @@
       </c>
       <c r="DZ9" t="n">
         <v>57.0</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -23225,14 +23397,17 @@
       </c>
       <c r="DZ10" t="n">
         <v>71.0</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -23617,14 +23792,17 @@
       </c>
       <c r="DZ11" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -24009,14 +24187,17 @@
       </c>
       <c r="DZ12" t="n">
         <v>59.0</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -24401,14 +24582,17 @@
       </c>
       <c r="DZ13" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -24793,14 +24977,17 @@
       </c>
       <c r="DZ14" t="n">
         <v>7.0</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -25184,15 +25371,18 @@
         <v>21.0</v>
       </c>
       <c r="DZ15" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="EA15" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -25577,14 +25767,17 @@
       </c>
       <c r="DZ16" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -25969,14 +26162,17 @@
       </c>
       <c r="DZ17" t="n">
         <v>10.0</v>
+      </c>
+      <c r="EA17" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -26361,14 +26557,17 @@
       </c>
       <c r="DZ18" t="n">
         <v>102.0</v>
+      </c>
+      <c r="EA18" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -26753,14 +26952,17 @@
       </c>
       <c r="DZ19" t="n">
         <v>283.0</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>269.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -27145,14 +27347,17 @@
       </c>
       <c r="DZ20" t="n">
         <v>486.0</v>
+      </c>
+      <c r="EA20" t="n">
+        <v>494.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -27537,14 +27742,17 @@
       </c>
       <c r="DZ21" t="n">
         <v>98.0</v>
+      </c>
+      <c r="EA21" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -27929,14 +28137,17 @@
       </c>
       <c r="DZ22" t="n">
         <v>33.0</v>
+      </c>
+      <c r="EA22" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -28321,14 +28532,17 @@
       </c>
       <c r="DZ23" t="n">
         <v>72.0</v>
+      </c>
+      <c r="EA23" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -28713,14 +28927,17 @@
       </c>
       <c r="DZ24" t="n">
         <v>91.0</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -29105,14 +29322,17 @@
       </c>
       <c r="DZ25" t="n">
         <v>346.0</v>
+      </c>
+      <c r="EA25" t="n">
+        <v>341.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -29497,14 +29717,17 @@
       </c>
       <c r="DZ26" t="n">
         <v>2269.0</v>
+      </c>
+      <c r="EA26" t="n">
+        <v>2240.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -29634,13 +29857,14 @@
       <c r="DX27"/>
       <c r="DY27"/>
       <c r="DZ27"/>
+      <c r="EA27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" t="s">
         <v>156</v>
-      </c>
-      <c r="B28" t="s">
-        <v>155</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -29770,6 +29994,7 @@
       <c r="DX28"/>
       <c r="DY28"/>
       <c r="DZ28"/>
+      <c r="EA28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="187">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/19/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/20/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -418,6 +418,9 @@
     <t>2020-08-19</t>
   </si>
   <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -562,10 +565,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/19/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/20/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/19/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/20/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1094,13 +1097,16 @@
       <c r="EB3" t="s" s="10">
         <v>133</v>
       </c>
+      <c r="EC3" t="s" s="10">
+        <v>134</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1491,14 +1497,17 @@
       </c>
       <c r="EB4" t="n">
         <v>55.0</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1889,14 +1898,17 @@
       </c>
       <c r="EB5" t="n">
         <v>98.0</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2287,14 +2299,17 @@
       </c>
       <c r="EB6" t="n">
         <v>47.0</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2685,14 +2700,17 @@
       </c>
       <c r="EB7" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3083,14 +3101,17 @@
       </c>
       <c r="EB8" t="n">
         <v>1075.0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>1055.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3481,14 +3502,17 @@
       </c>
       <c r="EB9" t="n">
         <v>105.0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3879,14 +3903,17 @@
       </c>
       <c r="EB10" t="n">
         <v>233.0</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>221.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4277,14 +4304,17 @@
       </c>
       <c r="EB11" t="n">
         <v>58.0</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4675,14 +4705,17 @@
       </c>
       <c r="EB12" t="n">
         <v>168.0</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>161.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5073,14 +5106,17 @@
       </c>
       <c r="EB13" t="n">
         <v>73.0</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5471,14 +5507,17 @@
       </c>
       <c r="EB14" t="n">
         <v>47.0</v>
+      </c>
+      <c r="EC14" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5869,14 +5908,17 @@
       </c>
       <c r="EB15" t="n">
         <v>69.0</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6267,14 +6309,17 @@
       </c>
       <c r="EB16" t="n">
         <v>57.0</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -6665,14 +6710,17 @@
       </c>
       <c r="EB17" t="n">
         <v>35.0</v>
+      </c>
+      <c r="EC17" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7063,14 +7111,17 @@
       </c>
       <c r="EB18" t="n">
         <v>280.0</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>249.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -7461,14 +7512,17 @@
       </c>
       <c r="EB19" t="n">
         <v>664.0</v>
+      </c>
+      <c r="EC19" t="n">
+        <v>598.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -7859,14 +7913,17 @@
       </c>
       <c r="EB20" t="n">
         <v>1323.0</v>
+      </c>
+      <c r="EC20" t="n">
+        <v>1178.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -8257,14 +8314,17 @@
       </c>
       <c r="EB21" t="n">
         <v>287.0</v>
+      </c>
+      <c r="EC21" t="n">
+        <v>262.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -8655,14 +8715,17 @@
       </c>
       <c r="EB22" t="n">
         <v>96.0</v>
+      </c>
+      <c r="EC22" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -9053,14 +9116,17 @@
       </c>
       <c r="EB23" t="n">
         <v>170.0</v>
+      </c>
+      <c r="EC23" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -9451,14 +9517,17 @@
       </c>
       <c r="EB24" t="n">
         <v>274.0</v>
+      </c>
+      <c r="EC24" t="n">
+        <v>264.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -9849,14 +9918,17 @@
       </c>
       <c r="EB25" t="n">
         <v>730.0</v>
+      </c>
+      <c r="EC25" t="n">
+        <v>728.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -10247,14 +10319,17 @@
       </c>
       <c r="EB26" t="n">
         <v>5974.0</v>
+      </c>
+      <c r="EC26" t="n">
+        <v>5635.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -10386,13 +10461,14 @@
       <c r="DZ27"/>
       <c r="EA27"/>
       <c r="EB27"/>
+      <c r="EC27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" t="s">
         <v>158</v>
-      </c>
-      <c r="B28" t="s">
-        <v>157</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -10524,6 +10600,7 @@
       <c r="DZ28"/>
       <c r="EA28"/>
       <c r="EB28"/>
+      <c r="EC28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -10540,7 +10617,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2">
@@ -10945,13 +11022,16 @@
       <c r="EB3" t="s" s="10">
         <v>133</v>
       </c>
+      <c r="EC3" t="s" s="10">
+        <v>134</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -11342,14 +11422,17 @@
       </c>
       <c r="EB4" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -11740,14 +11823,17 @@
       </c>
       <c r="EB5" t="n">
         <v>63.0</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -12138,14 +12224,17 @@
       </c>
       <c r="EB6" t="n">
         <v>31.0</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -12535,15 +12624,18 @@
         <v>11.0</v>
       </c>
       <c r="EB7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="EC7" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -12934,14 +13026,17 @@
       </c>
       <c r="EB8" t="n">
         <v>722.0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>711.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -13332,14 +13427,17 @@
       </c>
       <c r="EB9" t="n">
         <v>49.0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -13730,14 +13828,17 @@
       </c>
       <c r="EB10" t="n">
         <v>157.0</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>151.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -14128,14 +14229,17 @@
       </c>
       <c r="EB11" t="n">
         <v>47.0</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -14526,14 +14630,17 @@
       </c>
       <c r="EB12" t="n">
         <v>114.0</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -14924,14 +15031,17 @@
       </c>
       <c r="EB13" t="n">
         <v>51.0</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -15322,14 +15432,17 @@
       </c>
       <c r="EB14" t="n">
         <v>39.0</v>
+      </c>
+      <c r="EC14" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -15720,14 +15833,17 @@
       </c>
       <c r="EB15" t="n">
         <v>44.0</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -16118,14 +16234,17 @@
       </c>
       <c r="EB16" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -16516,14 +16635,17 @@
       </c>
       <c r="EB17" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EC17" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -16914,14 +17036,17 @@
       </c>
       <c r="EB18" t="n">
         <v>182.0</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -17312,14 +17437,17 @@
       </c>
       <c r="EB19" t="n">
         <v>395.0</v>
+      </c>
+      <c r="EC19" t="n">
+        <v>345.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -17710,14 +17838,17 @@
       </c>
       <c r="EB20" t="n">
         <v>838.0</v>
+      </c>
+      <c r="EC20" t="n">
+        <v>766.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -18108,14 +18239,17 @@
       </c>
       <c r="EB21" t="n">
         <v>200.0</v>
+      </c>
+      <c r="EC21" t="n">
+        <v>178.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -18506,14 +18640,17 @@
       </c>
       <c r="EB22" t="n">
         <v>63.0</v>
+      </c>
+      <c r="EC22" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -18904,14 +19041,17 @@
       </c>
       <c r="EB23" t="n">
         <v>102.0</v>
+      </c>
+      <c r="EC23" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -19302,14 +19442,17 @@
       </c>
       <c r="EB24" t="n">
         <v>193.0</v>
+      </c>
+      <c r="EC24" t="n">
+        <v>192.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -19700,14 +19843,17 @@
       </c>
       <c r="EB25" t="n">
         <v>429.0</v>
+      </c>
+      <c r="EC25" t="n">
+        <v>435.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -20098,14 +20244,17 @@
       </c>
       <c r="EB26" t="n">
         <v>3816.0</v>
+      </c>
+      <c r="EC26" t="n">
+        <v>3603.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -20237,13 +20386,14 @@
       <c r="DZ27"/>
       <c r="EA27"/>
       <c r="EB27"/>
+      <c r="EC27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" t="s">
         <v>158</v>
-      </c>
-      <c r="B28" t="s">
-        <v>157</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -20375,6 +20525,7 @@
       <c r="DZ28"/>
       <c r="EA28"/>
       <c r="EB28"/>
+      <c r="EC28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -20391,7 +20542,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2">
@@ -20761,7 +20912,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -20785,7 +20936,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -20795,14 +20946,17 @@
       </c>
       <c r="EB3" t="s" s="10">
         <v>133</v>
+      </c>
+      <c r="EC3" t="s" s="10">
+        <v>134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -21193,14 +21347,17 @@
       </c>
       <c r="EB4" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -21591,14 +21748,17 @@
       </c>
       <c r="EB5" t="n">
         <v>34.0</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -21989,14 +22149,17 @@
       </c>
       <c r="EB6" t="n">
         <v>16.0</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -22387,14 +22550,17 @@
       </c>
       <c r="EB7" t="n">
         <v>21.0</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -22785,14 +22951,17 @@
       </c>
       <c r="EB8" t="n">
         <v>330.0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>317.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -23183,14 +23352,17 @@
       </c>
       <c r="EB9" t="n">
         <v>56.0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -23581,14 +23753,17 @@
       </c>
       <c r="EB10" t="n">
         <v>75.0</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -23979,14 +24154,17 @@
       </c>
       <c r="EB11" t="n">
         <v>11.0</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -24377,14 +24555,17 @@
       </c>
       <c r="EB12" t="n">
         <v>52.0</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -24775,14 +24956,17 @@
       </c>
       <c r="EB13" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -25172,15 +25356,18 @@
         <v>7.0</v>
       </c>
       <c r="EB14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="EC14" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -25571,14 +25758,17 @@
       </c>
       <c r="EB15" t="n">
         <v>25.0</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -25969,14 +26159,17 @@
       </c>
       <c r="EB16" t="n">
         <v>27.0</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -26367,14 +26560,17 @@
       </c>
       <c r="EB17" t="n">
         <v>6.0</v>
+      </c>
+      <c r="EC17" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -26765,14 +26961,17 @@
       </c>
       <c r="EB18" t="n">
         <v>95.0</v>
+      </c>
+      <c r="EC18" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -27163,14 +27362,17 @@
       </c>
       <c r="EB19" t="n">
         <v>258.0</v>
+      </c>
+      <c r="EC19" t="n">
+        <v>247.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -27561,14 +27763,17 @@
       </c>
       <c r="EB20" t="n">
         <v>485.0</v>
+      </c>
+      <c r="EC20" t="n">
+        <v>411.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -27959,14 +28164,17 @@
       </c>
       <c r="EB21" t="n">
         <v>87.0</v>
+      </c>
+      <c r="EC21" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -28357,14 +28565,17 @@
       </c>
       <c r="EB22" t="n">
         <v>33.0</v>
+      </c>
+      <c r="EC22" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -28755,14 +28966,17 @@
       </c>
       <c r="EB23" t="n">
         <v>68.0</v>
+      </c>
+      <c r="EC23" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -29153,14 +29367,17 @@
       </c>
       <c r="EB24" t="n">
         <v>81.0</v>
+      </c>
+      <c r="EC24" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -29551,14 +29768,17 @@
       </c>
       <c r="EB25" t="n">
         <v>295.0</v>
+      </c>
+      <c r="EC25" t="n">
+        <v>288.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -29949,14 +30169,17 @@
       </c>
       <c r="EB26" t="n">
         <v>2107.0</v>
+      </c>
+      <c r="EC26" t="n">
+        <v>1979.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -30088,13 +30311,14 @@
       <c r="DZ27"/>
       <c r="EA27"/>
       <c r="EB27"/>
+      <c r="EC27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" t="s">
         <v>158</v>
-      </c>
-      <c r="B28" t="s">
-        <v>157</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -30226,6 +30450,7 @@
       <c r="DZ28"/>
       <c r="EA28"/>
       <c r="EB28"/>
+      <c r="EC28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="188">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/20/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/21/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -421,6 +421,9 @@
     <t>2020-08-20</t>
   </si>
   <si>
+    <t>2020-08-21</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -565,10 +568,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/20/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/21/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/20/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/21/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1100,13 +1103,16 @@
       <c r="EC3" t="s" s="10">
         <v>134</v>
       </c>
+      <c r="ED3" t="s" s="10">
+        <v>135</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1500,14 +1506,17 @@
       </c>
       <c r="EC4" t="n">
         <v>57.0</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1901,14 +1910,17 @@
       </c>
       <c r="EC5" t="n">
         <v>99.0</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2302,14 +2314,17 @@
       </c>
       <c r="EC6" t="n">
         <v>46.0</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2703,14 +2718,17 @@
       </c>
       <c r="EC7" t="n">
         <v>34.0</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3104,14 +3122,17 @@
       </c>
       <c r="EC8" t="n">
         <v>1055.0</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>1039.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3505,14 +3526,17 @@
       </c>
       <c r="EC9" t="n">
         <v>107.0</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3906,14 +3930,17 @@
       </c>
       <c r="EC10" t="n">
         <v>221.0</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>211.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4307,14 +4334,17 @@
       </c>
       <c r="EC11" t="n">
         <v>74.0</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4708,14 +4738,17 @@
       </c>
       <c r="EC12" t="n">
         <v>161.0</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5109,14 +5142,17 @@
       </c>
       <c r="EC13" t="n">
         <v>58.0</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5510,14 +5546,17 @@
       </c>
       <c r="EC14" t="n">
         <v>49.0</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5911,14 +5950,17 @@
       </c>
       <c r="EC15" t="n">
         <v>72.0</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6312,14 +6354,17 @@
       </c>
       <c r="EC16" t="n">
         <v>55.0</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -6713,14 +6758,17 @@
       </c>
       <c r="EC17" t="n">
         <v>22.0</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7114,14 +7162,17 @@
       </c>
       <c r="EC18" t="n">
         <v>249.0</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>231.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -7514,15 +7565,18 @@
         <v>664.0</v>
       </c>
       <c r="EC19" t="n">
+        <v>598.0</v>
+      </c>
+      <c r="ED19" t="n">
         <v>598.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -7916,14 +7970,17 @@
       </c>
       <c r="EC20" t="n">
         <v>1178.0</v>
+      </c>
+      <c r="ED20" t="n">
+        <v>1172.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -8317,14 +8374,17 @@
       </c>
       <c r="EC21" t="n">
         <v>262.0</v>
+      </c>
+      <c r="ED21" t="n">
+        <v>260.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -8718,14 +8778,17 @@
       </c>
       <c r="EC22" t="n">
         <v>94.0</v>
+      </c>
+      <c r="ED22" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -9119,14 +9182,17 @@
       </c>
       <c r="EC23" t="n">
         <v>152.0</v>
+      </c>
+      <c r="ED23" t="n">
+        <v>154.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -9520,14 +9586,17 @@
       </c>
       <c r="EC24" t="n">
         <v>264.0</v>
+      </c>
+      <c r="ED24" t="n">
+        <v>280.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -9921,14 +9990,17 @@
       </c>
       <c r="EC25" t="n">
         <v>728.0</v>
+      </c>
+      <c r="ED25" t="n">
+        <v>702.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -10322,14 +10394,17 @@
       </c>
       <c r="EC26" t="n">
         <v>5635.0</v>
+      </c>
+      <c r="ED26" t="n">
+        <v>5566.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -10462,13 +10537,14 @@
       <c r="EA27"/>
       <c r="EB27"/>
       <c r="EC27"/>
+      <c r="ED27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
         <v>159</v>
-      </c>
-      <c r="B28" t="s">
-        <v>158</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -10601,6 +10677,7 @@
       <c r="EA28"/>
       <c r="EB28"/>
       <c r="EC28"/>
+      <c r="ED28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -10617,7 +10694,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2">
@@ -11025,13 +11102,16 @@
       <c r="EC3" t="s" s="10">
         <v>134</v>
       </c>
+      <c r="ED3" t="s" s="10">
+        <v>135</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -11425,14 +11505,17 @@
       </c>
       <c r="EC4" t="n">
         <v>33.0</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -11826,14 +11909,17 @@
       </c>
       <c r="EC5" t="n">
         <v>64.0</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -12227,14 +12313,17 @@
       </c>
       <c r="EC6" t="n">
         <v>29.0</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -12628,14 +12717,17 @@
       </c>
       <c r="EC7" t="n">
         <v>9.0</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -13029,14 +13121,17 @@
       </c>
       <c r="EC8" t="n">
         <v>711.0</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>704.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -13429,15 +13524,18 @@
         <v>49.0</v>
       </c>
       <c r="EC9" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="ED9" t="n">
         <v>50.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -13831,14 +13929,17 @@
       </c>
       <c r="EC10" t="n">
         <v>151.0</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>149.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -14232,14 +14333,17 @@
       </c>
       <c r="EC11" t="n">
         <v>55.0</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -14633,14 +14737,17 @@
       </c>
       <c r="EC12" t="n">
         <v>108.0</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -15034,14 +15141,17 @@
       </c>
       <c r="EC13" t="n">
         <v>39.0</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -15435,14 +15545,17 @@
       </c>
       <c r="EC14" t="n">
         <v>41.0</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -15836,14 +15949,17 @@
       </c>
       <c r="EC15" t="n">
         <v>45.0</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -16237,14 +16353,17 @@
       </c>
       <c r="EC16" t="n">
         <v>29.0</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -16638,14 +16757,17 @@
       </c>
       <c r="EC17" t="n">
         <v>19.0</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -17039,14 +17161,17 @@
       </c>
       <c r="EC18" t="n">
         <v>150.0</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>139.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -17440,14 +17565,17 @@
       </c>
       <c r="EC19" t="n">
         <v>345.0</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>346.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -17841,14 +17969,17 @@
       </c>
       <c r="EC20" t="n">
         <v>766.0</v>
+      </c>
+      <c r="ED20" t="n">
+        <v>763.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -18242,14 +18373,17 @@
       </c>
       <c r="EC21" t="n">
         <v>178.0</v>
+      </c>
+      <c r="ED21" t="n">
+        <v>175.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -18643,14 +18777,17 @@
       </c>
       <c r="EC22" t="n">
         <v>62.0</v>
+      </c>
+      <c r="ED22" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -19044,14 +19181,17 @@
       </c>
       <c r="EC23" t="n">
         <v>92.0</v>
+      </c>
+      <c r="ED23" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -19444,15 +19584,18 @@
         <v>193.0</v>
       </c>
       <c r="EC24" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="ED24" t="n">
         <v>192.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -19846,14 +19989,17 @@
       </c>
       <c r="EC25" t="n">
         <v>435.0</v>
+      </c>
+      <c r="ED25" t="n">
+        <v>408.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -20247,14 +20393,17 @@
       </c>
       <c r="EC26" t="n">
         <v>3603.0</v>
+      </c>
+      <c r="ED26" t="n">
+        <v>3544.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -20387,13 +20536,14 @@
       <c r="EA27"/>
       <c r="EB27"/>
       <c r="EC27"/>
+      <c r="ED27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
         <v>159</v>
-      </c>
-      <c r="B28" t="s">
-        <v>158</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -20526,6 +20676,7 @@
       <c r="EA28"/>
       <c r="EB28"/>
       <c r="EC28"/>
+      <c r="ED28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -20542,7 +20693,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2">
@@ -20912,7 +21063,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -20936,7 +21087,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -20949,14 +21100,17 @@
       </c>
       <c r="EC3" t="s" s="10">
         <v>134</v>
+      </c>
+      <c r="ED3" t="s" s="10">
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -21349,15 +21503,18 @@
         <v>24.0</v>
       </c>
       <c r="EC4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="ED4" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -21750,15 +21907,18 @@
         <v>34.0</v>
       </c>
       <c r="EC5" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="ED5" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -22151,15 +22311,18 @@
         <v>16.0</v>
       </c>
       <c r="EC6" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="ED6" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -22553,14 +22716,17 @@
       </c>
       <c r="EC7" t="n">
         <v>25.0</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -22954,14 +23120,17 @@
       </c>
       <c r="EC8" t="n">
         <v>317.0</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>299.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -23355,14 +23524,17 @@
       </c>
       <c r="EC9" t="n">
         <v>57.0</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -23756,14 +23928,17 @@
       </c>
       <c r="EC10" t="n">
         <v>70.0</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -24157,14 +24332,17 @@
       </c>
       <c r="EC11" t="n">
         <v>19.0</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -24558,14 +24736,17 @@
       </c>
       <c r="EC12" t="n">
         <v>50.0</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -24959,14 +25140,17 @@
       </c>
       <c r="EC13" t="n">
         <v>18.0</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -25360,14 +25544,17 @@
       </c>
       <c r="EC14" t="n">
         <v>8.0</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -25761,14 +25948,17 @@
       </c>
       <c r="EC15" t="n">
         <v>27.0</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -26162,14 +26352,17 @@
       </c>
       <c r="EC16" t="n">
         <v>26.0</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -26562,15 +26755,18 @@
         <v>6.0</v>
       </c>
       <c r="EC17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="ED17" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -26964,14 +27160,17 @@
       </c>
       <c r="EC18" t="n">
         <v>91.0</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -27365,14 +27564,17 @@
       </c>
       <c r="EC19" t="n">
         <v>247.0</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>246.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -27766,14 +27968,17 @@
       </c>
       <c r="EC20" t="n">
         <v>411.0</v>
+      </c>
+      <c r="ED20" t="n">
+        <v>407.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -28167,14 +28372,17 @@
       </c>
       <c r="EC21" t="n">
         <v>84.0</v>
+      </c>
+      <c r="ED21" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -28568,14 +28776,17 @@
       </c>
       <c r="EC22" t="n">
         <v>32.0</v>
+      </c>
+      <c r="ED22" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -28969,14 +29180,17 @@
       </c>
       <c r="EC23" t="n">
         <v>60.0</v>
+      </c>
+      <c r="ED23" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -29370,14 +29584,17 @@
       </c>
       <c r="EC24" t="n">
         <v>72.0</v>
+      </c>
+      <c r="ED24" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -29770,15 +29987,18 @@
         <v>295.0</v>
       </c>
       <c r="EC25" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="ED25" t="n">
         <v>288.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -30172,14 +30392,17 @@
       </c>
       <c r="EC26" t="n">
         <v>1979.0</v>
+      </c>
+      <c r="ED26" t="n">
+        <v>1963.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -30312,13 +30535,14 @@
       <c r="EA27"/>
       <c r="EB27"/>
       <c r="EC27"/>
+      <c r="ED27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
         <v>159</v>
-      </c>
-      <c r="B28" t="s">
-        <v>158</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -30451,6 +30675,7 @@
       <c r="EA28"/>
       <c r="EB28"/>
       <c r="EC28"/>
+      <c r="ED28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="189">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/21/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/22/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -424,6 +424,9 @@
     <t>2020-08-21</t>
   </si>
   <si>
+    <t>2020-08-22</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -568,10 +571,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/21/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/22/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/21/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/22/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1106,13 +1109,16 @@
       <c r="ED3" t="s" s="10">
         <v>135</v>
       </c>
+      <c r="EE3" t="s" s="10">
+        <v>136</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1509,14 +1515,17 @@
       </c>
       <c r="ED4" t="n">
         <v>58.0</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1913,14 +1922,17 @@
       </c>
       <c r="ED5" t="n">
         <v>91.0</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2317,14 +2329,17 @@
       </c>
       <c r="ED6" t="n">
         <v>47.0</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2721,14 +2736,17 @@
       </c>
       <c r="ED7" t="n">
         <v>33.0</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3125,14 +3143,17 @@
       </c>
       <c r="ED8" t="n">
         <v>1039.0</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>1011.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3529,14 +3550,17 @@
       </c>
       <c r="ED9" t="n">
         <v>111.0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3933,14 +3957,17 @@
       </c>
       <c r="ED10" t="n">
         <v>211.0</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>203.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4337,14 +4364,17 @@
       </c>
       <c r="ED11" t="n">
         <v>68.0</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4741,14 +4771,17 @@
       </c>
       <c r="ED12" t="n">
         <v>166.0</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>135.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5145,14 +5178,17 @@
       </c>
       <c r="ED13" t="n">
         <v>64.0</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5548,15 +5584,18 @@
         <v>49.0</v>
       </c>
       <c r="ED14" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="EE14" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5953,14 +5992,17 @@
       </c>
       <c r="ED15" t="n">
         <v>69.0</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6357,14 +6399,17 @@
       </c>
       <c r="ED16" t="n">
         <v>47.0</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -6761,14 +6806,17 @@
       </c>
       <c r="ED17" t="n">
         <v>17.0</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7165,14 +7213,17 @@
       </c>
       <c r="ED18" t="n">
         <v>231.0</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>217.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -7569,14 +7620,17 @@
       </c>
       <c r="ED19" t="n">
         <v>598.0</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>588.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -7973,14 +8027,17 @@
       </c>
       <c r="ED20" t="n">
         <v>1172.0</v>
+      </c>
+      <c r="EE20" t="n">
+        <v>1070.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -8377,14 +8434,17 @@
       </c>
       <c r="ED21" t="n">
         <v>260.0</v>
+      </c>
+      <c r="EE21" t="n">
+        <v>238.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -8781,14 +8841,17 @@
       </c>
       <c r="ED22" t="n">
         <v>96.0</v>
+      </c>
+      <c r="EE22" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -9185,14 +9248,17 @@
       </c>
       <c r="ED23" t="n">
         <v>154.0</v>
+      </c>
+      <c r="EE23" t="n">
+        <v>153.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -9589,14 +9655,17 @@
       </c>
       <c r="ED24" t="n">
         <v>280.0</v>
+      </c>
+      <c r="EE24" t="n">
+        <v>259.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -9993,14 +10062,17 @@
       </c>
       <c r="ED25" t="n">
         <v>702.0</v>
+      </c>
+      <c r="EE25" t="n">
+        <v>667.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -10397,14 +10469,17 @@
       </c>
       <c r="ED26" t="n">
         <v>5566.0</v>
+      </c>
+      <c r="EE26" t="n">
+        <v>5274.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -10538,13 +10613,14 @@
       <c r="EB27"/>
       <c r="EC27"/>
       <c r="ED27"/>
+      <c r="EE27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
         <v>160</v>
-      </c>
-      <c r="B28" t="s">
-        <v>159</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -10678,6 +10754,7 @@
       <c r="EB28"/>
       <c r="EC28"/>
       <c r="ED28"/>
+      <c r="EE28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -10694,7 +10771,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2">
@@ -11105,13 +11182,16 @@
       <c r="ED3" t="s" s="10">
         <v>135</v>
       </c>
+      <c r="EE3" t="s" s="10">
+        <v>136</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -11507,15 +11587,18 @@
         <v>33.0</v>
       </c>
       <c r="ED4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="EE4" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -11912,14 +11995,17 @@
       </c>
       <c r="ED5" t="n">
         <v>56.0</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -12315,15 +12401,18 @@
         <v>29.0</v>
       </c>
       <c r="ED6" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="EE6" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -12719,15 +12808,18 @@
         <v>9.0</v>
       </c>
       <c r="ED7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="EE7" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -13124,14 +13216,17 @@
       </c>
       <c r="ED8" t="n">
         <v>704.0</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>666.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -13528,14 +13623,17 @@
       </c>
       <c r="ED9" t="n">
         <v>50.0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -13932,14 +14030,17 @@
       </c>
       <c r="ED10" t="n">
         <v>149.0</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>140.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -14336,14 +14437,17 @@
       </c>
       <c r="ED11" t="n">
         <v>47.0</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -14740,14 +14844,17 @@
       </c>
       <c r="ED12" t="n">
         <v>111.0</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -15144,14 +15251,17 @@
       </c>
       <c r="ED13" t="n">
         <v>45.0</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -15548,14 +15658,17 @@
       </c>
       <c r="ED14" t="n">
         <v>43.0</v>
+      </c>
+      <c r="EE14" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -15952,14 +16065,17 @@
       </c>
       <c r="ED15" t="n">
         <v>43.0</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -16356,14 +16472,17 @@
       </c>
       <c r="ED16" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -16760,14 +16879,17 @@
       </c>
       <c r="ED17" t="n">
         <v>14.0</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -17164,14 +17286,17 @@
       </c>
       <c r="ED18" t="n">
         <v>139.0</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>129.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -17568,14 +17693,17 @@
       </c>
       <c r="ED19" t="n">
         <v>346.0</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>350.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -17972,14 +18100,17 @@
       </c>
       <c r="ED20" t="n">
         <v>763.0</v>
+      </c>
+      <c r="EE20" t="n">
+        <v>678.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -18376,14 +18507,17 @@
       </c>
       <c r="ED21" t="n">
         <v>175.0</v>
+      </c>
+      <c r="EE21" t="n">
+        <v>164.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -18780,14 +18914,17 @@
       </c>
       <c r="ED22" t="n">
         <v>67.0</v>
+      </c>
+      <c r="EE22" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -19184,14 +19321,17 @@
       </c>
       <c r="ED23" t="n">
         <v>91.0</v>
+      </c>
+      <c r="EE23" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -19588,14 +19728,17 @@
       </c>
       <c r="ED24" t="n">
         <v>192.0</v>
+      </c>
+      <c r="EE24" t="n">
+        <v>178.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -19992,14 +20135,17 @@
       </c>
       <c r="ED25" t="n">
         <v>408.0</v>
+      </c>
+      <c r="EE25" t="n">
+        <v>402.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -20396,14 +20542,17 @@
       </c>
       <c r="ED26" t="n">
         <v>3544.0</v>
+      </c>
+      <c r="EE26" t="n">
+        <v>3334.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -20537,13 +20686,14 @@
       <c r="EB27"/>
       <c r="EC27"/>
       <c r="ED27"/>
+      <c r="EE27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
         <v>160</v>
-      </c>
-      <c r="B28" t="s">
-        <v>159</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -20677,6 +20827,7 @@
       <c r="EB28"/>
       <c r="EC28"/>
       <c r="ED28"/>
+      <c r="EE28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -20693,7 +20844,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2">
@@ -21063,7 +21214,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -21087,7 +21238,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -21103,14 +21254,17 @@
       </c>
       <c r="ED3" t="s" s="10">
         <v>135</v>
+      </c>
+      <c r="EE3" t="s" s="10">
+        <v>136</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -21507,14 +21661,17 @@
       </c>
       <c r="ED4" t="n">
         <v>22.0</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -21911,14 +22068,17 @@
       </c>
       <c r="ED5" t="n">
         <v>35.0</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -22315,14 +22475,17 @@
       </c>
       <c r="ED6" t="n">
         <v>17.0</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -22719,14 +22882,17 @@
       </c>
       <c r="ED7" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -23123,14 +23289,17 @@
       </c>
       <c r="ED8" t="n">
         <v>299.0</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>314.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -23527,14 +23696,17 @@
       </c>
       <c r="ED9" t="n">
         <v>61.0</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -23931,14 +24103,17 @@
       </c>
       <c r="ED10" t="n">
         <v>62.0</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -24334,15 +24509,18 @@
         <v>19.0</v>
       </c>
       <c r="ED11" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="EE11" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -24739,14 +24917,17 @@
       </c>
       <c r="ED12" t="n">
         <v>52.0</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -25143,14 +25324,17 @@
       </c>
       <c r="ED13" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -25547,14 +25731,17 @@
       </c>
       <c r="ED14" t="n">
         <v>9.0</v>
+      </c>
+      <c r="EE14" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -25951,14 +26138,17 @@
       </c>
       <c r="ED15" t="n">
         <v>26.0</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -26354,15 +26544,18 @@
         <v>26.0</v>
       </c>
       <c r="ED16" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="EE16" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -26758,15 +26951,18 @@
         <v>3.0</v>
       </c>
       <c r="ED17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="EE17" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -27163,14 +27359,17 @@
       </c>
       <c r="ED18" t="n">
         <v>88.0</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -27567,14 +27766,17 @@
       </c>
       <c r="ED19" t="n">
         <v>246.0</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>231.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -27971,14 +28173,17 @@
       </c>
       <c r="ED20" t="n">
         <v>407.0</v>
+      </c>
+      <c r="EE20" t="n">
+        <v>384.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -28375,14 +28580,17 @@
       </c>
       <c r="ED21" t="n">
         <v>85.0</v>
+      </c>
+      <c r="EE21" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -28779,14 +28987,17 @@
       </c>
       <c r="ED22" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EE22" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -29182,15 +29393,18 @@
         <v>60.0</v>
       </c>
       <c r="ED23" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="EE23" t="n">
         <v>63.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -29587,14 +29801,17 @@
       </c>
       <c r="ED24" t="n">
         <v>88.0</v>
+      </c>
+      <c r="EE24" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -29991,14 +30208,17 @@
       </c>
       <c r="ED25" t="n">
         <v>288.0</v>
+      </c>
+      <c r="EE25" t="n">
+        <v>259.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -30395,14 +30615,17 @@
       </c>
       <c r="ED26" t="n">
         <v>1963.0</v>
+      </c>
+      <c r="EE26" t="n">
+        <v>1878.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -30536,13 +30759,14 @@
       <c r="EB27"/>
       <c r="EC27"/>
       <c r="ED27"/>
+      <c r="EE27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
         <v>160</v>
-      </c>
-      <c r="B28" t="s">
-        <v>159</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -30676,6 +30900,7 @@
       <c r="EB28"/>
       <c r="EC28"/>
       <c r="ED28"/>
+      <c r="EE28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="190">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/22/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/23/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -427,6 +427,9 @@
     <t>2020-08-22</t>
   </si>
   <si>
+    <t>2020-08-23</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -571,10 +574,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/22/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/23/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/22/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/23/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1112,13 +1115,16 @@
       <c r="EE3" t="s" s="10">
         <v>136</v>
       </c>
+      <c r="EF3" t="s" s="10">
+        <v>137</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1518,14 +1524,17 @@
       </c>
       <c r="EE4" t="n">
         <v>56.0</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1925,14 +1934,17 @@
       </c>
       <c r="EE5" t="n">
         <v>85.0</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2332,14 +2344,17 @@
       </c>
       <c r="EE6" t="n">
         <v>45.0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2739,14 +2754,17 @@
       </c>
       <c r="EE7" t="n">
         <v>39.0</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3146,14 +3164,17 @@
       </c>
       <c r="EE8" t="n">
         <v>1011.0</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>969.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3553,14 +3574,17 @@
       </c>
       <c r="EE9" t="n">
         <v>108.0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3960,14 +3984,17 @@
       </c>
       <c r="EE10" t="n">
         <v>203.0</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>202.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4367,14 +4394,17 @@
       </c>
       <c r="EE11" t="n">
         <v>64.0</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4774,14 +4804,17 @@
       </c>
       <c r="EE12" t="n">
         <v>135.0</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>136.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5181,14 +5214,17 @@
       </c>
       <c r="EE13" t="n">
         <v>66.0</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5588,14 +5624,17 @@
       </c>
       <c r="EE14" t="n">
         <v>52.0</v>
+      </c>
+      <c r="EF14" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -5995,14 +6034,17 @@
       </c>
       <c r="EE15" t="n">
         <v>63.0</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6402,14 +6444,17 @@
       </c>
       <c r="EE16" t="n">
         <v>50.0</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -6808,15 +6853,18 @@
         <v>17.0</v>
       </c>
       <c r="EE17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="EF17" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7215,15 +7263,18 @@
         <v>231.0</v>
       </c>
       <c r="EE18" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="EF18" t="n">
         <v>217.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -7623,14 +7674,17 @@
       </c>
       <c r="EE19" t="n">
         <v>588.0</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>563.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -8030,14 +8084,17 @@
       </c>
       <c r="EE20" t="n">
         <v>1070.0</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>1092.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -8437,14 +8494,17 @@
       </c>
       <c r="EE21" t="n">
         <v>238.0</v>
+      </c>
+      <c r="EF21" t="n">
+        <v>248.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -8844,14 +8904,17 @@
       </c>
       <c r="EE22" t="n">
         <v>92.0</v>
+      </c>
+      <c r="EF22" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -9251,14 +9314,17 @@
       </c>
       <c r="EE23" t="n">
         <v>153.0</v>
+      </c>
+      <c r="EF23" t="n">
+        <v>156.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -9658,14 +9724,17 @@
       </c>
       <c r="EE24" t="n">
         <v>259.0</v>
+      </c>
+      <c r="EF24" t="n">
+        <v>244.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -10065,14 +10134,17 @@
       </c>
       <c r="EE25" t="n">
         <v>667.0</v>
+      </c>
+      <c r="EF25" t="n">
+        <v>677.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -10472,14 +10544,17 @@
       </c>
       <c r="EE26" t="n">
         <v>5274.0</v>
+      </c>
+      <c r="EF26" t="n">
+        <v>5186.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -10614,13 +10689,14 @@
       <c r="EC27"/>
       <c r="ED27"/>
       <c r="EE27"/>
+      <c r="EF27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" t="s">
         <v>161</v>
-      </c>
-      <c r="B28" t="s">
-        <v>160</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -10755,6 +10831,7 @@
       <c r="EC28"/>
       <c r="ED28"/>
       <c r="EE28"/>
+      <c r="EF28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -10771,7 +10848,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2">
@@ -11185,13 +11262,16 @@
       <c r="EE3" t="s" s="10">
         <v>136</v>
       </c>
+      <c r="EF3" t="s" s="10">
+        <v>137</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -11591,14 +11671,17 @@
       </c>
       <c r="EE4" t="n">
         <v>34.0</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -11998,14 +12081,17 @@
       </c>
       <c r="EE5" t="n">
         <v>46.0</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -12405,14 +12491,17 @@
       </c>
       <c r="EE6" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -12811,15 +12900,18 @@
         <v>13.0</v>
       </c>
       <c r="EE7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="EF7" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -13219,14 +13311,17 @@
       </c>
       <c r="EE8" t="n">
         <v>666.0</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>631.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -13626,14 +13721,17 @@
       </c>
       <c r="EE9" t="n">
         <v>51.0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -14033,14 +14131,17 @@
       </c>
       <c r="EE10" t="n">
         <v>140.0</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>137.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -14440,14 +14541,17 @@
       </c>
       <c r="EE11" t="n">
         <v>43.0</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -14847,14 +14951,17 @@
       </c>
       <c r="EE12" t="n">
         <v>86.0</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -15254,14 +15361,17 @@
       </c>
       <c r="EE13" t="n">
         <v>44.0</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -15661,14 +15771,17 @@
       </c>
       <c r="EE14" t="n">
         <v>42.0</v>
+      </c>
+      <c r="EF14" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -16068,14 +16181,17 @@
       </c>
       <c r="EE15" t="n">
         <v>45.0</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -16475,14 +16591,17 @@
       </c>
       <c r="EE16" t="n">
         <v>27.0</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -16882,14 +17001,17 @@
       </c>
       <c r="EE17" t="n">
         <v>10.0</v>
+      </c>
+      <c r="EF17" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -17289,14 +17411,17 @@
       </c>
       <c r="EE18" t="n">
         <v>129.0</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>135.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -17696,14 +17821,17 @@
       </c>
       <c r="EE19" t="n">
         <v>350.0</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>341.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -18103,14 +18231,17 @@
       </c>
       <c r="EE20" t="n">
         <v>678.0</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>688.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -18510,14 +18641,17 @@
       </c>
       <c r="EE21" t="n">
         <v>164.0</v>
+      </c>
+      <c r="EF21" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -18917,14 +19051,17 @@
       </c>
       <c r="EE22" t="n">
         <v>66.0</v>
+      </c>
+      <c r="EF22" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -19324,14 +19461,17 @@
       </c>
       <c r="EE23" t="n">
         <v>90.0</v>
+      </c>
+      <c r="EF23" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -19731,14 +19871,17 @@
       </c>
       <c r="EE24" t="n">
         <v>178.0</v>
+      </c>
+      <c r="EF24" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -20138,14 +20281,17 @@
       </c>
       <c r="EE25" t="n">
         <v>402.0</v>
+      </c>
+      <c r="EF25" t="n">
+        <v>411.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -20545,14 +20691,17 @@
       </c>
       <c r="EE26" t="n">
         <v>3334.0</v>
+      </c>
+      <c r="EF26" t="n">
+        <v>3312.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -20687,13 +20836,14 @@
       <c r="EC27"/>
       <c r="ED27"/>
       <c r="EE27"/>
+      <c r="EF27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" t="s">
         <v>161</v>
-      </c>
-      <c r="B28" t="s">
-        <v>160</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -20828,6 +20978,7 @@
       <c r="EC28"/>
       <c r="ED28"/>
       <c r="EE28"/>
+      <c r="EF28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -20844,7 +20995,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2">
@@ -21214,7 +21365,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -21238,7 +21389,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -21257,14 +21408,17 @@
       </c>
       <c r="EE3" t="s" s="10">
         <v>136</v>
+      </c>
+      <c r="EF3" t="s" s="10">
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -21664,14 +21818,17 @@
       </c>
       <c r="EE4" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -22071,14 +22228,17 @@
       </c>
       <c r="EE5" t="n">
         <v>39.0</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -22478,14 +22638,17 @@
       </c>
       <c r="EE6" t="n">
         <v>15.0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -22885,14 +23048,17 @@
       </c>
       <c r="EE7" t="n">
         <v>26.0</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -23292,14 +23458,17 @@
       </c>
       <c r="EE8" t="n">
         <v>314.0</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>310.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -23699,14 +23868,17 @@
       </c>
       <c r="EE9" t="n">
         <v>57.0</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -24106,14 +24278,17 @@
       </c>
       <c r="EE10" t="n">
         <v>63.0</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -24513,14 +24688,17 @@
       </c>
       <c r="EE11" t="n">
         <v>21.0</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -24920,14 +25098,17 @@
       </c>
       <c r="EE12" t="n">
         <v>46.0</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -25327,14 +25508,17 @@
       </c>
       <c r="EE13" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -25734,14 +25918,17 @@
       </c>
       <c r="EE14" t="n">
         <v>10.0</v>
+      </c>
+      <c r="EF14" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -26141,14 +26328,17 @@
       </c>
       <c r="EE15" t="n">
         <v>18.0</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -26548,14 +26738,17 @@
       </c>
       <c r="EE16" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EF16" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -26955,14 +27148,17 @@
       </c>
       <c r="EE17" t="n">
         <v>3.0</v>
+      </c>
+      <c r="EF17" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -27362,14 +27558,17 @@
       </c>
       <c r="EE18" t="n">
         <v>85.0</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -27769,14 +27968,17 @@
       </c>
       <c r="EE19" t="n">
         <v>231.0</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>216.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -28176,14 +28378,17 @@
       </c>
       <c r="EE20" t="n">
         <v>384.0</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>403.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -28582,15 +28787,18 @@
         <v>85.0</v>
       </c>
       <c r="EE21" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="EF21" t="n">
         <v>74.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -28989,15 +29197,18 @@
         <v>29.0</v>
       </c>
       <c r="EE22" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="EF22" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -29396,15 +29607,18 @@
         <v>63.0</v>
       </c>
       <c r="EE23" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="EF23" t="n">
         <v>63.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -29804,14 +30018,17 @@
       </c>
       <c r="EE24" t="n">
         <v>81.0</v>
+      </c>
+      <c r="EF24" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -30211,14 +30428,17 @@
       </c>
       <c r="EE25" t="n">
         <v>259.0</v>
+      </c>
+      <c r="EF25" t="n">
+        <v>258.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -30618,14 +30838,17 @@
       </c>
       <c r="EE26" t="n">
         <v>1878.0</v>
+      </c>
+      <c r="EF26" t="n">
+        <v>1809.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -30760,13 +30983,14 @@
       <c r="EC27"/>
       <c r="ED27"/>
       <c r="EE27"/>
+      <c r="EF27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" t="s">
         <v>161</v>
-      </c>
-      <c r="B28" t="s">
-        <v>160</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -30901,6 +31125,7 @@
       <c r="EC28"/>
       <c r="ED28"/>
       <c r="EE28"/>
+      <c r="EF28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="191">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/23/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/24/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -430,6 +430,9 @@
     <t>2020-08-23</t>
   </si>
   <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -574,10 +577,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/23/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/24/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/23/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/24/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1118,13 +1121,16 @@
       <c r="EF3" t="s" s="10">
         <v>137</v>
       </c>
+      <c r="EG3" t="s" s="10">
+        <v>138</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1527,14 +1533,17 @@
       </c>
       <c r="EF4" t="n">
         <v>61.0</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1937,14 +1946,17 @@
       </c>
       <c r="EF5" t="n">
         <v>80.0</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2347,14 +2359,17 @@
       </c>
       <c r="EF6" t="n">
         <v>35.0</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2757,14 +2772,17 @@
       </c>
       <c r="EF7" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3167,14 +3185,17 @@
       </c>
       <c r="EF8" t="n">
         <v>969.0</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>963.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3577,14 +3598,17 @@
       </c>
       <c r="EF9" t="n">
         <v>76.0</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -3987,14 +4011,17 @@
       </c>
       <c r="EF10" t="n">
         <v>202.0</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>196.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4397,14 +4424,17 @@
       </c>
       <c r="EF11" t="n">
         <v>69.0</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4806,15 +4836,18 @@
         <v>135.0</v>
       </c>
       <c r="EF12" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="EG12" t="n">
         <v>136.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5217,14 +5250,17 @@
       </c>
       <c r="EF13" t="n">
         <v>68.0</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5626,15 +5662,18 @@
         <v>52.0</v>
       </c>
       <c r="EF14" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="EG14" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6036,15 +6075,18 @@
         <v>63.0</v>
       </c>
       <c r="EF15" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="EG15" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6447,14 +6489,17 @@
       </c>
       <c r="EF16" t="n">
         <v>57.0</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -6857,14 +6902,17 @@
       </c>
       <c r="EF17" t="n">
         <v>13.0</v>
+      </c>
+      <c r="EG17" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7267,14 +7315,17 @@
       </c>
       <c r="EF18" t="n">
         <v>217.0</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>199.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -7677,14 +7728,17 @@
       </c>
       <c r="EF19" t="n">
         <v>563.0</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>551.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -8087,14 +8141,17 @@
       </c>
       <c r="EF20" t="n">
         <v>1092.0</v>
+      </c>
+      <c r="EG20" t="n">
+        <v>986.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -8497,14 +8554,17 @@
       </c>
       <c r="EF21" t="n">
         <v>248.0</v>
+      </c>
+      <c r="EG21" t="n">
+        <v>212.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -8907,14 +8967,17 @@
       </c>
       <c r="EF22" t="n">
         <v>90.0</v>
+      </c>
+      <c r="EG22" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -9317,14 +9380,17 @@
       </c>
       <c r="EF23" t="n">
         <v>156.0</v>
+      </c>
+      <c r="EG23" t="n">
+        <v>162.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -9727,14 +9793,17 @@
       </c>
       <c r="EF24" t="n">
         <v>244.0</v>
+      </c>
+      <c r="EG24" t="n">
+        <v>251.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -10137,14 +10206,17 @@
       </c>
       <c r="EF25" t="n">
         <v>677.0</v>
+      </c>
+      <c r="EG25" t="n">
+        <v>624.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -10547,14 +10619,17 @@
       </c>
       <c r="EF26" t="n">
         <v>5186.0</v>
+      </c>
+      <c r="EG26" t="n">
+        <v>5019.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -10690,13 +10765,14 @@
       <c r="ED27"/>
       <c r="EE27"/>
       <c r="EF27"/>
+      <c r="EG27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
         <v>162</v>
-      </c>
-      <c r="B28" t="s">
-        <v>161</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -10832,6 +10908,7 @@
       <c r="ED28"/>
       <c r="EE28"/>
       <c r="EF28"/>
+      <c r="EG28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -10848,7 +10925,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2">
@@ -11265,13 +11342,16 @@
       <c r="EF3" t="s" s="10">
         <v>137</v>
       </c>
+      <c r="EG3" t="s" s="10">
+        <v>138</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -11674,14 +11754,17 @@
       </c>
       <c r="EF4" t="n">
         <v>36.0</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -12084,14 +12167,17 @@
       </c>
       <c r="EF5" t="n">
         <v>43.0</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -12494,14 +12580,17 @@
       </c>
       <c r="EF6" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -12903,15 +12992,18 @@
         <v>13.0</v>
       </c>
       <c r="EF7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="EG7" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -13314,14 +13406,17 @@
       </c>
       <c r="EF8" t="n">
         <v>631.0</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>626.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -13724,14 +13819,17 @@
       </c>
       <c r="EF9" t="n">
         <v>52.0</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -14134,14 +14232,17 @@
       </c>
       <c r="EF10" t="n">
         <v>137.0</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>129.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -14544,14 +14645,17 @@
       </c>
       <c r="EF11" t="n">
         <v>36.0</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -14954,14 +15058,17 @@
       </c>
       <c r="EF12" t="n">
         <v>82.0</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -15364,14 +15471,17 @@
       </c>
       <c r="EF13" t="n">
         <v>48.0</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -15773,15 +15883,18 @@
         <v>42.0</v>
       </c>
       <c r="EF14" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="EG14" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -16183,15 +16296,18 @@
         <v>45.0</v>
       </c>
       <c r="EF15" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="EG15" t="n">
         <v>44.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -16593,15 +16709,18 @@
         <v>27.0</v>
       </c>
       <c r="EF16" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="EG16" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -17004,14 +17123,17 @@
       </c>
       <c r="EF17" t="n">
         <v>11.0</v>
+      </c>
+      <c r="EG17" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -17414,14 +17536,17 @@
       </c>
       <c r="EF18" t="n">
         <v>135.0</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -17824,14 +17949,17 @@
       </c>
       <c r="EF19" t="n">
         <v>341.0</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>333.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -18234,14 +18362,17 @@
       </c>
       <c r="EF20" t="n">
         <v>688.0</v>
+      </c>
+      <c r="EG20" t="n">
+        <v>627.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -18644,14 +18775,17 @@
       </c>
       <c r="EF21" t="n">
         <v>174.0</v>
+      </c>
+      <c r="EG21" t="n">
+        <v>163.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -19054,14 +19188,17 @@
       </c>
       <c r="EF22" t="n">
         <v>64.0</v>
+      </c>
+      <c r="EG22" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -19464,14 +19601,17 @@
       </c>
       <c r="EF23" t="n">
         <v>93.0</v>
+      </c>
+      <c r="EG23" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -19874,14 +20014,17 @@
       </c>
       <c r="EF24" t="n">
         <v>169.0</v>
+      </c>
+      <c r="EG24" t="n">
+        <v>177.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -20284,14 +20427,17 @@
       </c>
       <c r="EF25" t="n">
         <v>411.0</v>
+      </c>
+      <c r="EG25" t="n">
+        <v>366.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -20694,14 +20840,17 @@
       </c>
       <c r="EF26" t="n">
         <v>3312.0</v>
+      </c>
+      <c r="EG26" t="n">
+        <v>3162.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -20837,13 +20986,14 @@
       <c r="ED27"/>
       <c r="EE27"/>
       <c r="EF27"/>
+      <c r="EG27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
         <v>162</v>
-      </c>
-      <c r="B28" t="s">
-        <v>161</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -20979,6 +21129,7 @@
       <c r="ED28"/>
       <c r="EE28"/>
       <c r="EF28"/>
+      <c r="EG28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -20995,7 +21146,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -21365,7 +21516,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -21389,7 +21540,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -21411,14 +21562,17 @@
       </c>
       <c r="EF3" t="s" s="10">
         <v>137</v>
+      </c>
+      <c r="EG3" t="s" s="10">
+        <v>138</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -21820,15 +21974,18 @@
         <v>20.0</v>
       </c>
       <c r="EF4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="EG4" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -22230,15 +22387,18 @@
         <v>39.0</v>
       </c>
       <c r="EF5" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="EG5" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -22641,14 +22801,17 @@
       </c>
       <c r="EF6" t="n">
         <v>6.0</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -23051,14 +23214,17 @@
       </c>
       <c r="EF7" t="n">
         <v>10.0</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -23461,14 +23627,17 @@
       </c>
       <c r="EF8" t="n">
         <v>310.0</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>315.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -23871,14 +24040,17 @@
       </c>
       <c r="EF9" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -24281,14 +24453,17 @@
       </c>
       <c r="EF10" t="n">
         <v>65.0</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -24691,14 +24866,17 @@
       </c>
       <c r="EF11" t="n">
         <v>22.0</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -25101,14 +25279,17 @@
       </c>
       <c r="EF12" t="n">
         <v>50.0</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -25510,15 +25691,18 @@
         <v>20.0</v>
       </c>
       <c r="EF13" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="EG13" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -25920,15 +26104,18 @@
         <v>10.0</v>
       </c>
       <c r="EF14" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="EG14" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -26330,15 +26517,18 @@
         <v>18.0</v>
       </c>
       <c r="EF15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="EG15" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -26741,14 +26931,17 @@
       </c>
       <c r="EF16" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -27150,15 +27343,18 @@
         <v>3.0</v>
       </c>
       <c r="EF17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="EG17" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -27561,14 +27757,17 @@
       </c>
       <c r="EF18" t="n">
         <v>81.0</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -27971,14 +28170,17 @@
       </c>
       <c r="EF19" t="n">
         <v>216.0</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>210.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -28381,14 +28583,17 @@
       </c>
       <c r="EF20" t="n">
         <v>403.0</v>
+      </c>
+      <c r="EG20" t="n">
+        <v>358.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -28791,14 +28996,17 @@
       </c>
       <c r="EF21" t="n">
         <v>74.0</v>
+      </c>
+      <c r="EG21" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -29201,14 +29409,17 @@
       </c>
       <c r="EF22" t="n">
         <v>26.0</v>
+      </c>
+      <c r="EG22" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -29611,14 +29822,17 @@
       </c>
       <c r="EF23" t="n">
         <v>63.0</v>
+      </c>
+      <c r="EG23" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -30021,14 +30235,17 @@
       </c>
       <c r="EF24" t="n">
         <v>75.0</v>
+      </c>
+      <c r="EG24" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -30431,14 +30648,17 @@
       </c>
       <c r="EF25" t="n">
         <v>258.0</v>
+      </c>
+      <c r="EG25" t="n">
+        <v>253.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -30841,14 +31061,17 @@
       </c>
       <c r="EF26" t="n">
         <v>1809.0</v>
+      </c>
+      <c r="EG26" t="n">
+        <v>1799.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -30984,13 +31207,14 @@
       <c r="ED27"/>
       <c r="EE27"/>
       <c r="EF27"/>
+      <c r="EG27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
         <v>162</v>
-      </c>
-      <c r="B28" t="s">
-        <v>161</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -31126,6 +31350,7 @@
       <c r="ED28"/>
       <c r="EE28"/>
       <c r="EF28"/>
+      <c r="EG28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="192">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/24/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/25/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -433,6 +433,9 @@
     <t>2020-08-24</t>
   </si>
   <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -577,10 +580,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/24/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/25/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/24/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/25/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1124,13 +1127,16 @@
       <c r="EG3" t="s" s="10">
         <v>138</v>
       </c>
+      <c r="EH3" t="s" s="10">
+        <v>139</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1536,14 +1542,17 @@
       </c>
       <c r="EG4" t="n">
         <v>59.0</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1949,14 +1958,17 @@
       </c>
       <c r="EG5" t="n">
         <v>81.0</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2362,14 +2374,17 @@
       </c>
       <c r="EG6" t="n">
         <v>41.0</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2775,14 +2790,17 @@
       </c>
       <c r="EG7" t="n">
         <v>40.0</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3188,14 +3206,17 @@
       </c>
       <c r="EG8" t="n">
         <v>963.0</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>925.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3601,14 +3622,17 @@
       </c>
       <c r="EG9" t="n">
         <v>110.0</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4014,14 +4038,17 @@
       </c>
       <c r="EG10" t="n">
         <v>196.0</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>206.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4427,14 +4454,17 @@
       </c>
       <c r="EG11" t="n">
         <v>68.0</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4840,14 +4870,17 @@
       </c>
       <c r="EG12" t="n">
         <v>136.0</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5253,14 +5286,17 @@
       </c>
       <c r="EG13" t="n">
         <v>69.0</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5666,14 +5702,17 @@
       </c>
       <c r="EG14" t="n">
         <v>49.0</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6079,14 +6118,17 @@
       </c>
       <c r="EG15" t="n">
         <v>61.0</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6492,14 +6534,17 @@
       </c>
       <c r="EG16" t="n">
         <v>60.0</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -6905,14 +6950,17 @@
       </c>
       <c r="EG17" t="n">
         <v>16.0</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7318,14 +7366,17 @@
       </c>
       <c r="EG18" t="n">
         <v>199.0</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>182.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -7731,14 +7782,17 @@
       </c>
       <c r="EG19" t="n">
         <v>551.0</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>543.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -8144,14 +8198,17 @@
       </c>
       <c r="EG20" t="n">
         <v>986.0</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>1007.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -8557,14 +8614,17 @@
       </c>
       <c r="EG21" t="n">
         <v>212.0</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>188.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -8970,14 +9030,17 @@
       </c>
       <c r="EG22" t="n">
         <v>85.0</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -9382,15 +9445,18 @@
         <v>156.0</v>
       </c>
       <c r="EG23" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="EH23" t="n">
         <v>162.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -9796,14 +9862,17 @@
       </c>
       <c r="EG24" t="n">
         <v>251.0</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>266.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -10209,14 +10278,17 @@
       </c>
       <c r="EG25" t="n">
         <v>624.0</v>
+      </c>
+      <c r="EH25" t="n">
+        <v>647.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -10622,14 +10694,17 @@
       </c>
       <c r="EG26" t="n">
         <v>5019.0</v>
+      </c>
+      <c r="EH26" t="n">
+        <v>4907.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -10766,13 +10841,14 @@
       <c r="EE27"/>
       <c r="EF27"/>
       <c r="EG27"/>
+      <c r="EH27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" t="s">
         <v>163</v>
-      </c>
-      <c r="B28" t="s">
-        <v>162</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -10909,6 +10985,7 @@
       <c r="EE28"/>
       <c r="EF28"/>
       <c r="EG28"/>
+      <c r="EH28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -10925,7 +11002,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -11345,13 +11422,16 @@
       <c r="EG3" t="s" s="10">
         <v>138</v>
       </c>
+      <c r="EH3" t="s" s="10">
+        <v>139</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -11756,15 +11836,18 @@
         <v>36.0</v>
       </c>
       <c r="EG4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="EH4" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -12170,14 +12253,17 @@
       </c>
       <c r="EG5" t="n">
         <v>44.0</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -12583,14 +12669,17 @@
       </c>
       <c r="EG6" t="n">
         <v>22.0</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -12995,15 +13084,18 @@
         <v>13.0</v>
       </c>
       <c r="EG7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="EH7" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -13409,14 +13501,17 @@
       </c>
       <c r="EG8" t="n">
         <v>626.0</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>601.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -13821,15 +13916,18 @@
         <v>52.0</v>
       </c>
       <c r="EG9" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="EH9" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -14235,14 +14333,17 @@
       </c>
       <c r="EG10" t="n">
         <v>129.0</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>139.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -14648,14 +14749,17 @@
       </c>
       <c r="EG11" t="n">
         <v>38.0</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -15061,14 +15165,17 @@
       </c>
       <c r="EG12" t="n">
         <v>79.0</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -15474,14 +15581,17 @@
       </c>
       <c r="EG13" t="n">
         <v>49.0</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -15887,14 +15997,17 @@
       </c>
       <c r="EG14" t="n">
         <v>38.0</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -16300,14 +16413,17 @@
       </c>
       <c r="EG15" t="n">
         <v>44.0</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -16712,15 +16828,18 @@
         <v>37.0</v>
       </c>
       <c r="EG16" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="EH16" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -17125,15 +17244,18 @@
         <v>11.0</v>
       </c>
       <c r="EG17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="EH17" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -17539,14 +17661,17 @@
       </c>
       <c r="EG18" t="n">
         <v>125.0</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -17952,14 +18077,17 @@
       </c>
       <c r="EG19" t="n">
         <v>333.0</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>329.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -18365,14 +18493,17 @@
       </c>
       <c r="EG20" t="n">
         <v>627.0</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>646.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -18778,14 +18909,17 @@
       </c>
       <c r="EG21" t="n">
         <v>163.0</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>132.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -19191,14 +19325,17 @@
       </c>
       <c r="EG22" t="n">
         <v>55.0</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -19604,14 +19741,17 @@
       </c>
       <c r="EG23" t="n">
         <v>96.0</v>
+      </c>
+      <c r="EH23" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -20017,14 +20157,17 @@
       </c>
       <c r="EG24" t="n">
         <v>177.0</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>188.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -20430,14 +20573,17 @@
       </c>
       <c r="EG25" t="n">
         <v>366.0</v>
+      </c>
+      <c r="EH25" t="n">
+        <v>394.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -20843,14 +20989,17 @@
       </c>
       <c r="EG26" t="n">
         <v>3162.0</v>
+      </c>
+      <c r="EH26" t="n">
+        <v>3128.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -20987,13 +21136,14 @@
       <c r="EE27"/>
       <c r="EF27"/>
       <c r="EG27"/>
+      <c r="EH27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" t="s">
         <v>163</v>
-      </c>
-      <c r="B28" t="s">
-        <v>162</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -21130,6 +21280,7 @@
       <c r="EE28"/>
       <c r="EF28"/>
       <c r="EG28"/>
+      <c r="EH28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -21146,7 +21297,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2">
@@ -21516,7 +21667,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -21540,7 +21691,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -21565,14 +21716,17 @@
       </c>
       <c r="EG3" t="s" s="10">
         <v>138</v>
+      </c>
+      <c r="EH3" t="s" s="10">
+        <v>139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -21978,14 +22132,17 @@
       </c>
       <c r="EG4" t="n">
         <v>21.0</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -22391,14 +22548,17 @@
       </c>
       <c r="EG5" t="n">
         <v>37.0</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -22804,14 +22964,17 @@
       </c>
       <c r="EG6" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -23217,14 +23380,17 @@
       </c>
       <c r="EG7" t="n">
         <v>27.0</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -23630,14 +23796,17 @@
       </c>
       <c r="EG8" t="n">
         <v>315.0</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>300.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -24043,14 +24212,17 @@
       </c>
       <c r="EG9" t="n">
         <v>57.0</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -24455,15 +24627,18 @@
         <v>65.0</v>
       </c>
       <c r="EG10" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="EH10" t="n">
         <v>67.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -24869,14 +25044,17 @@
       </c>
       <c r="EG11" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -25282,14 +25460,17 @@
       </c>
       <c r="EG12" t="n">
         <v>53.0</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -25695,14 +25876,17 @@
       </c>
       <c r="EG13" t="n">
         <v>18.0</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -26108,14 +26292,17 @@
       </c>
       <c r="EG14" t="n">
         <v>11.0</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -26520,15 +26707,18 @@
         <v>17.0</v>
       </c>
       <c r="EG15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="EH15" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -26934,14 +27124,17 @@
       </c>
       <c r="EG16" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -27347,14 +27540,17 @@
       </c>
       <c r="EG17" t="n">
         <v>2.0</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -27760,14 +27956,17 @@
       </c>
       <c r="EG18" t="n">
         <v>73.0</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -28173,14 +28372,17 @@
       </c>
       <c r="EG19" t="n">
         <v>210.0</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>206.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -28586,14 +28788,17 @@
       </c>
       <c r="EG20" t="n">
         <v>358.0</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>344.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -28999,14 +29204,17 @@
       </c>
       <c r="EG21" t="n">
         <v>49.0</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -29412,14 +29620,17 @@
       </c>
       <c r="EG22" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -29825,14 +30036,17 @@
       </c>
       <c r="EG23" t="n">
         <v>66.0</v>
+      </c>
+      <c r="EH23" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -30238,14 +30452,17 @@
       </c>
       <c r="EG24" t="n">
         <v>74.0</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -30651,14 +30868,17 @@
       </c>
       <c r="EG25" t="n">
         <v>253.0</v>
+      </c>
+      <c r="EH25" t="n">
+        <v>249.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -31064,14 +31284,17 @@
       </c>
       <c r="EG26" t="n">
         <v>1799.0</v>
+      </c>
+      <c r="EH26" t="n">
+        <v>1723.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -31208,13 +31431,14 @@
       <c r="EE27"/>
       <c r="EF27"/>
       <c r="EG27"/>
+      <c r="EH27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" t="s">
         <v>163</v>
-      </c>
-      <c r="B28" t="s">
-        <v>162</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -31351,6 +31575,7 @@
       <c r="EE28"/>
       <c r="EF28"/>
       <c r="EG28"/>
+      <c r="EH28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="193">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/25/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/26/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -436,6 +436,9 @@
     <t>2020-08-25</t>
   </si>
   <si>
+    <t>2020-08-26</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -580,10 +583,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/25/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/26/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/25/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/26/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1130,13 +1133,16 @@
       <c r="EH3" t="s" s="10">
         <v>139</v>
       </c>
+      <c r="EI3" t="s" s="10">
+        <v>140</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1545,14 +1551,17 @@
       </c>
       <c r="EH4" t="n">
         <v>55.0</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1961,14 +1970,17 @@
       </c>
       <c r="EH5" t="n">
         <v>83.0</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2377,14 +2389,17 @@
       </c>
       <c r="EH6" t="n">
         <v>26.0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2793,14 +2808,17 @@
       </c>
       <c r="EH7" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3209,14 +3227,17 @@
       </c>
       <c r="EH8" t="n">
         <v>925.0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>931.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3625,14 +3646,17 @@
       </c>
       <c r="EH9" t="n">
         <v>78.0</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4041,14 +4065,17 @@
       </c>
       <c r="EH10" t="n">
         <v>206.0</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>192.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4457,14 +4484,17 @@
       </c>
       <c r="EH11" t="n">
         <v>54.0</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4872,15 +4902,18 @@
         <v>136.0</v>
       </c>
       <c r="EH12" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="EI12" t="n">
         <v>131.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5289,14 +5322,17 @@
       </c>
       <c r="EH13" t="n">
         <v>61.0</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5705,14 +5741,17 @@
       </c>
       <c r="EH14" t="n">
         <v>45.0</v>
+      </c>
+      <c r="EI14" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6120,15 +6159,18 @@
         <v>61.0</v>
       </c>
       <c r="EH15" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="EI15" t="n">
         <v>59.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6537,14 +6579,17 @@
       </c>
       <c r="EH16" t="n">
         <v>57.0</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -6953,14 +6998,17 @@
       </c>
       <c r="EH17" t="n">
         <v>17.0</v>
+      </c>
+      <c r="EI17" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7368,15 +7416,18 @@
         <v>199.0</v>
       </c>
       <c r="EH18" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="EI18" t="n">
         <v>182.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -7785,14 +7836,17 @@
       </c>
       <c r="EH19" t="n">
         <v>543.0</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>503.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -8201,14 +8255,17 @@
       </c>
       <c r="EH20" t="n">
         <v>1007.0</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>1004.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -8617,14 +8674,17 @@
       </c>
       <c r="EH21" t="n">
         <v>188.0</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>223.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -9033,14 +9093,17 @@
       </c>
       <c r="EH22" t="n">
         <v>86.0</v>
+      </c>
+      <c r="EI22" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -9449,14 +9512,17 @@
       </c>
       <c r="EH23" t="n">
         <v>162.0</v>
+      </c>
+      <c r="EI23" t="n">
+        <v>153.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -9865,14 +9931,17 @@
       </c>
       <c r="EH24" t="n">
         <v>266.0</v>
+      </c>
+      <c r="EI24" t="n">
+        <v>246.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -10281,14 +10350,17 @@
       </c>
       <c r="EH25" t="n">
         <v>647.0</v>
+      </c>
+      <c r="EI25" t="n">
+        <v>610.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -10697,14 +10769,17 @@
       </c>
       <c r="EH26" t="n">
         <v>4907.0</v>
+      </c>
+      <c r="EI26" t="n">
+        <v>4806.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -10842,13 +10917,14 @@
       <c r="EF27"/>
       <c r="EG27"/>
       <c r="EH27"/>
+      <c r="EI27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" t="s">
         <v>164</v>
-      </c>
-      <c r="B28" t="s">
-        <v>163</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -10986,6 +11062,7 @@
       <c r="EF28"/>
       <c r="EG28"/>
       <c r="EH28"/>
+      <c r="EI28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -11002,7 +11079,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2">
@@ -11425,13 +11502,16 @@
       <c r="EH3" t="s" s="10">
         <v>139</v>
       </c>
+      <c r="EI3" t="s" s="10">
+        <v>140</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -11840,14 +11920,17 @@
       </c>
       <c r="EH4" t="n">
         <v>34.0</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -12256,14 +12339,17 @@
       </c>
       <c r="EH5" t="n">
         <v>42.0</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -12672,14 +12758,17 @@
       </c>
       <c r="EH6" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -13088,14 +13177,17 @@
       </c>
       <c r="EH7" t="n">
         <v>13.0</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -13504,14 +13596,17 @@
       </c>
       <c r="EH8" t="n">
         <v>601.0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>603.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -13920,14 +14015,17 @@
       </c>
       <c r="EH9" t="n">
         <v>53.0</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -14336,14 +14434,17 @@
       </c>
       <c r="EH10" t="n">
         <v>139.0</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -14752,14 +14853,17 @@
       </c>
       <c r="EH11" t="n">
         <v>33.0</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -15168,14 +15272,17 @@
       </c>
       <c r="EH12" t="n">
         <v>75.0</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -15584,14 +15691,17 @@
       </c>
       <c r="EH13" t="n">
         <v>42.0</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -16000,14 +16110,17 @@
       </c>
       <c r="EH14" t="n">
         <v>32.0</v>
+      </c>
+      <c r="EI14" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -16415,15 +16528,18 @@
         <v>44.0</v>
       </c>
       <c r="EH15" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="EI15" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -16832,14 +16948,17 @@
       </c>
       <c r="EH16" t="n">
         <v>37.0</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -17248,14 +17367,17 @@
       </c>
       <c r="EH17" t="n">
         <v>14.0</v>
+      </c>
+      <c r="EI17" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -17664,14 +17786,17 @@
       </c>
       <c r="EH18" t="n">
         <v>107.0</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -18080,14 +18205,17 @@
       </c>
       <c r="EH19" t="n">
         <v>329.0</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>300.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -18496,14 +18624,17 @@
       </c>
       <c r="EH20" t="n">
         <v>646.0</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>655.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -18912,14 +19043,17 @@
       </c>
       <c r="EH21" t="n">
         <v>132.0</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>151.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -19328,14 +19462,17 @@
       </c>
       <c r="EH22" t="n">
         <v>58.0</v>
+      </c>
+      <c r="EI22" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -19744,14 +19881,17 @@
       </c>
       <c r="EH23" t="n">
         <v>98.0</v>
+      </c>
+      <c r="EI23" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -20160,14 +20300,17 @@
       </c>
       <c r="EH24" t="n">
         <v>188.0</v>
+      </c>
+      <c r="EI24" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -20576,14 +20719,17 @@
       </c>
       <c r="EH25" t="n">
         <v>394.0</v>
+      </c>
+      <c r="EI25" t="n">
+        <v>374.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -20992,14 +21138,17 @@
       </c>
       <c r="EH26" t="n">
         <v>3128.0</v>
+      </c>
+      <c r="EI26" t="n">
+        <v>3063.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -21137,13 +21286,14 @@
       <c r="EF27"/>
       <c r="EG27"/>
       <c r="EH27"/>
+      <c r="EI27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" t="s">
         <v>164</v>
-      </c>
-      <c r="B28" t="s">
-        <v>163</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -21281,6 +21431,7 @@
       <c r="EF28"/>
       <c r="EG28"/>
       <c r="EH28"/>
+      <c r="EI28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -21297,7 +21448,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2">
@@ -21667,7 +21818,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -21691,7 +21842,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -21719,14 +21870,17 @@
       </c>
       <c r="EH3" t="s" s="10">
         <v>139</v>
+      </c>
+      <c r="EI3" t="s" s="10">
+        <v>140</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -22135,14 +22289,17 @@
       </c>
       <c r="EH4" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -22551,14 +22708,17 @@
       </c>
       <c r="EH5" t="n">
         <v>41.0</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -22966,15 +23126,18 @@
         <v>19.0</v>
       </c>
       <c r="EH6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="EI6" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -23383,14 +23546,17 @@
       </c>
       <c r="EH7" t="n">
         <v>16.0</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -23799,14 +23965,17 @@
       </c>
       <c r="EH8" t="n">
         <v>300.0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>306.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -24214,15 +24383,18 @@
         <v>57.0</v>
       </c>
       <c r="EH9" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="EI9" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -24631,14 +24803,17 @@
       </c>
       <c r="EH10" t="n">
         <v>67.0</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -25047,14 +25222,17 @@
       </c>
       <c r="EH11" t="n">
         <v>21.0</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -25463,14 +25641,17 @@
       </c>
       <c r="EH12" t="n">
         <v>55.0</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -25879,14 +26060,17 @@
       </c>
       <c r="EH13" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -26295,14 +26479,17 @@
       </c>
       <c r="EH14" t="n">
         <v>13.0</v>
+      </c>
+      <c r="EI14" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -26710,15 +26897,18 @@
         <v>17.0</v>
       </c>
       <c r="EH15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="EI15" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -27127,14 +27317,17 @@
       </c>
       <c r="EH16" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -27543,14 +27736,17 @@
       </c>
       <c r="EH17" t="n">
         <v>3.0</v>
+      </c>
+      <c r="EI17" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -27959,14 +28155,17 @@
       </c>
       <c r="EH18" t="n">
         <v>74.0</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -28375,14 +28574,17 @@
       </c>
       <c r="EH19" t="n">
         <v>206.0</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>196.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -28791,14 +28993,17 @@
       </c>
       <c r="EH20" t="n">
         <v>344.0</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>348.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -29207,14 +29412,17 @@
       </c>
       <c r="EH21" t="n">
         <v>56.0</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -29623,14 +29831,17 @@
       </c>
       <c r="EH22" t="n">
         <v>28.0</v>
+      </c>
+      <c r="EI22" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -30039,14 +30250,17 @@
       </c>
       <c r="EH23" t="n">
         <v>64.0</v>
+      </c>
+      <c r="EI23" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -30455,14 +30669,17 @@
       </c>
       <c r="EH24" t="n">
         <v>78.0</v>
+      </c>
+      <c r="EI24" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -30871,14 +31088,17 @@
       </c>
       <c r="EH25" t="n">
         <v>249.0</v>
+      </c>
+      <c r="EI25" t="n">
+        <v>229.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -31287,14 +31507,17 @@
       </c>
       <c r="EH26" t="n">
         <v>1723.0</v>
+      </c>
+      <c r="EI26" t="n">
+        <v>1704.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -31432,13 +31655,14 @@
       <c r="EF27"/>
       <c r="EG27"/>
       <c r="EH27"/>
+      <c r="EI27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" t="s">
         <v>164</v>
-      </c>
-      <c r="B28" t="s">
-        <v>163</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -31576,6 +31800,7 @@
       <c r="EF28"/>
       <c r="EG28"/>
       <c r="EH28"/>
+      <c r="EI28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="194">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/26/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/27/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -439,6 +439,9 @@
     <t>2020-08-26</t>
   </si>
   <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -583,10 +586,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/26/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/27/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/26/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/27/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1136,13 +1139,16 @@
       <c r="EI3" t="s" s="10">
         <v>140</v>
       </c>
+      <c r="EJ3" t="s" s="10">
+        <v>141</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1554,14 +1560,17 @@
       </c>
       <c r="EI4" t="n">
         <v>51.0</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1973,14 +1982,17 @@
       </c>
       <c r="EI5" t="n">
         <v>80.0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2392,14 +2404,17 @@
       </c>
       <c r="EI6" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2810,15 +2825,18 @@
         <v>29.0</v>
       </c>
       <c r="EI7" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="EJ7" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3230,14 +3248,17 @@
       </c>
       <c r="EI8" t="n">
         <v>931.0</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>910.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3649,14 +3670,17 @@
       </c>
       <c r="EI9" t="n">
         <v>76.0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4068,14 +4092,17 @@
       </c>
       <c r="EI10" t="n">
         <v>192.0</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>198.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4487,14 +4514,17 @@
       </c>
       <c r="EI11" t="n">
         <v>46.0</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4906,14 +4936,17 @@
       </c>
       <c r="EI12" t="n">
         <v>131.0</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>134.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5325,14 +5358,17 @@
       </c>
       <c r="EI13" t="n">
         <v>66.0</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5744,14 +5780,17 @@
       </c>
       <c r="EI14" t="n">
         <v>42.0</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6163,14 +6202,17 @@
       </c>
       <c r="EI15" t="n">
         <v>59.0</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6582,14 +6624,17 @@
       </c>
       <c r="EI16" t="n">
         <v>49.0</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -7000,15 +7045,18 @@
         <v>17.0</v>
       </c>
       <c r="EI17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="EJ17" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7420,14 +7468,17 @@
       </c>
       <c r="EI18" t="n">
         <v>182.0</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>172.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -7839,14 +7890,17 @@
       </c>
       <c r="EI19" t="n">
         <v>503.0</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>496.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -8258,14 +8312,17 @@
       </c>
       <c r="EI20" t="n">
         <v>1004.0</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>860.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -8677,14 +8734,17 @@
       </c>
       <c r="EI21" t="n">
         <v>223.0</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -9096,14 +9156,17 @@
       </c>
       <c r="EI22" t="n">
         <v>92.0</v>
+      </c>
+      <c r="EJ22" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -9515,14 +9578,17 @@
       </c>
       <c r="EI23" t="n">
         <v>153.0</v>
+      </c>
+      <c r="EJ23" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -9934,14 +10000,17 @@
       </c>
       <c r="EI24" t="n">
         <v>246.0</v>
+      </c>
+      <c r="EJ24" t="n">
+        <v>215.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -10353,14 +10422,17 @@
       </c>
       <c r="EI25" t="n">
         <v>610.0</v>
+      </c>
+      <c r="EJ25" t="n">
+        <v>588.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -10772,14 +10844,17 @@
       </c>
       <c r="EI26" t="n">
         <v>4806.0</v>
+      </c>
+      <c r="EJ26" t="n">
+        <v>4489.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -10918,13 +10993,14 @@
       <c r="EG27"/>
       <c r="EH27"/>
       <c r="EI27"/>
+      <c r="EJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" t="s">
         <v>165</v>
-      </c>
-      <c r="B28" t="s">
-        <v>164</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -11063,6 +11139,7 @@
       <c r="EG28"/>
       <c r="EH28"/>
       <c r="EI28"/>
+      <c r="EJ28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -11079,7 +11156,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2">
@@ -11505,13 +11582,16 @@
       <c r="EI3" t="s" s="10">
         <v>140</v>
       </c>
+      <c r="EJ3" t="s" s="10">
+        <v>141</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -11923,14 +12003,17 @@
       </c>
       <c r="EI4" t="n">
         <v>32.0</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -12342,14 +12425,17 @@
       </c>
       <c r="EI5" t="n">
         <v>40.0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -12761,14 +12847,17 @@
       </c>
       <c r="EI6" t="n">
         <v>16.0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -13179,15 +13268,18 @@
         <v>13.0</v>
       </c>
       <c r="EI7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="EJ7" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -13599,14 +13691,17 @@
       </c>
       <c r="EI8" t="n">
         <v>603.0</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>594.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -14018,14 +14113,17 @@
       </c>
       <c r="EI9" t="n">
         <v>51.0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -14437,14 +14535,17 @@
       </c>
       <c r="EI10" t="n">
         <v>127.0</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>132.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -14856,14 +14957,17 @@
       </c>
       <c r="EI11" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -15275,14 +15379,17 @@
       </c>
       <c r="EI12" t="n">
         <v>79.0</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -15694,14 +15801,17 @@
       </c>
       <c r="EI13" t="n">
         <v>48.0</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -16113,14 +16223,17 @@
       </c>
       <c r="EI14" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -16532,14 +16645,17 @@
       </c>
       <c r="EI15" t="n">
         <v>42.0</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -16951,14 +17067,17 @@
       </c>
       <c r="EI16" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EJ16" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -17369,15 +17488,18 @@
         <v>14.0</v>
       </c>
       <c r="EI17" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="EJ17" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -17789,14 +17911,17 @@
       </c>
       <c r="EI18" t="n">
         <v>106.0</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -18208,14 +18333,17 @@
       </c>
       <c r="EI19" t="n">
         <v>300.0</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>284.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -18627,14 +18755,17 @@
       </c>
       <c r="EI20" t="n">
         <v>655.0</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>549.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -19046,14 +19177,17 @@
       </c>
       <c r="EI21" t="n">
         <v>151.0</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -19465,14 +19599,17 @@
       </c>
       <c r="EI22" t="n">
         <v>57.0</v>
+      </c>
+      <c r="EJ22" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -19884,14 +20021,17 @@
       </c>
       <c r="EI23" t="n">
         <v>92.0</v>
+      </c>
+      <c r="EJ23" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -20303,14 +20443,17 @@
       </c>
       <c r="EI24" t="n">
         <v>169.0</v>
+      </c>
+      <c r="EJ24" t="n">
+        <v>136.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -20722,14 +20865,17 @@
       </c>
       <c r="EI25" t="n">
         <v>374.0</v>
+      </c>
+      <c r="EJ25" t="n">
+        <v>354.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -21141,14 +21287,17 @@
       </c>
       <c r="EI26" t="n">
         <v>3063.0</v>
+      </c>
+      <c r="EJ26" t="n">
+        <v>2807.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -21287,13 +21436,14 @@
       <c r="EG27"/>
       <c r="EH27"/>
       <c r="EI27"/>
+      <c r="EJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" t="s">
         <v>165</v>
-      </c>
-      <c r="B28" t="s">
-        <v>164</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -21432,6 +21582,7 @@
       <c r="EG28"/>
       <c r="EH28"/>
       <c r="EI28"/>
+      <c r="EJ28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -21448,7 +21599,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">
@@ -21818,7 +21969,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -21842,7 +21993,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -21873,14 +22024,17 @@
       </c>
       <c r="EI3" t="s" s="10">
         <v>140</v>
+      </c>
+      <c r="EJ3" t="s" s="10">
+        <v>141</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -22292,14 +22446,17 @@
       </c>
       <c r="EI4" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -22711,14 +22868,17 @@
       </c>
       <c r="EI5" t="n">
         <v>40.0</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -23130,14 +23290,17 @@
       </c>
       <c r="EI6" t="n">
         <v>7.0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -23548,15 +23711,18 @@
         <v>16.0</v>
       </c>
       <c r="EI7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="EJ7" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -23968,14 +24134,17 @@
       </c>
       <c r="EI8" t="n">
         <v>306.0</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>295.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -24387,14 +24556,17 @@
       </c>
       <c r="EI9" t="n">
         <v>25.0</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -24806,14 +24978,17 @@
       </c>
       <c r="EI10" t="n">
         <v>65.0</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -25225,14 +25400,17 @@
       </c>
       <c r="EI11" t="n">
         <v>16.0</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -25644,14 +25822,17 @@
       </c>
       <c r="EI12" t="n">
         <v>51.0</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -26063,14 +26244,17 @@
       </c>
       <c r="EI13" t="n">
         <v>18.0</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -26482,14 +26666,17 @@
       </c>
       <c r="EI14" t="n">
         <v>12.0</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -26901,14 +27088,17 @@
       </c>
       <c r="EI15" t="n">
         <v>17.0</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -27319,15 +27509,18 @@
         <v>20.0</v>
       </c>
       <c r="EI16" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="EJ16" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -27738,15 +27931,18 @@
         <v>3.0</v>
       </c>
       <c r="EI17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EJ17" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -28158,14 +28354,17 @@
       </c>
       <c r="EI18" t="n">
         <v>75.0</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -28577,14 +28776,17 @@
       </c>
       <c r="EI19" t="n">
         <v>196.0</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>206.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -28996,14 +29198,17 @@
       </c>
       <c r="EI20" t="n">
         <v>348.0</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>304.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -29415,14 +29620,17 @@
       </c>
       <c r="EI21" t="n">
         <v>72.0</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -29834,14 +30042,17 @@
       </c>
       <c r="EI22" t="n">
         <v>35.0</v>
+      </c>
+      <c r="EJ22" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -30253,14 +30464,17 @@
       </c>
       <c r="EI23" t="n">
         <v>61.0</v>
+      </c>
+      <c r="EJ23" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -30672,14 +30886,17 @@
       </c>
       <c r="EI24" t="n">
         <v>77.0</v>
+      </c>
+      <c r="EJ24" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -31091,14 +31308,17 @@
       </c>
       <c r="EI25" t="n">
         <v>229.0</v>
+      </c>
+      <c r="EJ25" t="n">
+        <v>227.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -31510,14 +31730,17 @@
       </c>
       <c r="EI26" t="n">
         <v>1704.0</v>
+      </c>
+      <c r="EJ26" t="n">
+        <v>1636.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -31656,13 +31879,14 @@
       <c r="EG27"/>
       <c r="EH27"/>
       <c r="EI27"/>
+      <c r="EJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" t="s">
         <v>165</v>
-      </c>
-      <c r="B28" t="s">
-        <v>164</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -31801,6 +32025,7 @@
       <c r="EG28"/>
       <c r="EH28"/>
       <c r="EI28"/>
+      <c r="EJ28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="195">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/27/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/28/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -442,6 +442,9 @@
     <t>2020-08-27</t>
   </si>
   <si>
+    <t>2020-08-28</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -586,10 +589,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/27/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/28/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/27/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/28/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1142,13 +1145,16 @@
       <c r="EJ3" t="s" s="10">
         <v>141</v>
       </c>
+      <c r="EK3" t="s" s="10">
+        <v>142</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1563,14 +1569,17 @@
       </c>
       <c r="EJ4" t="n">
         <v>49.0</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1985,14 +1994,17 @@
       </c>
       <c r="EJ5" t="n">
         <v>82.0</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2407,14 +2419,17 @@
       </c>
       <c r="EJ6" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2829,14 +2844,17 @@
       </c>
       <c r="EJ7" t="n">
         <v>27.0</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3251,14 +3269,17 @@
       </c>
       <c r="EJ8" t="n">
         <v>910.0</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>880.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3672,15 +3693,18 @@
         <v>76.0</v>
       </c>
       <c r="EJ9" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="EK9" t="n">
         <v>72.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4095,14 +4119,17 @@
       </c>
       <c r="EJ10" t="n">
         <v>198.0</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>199.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4517,14 +4544,17 @@
       </c>
       <c r="EJ11" t="n">
         <v>62.0</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4939,14 +4969,17 @@
       </c>
       <c r="EJ12" t="n">
         <v>134.0</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>139.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5361,14 +5394,17 @@
       </c>
       <c r="EJ13" t="n">
         <v>61.0</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5782,15 +5818,18 @@
         <v>42.0</v>
       </c>
       <c r="EJ14" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="EK14" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6205,14 +6244,17 @@
       </c>
       <c r="EJ15" t="n">
         <v>45.0</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6627,14 +6669,17 @@
       </c>
       <c r="EJ16" t="n">
         <v>44.0</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -7048,15 +7093,18 @@
         <v>20.0</v>
       </c>
       <c r="EJ17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="EK17" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7471,14 +7519,17 @@
       </c>
       <c r="EJ18" t="n">
         <v>172.0</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -7893,14 +7944,17 @@
       </c>
       <c r="EJ19" t="n">
         <v>496.0</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>486.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -8315,14 +8369,17 @@
       </c>
       <c r="EJ20" t="n">
         <v>860.0</v>
+      </c>
+      <c r="EK20" t="n">
+        <v>861.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -8737,14 +8794,17 @@
       </c>
       <c r="EJ21" t="n">
         <v>147.0</v>
+      </c>
+      <c r="EK21" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -9159,14 +9219,17 @@
       </c>
       <c r="EJ22" t="n">
         <v>93.0</v>
+      </c>
+      <c r="EK22" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -9581,14 +9644,17 @@
       </c>
       <c r="EJ23" t="n">
         <v>155.0</v>
+      </c>
+      <c r="EK23" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -10003,14 +10069,17 @@
       </c>
       <c r="EJ24" t="n">
         <v>215.0</v>
+      </c>
+      <c r="EK24" t="n">
+        <v>209.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -10425,14 +10494,17 @@
       </c>
       <c r="EJ25" t="n">
         <v>588.0</v>
+      </c>
+      <c r="EK25" t="n">
+        <v>586.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -10847,14 +10919,17 @@
       </c>
       <c r="EJ26" t="n">
         <v>4489.0</v>
+      </c>
+      <c r="EK26" t="n">
+        <v>4422.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -10994,13 +11069,14 @@
       <c r="EH27"/>
       <c r="EI27"/>
       <c r="EJ27"/>
+      <c r="EK27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" t="s">
         <v>166</v>
-      </c>
-      <c r="B28" t="s">
-        <v>165</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -11140,6 +11216,7 @@
       <c r="EH28"/>
       <c r="EI28"/>
       <c r="EJ28"/>
+      <c r="EK28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -11156,7 +11233,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">
@@ -11585,13 +11662,16 @@
       <c r="EJ3" t="s" s="10">
         <v>141</v>
       </c>
+      <c r="EK3" t="s" s="10">
+        <v>142</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -12006,14 +12086,17 @@
       </c>
       <c r="EJ4" t="n">
         <v>28.0</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -12428,14 +12511,17 @@
       </c>
       <c r="EJ5" t="n">
         <v>45.0</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -12850,14 +12936,17 @@
       </c>
       <c r="EJ6" t="n">
         <v>18.0</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -13272,14 +13361,17 @@
       </c>
       <c r="EJ7" t="n">
         <v>12.0</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -13694,14 +13786,17 @@
       </c>
       <c r="EJ8" t="n">
         <v>594.0</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>560.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -14116,14 +14211,17 @@
       </c>
       <c r="EJ9" t="n">
         <v>49.0</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -14537,15 +14635,18 @@
         <v>127.0</v>
       </c>
       <c r="EJ10" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="EK10" t="n">
         <v>132.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -14960,14 +15061,17 @@
       </c>
       <c r="EJ11" t="n">
         <v>39.0</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -15382,14 +15486,17 @@
       </c>
       <c r="EJ12" t="n">
         <v>81.0</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -15804,14 +15911,17 @@
       </c>
       <c r="EJ13" t="n">
         <v>44.0</v>
+      </c>
+      <c r="EK13" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -16226,14 +16336,17 @@
       </c>
       <c r="EJ14" t="n">
         <v>25.0</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -16647,15 +16760,18 @@
         <v>42.0</v>
       </c>
       <c r="EJ15" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="EK15" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -17070,14 +17186,17 @@
       </c>
       <c r="EJ16" t="n">
         <v>25.0</v>
+      </c>
+      <c r="EK16" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -17492,14 +17611,17 @@
       </c>
       <c r="EJ17" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EK17" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -17914,14 +18036,17 @@
       </c>
       <c r="EJ18" t="n">
         <v>95.0</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -18336,14 +18461,17 @@
       </c>
       <c r="EJ19" t="n">
         <v>284.0</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>281.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -18758,14 +18886,17 @@
       </c>
       <c r="EJ20" t="n">
         <v>549.0</v>
+      </c>
+      <c r="EK20" t="n">
+        <v>527.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -19180,14 +19311,17 @@
       </c>
       <c r="EJ21" t="n">
         <v>101.0</v>
+      </c>
+      <c r="EK21" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -19602,14 +19736,17 @@
       </c>
       <c r="EJ22" t="n">
         <v>59.0</v>
+      </c>
+      <c r="EK22" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -20024,14 +20161,17 @@
       </c>
       <c r="EJ23" t="n">
         <v>91.0</v>
+      </c>
+      <c r="EK23" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -20446,14 +20586,17 @@
       </c>
       <c r="EJ24" t="n">
         <v>136.0</v>
+      </c>
+      <c r="EK24" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -20868,14 +21011,17 @@
       </c>
       <c r="EJ25" t="n">
         <v>354.0</v>
+      </c>
+      <c r="EK25" t="n">
+        <v>335.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -21290,14 +21436,17 @@
       </c>
       <c r="EJ26" t="n">
         <v>2807.0</v>
+      </c>
+      <c r="EK26" t="n">
+        <v>2736.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -21437,13 +21586,14 @@
       <c r="EH27"/>
       <c r="EI27"/>
       <c r="EJ27"/>
+      <c r="EK27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" t="s">
         <v>166</v>
-      </c>
-      <c r="B28" t="s">
-        <v>165</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -21583,6 +21733,7 @@
       <c r="EH28"/>
       <c r="EI28"/>
       <c r="EJ28"/>
+      <c r="EK28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -21599,7 +21750,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2">
@@ -21969,7 +22120,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -21993,7 +22144,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -22027,14 +22178,17 @@
       </c>
       <c r="EJ3" t="s" s="10">
         <v>141</v>
+      </c>
+      <c r="EK3" t="s" s="10">
+        <v>142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -22449,14 +22603,17 @@
       </c>
       <c r="EJ4" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -22871,14 +23028,17 @@
       </c>
       <c r="EJ5" t="n">
         <v>37.0</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -23292,15 +23452,18 @@
         <v>7.0</v>
       </c>
       <c r="EJ6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="EK6" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -23715,14 +23878,17 @@
       </c>
       <c r="EJ7" t="n">
         <v>15.0</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -24137,14 +24303,17 @@
       </c>
       <c r="EJ8" t="n">
         <v>295.0</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>300.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -24559,14 +24728,17 @@
       </c>
       <c r="EJ9" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -24981,14 +25153,17 @@
       </c>
       <c r="EJ10" t="n">
         <v>66.0</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -25403,14 +25578,17 @@
       </c>
       <c r="EJ11" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -25825,14 +26003,17 @@
       </c>
       <c r="EJ12" t="n">
         <v>50.0</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -26246,15 +26427,18 @@
         <v>18.0</v>
       </c>
       <c r="EJ13" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="EK13" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -26669,14 +26853,17 @@
       </c>
       <c r="EJ14" t="n">
         <v>10.0</v>
+      </c>
+      <c r="EK14" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -27091,14 +27278,17 @@
       </c>
       <c r="EJ15" t="n">
         <v>18.0</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -27512,15 +27702,18 @@
         <v>19.0</v>
       </c>
       <c r="EJ16" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="EK16" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -27935,14 +28128,17 @@
       </c>
       <c r="EJ17" t="n">
         <v>1.0</v>
+      </c>
+      <c r="EK17" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -28357,14 +28553,17 @@
       </c>
       <c r="EJ18" t="n">
         <v>76.0</v>
+      </c>
+      <c r="EK18" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -28779,14 +28978,17 @@
       </c>
       <c r="EJ19" t="n">
         <v>206.0</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>199.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -29201,14 +29403,17 @@
       </c>
       <c r="EJ20" t="n">
         <v>304.0</v>
+      </c>
+      <c r="EK20" t="n">
+        <v>333.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -29623,14 +29828,17 @@
       </c>
       <c r="EJ21" t="n">
         <v>46.0</v>
+      </c>
+      <c r="EK21" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -30045,14 +30253,17 @@
       </c>
       <c r="EJ22" t="n">
         <v>34.0</v>
+      </c>
+      <c r="EK22" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -30467,14 +30678,17 @@
       </c>
       <c r="EJ23" t="n">
         <v>64.0</v>
+      </c>
+      <c r="EK23" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -30889,14 +31103,17 @@
       </c>
       <c r="EJ24" t="n">
         <v>79.0</v>
+      </c>
+      <c r="EK24" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -31311,14 +31528,17 @@
       </c>
       <c r="EJ25" t="n">
         <v>227.0</v>
+      </c>
+      <c r="EK25" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -31733,14 +31953,17 @@
       </c>
       <c r="EJ26" t="n">
         <v>1636.0</v>
+      </c>
+      <c r="EK26" t="n">
+        <v>1648.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -31880,13 +32103,14 @@
       <c r="EH27"/>
       <c r="EI27"/>
       <c r="EJ27"/>
+      <c r="EK27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" t="s">
         <v>166</v>
-      </c>
-      <c r="B28" t="s">
-        <v>165</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -32026,6 +32250,7 @@
       <c r="EH28"/>
       <c r="EI28"/>
       <c r="EJ28"/>
+      <c r="EK28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="196">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/28/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/29/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -445,6 +445,9 @@
     <t>2020-08-28</t>
   </si>
   <si>
+    <t>2020-08-29</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -589,10 +592,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/28/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/29/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/28/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/29/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1148,13 +1151,16 @@
       <c r="EK3" t="s" s="10">
         <v>142</v>
       </c>
+      <c r="EL3" t="s" s="10">
+        <v>143</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1572,14 +1578,17 @@
       </c>
       <c r="EK4" t="n">
         <v>51.0</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -1997,14 +2006,17 @@
       </c>
       <c r="EK5" t="n">
         <v>78.0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2422,14 +2434,17 @@
       </c>
       <c r="EK6" t="n">
         <v>27.0</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2847,14 +2862,17 @@
       </c>
       <c r="EK7" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3272,14 +3290,17 @@
       </c>
       <c r="EK8" t="n">
         <v>880.0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>883.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3697,14 +3718,17 @@
       </c>
       <c r="EK9" t="n">
         <v>72.0</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4122,14 +4146,17 @@
       </c>
       <c r="EK10" t="n">
         <v>199.0</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>204.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4547,14 +4574,17 @@
       </c>
       <c r="EK11" t="n">
         <v>51.0</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -4972,14 +5002,17 @@
       </c>
       <c r="EK12" t="n">
         <v>139.0</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>137.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5397,14 +5430,17 @@
       </c>
       <c r="EK13" t="n">
         <v>64.0</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5822,14 +5858,17 @@
       </c>
       <c r="EK14" t="n">
         <v>35.0</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6247,14 +6286,17 @@
       </c>
       <c r="EK15" t="n">
         <v>41.0</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6672,14 +6714,17 @@
       </c>
       <c r="EK16" t="n">
         <v>40.0</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -7097,14 +7142,17 @@
       </c>
       <c r="EK17" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EL17" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7522,14 +7570,17 @@
       </c>
       <c r="EK18" t="n">
         <v>169.0</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>161.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -7947,14 +7998,17 @@
       </c>
       <c r="EK19" t="n">
         <v>486.0</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>435.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -8372,14 +8426,17 @@
       </c>
       <c r="EK20" t="n">
         <v>861.0</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>848.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -8797,14 +8854,17 @@
       </c>
       <c r="EK21" t="n">
         <v>152.0</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -9222,14 +9282,17 @@
       </c>
       <c r="EK22" t="n">
         <v>92.0</v>
+      </c>
+      <c r="EL22" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -9647,14 +9710,17 @@
       </c>
       <c r="EK23" t="n">
         <v>147.0</v>
+      </c>
+      <c r="EL23" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -10072,14 +10138,17 @@
       </c>
       <c r="EK24" t="n">
         <v>209.0</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -10497,14 +10566,17 @@
       </c>
       <c r="EK25" t="n">
         <v>586.0</v>
+      </c>
+      <c r="EL25" t="n">
+        <v>549.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -10922,14 +10994,17 @@
       </c>
       <c r="EK26" t="n">
         <v>4422.0</v>
+      </c>
+      <c r="EL26" t="n">
+        <v>4273.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -11070,13 +11145,14 @@
       <c r="EI27"/>
       <c r="EJ27"/>
       <c r="EK27"/>
+      <c r="EL27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
         <v>167</v>
-      </c>
-      <c r="B28" t="s">
-        <v>166</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -11217,6 +11293,7 @@
       <c r="EI28"/>
       <c r="EJ28"/>
       <c r="EK28"/>
+      <c r="EL28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -11233,7 +11310,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2">
@@ -11665,13 +11742,16 @@
       <c r="EK3" t="s" s="10">
         <v>142</v>
       </c>
+      <c r="EL3" t="s" s="10">
+        <v>143</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -12089,14 +12169,17 @@
       </c>
       <c r="EK4" t="n">
         <v>33.0</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -12514,14 +12597,17 @@
       </c>
       <c r="EK5" t="n">
         <v>42.0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -12939,14 +13025,17 @@
       </c>
       <c r="EK6" t="n">
         <v>21.0</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -13364,14 +13453,17 @@
       </c>
       <c r="EK7" t="n">
         <v>10.0</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -13789,14 +13881,17 @@
       </c>
       <c r="EK8" t="n">
         <v>560.0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>578.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -14213,15 +14308,18 @@
         <v>49.0</v>
       </c>
       <c r="EK9" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="EL9" t="n">
         <v>48.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -14639,14 +14737,17 @@
       </c>
       <c r="EK10" t="n">
         <v>132.0</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>139.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -15064,14 +15165,17 @@
       </c>
       <c r="EK11" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -15489,14 +15593,17 @@
       </c>
       <c r="EK12" t="n">
         <v>83.0</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -15914,14 +16021,17 @@
       </c>
       <c r="EK13" t="n">
         <v>47.0</v>
+      </c>
+      <c r="EL13" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -16339,14 +16449,17 @@
       </c>
       <c r="EK14" t="n">
         <v>27.0</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -16763,15 +16876,18 @@
         <v>27.0</v>
       </c>
       <c r="EK15" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="EL15" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -17189,14 +17305,17 @@
       </c>
       <c r="EK16" t="n">
         <v>21.0</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -17614,14 +17733,17 @@
       </c>
       <c r="EK17" t="n">
         <v>18.0</v>
+      </c>
+      <c r="EL17" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -18038,15 +18160,18 @@
         <v>95.0</v>
       </c>
       <c r="EK18" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="EL18" t="n">
         <v>96.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -18464,14 +18589,17 @@
       </c>
       <c r="EK19" t="n">
         <v>281.0</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>240.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -18889,14 +19017,17 @@
       </c>
       <c r="EK20" t="n">
         <v>527.0</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>532.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -19314,14 +19445,17 @@
       </c>
       <c r="EK21" t="n">
         <v>112.0</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -19739,14 +19873,17 @@
       </c>
       <c r="EK22" t="n">
         <v>61.0</v>
+      </c>
+      <c r="EL22" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -20164,14 +20301,17 @@
       </c>
       <c r="EK23" t="n">
         <v>87.0</v>
+      </c>
+      <c r="EL23" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -20589,14 +20729,17 @@
       </c>
       <c r="EK24" t="n">
         <v>138.0</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -21014,14 +21157,17 @@
       </c>
       <c r="EK25" t="n">
         <v>335.0</v>
+      </c>
+      <c r="EL25" t="n">
+        <v>328.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -21439,14 +21585,17 @@
       </c>
       <c r="EK26" t="n">
         <v>2736.0</v>
+      </c>
+      <c r="EL26" t="n">
+        <v>2671.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -21587,13 +21736,14 @@
       <c r="EI27"/>
       <c r="EJ27"/>
       <c r="EK27"/>
+      <c r="EL27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
         <v>167</v>
-      </c>
-      <c r="B28" t="s">
-        <v>166</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -21734,6 +21884,7 @@
       <c r="EI28"/>
       <c r="EJ28"/>
       <c r="EK28"/>
+      <c r="EL28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -21750,7 +21901,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2">
@@ -22120,7 +22271,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -22144,7 +22295,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -22181,14 +22332,17 @@
       </c>
       <c r="EK3" t="s" s="10">
         <v>142</v>
+      </c>
+      <c r="EL3" t="s" s="10">
+        <v>143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -22605,15 +22759,18 @@
         <v>20.0</v>
       </c>
       <c r="EK4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="EL4" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -23031,14 +23188,17 @@
       </c>
       <c r="EK5" t="n">
         <v>36.0</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -23455,15 +23615,18 @@
         <v>6.0</v>
       </c>
       <c r="EK6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="EL6" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -23881,14 +24044,17 @@
       </c>
       <c r="EK7" t="n">
         <v>13.0</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -24306,14 +24472,17 @@
       </c>
       <c r="EK8" t="n">
         <v>300.0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>285.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -24731,14 +24900,17 @@
       </c>
       <c r="EK9" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -25156,14 +25328,17 @@
       </c>
       <c r="EK10" t="n">
         <v>67.0</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -25580,15 +25755,18 @@
         <v>23.0</v>
       </c>
       <c r="EK11" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="EL11" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -26006,14 +26184,17 @@
       </c>
       <c r="EK12" t="n">
         <v>52.0</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -26430,15 +26611,18 @@
         <v>17.0</v>
       </c>
       <c r="EK13" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="EL13" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -26856,14 +27040,17 @@
       </c>
       <c r="EK14" t="n">
         <v>8.0</v>
+      </c>
+      <c r="EL14" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -27281,14 +27468,17 @@
       </c>
       <c r="EK15" t="n">
         <v>14.0</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -27706,14 +27896,17 @@
       </c>
       <c r="EK16" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EL16" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -28131,14 +28324,17 @@
       </c>
       <c r="EK17" t="n">
         <v>2.0</v>
+      </c>
+      <c r="EL17" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -28556,14 +28752,17 @@
       </c>
       <c r="EK18" t="n">
         <v>72.0</v>
+      </c>
+      <c r="EL18" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -28981,14 +29180,17 @@
       </c>
       <c r="EK19" t="n">
         <v>199.0</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>187.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -29406,14 +29608,17 @@
       </c>
       <c r="EK20" t="n">
         <v>333.0</v>
+      </c>
+      <c r="EL20" t="n">
+        <v>315.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -29831,14 +30036,17 @@
       </c>
       <c r="EK21" t="n">
         <v>40.0</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -30256,14 +30464,17 @@
       </c>
       <c r="EK22" t="n">
         <v>31.0</v>
+      </c>
+      <c r="EL22" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -30681,14 +30892,17 @@
       </c>
       <c r="EK23" t="n">
         <v>60.0</v>
+      </c>
+      <c r="EL23" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -31106,14 +31320,17 @@
       </c>
       <c r="EK24" t="n">
         <v>71.0</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -31531,14 +31748,17 @@
       </c>
       <c r="EK25" t="n">
         <v>245.0</v>
+      </c>
+      <c r="EL25" t="n">
+        <v>217.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -31956,14 +32176,17 @@
       </c>
       <c r="EK26" t="n">
         <v>1648.0</v>
+      </c>
+      <c r="EL26" t="n">
+        <v>1566.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -32104,13 +32327,14 @@
       <c r="EI27"/>
       <c r="EJ27"/>
       <c r="EK27"/>
+      <c r="EL27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
         <v>167</v>
-      </c>
-      <c r="B28" t="s">
-        <v>166</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -32251,6 +32475,7 @@
       <c r="EI28"/>
       <c r="EJ28"/>
       <c r="EK28"/>
+      <c r="EL28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="197">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/29/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/30/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -448,6 +448,9 @@
     <t>2020-08-29</t>
   </si>
   <si>
+    <t>2020-08-30</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -592,10 +595,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/29/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/30/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/29/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/30/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1154,13 +1157,16 @@
       <c r="EL3" t="s" s="10">
         <v>143</v>
       </c>
+      <c r="EM3" t="s" s="10">
+        <v>144</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1581,14 +1587,17 @@
       </c>
       <c r="EL4" t="n">
         <v>49.0</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2009,14 +2018,17 @@
       </c>
       <c r="EL5" t="n">
         <v>86.0</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2437,14 +2449,17 @@
       </c>
       <c r="EL6" t="n">
         <v>21.0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2865,14 +2880,17 @@
       </c>
       <c r="EL7" t="n">
         <v>26.0</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3293,14 +3311,17 @@
       </c>
       <c r="EL8" t="n">
         <v>883.0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>851.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3721,14 +3742,17 @@
       </c>
       <c r="EL9" t="n">
         <v>69.0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4149,14 +4173,17 @@
       </c>
       <c r="EL10" t="n">
         <v>204.0</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>206.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4577,14 +4604,17 @@
       </c>
       <c r="EL11" t="n">
         <v>60.0</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5005,14 +5035,17 @@
       </c>
       <c r="EL12" t="n">
         <v>137.0</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>132.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5433,14 +5466,17 @@
       </c>
       <c r="EL13" t="n">
         <v>62.0</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5861,14 +5897,17 @@
       </c>
       <c r="EL14" t="n">
         <v>32.0</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6289,14 +6328,17 @@
       </c>
       <c r="EL15" t="n">
         <v>43.0</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6717,14 +6759,17 @@
       </c>
       <c r="EL16" t="n">
         <v>43.0</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -7145,14 +7190,17 @@
       </c>
       <c r="EL17" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7573,14 +7621,17 @@
       </c>
       <c r="EL18" t="n">
         <v>161.0</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>163.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -8001,14 +8052,17 @@
       </c>
       <c r="EL19" t="n">
         <v>435.0</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>425.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -8429,14 +8483,17 @@
       </c>
       <c r="EL20" t="n">
         <v>848.0</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>788.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -8857,14 +8914,17 @@
       </c>
       <c r="EL21" t="n">
         <v>148.0</v>
+      </c>
+      <c r="EM21" t="n">
+        <v>159.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -9285,14 +9345,17 @@
       </c>
       <c r="EL22" t="n">
         <v>87.0</v>
+      </c>
+      <c r="EM22" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -9713,14 +9776,17 @@
       </c>
       <c r="EL23" t="n">
         <v>138.0</v>
+      </c>
+      <c r="EM23" t="n">
+        <v>135.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -10141,14 +10207,17 @@
       </c>
       <c r="EL24" t="n">
         <v>169.0</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -10569,14 +10638,17 @@
       </c>
       <c r="EL25" t="n">
         <v>549.0</v>
+      </c>
+      <c r="EM25" t="n">
+        <v>545.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -10997,14 +11069,17 @@
       </c>
       <c r="EL26" t="n">
         <v>4273.0</v>
+      </c>
+      <c r="EM26" t="n">
+        <v>4172.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -11146,13 +11221,14 @@
       <c r="EJ27"/>
       <c r="EK27"/>
       <c r="EL27"/>
+      <c r="EM27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" t="s">
         <v>168</v>
-      </c>
-      <c r="B28" t="s">
-        <v>167</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -11294,6 +11370,7 @@
       <c r="EJ28"/>
       <c r="EK28"/>
       <c r="EL28"/>
+      <c r="EM28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -11310,7 +11387,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2">
@@ -11745,13 +11822,16 @@
       <c r="EL3" t="s" s="10">
         <v>143</v>
       </c>
+      <c r="EM3" t="s" s="10">
+        <v>144</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -12171,15 +12251,18 @@
         <v>33.0</v>
       </c>
       <c r="EL4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="EM4" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -12600,14 +12683,17 @@
       </c>
       <c r="EL5" t="n">
         <v>55.0</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -13028,14 +13114,17 @@
       </c>
       <c r="EL6" t="n">
         <v>15.0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -13456,14 +13545,17 @@
       </c>
       <c r="EL7" t="n">
         <v>12.0</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -13884,14 +13976,17 @@
       </c>
       <c r="EL8" t="n">
         <v>578.0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>546.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -14312,14 +14407,17 @@
       </c>
       <c r="EL9" t="n">
         <v>48.0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -14740,14 +14838,17 @@
       </c>
       <c r="EL10" t="n">
         <v>139.0</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>140.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -15168,14 +15269,17 @@
       </c>
       <c r="EL11" t="n">
         <v>39.0</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -15596,14 +15700,17 @@
       </c>
       <c r="EL12" t="n">
         <v>85.0</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -16024,14 +16131,17 @@
       </c>
       <c r="EL13" t="n">
         <v>45.0</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -16452,14 +16562,17 @@
       </c>
       <c r="EL14" t="n">
         <v>26.0</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -16879,15 +16992,18 @@
         <v>27.0</v>
       </c>
       <c r="EL15" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="EM15" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -17308,14 +17424,17 @@
       </c>
       <c r="EL16" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -17736,14 +17855,17 @@
       </c>
       <c r="EL17" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -18164,14 +18286,17 @@
       </c>
       <c r="EL18" t="n">
         <v>96.0</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -18592,14 +18717,17 @@
       </c>
       <c r="EL19" t="n">
         <v>240.0</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>242.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -19020,14 +19148,17 @@
       </c>
       <c r="EL20" t="n">
         <v>532.0</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>488.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -19448,14 +19579,17 @@
       </c>
       <c r="EL21" t="n">
         <v>101.0</v>
+      </c>
+      <c r="EM21" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -19876,14 +20010,17 @@
       </c>
       <c r="EL22" t="n">
         <v>58.0</v>
+      </c>
+      <c r="EM22" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -20304,14 +20441,17 @@
       </c>
       <c r="EL23" t="n">
         <v>77.0</v>
+      </c>
+      <c r="EM23" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -20732,14 +20872,17 @@
       </c>
       <c r="EL24" t="n">
         <v>97.0</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -21160,14 +21303,17 @@
       </c>
       <c r="EL25" t="n">
         <v>328.0</v>
+      </c>
+      <c r="EM25" t="n">
+        <v>327.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -21588,14 +21734,17 @@
       </c>
       <c r="EL26" t="n">
         <v>2671.0</v>
+      </c>
+      <c r="EM26" t="n">
+        <v>2598.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -21737,13 +21886,14 @@
       <c r="EJ27"/>
       <c r="EK27"/>
       <c r="EL27"/>
+      <c r="EM27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" t="s">
         <v>168</v>
-      </c>
-      <c r="B28" t="s">
-        <v>167</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -21885,6 +22035,7 @@
       <c r="EJ28"/>
       <c r="EK28"/>
       <c r="EL28"/>
+      <c r="EM28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -21901,7 +22052,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2">
@@ -22271,7 +22422,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -22295,7 +22446,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -22335,14 +22486,17 @@
       </c>
       <c r="EL3" t="s" s="10">
         <v>143</v>
+      </c>
+      <c r="EM3" t="s" s="10">
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -22763,14 +22917,17 @@
       </c>
       <c r="EL4" t="n">
         <v>18.0</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -23191,14 +23348,17 @@
       </c>
       <c r="EL5" t="n">
         <v>31.0</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -23619,14 +23779,17 @@
       </c>
       <c r="EL6" t="n">
         <v>6.0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -24047,14 +24210,17 @@
       </c>
       <c r="EL7" t="n">
         <v>14.0</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -24475,14 +24641,17 @@
       </c>
       <c r="EL8" t="n">
         <v>285.0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>289.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -24903,14 +25072,17 @@
       </c>
       <c r="EL9" t="n">
         <v>21.0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -25331,14 +25503,17 @@
       </c>
       <c r="EL10" t="n">
         <v>65.0</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -25759,14 +25934,17 @@
       </c>
       <c r="EL11" t="n">
         <v>21.0</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -26187,14 +26365,17 @@
       </c>
       <c r="EL12" t="n">
         <v>49.0</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -26614,15 +26795,18 @@
         <v>17.0</v>
       </c>
       <c r="EL13" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="EM13" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -27043,14 +27227,17 @@
       </c>
       <c r="EL14" t="n">
         <v>6.0</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -27470,15 +27657,18 @@
         <v>14.0</v>
       </c>
       <c r="EL15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="EM15" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -27899,14 +28089,17 @@
       </c>
       <c r="EL16" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -28327,14 +28520,17 @@
       </c>
       <c r="EL17" t="n">
         <v>4.0</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -28755,14 +28951,17 @@
       </c>
       <c r="EL18" t="n">
         <v>65.0</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -29183,14 +29382,17 @@
       </c>
       <c r="EL19" t="n">
         <v>187.0</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>176.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -29611,14 +29813,17 @@
       </c>
       <c r="EL20" t="n">
         <v>315.0</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>299.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -30039,14 +30244,17 @@
       </c>
       <c r="EL21" t="n">
         <v>47.0</v>
+      </c>
+      <c r="EM21" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -30466,15 +30674,18 @@
         <v>31.0</v>
       </c>
       <c r="EL22" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="EM22" t="n">
         <v>29.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -30894,15 +31105,18 @@
         <v>60.0</v>
       </c>
       <c r="EL23" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="EM23" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -31323,14 +31537,17 @@
       </c>
       <c r="EL24" t="n">
         <v>72.0</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -31751,14 +31968,17 @@
       </c>
       <c r="EL25" t="n">
         <v>217.0</v>
+      </c>
+      <c r="EM25" t="n">
+        <v>213.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -32179,14 +32399,17 @@
       </c>
       <c r="EL26" t="n">
         <v>1566.0</v>
+      </c>
+      <c r="EM26" t="n">
+        <v>1539.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -32328,13 +32551,14 @@
       <c r="EJ27"/>
       <c r="EK27"/>
       <c r="EL27"/>
+      <c r="EM27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" t="s">
         <v>168</v>
-      </c>
-      <c r="B28" t="s">
-        <v>167</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -32476,6 +32700,7 @@
       <c r="EJ28"/>
       <c r="EK28"/>
       <c r="EL28"/>
+      <c r="EM28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="198">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/30/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/31/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -451,6 +451,9 @@
     <t>2020-08-30</t>
   </si>
   <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -595,10 +598,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/30/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/31/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/30/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/31/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1160,13 +1163,16 @@
       <c r="EM3" t="s" s="10">
         <v>144</v>
       </c>
+      <c r="EN3" t="s" s="10">
+        <v>145</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1589,15 +1595,18 @@
         <v>49.0</v>
       </c>
       <c r="EM4" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="EN4" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2021,14 +2030,17 @@
       </c>
       <c r="EM5" t="n">
         <v>82.0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2452,14 +2464,17 @@
       </c>
       <c r="EM6" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2883,14 +2898,17 @@
       </c>
       <c r="EM7" t="n">
         <v>27.0</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3314,14 +3332,17 @@
       </c>
       <c r="EM8" t="n">
         <v>851.0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>831.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3745,14 +3766,17 @@
       </c>
       <c r="EM9" t="n">
         <v>67.0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4176,14 +4200,17 @@
       </c>
       <c r="EM10" t="n">
         <v>206.0</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>213.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4607,14 +4634,17 @@
       </c>
       <c r="EM11" t="n">
         <v>51.0</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5038,14 +5068,17 @@
       </c>
       <c r="EM12" t="n">
         <v>132.0</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>123.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5468,15 +5501,18 @@
         <v>62.0</v>
       </c>
       <c r="EM13" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="EN13" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5900,14 +5936,17 @@
       </c>
       <c r="EM14" t="n">
         <v>35.0</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6331,14 +6370,17 @@
       </c>
       <c r="EM15" t="n">
         <v>46.0</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6762,14 +6804,17 @@
       </c>
       <c r="EM16" t="n">
         <v>40.0</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -7193,14 +7238,17 @@
       </c>
       <c r="EM17" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7623,15 +7671,18 @@
         <v>161.0</v>
       </c>
       <c r="EM18" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="EN18" t="n">
         <v>163.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -8055,14 +8106,17 @@
       </c>
       <c r="EM19" t="n">
         <v>425.0</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>417.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -8486,14 +8540,17 @@
       </c>
       <c r="EM20" t="n">
         <v>788.0</v>
+      </c>
+      <c r="EN20" t="n">
+        <v>872.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -8917,14 +8974,17 @@
       </c>
       <c r="EM21" t="n">
         <v>159.0</v>
+      </c>
+      <c r="EN21" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -9348,14 +9408,17 @@
       </c>
       <c r="EM22" t="n">
         <v>86.0</v>
+      </c>
+      <c r="EN22" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -9779,14 +9842,17 @@
       </c>
       <c r="EM23" t="n">
         <v>135.0</v>
+      </c>
+      <c r="EN23" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -10210,14 +10276,17 @@
       </c>
       <c r="EM24" t="n">
         <v>181.0</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>163.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -10640,15 +10709,18 @@
         <v>549.0</v>
       </c>
       <c r="EM25" t="n">
+        <v>545.0</v>
+      </c>
+      <c r="EN25" t="n">
         <v>545.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -11072,14 +11144,17 @@
       </c>
       <c r="EM26" t="n">
         <v>4172.0</v>
+      </c>
+      <c r="EN26" t="n">
+        <v>4203.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -11222,13 +11297,14 @@
       <c r="EK27"/>
       <c r="EL27"/>
       <c r="EM27"/>
+      <c r="EN27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" t="s">
         <v>169</v>
-      </c>
-      <c r="B28" t="s">
-        <v>168</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -11371,6 +11447,7 @@
       <c r="EK28"/>
       <c r="EL28"/>
       <c r="EM28"/>
+      <c r="EN28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -11387,7 +11464,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2">
@@ -11825,13 +11902,16 @@
       <c r="EM3" t="s" s="10">
         <v>144</v>
       </c>
+      <c r="EN3" t="s" s="10">
+        <v>145</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -12254,15 +12334,18 @@
         <v>31.0</v>
       </c>
       <c r="EM4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="EN4" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -12686,14 +12769,17 @@
       </c>
       <c r="EM5" t="n">
         <v>51.0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -13117,14 +13203,17 @@
       </c>
       <c r="EM6" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -13547,15 +13636,18 @@
         <v>12.0</v>
       </c>
       <c r="EM7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="EN7" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -13979,14 +14071,17 @@
       </c>
       <c r="EM8" t="n">
         <v>546.0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>531.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -14410,14 +14505,17 @@
       </c>
       <c r="EM9" t="n">
         <v>38.0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -14841,14 +14939,17 @@
       </c>
       <c r="EM10" t="n">
         <v>140.0</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -15272,14 +15373,17 @@
       </c>
       <c r="EM11" t="n">
         <v>35.0</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -15703,14 +15807,17 @@
       </c>
       <c r="EM12" t="n">
         <v>77.0</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -16133,15 +16240,18 @@
         <v>45.0</v>
       </c>
       <c r="EM13" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="EN13" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -16565,14 +16675,17 @@
       </c>
       <c r="EM14" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -16995,15 +17108,18 @@
         <v>27.0</v>
       </c>
       <c r="EM15" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="EN15" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -17427,14 +17543,17 @@
       </c>
       <c r="EM16" t="n">
         <v>21.0</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -17858,14 +17977,17 @@
       </c>
       <c r="EM17" t="n">
         <v>18.0</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -18289,14 +18411,17 @@
       </c>
       <c r="EM18" t="n">
         <v>93.0</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -18720,14 +18845,17 @@
       </c>
       <c r="EM19" t="n">
         <v>242.0</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>250.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -19151,14 +19279,17 @@
       </c>
       <c r="EM20" t="n">
         <v>488.0</v>
+      </c>
+      <c r="EN20" t="n">
+        <v>562.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -19582,14 +19713,17 @@
       </c>
       <c r="EM21" t="n">
         <v>111.0</v>
+      </c>
+      <c r="EN21" t="n">
+        <v>117.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -20013,14 +20147,17 @@
       </c>
       <c r="EM22" t="n">
         <v>57.0</v>
+      </c>
+      <c r="EN22" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -20444,14 +20581,17 @@
       </c>
       <c r="EM23" t="n">
         <v>74.0</v>
+      </c>
+      <c r="EN23" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -20875,14 +21015,17 @@
       </c>
       <c r="EM24" t="n">
         <v>118.0</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -21306,14 +21449,17 @@
       </c>
       <c r="EM25" t="n">
         <v>327.0</v>
+      </c>
+      <c r="EN25" t="n">
+        <v>332.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -21737,14 +21883,17 @@
       </c>
       <c r="EM26" t="n">
         <v>2598.0</v>
+      </c>
+      <c r="EN26" t="n">
+        <v>2646.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -21887,13 +22036,14 @@
       <c r="EK27"/>
       <c r="EL27"/>
       <c r="EM27"/>
+      <c r="EN27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" t="s">
         <v>169</v>
-      </c>
-      <c r="B28" t="s">
-        <v>168</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -22036,6 +22186,7 @@
       <c r="EK28"/>
       <c r="EL28"/>
       <c r="EM28"/>
+      <c r="EN28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -22052,7 +22203,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
@@ -22422,7 +22573,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -22446,7 +22597,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -22489,14 +22640,17 @@
       </c>
       <c r="EM3" t="s" s="10">
         <v>144</v>
+      </c>
+      <c r="EN3" t="s" s="10">
+        <v>145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -22919,15 +23073,18 @@
         <v>18.0</v>
       </c>
       <c r="EM4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="EN4" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -23351,14 +23508,17 @@
       </c>
       <c r="EM5" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -23781,15 +23941,18 @@
         <v>6.0</v>
       </c>
       <c r="EM6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="EN6" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -24213,14 +24376,17 @@
       </c>
       <c r="EM7" t="n">
         <v>13.0</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -24644,14 +24810,17 @@
       </c>
       <c r="EM8" t="n">
         <v>289.0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>285.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -25075,14 +25244,17 @@
       </c>
       <c r="EM9" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -25506,14 +25678,17 @@
       </c>
       <c r="EM10" t="n">
         <v>66.0</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -25937,14 +26112,17 @@
       </c>
       <c r="EM11" t="n">
         <v>16.0</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -26367,15 +26545,18 @@
         <v>49.0</v>
       </c>
       <c r="EM12" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="EN12" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -26798,15 +26979,18 @@
         <v>17.0</v>
       </c>
       <c r="EM13" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="EN13" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -27229,15 +27413,18 @@
         <v>6.0</v>
       </c>
       <c r="EM14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="EN14" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -27661,14 +27848,17 @@
       </c>
       <c r="EM15" t="n">
         <v>16.0</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -28092,14 +28282,17 @@
       </c>
       <c r="EM16" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -28523,14 +28716,17 @@
       </c>
       <c r="EM17" t="n">
         <v>6.0</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -28954,14 +29150,17 @@
       </c>
       <c r="EM18" t="n">
         <v>70.0</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -29385,14 +29584,17 @@
       </c>
       <c r="EM19" t="n">
         <v>176.0</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>161.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -29816,14 +30018,17 @@
       </c>
       <c r="EM20" t="n">
         <v>299.0</v>
+      </c>
+      <c r="EN20" t="n">
+        <v>306.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -30247,14 +30452,17 @@
       </c>
       <c r="EM21" t="n">
         <v>48.0</v>
+      </c>
+      <c r="EN21" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -30678,14 +30886,17 @@
       </c>
       <c r="EM22" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EN22" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -31108,15 +31319,18 @@
         <v>61.0</v>
       </c>
       <c r="EM23" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="EN23" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -31540,14 +31754,17 @@
       </c>
       <c r="EM24" t="n">
         <v>63.0</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -31971,14 +32188,17 @@
       </c>
       <c r="EM25" t="n">
         <v>213.0</v>
+      </c>
+      <c r="EN25" t="n">
+        <v>209.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -32402,14 +32622,17 @@
       </c>
       <c r="EM26" t="n">
         <v>1539.0</v>
+      </c>
+      <c r="EN26" t="n">
+        <v>1525.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -32552,13 +32775,14 @@
       <c r="EK27"/>
       <c r="EL27"/>
       <c r="EM27"/>
+      <c r="EN27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" t="s">
         <v>169</v>
-      </c>
-      <c r="B28" t="s">
-        <v>168</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -32701,6 +32925,7 @@
       <c r="EK28"/>
       <c r="EL28"/>
       <c r="EM28"/>
+      <c r="EN28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="199">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 08/31/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/01/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -454,6 +454,9 @@
     <t>2020-08-31</t>
   </si>
   <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -598,10 +601,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 08/31/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/01/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 08/31/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/01/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1166,13 +1169,16 @@
       <c r="EN3" t="s" s="10">
         <v>145</v>
       </c>
+      <c r="EO3" t="s" s="10">
+        <v>146</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1599,14 +1605,17 @@
       </c>
       <c r="EN4" t="n">
         <v>47.0</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2033,14 +2042,17 @@
       </c>
       <c r="EN5" t="n">
         <v>87.0</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2467,14 +2479,17 @@
       </c>
       <c r="EN6" t="n">
         <v>22.0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2901,14 +2916,17 @@
       </c>
       <c r="EN7" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3335,14 +3353,17 @@
       </c>
       <c r="EN8" t="n">
         <v>831.0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>845.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3769,14 +3790,17 @@
       </c>
       <c r="EN9" t="n">
         <v>64.0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4203,14 +4227,17 @@
       </c>
       <c r="EN10" t="n">
         <v>213.0</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>222.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4637,14 +4664,17 @@
       </c>
       <c r="EN11" t="n">
         <v>52.0</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5071,14 +5101,17 @@
       </c>
       <c r="EN12" t="n">
         <v>123.0</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5505,14 +5538,17 @@
       </c>
       <c r="EN13" t="n">
         <v>58.0</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5939,14 +5975,17 @@
       </c>
       <c r="EN14" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6373,14 +6412,17 @@
       </c>
       <c r="EN15" t="n">
         <v>42.0</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6807,14 +6849,17 @@
       </c>
       <c r="EN16" t="n">
         <v>39.0</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -7241,14 +7286,17 @@
       </c>
       <c r="EN17" t="n">
         <v>22.0</v>
+      </c>
+      <c r="EO17" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7675,14 +7723,17 @@
       </c>
       <c r="EN18" t="n">
         <v>163.0</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>160.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -8109,14 +8160,17 @@
       </c>
       <c r="EN19" t="n">
         <v>417.0</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>427.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -8543,14 +8597,17 @@
       </c>
       <c r="EN20" t="n">
         <v>872.0</v>
+      </c>
+      <c r="EO20" t="n">
+        <v>799.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -8977,14 +9034,17 @@
       </c>
       <c r="EN21" t="n">
         <v>168.0</v>
+      </c>
+      <c r="EO21" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -9411,14 +9471,17 @@
       </c>
       <c r="EN22" t="n">
         <v>83.0</v>
+      </c>
+      <c r="EO22" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -9845,14 +9908,17 @@
       </c>
       <c r="EN23" t="n">
         <v>133.0</v>
+      </c>
+      <c r="EO23" t="n">
+        <v>132.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -10279,14 +10345,17 @@
       </c>
       <c r="EN24" t="n">
         <v>163.0</v>
+      </c>
+      <c r="EO24" t="n">
+        <v>162.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -10713,14 +10782,17 @@
       </c>
       <c r="EN25" t="n">
         <v>545.0</v>
+      </c>
+      <c r="EO25" t="n">
+        <v>504.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -11147,14 +11219,17 @@
       </c>
       <c r="EN26" t="n">
         <v>4203.0</v>
+      </c>
+      <c r="EO26" t="n">
+        <v>4144.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -11298,13 +11373,14 @@
       <c r="EL27"/>
       <c r="EM27"/>
       <c r="EN27"/>
+      <c r="EO27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" t="s">
         <v>170</v>
-      </c>
-      <c r="B28" t="s">
-        <v>169</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -11448,6 +11524,7 @@
       <c r="EL28"/>
       <c r="EM28"/>
       <c r="EN28"/>
+      <c r="EO28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -11464,7 +11541,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
@@ -11905,13 +11982,16 @@
       <c r="EN3" t="s" s="10">
         <v>145</v>
       </c>
+      <c r="EO3" t="s" s="10">
+        <v>146</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -12338,14 +12418,17 @@
       </c>
       <c r="EN4" t="n">
         <v>31.0</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -12771,15 +12854,18 @@
         <v>51.0</v>
       </c>
       <c r="EN5" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="EO5" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -13206,14 +13292,17 @@
       </c>
       <c r="EN6" t="n">
         <v>17.0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -13640,14 +13729,17 @@
       </c>
       <c r="EN7" t="n">
         <v>14.0</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -14074,14 +14166,17 @@
       </c>
       <c r="EN8" t="n">
         <v>531.0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>555.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -14508,14 +14603,17 @@
       </c>
       <c r="EN9" t="n">
         <v>33.0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -14942,14 +15040,17 @@
       </c>
       <c r="EN10" t="n">
         <v>144.0</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -15375,15 +15476,18 @@
         <v>35.0</v>
       </c>
       <c r="EN11" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="EO11" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -15810,14 +15914,17 @@
       </c>
       <c r="EN12" t="n">
         <v>69.0</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -16244,14 +16351,17 @@
       </c>
       <c r="EN13" t="n">
         <v>41.0</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -16678,14 +16788,17 @@
       </c>
       <c r="EN14" t="n">
         <v>25.0</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -17111,15 +17224,18 @@
         <v>27.0</v>
       </c>
       <c r="EN15" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="EO15" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -17546,14 +17662,17 @@
       </c>
       <c r="EN16" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -17980,14 +18099,17 @@
       </c>
       <c r="EN17" t="n">
         <v>17.0</v>
+      </c>
+      <c r="EO17" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -18413,15 +18535,18 @@
         <v>93.0</v>
       </c>
       <c r="EN18" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="EO18" t="n">
         <v>98.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -18848,14 +18973,17 @@
       </c>
       <c r="EN19" t="n">
         <v>250.0</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>257.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -19282,14 +19410,17 @@
       </c>
       <c r="EN20" t="n">
         <v>562.0</v>
+      </c>
+      <c r="EO20" t="n">
+        <v>527.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -19716,14 +19847,17 @@
       </c>
       <c r="EN21" t="n">
         <v>117.0</v>
+      </c>
+      <c r="EO21" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -20149,15 +20283,18 @@
         <v>57.0</v>
       </c>
       <c r="EN22" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="EO22" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -20584,14 +20721,17 @@
       </c>
       <c r="EN23" t="n">
         <v>72.0</v>
+      </c>
+      <c r="EO23" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -21018,14 +21158,17 @@
       </c>
       <c r="EN24" t="n">
         <v>101.0</v>
+      </c>
+      <c r="EO24" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -21452,14 +21595,17 @@
       </c>
       <c r="EN25" t="n">
         <v>332.0</v>
+      </c>
+      <c r="EO25" t="n">
+        <v>301.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -21886,14 +22032,17 @@
       </c>
       <c r="EN26" t="n">
         <v>2646.0</v>
+      </c>
+      <c r="EO26" t="n">
+        <v>2647.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -22037,13 +22186,14 @@
       <c r="EL27"/>
       <c r="EM27"/>
       <c r="EN27"/>
+      <c r="EO27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" t="s">
         <v>170</v>
-      </c>
-      <c r="B28" t="s">
-        <v>169</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -22187,6 +22337,7 @@
       <c r="EL28"/>
       <c r="EM28"/>
       <c r="EN28"/>
+      <c r="EO28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -22203,7 +22354,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
@@ -22573,7 +22724,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -22597,7 +22748,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -22643,14 +22794,17 @@
       </c>
       <c r="EN3" t="s" s="10">
         <v>145</v>
+      </c>
+      <c r="EO3" t="s" s="10">
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -23076,15 +23230,18 @@
         <v>16.0</v>
       </c>
       <c r="EN4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="EO4" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -23511,14 +23668,17 @@
       </c>
       <c r="EN5" t="n">
         <v>27.0</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -23945,14 +24105,17 @@
       </c>
       <c r="EN6" t="n">
         <v>5.0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -24378,15 +24541,18 @@
         <v>13.0</v>
       </c>
       <c r="EN7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="EO7" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -24813,14 +24979,17 @@
       </c>
       <c r="EN8" t="n">
         <v>285.0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>272.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -25247,14 +25416,17 @@
       </c>
       <c r="EN9" t="n">
         <v>31.0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -25681,14 +25853,17 @@
       </c>
       <c r="EN10" t="n">
         <v>69.0</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -26115,14 +26290,17 @@
       </c>
       <c r="EN11" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -26549,14 +26727,17 @@
       </c>
       <c r="EN12" t="n">
         <v>53.0</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -26983,14 +27164,17 @@
       </c>
       <c r="EN13" t="n">
         <v>17.0</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -27416,15 +27600,18 @@
         <v>5.0</v>
       </c>
       <c r="EN14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="EO14" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -27851,14 +28038,17 @@
       </c>
       <c r="EN15" t="n">
         <v>15.0</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -28285,14 +28475,17 @@
       </c>
       <c r="EN16" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -28719,14 +28912,17 @@
       </c>
       <c r="EN17" t="n">
         <v>5.0</v>
+      </c>
+      <c r="EO17" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -29153,14 +29349,17 @@
       </c>
       <c r="EN18" t="n">
         <v>65.0</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -29587,14 +29786,17 @@
       </c>
       <c r="EN19" t="n">
         <v>161.0</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>158.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -30021,14 +30223,17 @@
       </c>
       <c r="EN20" t="n">
         <v>306.0</v>
+      </c>
+      <c r="EO20" t="n">
+        <v>272.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -30455,14 +30660,17 @@
       </c>
       <c r="EN21" t="n">
         <v>51.0</v>
+      </c>
+      <c r="EO21" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -30889,14 +31097,17 @@
       </c>
       <c r="EN22" t="n">
         <v>28.0</v>
+      </c>
+      <c r="EO22" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -31322,15 +31533,18 @@
         <v>61.0</v>
       </c>
       <c r="EN23" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="EO23" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -31757,14 +31971,17 @@
       </c>
       <c r="EN24" t="n">
         <v>62.0</v>
+      </c>
+      <c r="EO24" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -32191,14 +32408,17 @@
       </c>
       <c r="EN25" t="n">
         <v>209.0</v>
+      </c>
+      <c r="EO25" t="n">
+        <v>199.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -32625,14 +32845,17 @@
       </c>
       <c r="EN26" t="n">
         <v>1525.0</v>
+      </c>
+      <c r="EO26" t="n">
+        <v>1460.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -32776,13 +32999,14 @@
       <c r="EL27"/>
       <c r="EM27"/>
       <c r="EN27"/>
+      <c r="EO27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" t="s">
         <v>170</v>
-      </c>
-      <c r="B28" t="s">
-        <v>169</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -32926,6 +33150,7 @@
       <c r="EL28"/>
       <c r="EM28"/>
       <c r="EN28"/>
+      <c r="EO28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="200">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/01/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/02/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -457,6 +457,9 @@
     <t>2020-09-01</t>
   </si>
   <si>
+    <t>2020-09-02</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -601,10 +604,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/01/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/02/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/01/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/02/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1172,13 +1175,16 @@
       <c r="EO3" t="s" s="10">
         <v>146</v>
       </c>
+      <c r="EP3" t="s" s="10">
+        <v>147</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1608,14 +1614,17 @@
       </c>
       <c r="EO4" t="n">
         <v>46.0</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2045,14 +2054,17 @@
       </c>
       <c r="EO5" t="n">
         <v>85.0</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2482,14 +2494,17 @@
       </c>
       <c r="EO6" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2919,14 +2934,17 @@
       </c>
       <c r="EO7" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3356,14 +3374,17 @@
       </c>
       <c r="EO8" t="n">
         <v>845.0</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>828.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3793,14 +3814,17 @@
       </c>
       <c r="EO9" t="n">
         <v>74.0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4230,14 +4254,17 @@
       </c>
       <c r="EO10" t="n">
         <v>222.0</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>220.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4667,14 +4694,17 @@
       </c>
       <c r="EO11" t="n">
         <v>53.0</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5104,14 +5134,17 @@
       </c>
       <c r="EO12" t="n">
         <v>130.0</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>126.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5541,14 +5574,17 @@
       </c>
       <c r="EO13" t="n">
         <v>66.0</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -5978,14 +6014,17 @@
       </c>
       <c r="EO14" t="n">
         <v>27.0</v>
+      </c>
+      <c r="EP14" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6415,14 +6454,17 @@
       </c>
       <c r="EO15" t="n">
         <v>47.0</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6852,14 +6894,17 @@
       </c>
       <c r="EO16" t="n">
         <v>38.0</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -7289,14 +7334,17 @@
       </c>
       <c r="EO17" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EP17" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7726,14 +7774,17 @@
       </c>
       <c r="EO18" t="n">
         <v>160.0</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>156.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -8163,14 +8214,17 @@
       </c>
       <c r="EO19" t="n">
         <v>427.0</v>
+      </c>
+      <c r="EP19" t="n">
+        <v>429.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -8600,14 +8654,17 @@
       </c>
       <c r="EO20" t="n">
         <v>799.0</v>
+      </c>
+      <c r="EP20" t="n">
+        <v>807.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -9037,14 +9094,17 @@
       </c>
       <c r="EO21" t="n">
         <v>166.0</v>
+      </c>
+      <c r="EP21" t="n">
+        <v>185.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -9474,14 +9534,17 @@
       </c>
       <c r="EO22" t="n">
         <v>82.0</v>
+      </c>
+      <c r="EP22" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -9911,14 +9974,17 @@
       </c>
       <c r="EO23" t="n">
         <v>132.0</v>
+      </c>
+      <c r="EP23" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -10347,15 +10413,18 @@
         <v>163.0</v>
       </c>
       <c r="EO24" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="EP24" t="n">
         <v>162.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -10785,14 +10854,17 @@
       </c>
       <c r="EO25" t="n">
         <v>504.0</v>
+      </c>
+      <c r="EP25" t="n">
+        <v>498.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -11222,14 +11294,17 @@
       </c>
       <c r="EO26" t="n">
         <v>4144.0</v>
+      </c>
+      <c r="EP26" t="n">
+        <v>4149.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -11374,13 +11449,14 @@
       <c r="EM27"/>
       <c r="EN27"/>
       <c r="EO27"/>
+      <c r="EP27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" t="s">
         <v>171</v>
-      </c>
-      <c r="B28" t="s">
-        <v>170</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -11525,6 +11601,7 @@
       <c r="EM28"/>
       <c r="EN28"/>
       <c r="EO28"/>
+      <c r="EP28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -11541,7 +11618,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
@@ -11985,13 +12062,16 @@
       <c r="EO3" t="s" s="10">
         <v>146</v>
       </c>
+      <c r="EP3" t="s" s="10">
+        <v>147</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -12421,14 +12501,17 @@
       </c>
       <c r="EO4" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -12858,14 +12941,17 @@
       </c>
       <c r="EO5" t="n">
         <v>58.0</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -13295,14 +13381,17 @@
       </c>
       <c r="EO6" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -13732,14 +13821,17 @@
       </c>
       <c r="EO7" t="n">
         <v>15.0</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -14169,14 +14261,17 @@
       </c>
       <c r="EO8" t="n">
         <v>555.0</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>541.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -14606,14 +14701,17 @@
       </c>
       <c r="EO9" t="n">
         <v>45.0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -15043,14 +15141,17 @@
       </c>
       <c r="EO10" t="n">
         <v>150.0</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -15480,14 +15581,17 @@
       </c>
       <c r="EO11" t="n">
         <v>33.0</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -15917,14 +16021,17 @@
       </c>
       <c r="EO12" t="n">
         <v>75.0</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -16354,14 +16461,17 @@
       </c>
       <c r="EO13" t="n">
         <v>46.0</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -16791,14 +16901,17 @@
       </c>
       <c r="EO14" t="n">
         <v>22.0</v>
+      </c>
+      <c r="EP14" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -17228,14 +17341,17 @@
       </c>
       <c r="EO15" t="n">
         <v>27.0</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -17665,14 +17781,17 @@
       </c>
       <c r="EO16" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -18102,14 +18221,17 @@
       </c>
       <c r="EO17" t="n">
         <v>16.0</v>
+      </c>
+      <c r="EP17" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -18539,14 +18661,17 @@
       </c>
       <c r="EO18" t="n">
         <v>98.0</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -18976,14 +19101,17 @@
       </c>
       <c r="EO19" t="n">
         <v>257.0</v>
+      </c>
+      <c r="EP19" t="n">
+        <v>256.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -19413,14 +19541,17 @@
       </c>
       <c r="EO20" t="n">
         <v>527.0</v>
+      </c>
+      <c r="EP20" t="n">
+        <v>506.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -19850,14 +19981,17 @@
       </c>
       <c r="EO21" t="n">
         <v>118.0</v>
+      </c>
+      <c r="EP21" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -20287,14 +20421,17 @@
       </c>
       <c r="EO22" t="n">
         <v>55.0</v>
+      </c>
+      <c r="EP22" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -20723,15 +20860,18 @@
         <v>72.0</v>
       </c>
       <c r="EO23" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="EP23" t="n">
         <v>71.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -21161,14 +21301,17 @@
       </c>
       <c r="EO24" t="n">
         <v>105.0</v>
+      </c>
+      <c r="EP24" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -21598,14 +21741,17 @@
       </c>
       <c r="EO25" t="n">
         <v>301.0</v>
+      </c>
+      <c r="EP25" t="n">
+        <v>308.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -22035,14 +22181,17 @@
       </c>
       <c r="EO26" t="n">
         <v>2647.0</v>
+      </c>
+      <c r="EP26" t="n">
+        <v>2629.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -22187,13 +22336,14 @@
       <c r="EM27"/>
       <c r="EN27"/>
       <c r="EO27"/>
+      <c r="EP27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" t="s">
         <v>171</v>
-      </c>
-      <c r="B28" t="s">
-        <v>170</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -22338,6 +22488,7 @@
       <c r="EM28"/>
       <c r="EN28"/>
       <c r="EO28"/>
+      <c r="EP28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -22354,7 +22505,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2">
@@ -22724,7 +22875,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -22748,7 +22899,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -22797,14 +22948,17 @@
       </c>
       <c r="EO3" t="s" s="10">
         <v>146</v>
+      </c>
+      <c r="EP3" t="s" s="10">
+        <v>147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -23234,14 +23388,17 @@
       </c>
       <c r="EO4" t="n">
         <v>16.0</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -23671,14 +23828,17 @@
       </c>
       <c r="EO5" t="n">
         <v>26.0</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -24108,14 +24268,17 @@
       </c>
       <c r="EO6" t="n">
         <v>6.0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -24545,14 +24708,17 @@
       </c>
       <c r="EO7" t="n">
         <v>15.0</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -24982,14 +25148,17 @@
       </c>
       <c r="EO8" t="n">
         <v>272.0</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>273.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -25419,14 +25588,17 @@
       </c>
       <c r="EO9" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -25855,15 +26027,18 @@
         <v>69.0</v>
       </c>
       <c r="EO10" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="EP10" t="n">
         <v>71.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -26293,14 +26468,17 @@
       </c>
       <c r="EO11" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -26729,15 +26907,18 @@
         <v>53.0</v>
       </c>
       <c r="EO12" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="EP12" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -27167,14 +27348,17 @@
       </c>
       <c r="EO13" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EP13" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -27603,15 +27787,18 @@
         <v>5.0</v>
       </c>
       <c r="EO14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="EP14" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -28041,14 +28228,17 @@
       </c>
       <c r="EO15" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -28478,14 +28668,17 @@
       </c>
       <c r="EO16" t="n">
         <v>18.0</v>
+      </c>
+      <c r="EP16" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -28915,14 +29108,17 @@
       </c>
       <c r="EO17" t="n">
         <v>4.0</v>
+      </c>
+      <c r="EP17" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -29352,14 +29548,17 @@
       </c>
       <c r="EO18" t="n">
         <v>62.0</v>
+      </c>
+      <c r="EP18" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -29789,14 +29988,17 @@
       </c>
       <c r="EO19" t="n">
         <v>158.0</v>
+      </c>
+      <c r="EP19" t="n">
+        <v>159.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -30226,14 +30428,17 @@
       </c>
       <c r="EO20" t="n">
         <v>272.0</v>
+      </c>
+      <c r="EP20" t="n">
+        <v>292.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -30663,14 +30868,17 @@
       </c>
       <c r="EO21" t="n">
         <v>48.0</v>
+      </c>
+      <c r="EP21" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -31100,14 +31308,17 @@
       </c>
       <c r="EO22" t="n">
         <v>27.0</v>
+      </c>
+      <c r="EP22" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -31537,14 +31748,17 @@
       </c>
       <c r="EO23" t="n">
         <v>61.0</v>
+      </c>
+      <c r="EP23" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -31974,14 +32188,17 @@
       </c>
       <c r="EO24" t="n">
         <v>57.0</v>
+      </c>
+      <c r="EP24" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -32411,14 +32628,17 @@
       </c>
       <c r="EO25" t="n">
         <v>199.0</v>
+      </c>
+      <c r="EP25" t="n">
+        <v>186.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -32848,14 +33068,17 @@
       </c>
       <c r="EO26" t="n">
         <v>1460.0</v>
+      </c>
+      <c r="EP26" t="n">
+        <v>1476.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -33000,13 +33223,14 @@
       <c r="EM27"/>
       <c r="EN27"/>
       <c r="EO27"/>
+      <c r="EP27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" t="s">
         <v>171</v>
-      </c>
-      <c r="B28" t="s">
-        <v>170</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -33151,6 +33375,7 @@
       <c r="EM28"/>
       <c r="EN28"/>
       <c r="EO28"/>
+      <c r="EP28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="201">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/02/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/03/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -460,6 +460,9 @@
     <t>2020-09-02</t>
   </si>
   <si>
+    <t>2020-09-03</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -604,10 +607,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/02/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/03/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/02/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/03/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1178,13 +1181,16 @@
       <c r="EP3" t="s" s="10">
         <v>147</v>
       </c>
+      <c r="EQ3" t="s" s="10">
+        <v>148</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1617,14 +1623,17 @@
       </c>
       <c r="EP4" t="n">
         <v>48.0</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2057,14 +2066,17 @@
       </c>
       <c r="EP5" t="n">
         <v>89.0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2497,14 +2509,17 @@
       </c>
       <c r="EP6" t="n">
         <v>28.0</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2937,14 +2952,17 @@
       </c>
       <c r="EP7" t="n">
         <v>36.0</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3377,14 +3395,17 @@
       </c>
       <c r="EP8" t="n">
         <v>828.0</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>801.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3816,15 +3837,18 @@
         <v>74.0</v>
       </c>
       <c r="EP9" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="EQ9" t="n">
         <v>77.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4256,15 +4280,18 @@
         <v>222.0</v>
       </c>
       <c r="EP10" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="EQ10" t="n">
         <v>220.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4697,14 +4724,17 @@
       </c>
       <c r="EP11" t="n">
         <v>55.0</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5137,14 +5167,17 @@
       </c>
       <c r="EP12" t="n">
         <v>126.0</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>122.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5577,14 +5610,17 @@
       </c>
       <c r="EP13" t="n">
         <v>61.0</v>
+      </c>
+      <c r="EQ13" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -6017,14 +6053,17 @@
       </c>
       <c r="EP14" t="n">
         <v>28.0</v>
+      </c>
+      <c r="EQ14" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6457,14 +6496,17 @@
       </c>
       <c r="EP15" t="n">
         <v>50.0</v>
+      </c>
+      <c r="EQ15" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6897,14 +6939,17 @@
       </c>
       <c r="EP16" t="n">
         <v>37.0</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -7337,14 +7382,17 @@
       </c>
       <c r="EP17" t="n">
         <v>22.0</v>
+      </c>
+      <c r="EQ17" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7777,14 +7825,17 @@
       </c>
       <c r="EP18" t="n">
         <v>156.0</v>
+      </c>
+      <c r="EQ18" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -8217,14 +8268,17 @@
       </c>
       <c r="EP19" t="n">
         <v>429.0</v>
+      </c>
+      <c r="EQ19" t="n">
+        <v>422.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -8657,14 +8711,17 @@
       </c>
       <c r="EP20" t="n">
         <v>807.0</v>
+      </c>
+      <c r="EQ20" t="n">
+        <v>800.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -9097,14 +9154,17 @@
       </c>
       <c r="EP21" t="n">
         <v>185.0</v>
+      </c>
+      <c r="EQ21" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -9537,14 +9597,17 @@
       </c>
       <c r="EP22" t="n">
         <v>76.0</v>
+      </c>
+      <c r="EQ22" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -9977,14 +10040,17 @@
       </c>
       <c r="EP23" t="n">
         <v>131.0</v>
+      </c>
+      <c r="EQ23" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -10417,14 +10483,17 @@
       </c>
       <c r="EP24" t="n">
         <v>162.0</v>
+      </c>
+      <c r="EQ24" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -10857,14 +10926,17 @@
       </c>
       <c r="EP25" t="n">
         <v>498.0</v>
+      </c>
+      <c r="EQ25" t="n">
+        <v>499.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -11297,14 +11369,17 @@
       </c>
       <c r="EP26" t="n">
         <v>4149.0</v>
+      </c>
+      <c r="EQ26" t="n">
+        <v>4075.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -11450,13 +11525,14 @@
       <c r="EN27"/>
       <c r="EO27"/>
       <c r="EP27"/>
+      <c r="EQ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s">
         <v>172</v>
-      </c>
-      <c r="B28" t="s">
-        <v>171</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -11602,6 +11678,7 @@
       <c r="EN28"/>
       <c r="EO28"/>
       <c r="EP28"/>
+      <c r="EQ28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -11618,7 +11695,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2">
@@ -12065,13 +12142,16 @@
       <c r="EP3" t="s" s="10">
         <v>147</v>
       </c>
+      <c r="EQ3" t="s" s="10">
+        <v>148</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -12503,15 +12583,18 @@
         <v>30.0</v>
       </c>
       <c r="EP4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="EQ4" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -12944,14 +13027,17 @@
       </c>
       <c r="EP5" t="n">
         <v>61.0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -13384,14 +13470,17 @@
       </c>
       <c r="EP6" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -13824,14 +13913,17 @@
       </c>
       <c r="EP7" t="n">
         <v>18.0</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -14264,14 +14356,17 @@
       </c>
       <c r="EP8" t="n">
         <v>541.0</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>536.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -14704,14 +14799,17 @@
       </c>
       <c r="EP9" t="n">
         <v>46.0</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -15144,14 +15242,17 @@
       </c>
       <c r="EP10" t="n">
         <v>148.0</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -15584,14 +15685,17 @@
       </c>
       <c r="EP11" t="n">
         <v>34.0</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -16024,14 +16128,17 @@
       </c>
       <c r="EP12" t="n">
         <v>72.0</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -16464,14 +16571,17 @@
       </c>
       <c r="EP13" t="n">
         <v>43.0</v>
+      </c>
+      <c r="EQ13" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -16904,14 +17014,17 @@
       </c>
       <c r="EP14" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EQ14" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -17344,14 +17457,17 @@
       </c>
       <c r="EP15" t="n">
         <v>31.0</v>
+      </c>
+      <c r="EQ15" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -17784,14 +17900,17 @@
       </c>
       <c r="EP16" t="n">
         <v>21.0</v>
+      </c>
+      <c r="EQ16" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -18224,14 +18343,17 @@
       </c>
       <c r="EP17" t="n">
         <v>17.0</v>
+      </c>
+      <c r="EQ17" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -18664,14 +18786,17 @@
       </c>
       <c r="EP18" t="n">
         <v>94.0</v>
+      </c>
+      <c r="EQ18" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -19104,14 +19229,17 @@
       </c>
       <c r="EP19" t="n">
         <v>256.0</v>
+      </c>
+      <c r="EQ19" t="n">
+        <v>243.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -19544,14 +19672,17 @@
       </c>
       <c r="EP20" t="n">
         <v>506.0</v>
+      </c>
+      <c r="EQ20" t="n">
+        <v>514.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -19984,14 +20115,17 @@
       </c>
       <c r="EP21" t="n">
         <v>131.0</v>
+      </c>
+      <c r="EQ21" t="n">
+        <v>134.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -20424,14 +20558,17 @@
       </c>
       <c r="EP22" t="n">
         <v>52.0</v>
+      </c>
+      <c r="EQ22" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -20864,14 +21001,17 @@
       </c>
       <c r="EP23" t="n">
         <v>71.0</v>
+      </c>
+      <c r="EQ23" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -21304,14 +21444,17 @@
       </c>
       <c r="EP24" t="n">
         <v>101.0</v>
+      </c>
+      <c r="EQ24" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -21744,14 +21887,17 @@
       </c>
       <c r="EP25" t="n">
         <v>308.0</v>
+      </c>
+      <c r="EQ25" t="n">
+        <v>314.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -22184,14 +22330,17 @@
       </c>
       <c r="EP26" t="n">
         <v>2629.0</v>
+      </c>
+      <c r="EQ26" t="n">
+        <v>2598.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -22337,13 +22486,14 @@
       <c r="EN27"/>
       <c r="EO27"/>
       <c r="EP27"/>
+      <c r="EQ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s">
         <v>172</v>
-      </c>
-      <c r="B28" t="s">
-        <v>171</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -22489,6 +22639,7 @@
       <c r="EN28"/>
       <c r="EO28"/>
       <c r="EP28"/>
+      <c r="EQ28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -22505,7 +22656,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2">
@@ -22875,7 +23026,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -22899,7 +23050,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -22951,14 +23102,17 @@
       </c>
       <c r="EP3" t="s" s="10">
         <v>147</v>
+      </c>
+      <c r="EQ3" t="s" s="10">
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -23391,14 +23545,17 @@
       </c>
       <c r="EP4" t="n">
         <v>17.0</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -23831,14 +23988,17 @@
       </c>
       <c r="EP5" t="n">
         <v>27.0</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -24270,15 +24430,18 @@
         <v>6.0</v>
       </c>
       <c r="EP6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="EQ6" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -24711,14 +24874,17 @@
       </c>
       <c r="EP7" t="n">
         <v>18.0</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -25151,14 +25317,17 @@
       </c>
       <c r="EP8" t="n">
         <v>273.0</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>251.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -25591,14 +25760,17 @@
       </c>
       <c r="EP9" t="n">
         <v>31.0</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -26031,14 +26203,17 @@
       </c>
       <c r="EP10" t="n">
         <v>71.0</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -26471,14 +26646,17 @@
       </c>
       <c r="EP11" t="n">
         <v>21.0</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -26911,14 +27089,17 @@
       </c>
       <c r="EP12" t="n">
         <v>54.0</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -27351,14 +27532,17 @@
       </c>
       <c r="EP13" t="n">
         <v>18.0</v>
+      </c>
+      <c r="EQ13" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -27790,15 +27974,18 @@
         <v>5.0</v>
       </c>
       <c r="EP14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="EQ14" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -28231,14 +28418,17 @@
       </c>
       <c r="EP15" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EQ15" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -28670,15 +28860,18 @@
         <v>18.0</v>
       </c>
       <c r="EP16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="EQ16" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -29111,14 +29304,17 @@
       </c>
       <c r="EP17" t="n">
         <v>5.0</v>
+      </c>
+      <c r="EQ17" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -29551,14 +29747,17 @@
       </c>
       <c r="EP18" t="n">
         <v>61.0</v>
+      </c>
+      <c r="EQ18" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -29991,14 +30190,17 @@
       </c>
       <c r="EP19" t="n">
         <v>159.0</v>
+      </c>
+      <c r="EQ19" t="n">
+        <v>167.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -30431,14 +30633,17 @@
       </c>
       <c r="EP20" t="n">
         <v>292.0</v>
+      </c>
+      <c r="EQ20" t="n">
+        <v>277.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -30871,14 +31076,17 @@
       </c>
       <c r="EP21" t="n">
         <v>54.0</v>
+      </c>
+      <c r="EQ21" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -31311,14 +31519,17 @@
       </c>
       <c r="EP22" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EQ22" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -31751,14 +31962,17 @@
       </c>
       <c r="EP23" t="n">
         <v>60.0</v>
+      </c>
+      <c r="EQ23" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -32191,14 +32405,17 @@
       </c>
       <c r="EP24" t="n">
         <v>61.0</v>
+      </c>
+      <c r="EQ24" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -32631,14 +32848,17 @@
       </c>
       <c r="EP25" t="n">
         <v>186.0</v>
+      </c>
+      <c r="EQ25" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -33071,14 +33291,17 @@
       </c>
       <c r="EP26" t="n">
         <v>1476.0</v>
+      </c>
+      <c r="EQ26" t="n">
+        <v>1433.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -33224,13 +33447,14 @@
       <c r="EN27"/>
       <c r="EO27"/>
       <c r="EP27"/>
+      <c r="EQ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s">
         <v>172</v>
-      </c>
-      <c r="B28" t="s">
-        <v>171</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -33376,6 +33600,7 @@
       <c r="EN28"/>
       <c r="EO28"/>
       <c r="EP28"/>
+      <c r="EQ28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="202">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/03/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/04/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -463,6 +463,9 @@
     <t>2020-09-03</t>
   </si>
   <si>
+    <t>2020-09-04</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -607,10 +610,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/03/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/04/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/03/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/04/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1184,13 +1187,16 @@
       <c r="EQ3" t="s" s="10">
         <v>148</v>
       </c>
+      <c r="ER3" t="s" s="10">
+        <v>149</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1626,14 +1632,17 @@
       </c>
       <c r="EQ4" t="n">
         <v>51.0</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2069,14 +2078,17 @@
       </c>
       <c r="EQ5" t="n">
         <v>82.0</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2512,14 +2524,17 @@
       </c>
       <c r="EQ6" t="n">
         <v>29.0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2955,14 +2970,17 @@
       </c>
       <c r="EQ7" t="n">
         <v>37.0</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3398,14 +3416,17 @@
       </c>
       <c r="EQ8" t="n">
         <v>801.0</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>778.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3841,14 +3862,17 @@
       </c>
       <c r="EQ9" t="n">
         <v>77.0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4284,14 +4308,17 @@
       </c>
       <c r="EQ10" t="n">
         <v>220.0</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>218.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4727,14 +4754,17 @@
       </c>
       <c r="EQ11" t="n">
         <v>64.0</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5170,14 +5200,17 @@
       </c>
       <c r="EQ12" t="n">
         <v>122.0</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5613,14 +5646,17 @@
       </c>
       <c r="EQ13" t="n">
         <v>55.0</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -6056,14 +6092,17 @@
       </c>
       <c r="EQ14" t="n">
         <v>22.0</v>
+      </c>
+      <c r="ER14" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6499,14 +6538,17 @@
       </c>
       <c r="EQ15" t="n">
         <v>47.0</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6942,14 +6984,17 @@
       </c>
       <c r="EQ16" t="n">
         <v>39.0</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -7385,14 +7430,17 @@
       </c>
       <c r="EQ17" t="n">
         <v>20.0</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7828,14 +7876,17 @@
       </c>
       <c r="EQ18" t="n">
         <v>138.0</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>141.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -8271,14 +8322,17 @@
       </c>
       <c r="EQ19" t="n">
         <v>422.0</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>395.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -8714,14 +8768,17 @@
       </c>
       <c r="EQ20" t="n">
         <v>800.0</v>
+      </c>
+      <c r="ER20" t="n">
+        <v>755.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -9157,14 +9214,17 @@
       </c>
       <c r="EQ21" t="n">
         <v>189.0</v>
+      </c>
+      <c r="ER21" t="n">
+        <v>167.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -9600,14 +9660,17 @@
       </c>
       <c r="EQ22" t="n">
         <v>78.0</v>
+      </c>
+      <c r="ER22" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -10043,14 +10106,17 @@
       </c>
       <c r="EQ23" t="n">
         <v>128.0</v>
+      </c>
+      <c r="ER23" t="n">
+        <v>117.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -10486,14 +10552,17 @@
       </c>
       <c r="EQ24" t="n">
         <v>155.0</v>
+      </c>
+      <c r="ER24" t="n">
+        <v>162.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -10929,14 +10998,17 @@
       </c>
       <c r="EQ25" t="n">
         <v>499.0</v>
+      </c>
+      <c r="ER25" t="n">
+        <v>458.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -11372,14 +11444,17 @@
       </c>
       <c r="EQ26" t="n">
         <v>4075.0</v>
+      </c>
+      <c r="ER26" t="n">
+        <v>3889.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -11526,13 +11601,14 @@
       <c r="EO27"/>
       <c r="EP27"/>
       <c r="EQ27"/>
+      <c r="ER27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" t="s">
         <v>173</v>
-      </c>
-      <c r="B28" t="s">
-        <v>172</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -11679,6 +11755,7 @@
       <c r="EO28"/>
       <c r="EP28"/>
       <c r="EQ28"/>
+      <c r="ER28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -11695,7 +11772,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2">
@@ -12145,13 +12222,16 @@
       <c r="EQ3" t="s" s="10">
         <v>148</v>
       </c>
+      <c r="ER3" t="s" s="10">
+        <v>149</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -12587,14 +12667,17 @@
       </c>
       <c r="EQ4" t="n">
         <v>31.0</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -13030,14 +13113,17 @@
       </c>
       <c r="EQ5" t="n">
         <v>57.0</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -13473,14 +13559,17 @@
       </c>
       <c r="EQ6" t="n">
         <v>25.0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -13916,14 +14005,17 @@
       </c>
       <c r="EQ7" t="n">
         <v>17.0</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -14359,14 +14451,17 @@
       </c>
       <c r="EQ8" t="n">
         <v>536.0</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>537.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -14802,14 +14897,17 @@
       </c>
       <c r="EQ9" t="n">
         <v>48.0</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -15245,14 +15343,17 @@
       </c>
       <c r="EQ10" t="n">
         <v>147.0</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -15688,14 +15789,17 @@
       </c>
       <c r="EQ11" t="n">
         <v>44.0</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -16131,14 +16235,17 @@
       </c>
       <c r="EQ12" t="n">
         <v>73.0</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -16574,14 +16681,17 @@
       </c>
       <c r="EQ13" t="n">
         <v>36.0</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -17017,14 +17127,17 @@
       </c>
       <c r="EQ14" t="n">
         <v>17.0</v>
+      </c>
+      <c r="ER14" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -17460,14 +17573,17 @@
       </c>
       <c r="EQ15" t="n">
         <v>29.0</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -17903,14 +18019,17 @@
       </c>
       <c r="EQ16" t="n">
         <v>23.0</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -18346,14 +18465,17 @@
       </c>
       <c r="EQ17" t="n">
         <v>14.0</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -18788,15 +18910,18 @@
         <v>94.0</v>
       </c>
       <c r="EQ18" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="ER18" t="n">
         <v>79.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -19232,14 +19357,17 @@
       </c>
       <c r="EQ19" t="n">
         <v>243.0</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>230.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -19675,14 +19803,17 @@
       </c>
       <c r="EQ20" t="n">
         <v>514.0</v>
+      </c>
+      <c r="ER20" t="n">
+        <v>458.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -20118,14 +20249,17 @@
       </c>
       <c r="EQ21" t="n">
         <v>134.0</v>
+      </c>
+      <c r="ER21" t="n">
+        <v>116.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -20561,14 +20695,17 @@
       </c>
       <c r="EQ22" t="n">
         <v>51.0</v>
+      </c>
+      <c r="ER22" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -21004,14 +21141,17 @@
       </c>
       <c r="EQ23" t="n">
         <v>69.0</v>
+      </c>
+      <c r="ER23" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -21447,14 +21587,17 @@
       </c>
       <c r="EQ24" t="n">
         <v>97.0</v>
+      </c>
+      <c r="ER24" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -21890,14 +22033,17 @@
       </c>
       <c r="EQ25" t="n">
         <v>314.0</v>
+      </c>
+      <c r="ER25" t="n">
+        <v>285.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -22333,14 +22479,17 @@
       </c>
       <c r="EQ26" t="n">
         <v>2598.0</v>
+      </c>
+      <c r="ER26" t="n">
+        <v>2454.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -22487,13 +22636,14 @@
       <c r="EO27"/>
       <c r="EP27"/>
       <c r="EQ27"/>
+      <c r="ER27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" t="s">
         <v>173</v>
-      </c>
-      <c r="B28" t="s">
-        <v>172</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -22640,6 +22790,7 @@
       <c r="EO28"/>
       <c r="EP28"/>
       <c r="EQ28"/>
+      <c r="ER28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -22656,7 +22807,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
@@ -23026,7 +23177,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -23050,7 +23201,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -23105,14 +23256,17 @@
       </c>
       <c r="EQ3" t="s" s="10">
         <v>148</v>
+      </c>
+      <c r="ER3" t="s" s="10">
+        <v>149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -23547,15 +23701,18 @@
         <v>17.0</v>
       </c>
       <c r="EQ4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="ER4" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -23991,14 +24148,17 @@
       </c>
       <c r="EQ5" t="n">
         <v>25.0</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -24433,15 +24593,18 @@
         <v>4.0</v>
       </c>
       <c r="EQ6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="ER6" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -24877,14 +25040,17 @@
       </c>
       <c r="EQ7" t="n">
         <v>19.0</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -25320,14 +25486,17 @@
       </c>
       <c r="EQ8" t="n">
         <v>251.0</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>227.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -25762,15 +25931,18 @@
         <v>31.0</v>
       </c>
       <c r="EQ9" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="ER9" t="n">
         <v>29.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -26206,14 +26378,17 @@
       </c>
       <c r="EQ10" t="n">
         <v>73.0</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -26649,14 +26824,17 @@
       </c>
       <c r="EQ11" t="n">
         <v>20.0</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -27092,14 +27270,17 @@
       </c>
       <c r="EQ12" t="n">
         <v>48.0</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -27535,14 +27716,17 @@
       </c>
       <c r="EQ13" t="n">
         <v>19.0</v>
+      </c>
+      <c r="ER13" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -27977,15 +28161,18 @@
         <v>5.0</v>
       </c>
       <c r="EQ14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="ER14" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -28421,14 +28608,17 @@
       </c>
       <c r="EQ15" t="n">
         <v>18.0</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -28864,14 +29054,17 @@
       </c>
       <c r="EQ16" t="n">
         <v>16.0</v>
+      </c>
+      <c r="ER16" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -29307,14 +29500,17 @@
       </c>
       <c r="EQ17" t="n">
         <v>6.0</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -29750,14 +29946,17 @@
       </c>
       <c r="EQ18" t="n">
         <v>57.0</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -30193,14 +30392,17 @@
       </c>
       <c r="EQ19" t="n">
         <v>167.0</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -30636,14 +30838,17 @@
       </c>
       <c r="EQ20" t="n">
         <v>277.0</v>
+      </c>
+      <c r="ER20" t="n">
+        <v>296.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -31079,14 +31284,17 @@
       </c>
       <c r="EQ21" t="n">
         <v>55.0</v>
+      </c>
+      <c r="ER21" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -31522,14 +31730,17 @@
       </c>
       <c r="EQ22" t="n">
         <v>27.0</v>
+      </c>
+      <c r="ER22" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -31965,14 +32176,17 @@
       </c>
       <c r="EQ23" t="n">
         <v>59.0</v>
+      </c>
+      <c r="ER23" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -32407,15 +32621,18 @@
         <v>61.0</v>
       </c>
       <c r="EQ24" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="ER24" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -32851,14 +33068,17 @@
       </c>
       <c r="EQ25" t="n">
         <v>181.0</v>
+      </c>
+      <c r="ER25" t="n">
+        <v>170.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -33294,14 +33514,17 @@
       </c>
       <c r="EQ26" t="n">
         <v>1433.0</v>
+      </c>
+      <c r="ER26" t="n">
+        <v>1400.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -33448,13 +33671,14 @@
       <c r="EO27"/>
       <c r="EP27"/>
       <c r="EQ27"/>
+      <c r="ER27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" t="s">
         <v>173</v>
-      </c>
-      <c r="B28" t="s">
-        <v>172</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -33601,6 +33825,7 @@
       <c r="EO28"/>
       <c r="EP28"/>
       <c r="EQ28"/>
+      <c r="ER28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="203">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/04/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/05/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -466,6 +466,9 @@
     <t>2020-09-04</t>
   </si>
   <si>
+    <t>2020-09-05</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -610,10 +613,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/04/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/05/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/04/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/05/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1190,13 +1193,16 @@
       <c r="ER3" t="s" s="10">
         <v>149</v>
       </c>
+      <c r="ES3" t="s" s="10">
+        <v>150</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1635,14 +1641,17 @@
       </c>
       <c r="ER4" t="n">
         <v>54.0</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2081,14 +2090,17 @@
       </c>
       <c r="ER5" t="n">
         <v>76.0</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2527,14 +2539,17 @@
       </c>
       <c r="ER6" t="n">
         <v>25.0</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -2973,14 +2988,17 @@
       </c>
       <c r="ER7" t="n">
         <v>31.0</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3419,14 +3437,17 @@
       </c>
       <c r="ER8" t="n">
         <v>778.0</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>893.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3865,14 +3886,17 @@
       </c>
       <c r="ER9" t="n">
         <v>72.0</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4311,14 +4335,17 @@
       </c>
       <c r="ER10" t="n">
         <v>218.0</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>201.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4756,15 +4783,18 @@
         <v>64.0</v>
       </c>
       <c r="ER11" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="ES11" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5203,14 +5233,17 @@
       </c>
       <c r="ER12" t="n">
         <v>106.0</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5649,14 +5682,17 @@
       </c>
       <c r="ER13" t="n">
         <v>64.0</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -6095,14 +6131,17 @@
       </c>
       <c r="ER14" t="n">
         <v>31.0</v>
+      </c>
+      <c r="ES14" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6541,14 +6580,17 @@
       </c>
       <c r="ER15" t="n">
         <v>50.0</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -6987,14 +7029,17 @@
       </c>
       <c r="ER16" t="n">
         <v>41.0</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -7433,14 +7478,17 @@
       </c>
       <c r="ER17" t="n">
         <v>26.0</v>
+      </c>
+      <c r="ES17" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -7879,14 +7927,17 @@
       </c>
       <c r="ER18" t="n">
         <v>141.0</v>
+      </c>
+      <c r="ES18" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -8325,14 +8376,17 @@
       </c>
       <c r="ER19" t="n">
         <v>395.0</v>
+      </c>
+      <c r="ES19" t="n">
+        <v>387.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -8771,14 +8825,17 @@
       </c>
       <c r="ER20" t="n">
         <v>755.0</v>
+      </c>
+      <c r="ES20" t="n">
+        <v>750.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -9217,14 +9274,17 @@
       </c>
       <c r="ER21" t="n">
         <v>167.0</v>
+      </c>
+      <c r="ES21" t="n">
+        <v>177.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -9663,14 +9723,17 @@
       </c>
       <c r="ER22" t="n">
         <v>69.0</v>
+      </c>
+      <c r="ES22" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -10109,14 +10172,17 @@
       </c>
       <c r="ER23" t="n">
         <v>117.0</v>
+      </c>
+      <c r="ES23" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -10555,14 +10621,17 @@
       </c>
       <c r="ER24" t="n">
         <v>162.0</v>
+      </c>
+      <c r="ES24" t="n">
+        <v>159.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -11001,14 +11070,17 @@
       </c>
       <c r="ER25" t="n">
         <v>458.0</v>
+      </c>
+      <c r="ES25" t="n">
+        <v>447.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -11447,14 +11519,17 @@
       </c>
       <c r="ER26" t="n">
         <v>3889.0</v>
+      </c>
+      <c r="ES26" t="n">
+        <v>3973.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -11602,13 +11677,14 @@
       <c r="EP27"/>
       <c r="EQ27"/>
       <c r="ER27"/>
+      <c r="ES27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" t="s">
         <v>174</v>
-      </c>
-      <c r="B28" t="s">
-        <v>173</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -11756,6 +11832,7 @@
       <c r="EP28"/>
       <c r="EQ28"/>
       <c r="ER28"/>
+      <c r="ES28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -11772,7 +11849,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
@@ -12225,13 +12302,16 @@
       <c r="ER3" t="s" s="10">
         <v>149</v>
       </c>
+      <c r="ES3" t="s" s="10">
+        <v>150</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -12670,14 +12750,17 @@
       </c>
       <c r="ER4" t="n">
         <v>33.0</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -13116,14 +13199,17 @@
       </c>
       <c r="ER5" t="n">
         <v>53.0</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -13562,14 +13648,17 @@
       </c>
       <c r="ER6" t="n">
         <v>21.0</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -14008,14 +14097,17 @@
       </c>
       <c r="ER7" t="n">
         <v>15.0</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -14454,14 +14546,17 @@
       </c>
       <c r="ER8" t="n">
         <v>537.0</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>612.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -14900,14 +14995,17 @@
       </c>
       <c r="ER9" t="n">
         <v>43.0</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -15346,14 +15444,17 @@
       </c>
       <c r="ER10" t="n">
         <v>144.0</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>132.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -15792,14 +15893,17 @@
       </c>
       <c r="ER11" t="n">
         <v>34.0</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -16238,14 +16342,17 @@
       </c>
       <c r="ER12" t="n">
         <v>57.0</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -16684,14 +16791,17 @@
       </c>
       <c r="ER13" t="n">
         <v>41.0</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -17130,14 +17240,17 @@
       </c>
       <c r="ER14" t="n">
         <v>26.0</v>
+      </c>
+      <c r="ES14" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -17576,14 +17689,17 @@
       </c>
       <c r="ER15" t="n">
         <v>30.0</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -18022,14 +18138,17 @@
       </c>
       <c r="ER16" t="n">
         <v>26.0</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -18468,14 +18587,17 @@
       </c>
       <c r="ER17" t="n">
         <v>21.0</v>
+      </c>
+      <c r="ES17" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -18914,14 +19036,17 @@
       </c>
       <c r="ER18" t="n">
         <v>79.0</v>
+      </c>
+      <c r="ES18" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -19359,15 +19484,18 @@
         <v>243.0</v>
       </c>
       <c r="ER19" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="ES19" t="n">
         <v>230.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -19806,14 +19934,17 @@
       </c>
       <c r="ER20" t="n">
         <v>458.0</v>
+      </c>
+      <c r="ES20" t="n">
+        <v>473.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -20252,14 +20383,17 @@
       </c>
       <c r="ER21" t="n">
         <v>116.0</v>
+      </c>
+      <c r="ES21" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -20698,14 +20832,17 @@
       </c>
       <c r="ER22" t="n">
         <v>44.0</v>
+      </c>
+      <c r="ES22" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -21144,14 +21281,17 @@
       </c>
       <c r="ER23" t="n">
         <v>57.0</v>
+      </c>
+      <c r="ES23" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -21590,14 +21730,17 @@
       </c>
       <c r="ER24" t="n">
         <v>104.0</v>
+      </c>
+      <c r="ES24" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -22036,14 +22179,17 @@
       </c>
       <c r="ER25" t="n">
         <v>285.0</v>
+      </c>
+      <c r="ES25" t="n">
+        <v>274.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -22482,14 +22628,17 @@
       </c>
       <c r="ER26" t="n">
         <v>2454.0</v>
+      </c>
+      <c r="ES26" t="n">
+        <v>2529.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -22637,13 +22786,14 @@
       <c r="EP27"/>
       <c r="EQ27"/>
       <c r="ER27"/>
+      <c r="ES27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" t="s">
         <v>174</v>
-      </c>
-      <c r="B28" t="s">
-        <v>173</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -22791,6 +22941,7 @@
       <c r="EP28"/>
       <c r="EQ28"/>
       <c r="ER28"/>
+      <c r="ES28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -22807,7 +22958,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2">
@@ -23177,7 +23328,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -23201,7 +23352,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -23259,14 +23410,17 @@
       </c>
       <c r="ER3" t="s" s="10">
         <v>149</v>
+      </c>
+      <c r="ES3" t="s" s="10">
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -23705,14 +23859,17 @@
       </c>
       <c r="ER4" t="n">
         <v>19.0</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -24151,14 +24308,17 @@
       </c>
       <c r="ER5" t="n">
         <v>22.0</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -24597,14 +24757,17 @@
       </c>
       <c r="ER6" t="n">
         <v>4.0</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -25043,14 +25206,17 @@
       </c>
       <c r="ER7" t="n">
         <v>15.0</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -25489,14 +25655,17 @@
       </c>
       <c r="ER8" t="n">
         <v>227.0</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>267.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -25935,14 +26104,17 @@
       </c>
       <c r="ER9" t="n">
         <v>29.0</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -26381,14 +26553,17 @@
       </c>
       <c r="ER10" t="n">
         <v>74.0</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -26827,14 +27002,17 @@
       </c>
       <c r="ER11" t="n">
         <v>19.0</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -27273,14 +27451,17 @@
       </c>
       <c r="ER12" t="n">
         <v>49.0</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -27719,14 +27900,17 @@
       </c>
       <c r="ER13" t="n">
         <v>23.0</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -28165,14 +28349,17 @@
       </c>
       <c r="ER14" t="n">
         <v>5.0</v>
+      </c>
+      <c r="ES14" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -28611,14 +28798,17 @@
       </c>
       <c r="ER15" t="n">
         <v>20.0</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -29056,15 +29246,18 @@
         <v>16.0</v>
       </c>
       <c r="ER16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="ES16" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -29502,15 +29695,18 @@
         <v>6.0</v>
       </c>
       <c r="ER17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="ES17" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -29949,14 +30145,17 @@
       </c>
       <c r="ER18" t="n">
         <v>59.0</v>
+      </c>
+      <c r="ES18" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -30395,14 +30594,17 @@
       </c>
       <c r="ER19" t="n">
         <v>155.0</v>
+      </c>
+      <c r="ES19" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -30841,14 +31043,17 @@
       </c>
       <c r="ER20" t="n">
         <v>296.0</v>
+      </c>
+      <c r="ES20" t="n">
+        <v>277.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -31287,14 +31492,17 @@
       </c>
       <c r="ER21" t="n">
         <v>51.0</v>
+      </c>
+      <c r="ES21" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -31733,14 +31941,17 @@
       </c>
       <c r="ER22" t="n">
         <v>25.0</v>
+      </c>
+      <c r="ES22" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -32179,14 +32390,17 @@
       </c>
       <c r="ER23" t="n">
         <v>60.0</v>
+      </c>
+      <c r="ES23" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -32625,14 +32839,17 @@
       </c>
       <c r="ER24" t="n">
         <v>58.0</v>
+      </c>
+      <c r="ES24" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -33071,14 +33288,17 @@
       </c>
       <c r="ER25" t="n">
         <v>170.0</v>
+      </c>
+      <c r="ES25" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -33517,14 +33737,17 @@
       </c>
       <c r="ER26" t="n">
         <v>1400.0</v>
+      </c>
+      <c r="ES26" t="n">
+        <v>1409.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -33672,13 +33895,14 @@
       <c r="EP27"/>
       <c r="EQ27"/>
       <c r="ER27"/>
+      <c r="ES27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" t="s">
         <v>174</v>
-      </c>
-      <c r="B28" t="s">
-        <v>173</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -33826,6 +34050,7 @@
       <c r="EP28"/>
       <c r="EQ28"/>
       <c r="ER28"/>
+      <c r="ES28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="206">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/07/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/08/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -475,6 +475,9 @@
     <t>2020-09-07</t>
   </si>
   <si>
+    <t>2020-09-08</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -619,10 +622,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/07/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/08/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/07/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/08/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1208,13 +1211,16 @@
       <c r="EU3" t="s" s="10">
         <v>152</v>
       </c>
+      <c r="EV3" t="s" s="10">
+        <v>153</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1662,14 +1668,17 @@
       </c>
       <c r="EU4" t="n">
         <v>57.0</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2117,14 +2126,17 @@
       </c>
       <c r="EU5" t="n">
         <v>66.0</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2572,14 +2584,17 @@
       </c>
       <c r="EU6" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -3027,14 +3042,17 @@
       </c>
       <c r="EU7" t="n">
         <v>26.0</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3482,14 +3500,17 @@
       </c>
       <c r="EU8" t="n">
         <v>677.0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>798.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3937,14 +3958,17 @@
       </c>
       <c r="EU9" t="n">
         <v>69.0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4392,14 +4416,17 @@
       </c>
       <c r="EU10" t="n">
         <v>194.0</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4847,14 +4874,17 @@
       </c>
       <c r="EU11" t="n">
         <v>50.0</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5302,14 +5332,17 @@
       </c>
       <c r="EU12" t="n">
         <v>102.0</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5756,15 +5789,18 @@
         <v>65.0</v>
       </c>
       <c r="EU13" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="EV13" t="n">
         <v>64.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -6212,14 +6248,17 @@
       </c>
       <c r="EU14" t="n">
         <v>27.0</v>
+      </c>
+      <c r="EV14" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6667,14 +6706,17 @@
       </c>
       <c r="EU15" t="n">
         <v>51.0</v>
+      </c>
+      <c r="EV15" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -7121,15 +7163,18 @@
         <v>42.0</v>
       </c>
       <c r="EU16" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="EV16" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -7577,14 +7622,17 @@
       </c>
       <c r="EU17" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EV17" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -8032,14 +8080,17 @@
       </c>
       <c r="EU18" t="n">
         <v>139.0</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>173.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -8487,14 +8538,17 @@
       </c>
       <c r="EU19" t="n">
         <v>359.0</v>
+      </c>
+      <c r="EV19" t="n">
+        <v>345.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -8942,14 +8996,17 @@
       </c>
       <c r="EU20" t="n">
         <v>655.0</v>
+      </c>
+      <c r="EV20" t="n">
+        <v>660.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -9397,14 +9454,17 @@
       </c>
       <c r="EU21" t="n">
         <v>173.0</v>
+      </c>
+      <c r="EV21" t="n">
+        <v>172.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -9851,15 +9911,18 @@
         <v>58.0</v>
       </c>
       <c r="EU22" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="EV22" t="n">
         <v>67.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -10307,14 +10370,17 @@
       </c>
       <c r="EU23" t="n">
         <v>121.0</v>
+      </c>
+      <c r="EV23" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -10762,14 +10828,17 @@
       </c>
       <c r="EU24" t="n">
         <v>149.0</v>
+      </c>
+      <c r="EV24" t="n">
+        <v>139.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -11217,14 +11286,17 @@
       </c>
       <c r="EU25" t="n">
         <v>402.0</v>
+      </c>
+      <c r="EV25" t="n">
+        <v>408.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -11672,14 +11744,17 @@
       </c>
       <c r="EU26" t="n">
         <v>3537.0</v>
+      </c>
+      <c r="EV26" t="n">
+        <v>3701.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -11830,13 +11905,14 @@
       <c r="ES27"/>
       <c r="ET27"/>
       <c r="EU27"/>
+      <c r="EV27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
         <v>177</v>
-      </c>
-      <c r="B28" t="s">
-        <v>176</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -11987,6 +12063,7 @@
       <c r="ES28"/>
       <c r="ET28"/>
       <c r="EU28"/>
+      <c r="EV28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -12003,7 +12080,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2">
@@ -12465,13 +12542,16 @@
       <c r="EU3" t="s" s="10">
         <v>152</v>
       </c>
+      <c r="EV3" t="s" s="10">
+        <v>153</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -12919,14 +12999,17 @@
       </c>
       <c r="EU4" t="n">
         <v>33.0</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -13373,15 +13456,18 @@
         <v>38.0</v>
       </c>
       <c r="EU5" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="EV5" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -13829,14 +13915,17 @@
       </c>
       <c r="EU6" t="n">
         <v>25.0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -14283,15 +14372,18 @@
         <v>11.0</v>
       </c>
       <c r="EU7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="EV7" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -14739,14 +14831,17 @@
       </c>
       <c r="EU8" t="n">
         <v>425.0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>547.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -15194,14 +15289,17 @@
       </c>
       <c r="EU9" t="n">
         <v>42.0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -15649,14 +15747,17 @@
       </c>
       <c r="EU10" t="n">
         <v>125.0</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>135.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -16104,14 +16205,17 @@
       </c>
       <c r="EU11" t="n">
         <v>32.0</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -16559,14 +16663,17 @@
       </c>
       <c r="EU12" t="n">
         <v>54.0</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -17014,14 +17121,17 @@
       </c>
       <c r="EU13" t="n">
         <v>42.0</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -17468,15 +17578,18 @@
         <v>26.0</v>
       </c>
       <c r="EU14" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="EV14" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -17924,14 +18037,17 @@
       </c>
       <c r="EU15" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EV15" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -18379,14 +18495,17 @@
       </c>
       <c r="EU16" t="n">
         <v>26.0</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -18834,14 +18953,17 @@
       </c>
       <c r="EU17" t="n">
         <v>17.0</v>
+      </c>
+      <c r="EV17" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -19289,14 +19411,17 @@
       </c>
       <c r="EU18" t="n">
         <v>89.0</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -19744,14 +19869,17 @@
       </c>
       <c r="EU19" t="n">
         <v>216.0</v>
+      </c>
+      <c r="EV19" t="n">
+        <v>204.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -20199,14 +20327,17 @@
       </c>
       <c r="EU20" t="n">
         <v>385.0</v>
+      </c>
+      <c r="EV20" t="n">
+        <v>401.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -20654,14 +20785,17 @@
       </c>
       <c r="EU21" t="n">
         <v>116.0</v>
+      </c>
+      <c r="EV21" t="n">
+        <v>119.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -21109,14 +21243,17 @@
       </c>
       <c r="EU22" t="n">
         <v>39.0</v>
+      </c>
+      <c r="EV22" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -21564,14 +21701,17 @@
       </c>
       <c r="EU23" t="n">
         <v>61.0</v>
+      </c>
+      <c r="EV23" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -22018,15 +22158,18 @@
         <v>108.0</v>
       </c>
       <c r="EU24" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="EV24" t="n">
         <v>97.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -22474,14 +22617,17 @@
       </c>
       <c r="EU25" t="n">
         <v>242.0</v>
+      </c>
+      <c r="EV25" t="n">
+        <v>248.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -22929,14 +23075,17 @@
       </c>
       <c r="EU26" t="n">
         <v>2175.0</v>
+      </c>
+      <c r="EV26" t="n">
+        <v>2318.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -23087,13 +23236,14 @@
       <c r="ES27"/>
       <c r="ET27"/>
       <c r="EU27"/>
+      <c r="EV27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
         <v>177</v>
-      </c>
-      <c r="B28" t="s">
-        <v>176</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -23244,6 +23394,7 @@
       <c r="ES28"/>
       <c r="ET28"/>
       <c r="EU28"/>
+      <c r="EV28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -23260,7 +23411,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
@@ -23630,7 +23781,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -23654,7 +23805,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -23721,14 +23872,17 @@
       </c>
       <c r="EU3" t="s" s="10">
         <v>152</v>
+      </c>
+      <c r="EV3" t="s" s="10">
+        <v>153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -24175,15 +24329,18 @@
         <v>21.0</v>
       </c>
       <c r="EU4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="EV4" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -24631,14 +24788,17 @@
       </c>
       <c r="EU5" t="n">
         <v>25.0</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -25086,14 +25246,17 @@
       </c>
       <c r="EU6" t="n">
         <v>4.0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -25541,14 +25704,17 @@
       </c>
       <c r="EU7" t="n">
         <v>13.0</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -25996,14 +26162,17 @@
       </c>
       <c r="EU8" t="n">
         <v>240.0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>239.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -26451,14 +26620,17 @@
       </c>
       <c r="EU9" t="n">
         <v>27.0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -26906,14 +27078,17 @@
       </c>
       <c r="EU10" t="n">
         <v>69.0</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -27361,14 +27536,17 @@
       </c>
       <c r="EU11" t="n">
         <v>18.0</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -27815,15 +27993,18 @@
         <v>45.0</v>
       </c>
       <c r="EU12" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="EV12" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -28271,14 +28452,17 @@
       </c>
       <c r="EU13" t="n">
         <v>22.0</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -28726,14 +28910,17 @@
       </c>
       <c r="EU14" t="n">
         <v>2.0</v>
+      </c>
+      <c r="EV14" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -29180,15 +29367,18 @@
         <v>21.0</v>
       </c>
       <c r="EU15" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="EV15" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -29636,14 +29826,17 @@
       </c>
       <c r="EU16" t="n">
         <v>11.0</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -30091,14 +30284,17 @@
       </c>
       <c r="EU17" t="n">
         <v>6.0</v>
+      </c>
+      <c r="EV17" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -30546,14 +30742,17 @@
       </c>
       <c r="EU18" t="n">
         <v>48.0</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -31001,14 +31200,17 @@
       </c>
       <c r="EU19" t="n">
         <v>133.0</v>
+      </c>
+      <c r="EV19" t="n">
+        <v>132.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -31456,14 +31658,17 @@
       </c>
       <c r="EU20" t="n">
         <v>262.0</v>
+      </c>
+      <c r="EV20" t="n">
+        <v>252.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -31911,14 +32116,17 @@
       </c>
       <c r="EU21" t="n">
         <v>57.0</v>
+      </c>
+      <c r="EV21" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -32366,14 +32574,17 @@
       </c>
       <c r="EU22" t="n">
         <v>28.0</v>
+      </c>
+      <c r="EV22" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -32821,14 +33032,17 @@
       </c>
       <c r="EU23" t="n">
         <v>60.0</v>
+      </c>
+      <c r="EV23" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -33276,14 +33490,17 @@
       </c>
       <c r="EU24" t="n">
         <v>52.0</v>
+      </c>
+      <c r="EV24" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -33731,14 +33948,17 @@
       </c>
       <c r="EU25" t="n">
         <v>156.0</v>
+      </c>
+      <c r="EV25" t="n">
+        <v>157.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -34186,14 +34406,17 @@
       </c>
       <c r="EU26" t="n">
         <v>1322.0</v>
+      </c>
+      <c r="EV26" t="n">
+        <v>1347.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -34344,13 +34567,14 @@
       <c r="ES27"/>
       <c r="ET27"/>
       <c r="EU27"/>
+      <c r="EV27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
         <v>177</v>
-      </c>
-      <c r="B28" t="s">
-        <v>176</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -34501,6 +34725,7 @@
       <c r="ES28"/>
       <c r="ET28"/>
       <c r="EU28"/>
+      <c r="EV28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="207">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/08/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/09/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -478,6 +478,9 @@
     <t>2020-09-08</t>
   </si>
   <si>
+    <t>2020-09-09</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -622,10 +625,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/08/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/09/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/08/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/09/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1214,13 +1217,16 @@
       <c r="EV3" t="s" s="10">
         <v>153</v>
       </c>
+      <c r="EW3" t="s" s="10">
+        <v>154</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1671,14 +1677,17 @@
       </c>
       <c r="EV4" t="n">
         <v>54.0</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2129,14 +2138,17 @@
       </c>
       <c r="EV5" t="n">
         <v>70.0</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2587,14 +2599,17 @@
       </c>
       <c r="EV6" t="n">
         <v>26.0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -3045,14 +3060,17 @@
       </c>
       <c r="EV7" t="n">
         <v>25.0</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3503,14 +3521,17 @@
       </c>
       <c r="EV8" t="n">
         <v>798.0</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>771.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3960,15 +3981,18 @@
         <v>69.0</v>
       </c>
       <c r="EV9" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="EW9" t="n">
         <v>71.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4419,14 +4443,17 @@
       </c>
       <c r="EV10" t="n">
         <v>200.0</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>180.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4877,14 +4904,17 @@
       </c>
       <c r="EV11" t="n">
         <v>43.0</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5335,14 +5365,17 @@
       </c>
       <c r="EV12" t="n">
         <v>105.0</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5793,14 +5826,17 @@
       </c>
       <c r="EV13" t="n">
         <v>64.0</v>
+      </c>
+      <c r="EW13" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -6250,15 +6286,18 @@
         <v>27.0</v>
       </c>
       <c r="EV14" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="EW14" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6709,14 +6748,17 @@
       </c>
       <c r="EV15" t="n">
         <v>45.0</v>
+      </c>
+      <c r="EW15" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -7167,14 +7209,17 @@
       </c>
       <c r="EV16" t="n">
         <v>37.0</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -7625,14 +7670,17 @@
       </c>
       <c r="EV17" t="n">
         <v>28.0</v>
+      </c>
+      <c r="EW17" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -8083,14 +8131,17 @@
       </c>
       <c r="EV18" t="n">
         <v>173.0</v>
+      </c>
+      <c r="EW18" t="n">
+        <v>135.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -8541,14 +8592,17 @@
       </c>
       <c r="EV19" t="n">
         <v>345.0</v>
+      </c>
+      <c r="EW19" t="n">
+        <v>339.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -8999,14 +9053,17 @@
       </c>
       <c r="EV20" t="n">
         <v>660.0</v>
+      </c>
+      <c r="EW20" t="n">
+        <v>643.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -9457,14 +9514,17 @@
       </c>
       <c r="EV21" t="n">
         <v>172.0</v>
+      </c>
+      <c r="EW21" t="n">
+        <v>188.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -9915,14 +9975,17 @@
       </c>
       <c r="EV22" t="n">
         <v>67.0</v>
+      </c>
+      <c r="EW22" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -10373,14 +10436,17 @@
       </c>
       <c r="EV23" t="n">
         <v>145.0</v>
+      </c>
+      <c r="EW23" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -10831,14 +10897,17 @@
       </c>
       <c r="EV24" t="n">
         <v>139.0</v>
+      </c>
+      <c r="EW24" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -11289,14 +11358,17 @@
       </c>
       <c r="EV25" t="n">
         <v>408.0</v>
+      </c>
+      <c r="EW25" t="n">
+        <v>425.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -11747,14 +11819,17 @@
       </c>
       <c r="EV26" t="n">
         <v>3701.0</v>
+      </c>
+      <c r="EW26" t="n">
+        <v>3604.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -11906,13 +11981,14 @@
       <c r="ET27"/>
       <c r="EU27"/>
       <c r="EV27"/>
+      <c r="EW27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s">
         <v>178</v>
-      </c>
-      <c r="B28" t="s">
-        <v>177</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -12064,6 +12140,7 @@
       <c r="ET28"/>
       <c r="EU28"/>
       <c r="EV28"/>
+      <c r="EW28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -12080,7 +12157,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
@@ -12545,13 +12622,16 @@
       <c r="EV3" t="s" s="10">
         <v>153</v>
       </c>
+      <c r="EW3" t="s" s="10">
+        <v>154</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -13002,14 +13082,17 @@
       </c>
       <c r="EV4" t="n">
         <v>31.0</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -13460,14 +13543,17 @@
       </c>
       <c r="EV5" t="n">
         <v>41.0</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -13918,14 +14004,17 @@
       </c>
       <c r="EV6" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -14376,14 +14465,17 @@
       </c>
       <c r="EV7" t="n">
         <v>13.0</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -14834,14 +14926,17 @@
       </c>
       <c r="EV8" t="n">
         <v>547.0</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>526.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -15292,14 +15387,17 @@
       </c>
       <c r="EV9" t="n">
         <v>40.0</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -15750,14 +15848,17 @@
       </c>
       <c r="EV10" t="n">
         <v>135.0</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>117.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -16208,14 +16309,17 @@
       </c>
       <c r="EV11" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -16666,14 +16770,17 @@
       </c>
       <c r="EV12" t="n">
         <v>58.0</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -17123,15 +17230,18 @@
         <v>42.0</v>
       </c>
       <c r="EV13" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="EW13" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -17581,15 +17691,18 @@
         <v>25.0</v>
       </c>
       <c r="EV14" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="EW14" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -18039,15 +18152,18 @@
         <v>30.0</v>
       </c>
       <c r="EV15" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="EW15" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -18498,14 +18614,17 @@
       </c>
       <c r="EV16" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -18956,14 +19075,17 @@
       </c>
       <c r="EV17" t="n">
         <v>21.0</v>
+      </c>
+      <c r="EW17" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -19414,14 +19536,17 @@
       </c>
       <c r="EV18" t="n">
         <v>90.0</v>
+      </c>
+      <c r="EW18" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -19872,14 +19997,17 @@
       </c>
       <c r="EV19" t="n">
         <v>204.0</v>
+      </c>
+      <c r="EW19" t="n">
+        <v>202.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -20330,14 +20458,17 @@
       </c>
       <c r="EV20" t="n">
         <v>401.0</v>
+      </c>
+      <c r="EW20" t="n">
+        <v>415.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -20788,14 +20919,17 @@
       </c>
       <c r="EV21" t="n">
         <v>119.0</v>
+      </c>
+      <c r="EW21" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -21246,14 +21380,17 @@
       </c>
       <c r="EV22" t="n">
         <v>40.0</v>
+      </c>
+      <c r="EW22" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -21704,14 +21841,17 @@
       </c>
       <c r="EV23" t="n">
         <v>62.0</v>
+      </c>
+      <c r="EW23" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -22162,14 +22302,17 @@
       </c>
       <c r="EV24" t="n">
         <v>97.0</v>
+      </c>
+      <c r="EW24" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -22620,14 +22763,17 @@
       </c>
       <c r="EV25" t="n">
         <v>248.0</v>
+      </c>
+      <c r="EW25" t="n">
+        <v>259.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -23078,14 +23224,17 @@
       </c>
       <c r="EV26" t="n">
         <v>2318.0</v>
+      </c>
+      <c r="EW26" t="n">
+        <v>2300.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -23237,13 +23386,14 @@
       <c r="ET27"/>
       <c r="EU27"/>
       <c r="EV27"/>
+      <c r="EW27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s">
         <v>178</v>
-      </c>
-      <c r="B28" t="s">
-        <v>177</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -23395,6 +23545,7 @@
       <c r="ET28"/>
       <c r="EU28"/>
       <c r="EV28"/>
+      <c r="EW28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -23411,7 +23562,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2">
@@ -23781,7 +23932,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -23805,7 +23956,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -23875,14 +24026,17 @@
       </c>
       <c r="EV3" t="s" s="10">
         <v>153</v>
+      </c>
+      <c r="EW3" t="s" s="10">
+        <v>154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -24332,15 +24486,18 @@
         <v>21.0</v>
       </c>
       <c r="EV4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="EW4" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -24791,14 +24948,17 @@
       </c>
       <c r="EV5" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -25249,14 +25409,17 @@
       </c>
       <c r="EV6" t="n">
         <v>2.0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -25706,15 +25869,18 @@
         <v>13.0</v>
       </c>
       <c r="EV7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="EW7" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -26165,14 +26331,17 @@
       </c>
       <c r="EV8" t="n">
         <v>239.0</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>234.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -26623,14 +26792,17 @@
       </c>
       <c r="EV9" t="n">
         <v>31.0</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -27081,14 +27253,17 @@
       </c>
       <c r="EV10" t="n">
         <v>65.0</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -27539,14 +27714,17 @@
       </c>
       <c r="EV11" t="n">
         <v>14.0</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -27997,14 +28175,17 @@
       </c>
       <c r="EV12" t="n">
         <v>47.0</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -28455,14 +28636,17 @@
       </c>
       <c r="EV13" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EW13" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -28912,15 +29096,18 @@
         <v>2.0</v>
       </c>
       <c r="EV14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EW14" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -29371,14 +29558,17 @@
       </c>
       <c r="EV15" t="n">
         <v>21.0</v>
+      </c>
+      <c r="EW15" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -29829,14 +30019,17 @@
       </c>
       <c r="EV16" t="n">
         <v>13.0</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -30286,15 +30479,18 @@
         <v>6.0</v>
       </c>
       <c r="EV17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="EW17" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -30745,14 +30941,17 @@
       </c>
       <c r="EV18" t="n">
         <v>80.0</v>
+      </c>
+      <c r="EW18" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -31203,14 +31402,17 @@
       </c>
       <c r="EV19" t="n">
         <v>132.0</v>
+      </c>
+      <c r="EW19" t="n">
+        <v>130.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -31661,14 +31863,17 @@
       </c>
       <c r="EV20" t="n">
         <v>252.0</v>
+      </c>
+      <c r="EW20" t="n">
+        <v>226.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -32119,14 +32324,17 @@
       </c>
       <c r="EV21" t="n">
         <v>53.0</v>
+      </c>
+      <c r="EW21" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -32577,14 +32785,17 @@
       </c>
       <c r="EV22" t="n">
         <v>27.0</v>
+      </c>
+      <c r="EW22" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -33035,14 +33246,17 @@
       </c>
       <c r="EV23" t="n">
         <v>83.0</v>
+      </c>
+      <c r="EW23" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -33493,14 +33707,17 @@
       </c>
       <c r="EV24" t="n">
         <v>42.0</v>
+      </c>
+      <c r="EW24" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -33951,14 +34168,17 @@
       </c>
       <c r="EV25" t="n">
         <v>157.0</v>
+      </c>
+      <c r="EW25" t="n">
+        <v>163.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -34409,14 +34629,17 @@
       </c>
       <c r="EV26" t="n">
         <v>1347.0</v>
+      </c>
+      <c r="EW26" t="n">
+        <v>1267.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -34568,13 +34791,14 @@
       <c r="ET27"/>
       <c r="EU27"/>
       <c r="EV27"/>
+      <c r="EW27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s">
         <v>178</v>
-      </c>
-      <c r="B28" t="s">
-        <v>177</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -34726,6 +34950,7 @@
       <c r="ET28"/>
       <c r="EU28"/>
       <c r="EV28"/>
+      <c r="EW28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="208">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/09/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/10/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -481,6 +481,9 @@
     <t>2020-09-09</t>
   </si>
   <si>
+    <t>2020-09-10</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -625,10 +628,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/09/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/10/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/09/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/10/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1220,13 +1223,16 @@
       <c r="EW3" t="s" s="10">
         <v>154</v>
       </c>
+      <c r="EX3" t="s" s="10">
+        <v>155</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1680,14 +1686,17 @@
       </c>
       <c r="EW4" t="n">
         <v>53.0</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2141,14 +2150,17 @@
       </c>
       <c r="EW5" t="n">
         <v>68.0</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2602,14 +2614,17 @@
       </c>
       <c r="EW6" t="n">
         <v>33.0</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -3063,14 +3078,17 @@
       </c>
       <c r="EW7" t="n">
         <v>28.0</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3524,14 +3542,17 @@
       </c>
       <c r="EW8" t="n">
         <v>771.0</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>780.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -3985,14 +4006,17 @@
       </c>
       <c r="EW9" t="n">
         <v>71.0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4446,14 +4470,17 @@
       </c>
       <c r="EW10" t="n">
         <v>180.0</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4907,14 +4934,17 @@
       </c>
       <c r="EW11" t="n">
         <v>48.0</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5368,14 +5398,17 @@
       </c>
       <c r="EW12" t="n">
         <v>115.0</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5829,14 +5862,17 @@
       </c>
       <c r="EW13" t="n">
         <v>62.0</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -6290,14 +6326,17 @@
       </c>
       <c r="EW14" t="n">
         <v>26.0</v>
+      </c>
+      <c r="EX14" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6751,14 +6790,17 @@
       </c>
       <c r="EW15" t="n">
         <v>46.0</v>
+      </c>
+      <c r="EX15" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -7212,14 +7254,17 @@
       </c>
       <c r="EW16" t="n">
         <v>35.0</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -7673,14 +7718,17 @@
       </c>
       <c r="EW17" t="n">
         <v>22.0</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -8134,14 +8182,17 @@
       </c>
       <c r="EW18" t="n">
         <v>135.0</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -8595,14 +8646,17 @@
       </c>
       <c r="EW19" t="n">
         <v>339.0</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>325.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -9056,14 +9110,17 @@
       </c>
       <c r="EW20" t="n">
         <v>643.0</v>
+      </c>
+      <c r="EX20" t="n">
+        <v>634.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -9517,14 +9574,17 @@
       </c>
       <c r="EW21" t="n">
         <v>188.0</v>
+      </c>
+      <c r="EX21" t="n">
+        <v>158.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -9978,14 +10038,17 @@
       </c>
       <c r="EW22" t="n">
         <v>61.0</v>
+      </c>
+      <c r="EX22" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -10439,14 +10502,17 @@
       </c>
       <c r="EW23" t="n">
         <v>124.0</v>
+      </c>
+      <c r="EX23" t="n">
+        <v>122.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -10900,14 +10966,17 @@
       </c>
       <c r="EW24" t="n">
         <v>131.0</v>
+      </c>
+      <c r="EX24" t="n">
+        <v>156.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -11361,14 +11430,17 @@
       </c>
       <c r="EW25" t="n">
         <v>425.0</v>
+      </c>
+      <c r="EX25" t="n">
+        <v>408.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -11822,14 +11894,17 @@
       </c>
       <c r="EW26" t="n">
         <v>3604.0</v>
+      </c>
+      <c r="EX26" t="n">
+        <v>3575.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -11982,13 +12057,14 @@
       <c r="EU27"/>
       <c r="EV27"/>
       <c r="EW27"/>
+      <c r="EX27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" t="s">
         <v>179</v>
-      </c>
-      <c r="B28" t="s">
-        <v>178</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -12141,6 +12217,7 @@
       <c r="EU28"/>
       <c r="EV28"/>
       <c r="EW28"/>
+      <c r="EX28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -12157,7 +12234,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2">
@@ -12625,13 +12702,16 @@
       <c r="EW3" t="s" s="10">
         <v>154</v>
       </c>
+      <c r="EX3" t="s" s="10">
+        <v>155</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -13085,14 +13165,17 @@
       </c>
       <c r="EW4" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -13546,14 +13629,17 @@
       </c>
       <c r="EW5" t="n">
         <v>37.0</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -14007,14 +14093,17 @@
       </c>
       <c r="EW6" t="n">
         <v>28.0</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -14468,14 +14557,17 @@
       </c>
       <c r="EW7" t="n">
         <v>16.0</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -14929,14 +15021,17 @@
       </c>
       <c r="EW8" t="n">
         <v>526.0</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>532.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -15390,14 +15485,17 @@
       </c>
       <c r="EW9" t="n">
         <v>41.0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -15851,14 +15949,17 @@
       </c>
       <c r="EW10" t="n">
         <v>117.0</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -16312,14 +16413,17 @@
       </c>
       <c r="EW11" t="n">
         <v>25.0</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -16773,14 +16877,17 @@
       </c>
       <c r="EW12" t="n">
         <v>63.0</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -17234,14 +17341,17 @@
       </c>
       <c r="EW13" t="n">
         <v>45.0</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -17695,14 +17805,17 @@
       </c>
       <c r="EW14" t="n">
         <v>25.0</v>
+      </c>
+      <c r="EX14" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -18156,14 +18269,17 @@
       </c>
       <c r="EW15" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EX15" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -18616,15 +18732,18 @@
         <v>24.0</v>
       </c>
       <c r="EW16" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="EX16" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -19078,14 +19197,17 @@
       </c>
       <c r="EW17" t="n">
         <v>15.0</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -19539,14 +19661,17 @@
       </c>
       <c r="EW18" t="n">
         <v>79.0</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -20000,14 +20125,17 @@
       </c>
       <c r="EW19" t="n">
         <v>202.0</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>215.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -20461,14 +20589,17 @@
       </c>
       <c r="EW20" t="n">
         <v>415.0</v>
+      </c>
+      <c r="EX20" t="n">
+        <v>396.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -20922,14 +21053,17 @@
       </c>
       <c r="EW21" t="n">
         <v>131.0</v>
+      </c>
+      <c r="EX21" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -21383,14 +21517,17 @@
       </c>
       <c r="EW22" t="n">
         <v>37.0</v>
+      </c>
+      <c r="EX22" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -21844,14 +21981,17 @@
       </c>
       <c r="EW23" t="n">
         <v>66.0</v>
+      </c>
+      <c r="EX23" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -22305,14 +22445,17 @@
       </c>
       <c r="EW24" t="n">
         <v>96.0</v>
+      </c>
+      <c r="EX24" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -22766,14 +22909,17 @@
       </c>
       <c r="EW25" t="n">
         <v>259.0</v>
+      </c>
+      <c r="EX25" t="n">
+        <v>246.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -23227,14 +23373,17 @@
       </c>
       <c r="EW26" t="n">
         <v>2300.0</v>
+      </c>
+      <c r="EX26" t="n">
+        <v>2290.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -23387,13 +23536,14 @@
       <c r="EU27"/>
       <c r="EV27"/>
       <c r="EW27"/>
+      <c r="EX27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" t="s">
         <v>179</v>
-      </c>
-      <c r="B28" t="s">
-        <v>178</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -23546,6 +23696,7 @@
       <c r="EU28"/>
       <c r="EV28"/>
       <c r="EW28"/>
+      <c r="EX28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -23562,7 +23713,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
@@ -23932,7 +24083,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -23956,7 +24107,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -24029,14 +24180,17 @@
       </c>
       <c r="EW3" t="s" s="10">
         <v>154</v>
+      </c>
+      <c r="EX3" t="s" s="10">
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -24490,14 +24644,17 @@
       </c>
       <c r="EW4" t="n">
         <v>21.0</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -24951,14 +25108,17 @@
       </c>
       <c r="EW5" t="n">
         <v>31.0</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -25411,15 +25571,18 @@
         <v>2.0</v>
       </c>
       <c r="EW6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="EX6" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -25872,15 +26035,18 @@
         <v>12.0</v>
       </c>
       <c r="EW7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="EX7" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -26333,15 +26499,18 @@
         <v>239.0</v>
       </c>
       <c r="EW8" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="EX8" t="n">
         <v>234.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -26795,14 +26964,17 @@
       </c>
       <c r="EW9" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -27256,14 +27428,17 @@
       </c>
       <c r="EW10" t="n">
         <v>63.0</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -27717,14 +27892,17 @@
       </c>
       <c r="EW11" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -28178,14 +28356,17 @@
       </c>
       <c r="EW12" t="n">
         <v>52.0</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -28639,14 +28820,17 @@
       </c>
       <c r="EW13" t="n">
         <v>17.0</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -29099,15 +29283,18 @@
         <v>1.0</v>
       </c>
       <c r="EW14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EX14" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -29560,15 +29747,18 @@
         <v>21.0</v>
       </c>
       <c r="EW15" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="EX15" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -30022,14 +30212,17 @@
       </c>
       <c r="EW16" t="n">
         <v>12.0</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -30483,14 +30676,17 @@
       </c>
       <c r="EW17" t="n">
         <v>7.0</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -30944,14 +31140,17 @@
       </c>
       <c r="EW18" t="n">
         <v>53.0</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -31405,14 +31604,17 @@
       </c>
       <c r="EW19" t="n">
         <v>130.0</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -31866,14 +32068,17 @@
       </c>
       <c r="EW20" t="n">
         <v>226.0</v>
+      </c>
+      <c r="EX20" t="n">
+        <v>233.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -32327,14 +32532,17 @@
       </c>
       <c r="EW21" t="n">
         <v>48.0</v>
+      </c>
+      <c r="EX21" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -32788,14 +32996,17 @@
       </c>
       <c r="EW22" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EX22" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -33249,14 +33460,17 @@
       </c>
       <c r="EW23" t="n">
         <v>58.0</v>
+      </c>
+      <c r="EX23" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -33710,14 +33924,17 @@
       </c>
       <c r="EW24" t="n">
         <v>35.0</v>
+      </c>
+      <c r="EX24" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -34171,14 +34388,17 @@
       </c>
       <c r="EW25" t="n">
         <v>163.0</v>
+      </c>
+      <c r="EX25" t="n">
+        <v>159.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -34632,14 +34852,17 @@
       </c>
       <c r="EW26" t="n">
         <v>1267.0</v>
+      </c>
+      <c r="EX26" t="n">
+        <v>1254.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -34792,13 +35015,14 @@
       <c r="EU27"/>
       <c r="EV27"/>
       <c r="EW27"/>
+      <c r="EX27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" t="s">
         <v>179</v>
-      </c>
-      <c r="B28" t="s">
-        <v>178</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -34951,6 +35175,7 @@
       <c r="EU28"/>
       <c r="EV28"/>
       <c r="EW28"/>
+      <c r="EX28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="209">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/10/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/11/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -484,6 +484,9 @@
     <t>2020-09-10</t>
   </si>
   <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -628,10 +631,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/10/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/11/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/10/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/11/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1226,13 +1229,16 @@
       <c r="EX3" t="s" s="10">
         <v>155</v>
       </c>
+      <c r="EY3" t="s" s="10">
+        <v>156</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1689,14 +1695,17 @@
       </c>
       <c r="EX4" t="n">
         <v>47.0</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2153,14 +2162,17 @@
       </c>
       <c r="EX5" t="n">
         <v>85.0</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2617,14 +2629,17 @@
       </c>
       <c r="EX6" t="n">
         <v>34.0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -3081,14 +3096,17 @@
       </c>
       <c r="EX7" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3545,14 +3563,17 @@
       </c>
       <c r="EX8" t="n">
         <v>780.0</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>750.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -4009,14 +4030,17 @@
       </c>
       <c r="EX9" t="n">
         <v>81.0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4473,14 +4497,17 @@
       </c>
       <c r="EX10" t="n">
         <v>174.0</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>188.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4937,14 +4964,17 @@
       </c>
       <c r="EX11" t="n">
         <v>44.0</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5401,14 +5431,17 @@
       </c>
       <c r="EX12" t="n">
         <v>110.0</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5865,14 +5898,17 @@
       </c>
       <c r="EX13" t="n">
         <v>67.0</v>
+      </c>
+      <c r="EY13" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -6329,14 +6365,17 @@
       </c>
       <c r="EX14" t="n">
         <v>32.0</v>
+      </c>
+      <c r="EY14" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6793,14 +6832,17 @@
       </c>
       <c r="EX15" t="n">
         <v>40.0</v>
+      </c>
+      <c r="EY15" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -7256,15 +7298,18 @@
         <v>35.0</v>
       </c>
       <c r="EX16" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="EY16" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -7721,14 +7766,17 @@
       </c>
       <c r="EX17" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EY17" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -8185,14 +8233,17 @@
       </c>
       <c r="EX18" t="n">
         <v>125.0</v>
+      </c>
+      <c r="EY18" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -8649,14 +8700,17 @@
       </c>
       <c r="EX19" t="n">
         <v>325.0</v>
+      </c>
+      <c r="EY19" t="n">
+        <v>328.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -9113,14 +9167,17 @@
       </c>
       <c r="EX20" t="n">
         <v>634.0</v>
+      </c>
+      <c r="EY20" t="n">
+        <v>598.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -9576,15 +9633,18 @@
         <v>188.0</v>
       </c>
       <c r="EX21" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="EY21" t="n">
         <v>158.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -10041,14 +10101,17 @@
       </c>
       <c r="EX22" t="n">
         <v>63.0</v>
+      </c>
+      <c r="EY22" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -10505,14 +10568,17 @@
       </c>
       <c r="EX23" t="n">
         <v>122.0</v>
+      </c>
+      <c r="EY23" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -10969,14 +11035,17 @@
       </c>
       <c r="EX24" t="n">
         <v>156.0</v>
+      </c>
+      <c r="EY24" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -11433,14 +11502,17 @@
       </c>
       <c r="EX25" t="n">
         <v>408.0</v>
+      </c>
+      <c r="EY25" t="n">
+        <v>402.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -11897,14 +11969,17 @@
       </c>
       <c r="EX26" t="n">
         <v>3575.0</v>
+      </c>
+      <c r="EY26" t="n">
+        <v>3465.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -12058,13 +12133,14 @@
       <c r="EV27"/>
       <c r="EW27"/>
       <c r="EX27"/>
+      <c r="EY27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" t="s">
         <v>180</v>
-      </c>
-      <c r="B28" t="s">
-        <v>179</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -12218,6 +12294,7 @@
       <c r="EV28"/>
       <c r="EW28"/>
       <c r="EX28"/>
+      <c r="EY28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -12234,7 +12311,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
@@ -12705,13 +12782,16 @@
       <c r="EX3" t="s" s="10">
         <v>155</v>
       </c>
+      <c r="EY3" t="s" s="10">
+        <v>156</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -13168,14 +13248,17 @@
       </c>
       <c r="EX4" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -13632,14 +13715,17 @@
       </c>
       <c r="EX5" t="n">
         <v>49.0</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -14096,14 +14182,17 @@
       </c>
       <c r="EX6" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -14559,15 +14648,18 @@
         <v>16.0</v>
       </c>
       <c r="EX7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="EY7" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -15024,14 +15116,17 @@
       </c>
       <c r="EX8" t="n">
         <v>532.0</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>521.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -15487,15 +15582,18 @@
         <v>41.0</v>
       </c>
       <c r="EX9" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="EY9" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -15952,14 +16050,17 @@
       </c>
       <c r="EX10" t="n">
         <v>110.0</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -16415,15 +16516,18 @@
         <v>25.0</v>
       </c>
       <c r="EX11" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="EY11" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -16880,14 +16984,17 @@
       </c>
       <c r="EX12" t="n">
         <v>62.0</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -17344,14 +17451,17 @@
       </c>
       <c r="EX13" t="n">
         <v>47.0</v>
+      </c>
+      <c r="EY13" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -17808,14 +17918,17 @@
       </c>
       <c r="EX14" t="n">
         <v>31.0</v>
+      </c>
+      <c r="EY14" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -18272,14 +18385,17 @@
       </c>
       <c r="EX15" t="n">
         <v>18.0</v>
+      </c>
+      <c r="EY15" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -18736,14 +18852,17 @@
       </c>
       <c r="EX16" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EY16" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -19200,14 +19319,17 @@
       </c>
       <c r="EX17" t="n">
         <v>18.0</v>
+      </c>
+      <c r="EY17" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -19664,14 +19786,17 @@
       </c>
       <c r="EX18" t="n">
         <v>73.0</v>
+      </c>
+      <c r="EY18" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -20128,14 +20253,17 @@
       </c>
       <c r="EX19" t="n">
         <v>215.0</v>
+      </c>
+      <c r="EY19" t="n">
+        <v>192.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -20592,14 +20720,17 @@
       </c>
       <c r="EX20" t="n">
         <v>396.0</v>
+      </c>
+      <c r="EY20" t="n">
+        <v>391.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -21056,14 +21187,17 @@
       </c>
       <c r="EX21" t="n">
         <v>105.0</v>
+      </c>
+      <c r="EY21" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -21520,14 +21654,17 @@
       </c>
       <c r="EX22" t="n">
         <v>41.0</v>
+      </c>
+      <c r="EY22" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -21984,14 +22121,17 @@
       </c>
       <c r="EX23" t="n">
         <v>67.0</v>
+      </c>
+      <c r="EY23" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -22448,14 +22588,17 @@
       </c>
       <c r="EX24" t="n">
         <v>110.0</v>
+      </c>
+      <c r="EY24" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -22912,14 +23055,17 @@
       </c>
       <c r="EX25" t="n">
         <v>246.0</v>
+      </c>
+      <c r="EY25" t="n">
+        <v>247.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -23376,14 +23522,17 @@
       </c>
       <c r="EX26" t="n">
         <v>2290.0</v>
+      </c>
+      <c r="EY26" t="n">
+        <v>2234.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -23537,13 +23686,14 @@
       <c r="EV27"/>
       <c r="EW27"/>
       <c r="EX27"/>
+      <c r="EY27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" t="s">
         <v>180</v>
-      </c>
-      <c r="B28" t="s">
-        <v>179</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -23697,6 +23847,7 @@
       <c r="EV28"/>
       <c r="EW28"/>
       <c r="EX28"/>
+      <c r="EY28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -23713,7 +23864,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2">
@@ -24083,7 +24234,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -24107,7 +24258,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -24183,14 +24334,17 @@
       </c>
       <c r="EX3" t="s" s="10">
         <v>155</v>
+      </c>
+      <c r="EY3" t="s" s="10">
+        <v>156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -24647,14 +24801,17 @@
       </c>
       <c r="EX4" t="n">
         <v>23.0</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -25111,14 +25268,17 @@
       </c>
       <c r="EX5" t="n">
         <v>36.0</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -25575,14 +25735,17 @@
       </c>
       <c r="EX6" t="n">
         <v>5.0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -26039,14 +26202,17 @@
       </c>
       <c r="EX7" t="n">
         <v>12.0</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -26503,14 +26669,17 @@
       </c>
       <c r="EX8" t="n">
         <v>234.0</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>215.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -26967,14 +27136,17 @@
       </c>
       <c r="EX9" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -27431,14 +27603,17 @@
       </c>
       <c r="EX10" t="n">
         <v>64.0</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -27895,14 +28070,17 @@
       </c>
       <c r="EX11" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -28359,14 +28537,17 @@
       </c>
       <c r="EX12" t="n">
         <v>48.0</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -28823,14 +29004,17 @@
       </c>
       <c r="EX13" t="n">
         <v>20.0</v>
+      </c>
+      <c r="EY13" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -29286,15 +29470,18 @@
         <v>1.0</v>
       </c>
       <c r="EX14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EY14" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -29751,14 +29938,17 @@
       </c>
       <c r="EX15" t="n">
         <v>22.0</v>
+      </c>
+      <c r="EY15" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -30215,14 +30405,17 @@
       </c>
       <c r="EX16" t="n">
         <v>14.0</v>
+      </c>
+      <c r="EY16" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -30678,15 +30871,18 @@
         <v>7.0</v>
       </c>
       <c r="EX17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="EY17" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -31143,14 +31339,17 @@
       </c>
       <c r="EX18" t="n">
         <v>51.0</v>
+      </c>
+      <c r="EY18" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -31607,14 +31806,17 @@
       </c>
       <c r="EX19" t="n">
         <v>102.0</v>
+      </c>
+      <c r="EY19" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -32071,14 +32273,17 @@
       </c>
       <c r="EX20" t="n">
         <v>233.0</v>
+      </c>
+      <c r="EY20" t="n">
+        <v>205.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -32535,14 +32740,17 @@
       </c>
       <c r="EX21" t="n">
         <v>53.0</v>
+      </c>
+      <c r="EY21" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -32999,14 +33207,17 @@
       </c>
       <c r="EX22" t="n">
         <v>22.0</v>
+      </c>
+      <c r="EY22" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -33463,14 +33674,17 @@
       </c>
       <c r="EX23" t="n">
         <v>55.0</v>
+      </c>
+      <c r="EY23" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -33927,14 +34141,17 @@
       </c>
       <c r="EX24" t="n">
         <v>46.0</v>
+      </c>
+      <c r="EY24" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -34391,14 +34608,17 @@
       </c>
       <c r="EX25" t="n">
         <v>159.0</v>
+      </c>
+      <c r="EY25" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -34855,14 +35075,17 @@
       </c>
       <c r="EX26" t="n">
         <v>1254.0</v>
+      </c>
+      <c r="EY26" t="n">
+        <v>1198.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -35016,13 +35239,14 @@
       <c r="EV27"/>
       <c r="EW27"/>
       <c r="EX27"/>
+      <c r="EY27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" t="s">
         <v>180</v>
-      </c>
-      <c r="B28" t="s">
-        <v>179</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -35176,6 +35400,7 @@
       <c r="EV28"/>
       <c r="EW28"/>
       <c r="EX28"/>
+      <c r="EY28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="210">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/11/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/12/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -487,6 +487,9 @@
     <t>2020-09-11</t>
   </si>
   <si>
+    <t>2020-09-12</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -631,10 +634,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/11/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/12/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/11/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/12/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1232,13 +1235,16 @@
       <c r="EY3" t="s" s="10">
         <v>156</v>
       </c>
+      <c r="EZ3" t="s" s="10">
+        <v>157</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1698,14 +1704,17 @@
       </c>
       <c r="EY4" t="n">
         <v>44.0</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2165,14 +2174,17 @@
       </c>
       <c r="EY5" t="n">
         <v>81.0</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2632,14 +2644,17 @@
       </c>
       <c r="EY6" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -3098,15 +3113,18 @@
         <v>30.0</v>
       </c>
       <c r="EY7" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="EZ7" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3566,14 +3584,17 @@
       </c>
       <c r="EY8" t="n">
         <v>750.0</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>741.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -4033,14 +4054,17 @@
       </c>
       <c r="EY9" t="n">
         <v>82.0</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4500,14 +4524,17 @@
       </c>
       <c r="EY10" t="n">
         <v>188.0</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>172.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4967,14 +4994,17 @@
       </c>
       <c r="EY11" t="n">
         <v>43.0</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5434,14 +5464,17 @@
       </c>
       <c r="EY12" t="n">
         <v>113.0</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5901,14 +5934,17 @@
       </c>
       <c r="EY13" t="n">
         <v>71.0</v>
+      </c>
+      <c r="EZ13" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -6368,14 +6404,17 @@
       </c>
       <c r="EY14" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EZ14" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6835,14 +6874,17 @@
       </c>
       <c r="EY15" t="n">
         <v>37.0</v>
+      </c>
+      <c r="EZ15" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -7302,14 +7344,17 @@
       </c>
       <c r="EY16" t="n">
         <v>37.0</v>
+      </c>
+      <c r="EZ16" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -7768,15 +7813,18 @@
         <v>23.0</v>
       </c>
       <c r="EY17" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="EZ17" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -8236,14 +8284,17 @@
       </c>
       <c r="EY18" t="n">
         <v>121.0</v>
+      </c>
+      <c r="EZ18" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -8703,14 +8754,17 @@
       </c>
       <c r="EY19" t="n">
         <v>328.0</v>
+      </c>
+      <c r="EZ19" t="n">
+        <v>315.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -9170,14 +9224,17 @@
       </c>
       <c r="EY20" t="n">
         <v>598.0</v>
+      </c>
+      <c r="EZ20" t="n">
+        <v>603.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -9637,14 +9694,17 @@
       </c>
       <c r="EY21" t="n">
         <v>158.0</v>
+      </c>
+      <c r="EZ21" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -10104,14 +10164,17 @@
       </c>
       <c r="EY22" t="n">
         <v>67.0</v>
+      </c>
+      <c r="EZ22" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -10571,14 +10634,17 @@
       </c>
       <c r="EY23" t="n">
         <v>111.0</v>
+      </c>
+      <c r="EZ23" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -11038,14 +11104,17 @@
       </c>
       <c r="EY24" t="n">
         <v>131.0</v>
+      </c>
+      <c r="EZ24" t="n">
+        <v>129.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -11505,14 +11574,17 @@
       </c>
       <c r="EY25" t="n">
         <v>402.0</v>
+      </c>
+      <c r="EZ25" t="n">
+        <v>386.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -11972,14 +12044,17 @@
       </c>
       <c r="EY26" t="n">
         <v>3465.0</v>
+      </c>
+      <c r="EZ26" t="n">
+        <v>3371.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -12134,13 +12209,14 @@
       <c r="EW27"/>
       <c r="EX27"/>
       <c r="EY27"/>
+      <c r="EZ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
         <v>181</v>
-      </c>
-      <c r="B28" t="s">
-        <v>180</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -12295,6 +12371,7 @@
       <c r="EW28"/>
       <c r="EX28"/>
       <c r="EY28"/>
+      <c r="EZ28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -12311,7 +12388,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2">
@@ -12785,13 +12862,16 @@
       <c r="EY3" t="s" s="10">
         <v>156</v>
       </c>
+      <c r="EZ3" t="s" s="10">
+        <v>157</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -13251,14 +13331,17 @@
       </c>
       <c r="EY4" t="n">
         <v>22.0</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -13718,14 +13801,17 @@
       </c>
       <c r="EY5" t="n">
         <v>42.0</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -14184,15 +14270,18 @@
         <v>29.0</v>
       </c>
       <c r="EY6" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="EZ6" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -14651,15 +14740,18 @@
         <v>18.0</v>
       </c>
       <c r="EY7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="EZ7" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -15119,14 +15211,17 @@
       </c>
       <c r="EY8" t="n">
         <v>521.0</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>517.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -15586,14 +15681,17 @@
       </c>
       <c r="EY9" t="n">
         <v>52.0</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -16053,14 +16151,17 @@
       </c>
       <c r="EY10" t="n">
         <v>125.0</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -16520,14 +16621,17 @@
       </c>
       <c r="EY11" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -16987,14 +17091,17 @@
       </c>
       <c r="EY12" t="n">
         <v>67.0</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -17454,14 +17561,17 @@
       </c>
       <c r="EY13" t="n">
         <v>55.0</v>
+      </c>
+      <c r="EZ13" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -17921,14 +18031,17 @@
       </c>
       <c r="EY14" t="n">
         <v>29.0</v>
+      </c>
+      <c r="EZ14" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -18387,15 +18500,18 @@
         <v>18.0</v>
       </c>
       <c r="EY15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="EZ15" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -18855,14 +18971,17 @@
       </c>
       <c r="EY16" t="n">
         <v>24.0</v>
+      </c>
+      <c r="EZ16" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -19321,15 +19440,18 @@
         <v>18.0</v>
       </c>
       <c r="EY17" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="EZ17" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -19789,14 +19911,17 @@
       </c>
       <c r="EY18" t="n">
         <v>69.0</v>
+      </c>
+      <c r="EZ18" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -20256,14 +20381,17 @@
       </c>
       <c r="EY19" t="n">
         <v>192.0</v>
+      </c>
+      <c r="EZ19" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -20723,14 +20851,17 @@
       </c>
       <c r="EY20" t="n">
         <v>391.0</v>
+      </c>
+      <c r="EZ20" t="n">
+        <v>388.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -21190,14 +21321,17 @@
       </c>
       <c r="EY21" t="n">
         <v>108.0</v>
+      </c>
+      <c r="EZ21" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -21657,14 +21791,17 @@
       </c>
       <c r="EY22" t="n">
         <v>42.0</v>
+      </c>
+      <c r="EZ22" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -22124,14 +22261,17 @@
       </c>
       <c r="EY23" t="n">
         <v>57.0</v>
+      </c>
+      <c r="EZ23" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -22591,14 +22731,17 @@
       </c>
       <c r="EY24" t="n">
         <v>92.0</v>
+      </c>
+      <c r="EZ24" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -23058,14 +23201,17 @@
       </c>
       <c r="EY25" t="n">
         <v>247.0</v>
+      </c>
+      <c r="EZ25" t="n">
+        <v>232.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -23525,14 +23671,17 @@
       </c>
       <c r="EY26" t="n">
         <v>2234.0</v>
+      </c>
+      <c r="EZ26" t="n">
+        <v>2160.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -23687,13 +23836,14 @@
       <c r="EW27"/>
       <c r="EX27"/>
       <c r="EY27"/>
+      <c r="EZ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
         <v>181</v>
-      </c>
-      <c r="B28" t="s">
-        <v>180</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -23848,6 +23998,7 @@
       <c r="EW28"/>
       <c r="EX28"/>
       <c r="EY28"/>
+      <c r="EZ28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -23864,7 +24015,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
@@ -24234,7 +24385,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -24258,7 +24409,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -24337,14 +24488,17 @@
       </c>
       <c r="EY3" t="s" s="10">
         <v>156</v>
+      </c>
+      <c r="EZ3" t="s" s="10">
+        <v>157</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -24804,14 +24958,17 @@
       </c>
       <c r="EY4" t="n">
         <v>22.0</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -25271,14 +25428,17 @@
       </c>
       <c r="EY5" t="n">
         <v>39.0</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -25738,14 +25898,17 @@
       </c>
       <c r="EY6" t="n">
         <v>4.0</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -26204,15 +26367,18 @@
         <v>12.0</v>
       </c>
       <c r="EY7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="EZ7" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -26672,14 +26838,17 @@
       </c>
       <c r="EY8" t="n">
         <v>215.0</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>210.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -27139,14 +27308,17 @@
       </c>
       <c r="EY9" t="n">
         <v>30.0</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -27606,14 +27778,17 @@
       </c>
       <c r="EY10" t="n">
         <v>63.0</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -28073,14 +28248,17 @@
       </c>
       <c r="EY11" t="n">
         <v>19.0</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -28540,14 +28718,17 @@
       </c>
       <c r="EY12" t="n">
         <v>46.0</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -29007,14 +29188,17 @@
       </c>
       <c r="EY13" t="n">
         <v>16.0</v>
+      </c>
+      <c r="EZ13" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -29473,15 +29657,18 @@
         <v>1.0</v>
       </c>
       <c r="EY14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="EZ14" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -29941,14 +30128,17 @@
       </c>
       <c r="EY15" t="n">
         <v>17.0</v>
+      </c>
+      <c r="EZ15" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -30407,15 +30597,18 @@
         <v>14.0</v>
       </c>
       <c r="EY16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="EZ16" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -30874,15 +31067,18 @@
         <v>5.0</v>
       </c>
       <c r="EY17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="EZ17" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -31342,14 +31538,17 @@
       </c>
       <c r="EY18" t="n">
         <v>50.0</v>
+      </c>
+      <c r="EZ18" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -31809,14 +32008,17 @@
       </c>
       <c r="EY19" t="n">
         <v>124.0</v>
+      </c>
+      <c r="EZ19" t="n">
+        <v>119.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -32276,14 +32478,17 @@
       </c>
       <c r="EY20" t="n">
         <v>205.0</v>
+      </c>
+      <c r="EZ20" t="n">
+        <v>215.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -32743,14 +32948,17 @@
       </c>
       <c r="EY21" t="n">
         <v>50.0</v>
+      </c>
+      <c r="EZ21" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -33210,14 +33418,17 @@
       </c>
       <c r="EY22" t="n">
         <v>25.0</v>
+      </c>
+      <c r="EZ22" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -33677,14 +33888,17 @@
       </c>
       <c r="EY23" t="n">
         <v>54.0</v>
+      </c>
+      <c r="EZ23" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -34143,15 +34357,18 @@
         <v>46.0</v>
       </c>
       <c r="EY24" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="EZ24" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -34611,14 +34828,17 @@
       </c>
       <c r="EY25" t="n">
         <v>152.0</v>
+      </c>
+      <c r="EZ25" t="n">
+        <v>151.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -35078,14 +35298,17 @@
       </c>
       <c r="EY26" t="n">
         <v>1198.0</v>
+      </c>
+      <c r="EZ26" t="n">
+        <v>1174.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -35240,13 +35463,14 @@
       <c r="EW27"/>
       <c r="EX27"/>
       <c r="EY27"/>
+      <c r="EZ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
         <v>181</v>
-      </c>
-      <c r="B28" t="s">
-        <v>180</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -35401,6 +35625,7 @@
       <c r="EW28"/>
       <c r="EX28"/>
       <c r="EY28"/>
+      <c r="EZ28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="211">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/12/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/13/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -490,6 +490,9 @@
     <t>2020-09-12</t>
   </si>
   <si>
+    <t>2020-09-13</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -634,10 +637,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/12/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/13/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/12/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/13/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1238,13 +1241,16 @@
       <c r="EZ3" t="s" s="10">
         <v>157</v>
       </c>
+      <c r="FA3" t="s" s="10">
+        <v>158</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1707,14 +1713,17 @@
       </c>
       <c r="EZ4" t="n">
         <v>42.0</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2177,14 +2186,17 @@
       </c>
       <c r="EZ5" t="n">
         <v>83.0</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2647,14 +2659,17 @@
       </c>
       <c r="EZ6" t="n">
         <v>31.0</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -3117,14 +3132,17 @@
       </c>
       <c r="EZ7" t="n">
         <v>27.0</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3587,14 +3605,17 @@
       </c>
       <c r="EZ8" t="n">
         <v>741.0</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>762.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -4057,14 +4078,17 @@
       </c>
       <c r="EZ9" t="n">
         <v>70.0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4526,15 +4550,18 @@
         <v>188.0</v>
       </c>
       <c r="EZ10" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="FA10" t="n">
         <v>172.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -4997,14 +5024,17 @@
       </c>
       <c r="EZ11" t="n">
         <v>39.0</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5467,14 +5497,17 @@
       </c>
       <c r="EZ12" t="n">
         <v>114.0</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -5937,14 +5970,17 @@
       </c>
       <c r="EZ13" t="n">
         <v>65.0</v>
+      </c>
+      <c r="FA13" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -6407,14 +6443,17 @@
       </c>
       <c r="EZ14" t="n">
         <v>29.0</v>
+      </c>
+      <c r="FA14" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -6876,15 +6915,18 @@
         <v>37.0</v>
       </c>
       <c r="EZ15" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="FA15" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -7347,14 +7389,17 @@
       </c>
       <c r="EZ16" t="n">
         <v>38.0</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -7817,14 +7862,17 @@
       </c>
       <c r="EZ17" t="n">
         <v>17.0</v>
+      </c>
+      <c r="FA17" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -8287,14 +8335,17 @@
       </c>
       <c r="EZ18" t="n">
         <v>106.0</v>
+      </c>
+      <c r="FA18" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -8757,14 +8808,17 @@
       </c>
       <c r="EZ19" t="n">
         <v>315.0</v>
+      </c>
+      <c r="FA19" t="n">
+        <v>291.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -9227,14 +9281,17 @@
       </c>
       <c r="EZ20" t="n">
         <v>603.0</v>
+      </c>
+      <c r="FA20" t="n">
+        <v>599.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -9697,14 +9754,17 @@
       </c>
       <c r="EZ21" t="n">
         <v>150.0</v>
+      </c>
+      <c r="FA21" t="n">
+        <v>156.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -10167,14 +10227,17 @@
       </c>
       <c r="EZ22" t="n">
         <v>70.0</v>
+      </c>
+      <c r="FA22" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -10637,14 +10700,17 @@
       </c>
       <c r="EZ23" t="n">
         <v>112.0</v>
+      </c>
+      <c r="FA23" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -11107,14 +11173,17 @@
       </c>
       <c r="EZ24" t="n">
         <v>129.0</v>
+      </c>
+      <c r="FA24" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -11577,14 +11646,17 @@
       </c>
       <c r="EZ25" t="n">
         <v>386.0</v>
+      </c>
+      <c r="FA25" t="n">
+        <v>379.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -12047,14 +12119,17 @@
       </c>
       <c r="EZ26" t="n">
         <v>3371.0</v>
+      </c>
+      <c r="FA26" t="n">
+        <v>3319.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -12210,13 +12285,14 @@
       <c r="EX27"/>
       <c r="EY27"/>
       <c r="EZ27"/>
+      <c r="FA27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" t="s">
         <v>182</v>
-      </c>
-      <c r="B28" t="s">
-        <v>181</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -12372,6 +12448,7 @@
       <c r="EX28"/>
       <c r="EY28"/>
       <c r="EZ28"/>
+      <c r="FA28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -12388,7 +12465,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
@@ -12865,13 +12942,16 @@
       <c r="EZ3" t="s" s="10">
         <v>157</v>
       </c>
+      <c r="FA3" t="s" s="10">
+        <v>158</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -13334,14 +13414,17 @@
       </c>
       <c r="EZ4" t="n">
         <v>18.0</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -13804,14 +13887,17 @@
       </c>
       <c r="EZ5" t="n">
         <v>46.0</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -14274,14 +14360,17 @@
       </c>
       <c r="EZ6" t="n">
         <v>25.0</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -14744,14 +14833,17 @@
       </c>
       <c r="EZ7" t="n">
         <v>18.0</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -15214,14 +15306,17 @@
       </c>
       <c r="EZ8" t="n">
         <v>517.0</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>532.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -15684,14 +15779,17 @@
       </c>
       <c r="EZ9" t="n">
         <v>44.0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -16154,14 +16252,17 @@
       </c>
       <c r="EZ10" t="n">
         <v>110.0</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -16624,14 +16725,17 @@
       </c>
       <c r="EZ11" t="n">
         <v>22.0</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -17094,14 +17198,17 @@
       </c>
       <c r="EZ12" t="n">
         <v>66.0</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -17563,15 +17670,18 @@
         <v>55.0</v>
       </c>
       <c r="EZ13" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="FA13" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -18034,14 +18144,17 @@
       </c>
       <c r="EZ14" t="n">
         <v>28.0</v>
+      </c>
+      <c r="FA14" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -18503,15 +18616,18 @@
         <v>20.0</v>
       </c>
       <c r="EZ15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="FA15" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -18974,14 +19090,17 @@
       </c>
       <c r="EZ16" t="n">
         <v>25.0</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -19443,15 +19562,18 @@
         <v>12.0</v>
       </c>
       <c r="EZ17" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="FA17" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -19914,14 +20036,17 @@
       </c>
       <c r="EZ18" t="n">
         <v>60.0</v>
+      </c>
+      <c r="FA18" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -20384,14 +20509,17 @@
       </c>
       <c r="EZ19" t="n">
         <v>181.0</v>
+      </c>
+      <c r="FA19" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -20854,14 +20982,17 @@
       </c>
       <c r="EZ20" t="n">
         <v>388.0</v>
+      </c>
+      <c r="FA20" t="n">
+        <v>396.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -21324,14 +21455,17 @@
       </c>
       <c r="EZ21" t="n">
         <v>107.0</v>
+      </c>
+      <c r="FA21" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -21794,14 +21928,17 @@
       </c>
       <c r="EZ22" t="n">
         <v>44.0</v>
+      </c>
+      <c r="FA22" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -22264,14 +22401,17 @@
       </c>
       <c r="EZ23" t="n">
         <v>60.0</v>
+      </c>
+      <c r="FA23" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -22734,14 +22874,17 @@
       </c>
       <c r="EZ24" t="n">
         <v>90.0</v>
+      </c>
+      <c r="FA24" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -23204,14 +23347,17 @@
       </c>
       <c r="EZ25" t="n">
         <v>232.0</v>
+      </c>
+      <c r="FA25" t="n">
+        <v>225.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -23674,14 +23820,17 @@
       </c>
       <c r="EZ26" t="n">
         <v>2160.0</v>
+      </c>
+      <c r="FA26" t="n">
+        <v>2144.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -23837,13 +23986,14 @@
       <c r="EX27"/>
       <c r="EY27"/>
       <c r="EZ27"/>
+      <c r="FA27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" t="s">
         <v>182</v>
-      </c>
-      <c r="B28" t="s">
-        <v>181</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -23999,6 +24149,7 @@
       <c r="EX28"/>
       <c r="EY28"/>
       <c r="EZ28"/>
+      <c r="FA28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -24015,7 +24166,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2">
@@ -24385,7 +24536,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -24409,7 +24560,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -24491,14 +24642,17 @@
       </c>
       <c r="EZ3" t="s" s="10">
         <v>157</v>
+      </c>
+      <c r="FA3" t="s" s="10">
+        <v>158</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -24961,14 +25115,17 @@
       </c>
       <c r="EZ4" t="n">
         <v>23.0</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -25431,14 +25588,17 @@
       </c>
       <c r="EZ5" t="n">
         <v>37.0</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -25900,15 +26060,18 @@
         <v>4.0</v>
       </c>
       <c r="EZ6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="FA6" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -26371,14 +26534,17 @@
       </c>
       <c r="EZ7" t="n">
         <v>9.0</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -26841,14 +27007,17 @@
       </c>
       <c r="EZ8" t="n">
         <v>210.0</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>215.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -27310,15 +27479,18 @@
         <v>30.0</v>
       </c>
       <c r="EZ9" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="FA9" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -27781,14 +27953,17 @@
       </c>
       <c r="EZ10" t="n">
         <v>62.0</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -28251,14 +28426,17 @@
       </c>
       <c r="EZ11" t="n">
         <v>17.0</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -28721,14 +28899,17 @@
       </c>
       <c r="EZ12" t="n">
         <v>48.0</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -29191,14 +29372,17 @@
       </c>
       <c r="EZ13" t="n">
         <v>18.0</v>
+      </c>
+      <c r="FA13" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -29660,15 +29844,18 @@
         <v>1.0</v>
       </c>
       <c r="EZ14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="FA14" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -30130,15 +30317,18 @@
         <v>17.0</v>
       </c>
       <c r="EZ15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="FA15" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -30601,14 +30791,17 @@
       </c>
       <c r="EZ16" t="n">
         <v>13.0</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -31071,14 +31264,17 @@
       </c>
       <c r="EZ17" t="n">
         <v>5.0</v>
+      </c>
+      <c r="FA17" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -31540,15 +31736,18 @@
         <v>50.0</v>
       </c>
       <c r="EZ18" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="FA18" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -32011,14 +32210,17 @@
       </c>
       <c r="EZ19" t="n">
         <v>119.0</v>
+      </c>
+      <c r="FA19" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -32481,14 +32683,17 @@
       </c>
       <c r="EZ20" t="n">
         <v>215.0</v>
+      </c>
+      <c r="FA20" t="n">
+        <v>203.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -32951,14 +33156,17 @@
       </c>
       <c r="EZ21" t="n">
         <v>43.0</v>
+      </c>
+      <c r="FA21" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -33420,15 +33628,18 @@
         <v>25.0</v>
       </c>
       <c r="EZ22" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="FA22" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -33890,15 +34101,18 @@
         <v>54.0</v>
       </c>
       <c r="EZ23" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="FA23" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -34361,14 +34575,17 @@
       </c>
       <c r="EZ24" t="n">
         <v>39.0</v>
+      </c>
+      <c r="FA24" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -34830,15 +35047,18 @@
         <v>152.0</v>
       </c>
       <c r="EZ25" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="FA25" t="n">
         <v>151.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -35301,14 +35521,17 @@
       </c>
       <c r="EZ26" t="n">
         <v>1174.0</v>
+      </c>
+      <c r="FA26" t="n">
+        <v>1140.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -35464,13 +35687,14 @@
       <c r="EX27"/>
       <c r="EY27"/>
       <c r="EZ27"/>
+      <c r="FA27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" t="s">
         <v>182</v>
-      </c>
-      <c r="B28" t="s">
-        <v>181</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -35626,6 +35850,7 @@
       <c r="EX28"/>
       <c r="EY28"/>
       <c r="EZ28"/>
+      <c r="FA28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CCB72256-2887-45E4-87C9-B562B411561B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F36FCE8F-E922-42F5-BE91-9565BED89EDB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="7854" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19 Hospitalizations" sheetId="1" r:id="rId1"/>
     <sheet name="COVID-19 General Beds" sheetId="2" r:id="rId2"/>
     <sheet name="COVID-19 ICU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="213">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/14/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/15/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -504,6 +504,9 @@
     <t>2020-09-14</t>
   </si>
   <si>
+    <t>2020-09-15</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -648,10 +651,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/14/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/15/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/14/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/15/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -721,13 +724,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1042,25 +1046,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FB28"/>
+  <dimension ref="A1:FC28"/>
   <sheetViews>
-    <sheetView topLeftCell="EK1" workbookViewId="0">
-      <selection activeCell="FB8" sqref="FB8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="FB27" sqref="FB27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:158" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:159" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:158" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:159" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:158" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:159" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1535,13 +1539,16 @@
       <c r="FB3" s="3" t="s">
         <v>159</v>
       </c>
+      <c r="FC3" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="4" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C4">
         <v>17</v>
@@ -2011,13 +2018,16 @@
       <c r="FB4">
         <v>68</v>
       </c>
+      <c r="FC4">
+        <v>72</v>
+      </c>
     </row>
-    <row r="5" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C5">
         <v>34</v>
@@ -2487,13 +2497,16 @@
       <c r="FB5">
         <v>90</v>
       </c>
+      <c r="FC5">
+        <v>86</v>
+      </c>
     </row>
-    <row r="6" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2963,13 +2976,16 @@
       <c r="FB6">
         <v>27</v>
       </c>
+      <c r="FC6">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3439,13 +3455,16 @@
       <c r="FB7">
         <v>30</v>
       </c>
+      <c r="FC7">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C8">
         <v>369</v>
@@ -3915,13 +3934,16 @@
       <c r="FB8">
         <v>776</v>
       </c>
+      <c r="FC8">
+        <v>742</v>
+      </c>
     </row>
-    <row r="9" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -4391,13 +4413,16 @@
       <c r="FB9">
         <v>78</v>
       </c>
+      <c r="FC9">
+        <v>69</v>
+      </c>
     </row>
-    <row r="10" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C10">
         <v>32</v>
@@ -4867,13 +4892,16 @@
       <c r="FB10">
         <v>168</v>
       </c>
+      <c r="FC10">
+        <v>169</v>
+      </c>
     </row>
-    <row r="11" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -5343,13 +5371,16 @@
       <c r="FB11">
         <v>31</v>
       </c>
+      <c r="FC11">
+        <v>41</v>
+      </c>
     </row>
-    <row r="12" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -5819,13 +5850,16 @@
       <c r="FB12">
         <v>110</v>
       </c>
+      <c r="FC12">
+        <v>114</v>
+      </c>
     </row>
-    <row r="13" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -6295,13 +6329,16 @@
       <c r="FB13">
         <v>55</v>
       </c>
+      <c r="FC13">
+        <v>62</v>
+      </c>
     </row>
-    <row r="14" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6771,13 +6808,16 @@
       <c r="FB14">
         <v>25</v>
       </c>
+      <c r="FC14">
+        <v>25</v>
+      </c>
     </row>
-    <row r="15" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -7247,13 +7287,16 @@
       <c r="FB15">
         <v>33</v>
       </c>
+      <c r="FC15">
+        <v>32</v>
+      </c>
     </row>
-    <row r="16" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -7723,13 +7766,16 @@
       <c r="FB16">
         <v>33</v>
       </c>
+      <c r="FC16">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C17">
         <v>24</v>
@@ -8199,13 +8245,16 @@
       <c r="FB17">
         <v>11</v>
       </c>
+      <c r="FC17">
+        <v>11</v>
+      </c>
     </row>
-    <row r="18" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -8675,13 +8724,16 @@
       <c r="FB18">
         <v>100</v>
       </c>
+      <c r="FC18">
+        <v>95</v>
+      </c>
     </row>
-    <row r="19" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19">
         <v>57</v>
@@ -9151,13 +9203,16 @@
       <c r="FB19">
         <v>285</v>
       </c>
+      <c r="FC19">
+        <v>286</v>
+      </c>
     </row>
-    <row r="20" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C20">
         <v>516</v>
@@ -9627,13 +9682,16 @@
       <c r="FB20">
         <v>591</v>
       </c>
+      <c r="FC20">
+        <v>607</v>
+      </c>
     </row>
-    <row r="21" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C21">
         <v>76</v>
@@ -10103,13 +10161,16 @@
       <c r="FB21">
         <v>146</v>
       </c>
+      <c r="FC21">
+        <v>155</v>
+      </c>
     </row>
-    <row r="22" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -10579,13 +10640,16 @@
       <c r="FB22">
         <v>70</v>
       </c>
+      <c r="FC22">
+        <v>67</v>
+      </c>
     </row>
-    <row r="23" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C23">
         <v>25</v>
@@ -11055,13 +11119,16 @@
       <c r="FB23">
         <v>107</v>
       </c>
+      <c r="FC23">
+        <v>102</v>
+      </c>
     </row>
-    <row r="24" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -11531,13 +11598,16 @@
       <c r="FB24">
         <v>112</v>
       </c>
+      <c r="FC24">
+        <v>120</v>
+      </c>
     </row>
-    <row r="25" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C25">
         <v>57</v>
@@ -12007,13 +12077,16 @@
       <c r="FB25">
         <v>379</v>
       </c>
+      <c r="FC25">
+        <v>360</v>
+      </c>
     </row>
-    <row r="26" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C26">
         <v>1338</v>
@@ -12481,23 +12554,26 @@
         <v>3319</v>
       </c>
       <c r="FB26">
-        <v>3391</v>
+        <v>3325</v>
+      </c>
+      <c r="FC26">
+        <v>3311</v>
       </c>
     </row>
-    <row r="27" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" t="s">
         <v>184</v>
-      </c>
-      <c r="B28" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -12507,25 +12583,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:FB28"/>
+  <dimension ref="A1:FC28"/>
   <sheetViews>
-    <sheetView topLeftCell="EK1" workbookViewId="0">
-      <selection activeCell="FB8" sqref="FB8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="FB27" sqref="FB27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:158" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:159" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:158" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:159" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:158" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:159" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -13000,13 +13076,16 @@
       <c r="FB3" s="3" t="s">
         <v>159</v>
       </c>
+      <c r="FC3" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="4" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C4">
         <v>13</v>
@@ -13473,16 +13552,19 @@
       <c r="FA4">
         <v>22</v>
       </c>
-      <c r="FB4">
+      <c r="FB4" s="4">
         <v>36</v>
       </c>
+      <c r="FC4">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -13949,16 +14031,19 @@
       <c r="FA5">
         <v>50</v>
       </c>
-      <c r="FB5">
+      <c r="FB5" s="4">
         <v>51</v>
       </c>
+      <c r="FC5">
+        <v>46</v>
+      </c>
     </row>
-    <row r="6" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -14425,16 +14510,19 @@
       <c r="FA6">
         <v>22</v>
       </c>
-      <c r="FB6">
+      <c r="FB6" s="4">
         <v>21</v>
       </c>
+      <c r="FC6">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -14901,16 +14989,19 @@
       <c r="FA7">
         <v>17</v>
       </c>
-      <c r="FB7">
+      <c r="FB7" s="4">
         <v>17</v>
       </c>
+      <c r="FC7">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C8">
         <v>208</v>
@@ -15380,13 +15471,16 @@
       <c r="FB8">
         <v>542</v>
       </c>
+      <c r="FC8">
+        <v>533</v>
+      </c>
     </row>
-    <row r="9" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -15853,16 +15947,19 @@
       <c r="FA9">
         <v>48</v>
       </c>
-      <c r="FB9">
+      <c r="FB9" s="4">
         <v>49</v>
       </c>
+      <c r="FC9">
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -16329,16 +16426,19 @@
       <c r="FA10">
         <v>113</v>
       </c>
-      <c r="FB10">
+      <c r="FB10" s="4">
         <v>105</v>
       </c>
+      <c r="FC10">
+        <v>105</v>
+      </c>
     </row>
-    <row r="11" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -16805,16 +16905,19 @@
       <c r="FA11">
         <v>9</v>
       </c>
-      <c r="FB11">
+      <c r="FB11" s="4">
         <v>14</v>
       </c>
+      <c r="FC11">
+        <v>23</v>
+      </c>
     </row>
-    <row r="12" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -17281,16 +17384,19 @@
       <c r="FA12">
         <v>65</v>
       </c>
-      <c r="FB12">
+      <c r="FB12" s="4">
         <v>63</v>
       </c>
+      <c r="FC12">
+        <v>70</v>
+      </c>
     </row>
-    <row r="13" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -17757,16 +17863,19 @@
       <c r="FA13">
         <v>47</v>
       </c>
-      <c r="FB13">
+      <c r="FB13" s="4">
         <v>40</v>
       </c>
+      <c r="FC13">
+        <v>43</v>
+      </c>
     </row>
-    <row r="14" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -18233,16 +18342,19 @@
       <c r="FA14">
         <v>27</v>
       </c>
-      <c r="FB14">
+      <c r="FB14" s="4">
         <v>24</v>
       </c>
+      <c r="FC14">
+        <v>23</v>
+      </c>
     </row>
-    <row r="15" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -18709,16 +18821,19 @@
       <c r="FA15">
         <v>20</v>
       </c>
-      <c r="FB15">
+      <c r="FB15" s="4">
         <v>19</v>
       </c>
+      <c r="FC15">
+        <v>20</v>
+      </c>
     </row>
-    <row r="16" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -19185,16 +19300,19 @@
       <c r="FA16">
         <v>21</v>
       </c>
-      <c r="FB16">
+      <c r="FB16" s="4">
         <v>22</v>
       </c>
+      <c r="FC16">
+        <v>25</v>
+      </c>
     </row>
-    <row r="17" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -19661,16 +19779,19 @@
       <c r="FA17">
         <v>12</v>
       </c>
-      <c r="FB17">
+      <c r="FB17" s="4">
         <v>7</v>
       </c>
+      <c r="FC17">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -20137,16 +20258,19 @@
       <c r="FA18">
         <v>58</v>
       </c>
-      <c r="FB18">
+      <c r="FB18" s="4">
         <v>55</v>
       </c>
+      <c r="FC18">
+        <v>50</v>
+      </c>
     </row>
-    <row r="19" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19">
         <v>35</v>
@@ -20613,16 +20737,19 @@
       <c r="FA19">
         <v>169</v>
       </c>
-      <c r="FB19">
+      <c r="FB19" s="4">
         <v>158</v>
       </c>
+      <c r="FC19">
+        <v>165</v>
+      </c>
     </row>
-    <row r="20" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C20">
         <v>302</v>
@@ -21089,16 +21216,19 @@
       <c r="FA20">
         <v>396</v>
       </c>
-      <c r="FB20">
+      <c r="FB20" s="4">
         <v>391</v>
       </c>
+      <c r="FC20">
+        <v>391</v>
+      </c>
     </row>
-    <row r="21" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C21">
         <v>46</v>
@@ -21565,16 +21695,19 @@
       <c r="FA21">
         <v>115</v>
       </c>
-      <c r="FB21">
+      <c r="FB21" s="4">
         <v>101</v>
       </c>
+      <c r="FC21">
+        <v>106</v>
+      </c>
     </row>
-    <row r="22" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -22041,16 +22174,19 @@
       <c r="FA22">
         <v>36</v>
       </c>
-      <c r="FB22">
+      <c r="FB22" s="4">
         <v>42</v>
       </c>
+      <c r="FC22">
+        <v>40</v>
+      </c>
     </row>
-    <row r="23" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -22517,16 +22653,19 @@
       <c r="FA23">
         <v>55</v>
       </c>
-      <c r="FB23">
+      <c r="FB23" s="4">
         <v>56</v>
       </c>
+      <c r="FC23">
+        <v>51</v>
+      </c>
     </row>
-    <row r="24" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -22993,16 +23132,19 @@
       <c r="FA24">
         <v>85</v>
       </c>
-      <c r="FB24">
+      <c r="FB24" s="4">
         <v>80</v>
       </c>
+      <c r="FC24">
+        <v>86</v>
+      </c>
     </row>
-    <row r="25" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C25">
         <v>39</v>
@@ -23469,16 +23611,19 @@
       <c r="FA25">
         <v>225</v>
       </c>
-      <c r="FB25">
+      <c r="FB25" s="4">
         <v>229</v>
       </c>
+      <c r="FC25">
+        <v>218</v>
+      </c>
     </row>
-    <row r="26" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C26">
         <v>775</v>
@@ -23946,23 +24091,26 @@
         <v>2144</v>
       </c>
       <c r="FB26">
-        <v>2188</v>
+        <v>2122</v>
+      </c>
+      <c r="FC26">
+        <v>2119</v>
       </c>
     </row>
-    <row r="27" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" t="s">
         <v>184</v>
-      </c>
-      <c r="B28" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -23972,25 +24120,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:FB28"/>
+  <dimension ref="A1:FC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EK1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:158" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:159" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:158" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:159" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:158" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:159" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -24352,7 +24498,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="DR3" s="3" t="s">
         <v>123</v>
@@ -24376,7 +24522,7 @@
         <v>129</v>
       </c>
       <c r="DY3" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="DZ3" s="3" t="s">
         <v>131</v>
@@ -24465,13 +24611,16 @@
       <c r="FB3" s="3" t="s">
         <v>159</v>
       </c>
+      <c r="FC3" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="4" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -24941,13 +25090,16 @@
       <c r="FB4">
         <v>31</v>
       </c>
+      <c r="FC4">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -25417,13 +25569,16 @@
       <c r="FB5">
         <v>39</v>
       </c>
+      <c r="FC5">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -25893,13 +26048,16 @@
       <c r="FB6">
         <v>6</v>
       </c>
+      <c r="FC6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -26369,13 +26527,16 @@
       <c r="FB7">
         <v>13</v>
       </c>
+      <c r="FC7">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C8">
         <v>161</v>
@@ -26845,13 +27006,16 @@
       <c r="FB8">
         <v>221</v>
       </c>
+      <c r="FC8">
+        <v>195</v>
+      </c>
     </row>
-    <row r="9" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -27321,13 +27485,16 @@
       <c r="FB9">
         <v>29</v>
       </c>
+      <c r="FC9">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -27797,13 +27964,16 @@
       <c r="FB10">
         <v>63</v>
       </c>
+      <c r="FC10">
+        <v>64</v>
+      </c>
     </row>
-    <row r="11" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -28273,13 +28443,16 @@
       <c r="FB11">
         <v>17</v>
       </c>
+      <c r="FC11">
+        <v>18</v>
+      </c>
     </row>
-    <row r="12" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -28749,13 +28922,16 @@
       <c r="FB12">
         <v>47</v>
       </c>
+      <c r="FC12">
+        <v>44</v>
+      </c>
     </row>
-    <row r="13" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -29225,13 +29401,16 @@
       <c r="FB13">
         <v>15</v>
       </c>
+      <c r="FC13">
+        <v>19</v>
+      </c>
     </row>
-    <row r="14" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -29701,13 +29880,16 @@
       <c r="FB14">
         <v>1</v>
       </c>
+      <c r="FC14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -30177,13 +30359,16 @@
       <c r="FB15">
         <v>14</v>
       </c>
+      <c r="FC15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="16" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -30653,13 +30838,16 @@
       <c r="FB16">
         <v>10</v>
       </c>
+      <c r="FC16">
+        <v>11</v>
+      </c>
     </row>
-    <row r="17" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -31129,13 +31317,16 @@
       <c r="FB17">
         <v>4</v>
       </c>
+      <c r="FC17">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -31605,13 +31796,16 @@
       <c r="FB18">
         <v>45</v>
       </c>
+      <c r="FC18">
+        <v>45</v>
+      </c>
     </row>
-    <row r="19" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19">
         <v>22</v>
@@ -32081,13 +32275,16 @@
       <c r="FB19">
         <v>114</v>
       </c>
+      <c r="FC19">
+        <v>108</v>
+      </c>
     </row>
-    <row r="20" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C20">
         <v>214</v>
@@ -32557,13 +32754,16 @@
       <c r="FB20">
         <v>193</v>
       </c>
+      <c r="FC20">
+        <v>205</v>
+      </c>
     </row>
-    <row r="21" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C21">
         <v>30</v>
@@ -33033,13 +33233,16 @@
       <c r="FB21">
         <v>45</v>
       </c>
+      <c r="FC21">
+        <v>49</v>
+      </c>
     </row>
-    <row r="22" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -33509,13 +33712,16 @@
       <c r="FB22">
         <v>28</v>
       </c>
+      <c r="FC22">
+        <v>27</v>
+      </c>
     </row>
-    <row r="23" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -33985,13 +34191,16 @@
       <c r="FB23">
         <v>51</v>
       </c>
+      <c r="FC23">
+        <v>51</v>
+      </c>
     </row>
-    <row r="24" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -34461,13 +34670,16 @@
       <c r="FB24">
         <v>32</v>
       </c>
+      <c r="FC24">
+        <v>34</v>
+      </c>
     </row>
-    <row r="25" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -34937,13 +35149,16 @@
       <c r="FB25">
         <v>147</v>
       </c>
+      <c r="FC25">
+        <v>141</v>
+      </c>
     </row>
-    <row r="26" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C26">
         <v>563</v>
@@ -35413,21 +35628,24 @@
       <c r="FB26">
         <v>1165</v>
       </c>
+      <c r="FC26">
+        <v>1151</v>
+      </c>
     </row>
-    <row r="27" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:158" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" t="s">
         <v>184</v>
-      </c>
-      <c r="B28" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="215">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/16/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/17/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -502,6 +502,9 @@
     <t>2020-09-16</t>
   </si>
   <si>
+    <t>2020-09-17</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -646,10 +649,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/16/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/17/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/16/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/17/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1262,13 +1265,16 @@
       <c r="FD3" t="s" s="10">
         <v>161</v>
       </c>
+      <c r="FE3" t="s" s="10">
+        <v>162</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1743,14 +1749,17 @@
       </c>
       <c r="FD4" t="n">
         <v>70.0</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2225,14 +2234,17 @@
       </c>
       <c r="FD5" t="n">
         <v>84.0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2707,14 +2719,17 @@
       </c>
       <c r="FD6" t="n">
         <v>31.0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -3189,14 +3204,17 @@
       </c>
       <c r="FD7" t="n">
         <v>31.0</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3671,14 +3689,17 @@
       </c>
       <c r="FD8" t="n">
         <v>732.0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>754.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -4153,14 +4174,17 @@
       </c>
       <c r="FD9" t="n">
         <v>69.0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4635,14 +4659,17 @@
       </c>
       <c r="FD10" t="n">
         <v>170.0</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>177.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -5117,14 +5144,17 @@
       </c>
       <c r="FD11" t="n">
         <v>44.0</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5599,14 +5629,17 @@
       </c>
       <c r="FD12" t="n">
         <v>118.0</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>122.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -6081,14 +6114,17 @@
       </c>
       <c r="FD13" t="n">
         <v>63.0</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -6563,14 +6599,17 @@
       </c>
       <c r="FD14" t="n">
         <v>23.0</v>
+      </c>
+      <c r="FE14" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -7045,14 +7084,17 @@
       </c>
       <c r="FD15" t="n">
         <v>37.0</v>
+      </c>
+      <c r="FE15" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -7527,14 +7569,17 @@
       </c>
       <c r="FD16" t="n">
         <v>38.0</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -8009,14 +8054,17 @@
       </c>
       <c r="FD17" t="n">
         <v>10.0</v>
+      </c>
+      <c r="FE17" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -8491,14 +8539,17 @@
       </c>
       <c r="FD18" t="n">
         <v>94.0</v>
+      </c>
+      <c r="FE18" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -8973,14 +9024,17 @@
       </c>
       <c r="FD19" t="n">
         <v>262.0</v>
+      </c>
+      <c r="FE19" t="n">
+        <v>256.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -9455,14 +9509,17 @@
       </c>
       <c r="FD20" t="n">
         <v>585.0</v>
+      </c>
+      <c r="FE20" t="n">
+        <v>563.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -9937,14 +9994,17 @@
       </c>
       <c r="FD21" t="n">
         <v>151.0</v>
+      </c>
+      <c r="FE21" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -10418,15 +10478,18 @@
         <v>67.0</v>
       </c>
       <c r="FD22" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="FE22" t="n">
         <v>72.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -10901,14 +10964,17 @@
       </c>
       <c r="FD23" t="n">
         <v>100.0</v>
+      </c>
+      <c r="FE23" t="n">
+        <v>104.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -11383,14 +11449,17 @@
       </c>
       <c r="FD24" t="n">
         <v>119.0</v>
+      </c>
+      <c r="FE24" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -11865,14 +11934,17 @@
       </c>
       <c r="FD25" t="n">
         <v>346.0</v>
+      </c>
+      <c r="FE25" t="n">
+        <v>347.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -12347,14 +12419,17 @@
       </c>
       <c r="FD26" t="n">
         <v>3249.0</v>
+      </c>
+      <c r="FE26" t="n">
+        <v>3246.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -12514,13 +12589,14 @@
       <c r="FB27"/>
       <c r="FC27"/>
       <c r="FD27"/>
+      <c r="FE27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
         <v>186</v>
-      </c>
-      <c r="B28" t="s">
-        <v>185</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -12680,6 +12756,7 @@
       <c r="FB28"/>
       <c r="FC28"/>
       <c r="FD28"/>
+      <c r="FE28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -12696,7 +12773,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
@@ -13185,13 +13262,16 @@
       <c r="FD3" t="s" s="10">
         <v>161</v>
       </c>
+      <c r="FE3" t="s" s="10">
+        <v>162</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -13666,14 +13746,17 @@
       </c>
       <c r="FD4" t="n">
         <v>35.0</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -14148,14 +14231,17 @@
       </c>
       <c r="FD5" t="n">
         <v>44.0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -14630,14 +14716,17 @@
       </c>
       <c r="FD6" t="n">
         <v>23.0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -15112,14 +15201,17 @@
       </c>
       <c r="FD7" t="n">
         <v>18.0</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -15594,14 +15686,17 @@
       </c>
       <c r="FD8" t="n">
         <v>516.0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>527.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -16076,14 +16171,17 @@
       </c>
       <c r="FD9" t="n">
         <v>43.0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -16558,14 +16656,17 @@
       </c>
       <c r="FD10" t="n">
         <v>106.0</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -17040,14 +17141,17 @@
       </c>
       <c r="FD11" t="n">
         <v>28.0</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -17522,14 +17626,17 @@
       </c>
       <c r="FD12" t="n">
         <v>71.0</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -18004,14 +18111,17 @@
       </c>
       <c r="FD13" t="n">
         <v>44.0</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -18486,14 +18596,17 @@
       </c>
       <c r="FD14" t="n">
         <v>21.0</v>
+      </c>
+      <c r="FE14" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -18968,14 +19081,17 @@
       </c>
       <c r="FD15" t="n">
         <v>27.0</v>
+      </c>
+      <c r="FE15" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -19450,14 +19566,17 @@
       </c>
       <c r="FD16" t="n">
         <v>26.0</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -19932,14 +20051,17 @@
       </c>
       <c r="FD17" t="n">
         <v>6.0</v>
+      </c>
+      <c r="FE17" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -20414,14 +20536,17 @@
       </c>
       <c r="FD18" t="n">
         <v>51.0</v>
+      </c>
+      <c r="FE18" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -20896,14 +21021,17 @@
       </c>
       <c r="FD19" t="n">
         <v>147.0</v>
+      </c>
+      <c r="FE19" t="n">
+        <v>141.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -21378,14 +21506,17 @@
       </c>
       <c r="FD20" t="n">
         <v>387.0</v>
+      </c>
+      <c r="FE20" t="n">
+        <v>362.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -21860,14 +21991,17 @@
       </c>
       <c r="FD21" t="n">
         <v>95.0</v>
+      </c>
+      <c r="FE21" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -22342,14 +22476,17 @@
       </c>
       <c r="FD22" t="n">
         <v>43.0</v>
+      </c>
+      <c r="FE22" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -22824,14 +22961,17 @@
       </c>
       <c r="FD23" t="n">
         <v>49.0</v>
+      </c>
+      <c r="FE23" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -23306,14 +23446,17 @@
       </c>
       <c r="FD24" t="n">
         <v>81.0</v>
+      </c>
+      <c r="FE24" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -23788,14 +23931,17 @@
       </c>
       <c r="FD25" t="n">
         <v>210.0</v>
+      </c>
+      <c r="FE25" t="n">
+        <v>211.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -24270,14 +24416,17 @@
       </c>
       <c r="FD26" t="n">
         <v>2071.0</v>
+      </c>
+      <c r="FE26" t="n">
+        <v>2068.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -24437,13 +24586,14 @@
       <c r="FB27"/>
       <c r="FC27"/>
       <c r="FD27"/>
+      <c r="FE27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
         <v>186</v>
-      </c>
-      <c r="B28" t="s">
-        <v>185</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -24603,6 +24753,7 @@
       <c r="FB28"/>
       <c r="FC28"/>
       <c r="FD28"/>
+      <c r="FE28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -24619,7 +24770,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2">
@@ -24989,7 +25140,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -25013,7 +25164,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -25107,14 +25258,17 @@
       </c>
       <c r="FD3" t="s" s="10">
         <v>161</v>
+      </c>
+      <c r="FE3" t="s" s="10">
+        <v>162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -25588,15 +25742,18 @@
         <v>34.0</v>
       </c>
       <c r="FD4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="FE4" t="n">
         <v>35.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -26071,14 +26228,17 @@
       </c>
       <c r="FD5" t="n">
         <v>40.0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -26553,14 +26713,17 @@
       </c>
       <c r="FD6" t="n">
         <v>8.0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -27034,15 +27197,18 @@
         <v>13.0</v>
       </c>
       <c r="FD7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="FE7" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -27517,14 +27683,17 @@
       </c>
       <c r="FD8" t="n">
         <v>204.0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>215.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -27999,14 +28168,17 @@
       </c>
       <c r="FD9" t="n">
         <v>26.0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -28481,14 +28653,17 @@
       </c>
       <c r="FD10" t="n">
         <v>64.0</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -28963,14 +29138,17 @@
       </c>
       <c r="FD11" t="n">
         <v>16.0</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -29445,14 +29623,17 @@
       </c>
       <c r="FD12" t="n">
         <v>46.0</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -29927,14 +30108,17 @@
       </c>
       <c r="FD13" t="n">
         <v>19.0</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -30408,15 +30592,18 @@
         <v>2.0</v>
       </c>
       <c r="FD14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="FE14" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -30890,15 +31077,18 @@
         <v>12.0</v>
       </c>
       <c r="FD15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="FE15" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -31373,14 +31563,17 @@
       </c>
       <c r="FD16" t="n">
         <v>12.0</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -31854,15 +32047,18 @@
         <v>4.0</v>
       </c>
       <c r="FD17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="FE17" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -32337,14 +32533,17 @@
       </c>
       <c r="FD18" t="n">
         <v>42.0</v>
+      </c>
+      <c r="FE18" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -32819,14 +33018,17 @@
       </c>
       <c r="FD19" t="n">
         <v>106.0</v>
+      </c>
+      <c r="FE19" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -33301,14 +33503,17 @@
       </c>
       <c r="FD20" t="n">
         <v>196.0</v>
+      </c>
+      <c r="FE20" t="n">
+        <v>191.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -33783,14 +33988,17 @@
       </c>
       <c r="FD21" t="n">
         <v>45.0</v>
+      </c>
+      <c r="FE21" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -34265,14 +34473,17 @@
       </c>
       <c r="FD22" t="n">
         <v>29.0</v>
+      </c>
+      <c r="FE22" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -34747,14 +34958,17 @@
       </c>
       <c r="FD23" t="n">
         <v>51.0</v>
+      </c>
+      <c r="FE23" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -35229,14 +35443,17 @@
       </c>
       <c r="FD24" t="n">
         <v>38.0</v>
+      </c>
+      <c r="FE24" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -35710,15 +35927,18 @@
         <v>141.0</v>
       </c>
       <c r="FD25" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="FE25" t="n">
         <v>133.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -36193,14 +36413,17 @@
       </c>
       <c r="FD26" t="n">
         <v>1139.0</v>
+      </c>
+      <c r="FE26" t="n">
+        <v>1140.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -36360,13 +36583,14 @@
       <c r="FB27"/>
       <c r="FC27"/>
       <c r="FD27"/>
+      <c r="FE27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
         <v>186</v>
-      </c>
-      <c r="B28" t="s">
-        <v>185</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -36526,6 +36750,7 @@
       <c r="FB28"/>
       <c r="FC28"/>
       <c r="FD28"/>
+      <c r="FE28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="216">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/17/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/18/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -505,6 +505,9 @@
     <t>2020-09-17</t>
   </si>
   <si>
+    <t>2020-09-18</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -649,10 +652,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/17/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/18/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/17/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/18/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1268,13 +1271,16 @@
       <c r="FE3" t="s" s="10">
         <v>162</v>
       </c>
+      <c r="FF3" t="s" s="10">
+        <v>163</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1752,14 +1758,17 @@
       </c>
       <c r="FE4" t="n">
         <v>71.0</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2237,14 +2246,17 @@
       </c>
       <c r="FE5" t="n">
         <v>75.0</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2722,14 +2734,17 @@
       </c>
       <c r="FE6" t="n">
         <v>36.0</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -3207,14 +3222,17 @@
       </c>
       <c r="FE7" t="n">
         <v>32.0</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3691,15 +3709,18 @@
         <v>732.0</v>
       </c>
       <c r="FE8" t="n">
+        <v>754.0</v>
+      </c>
+      <c r="FF8" t="n">
         <v>754.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -4177,14 +4198,17 @@
       </c>
       <c r="FE9" t="n">
         <v>67.0</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4662,14 +4686,17 @@
       </c>
       <c r="FE10" t="n">
         <v>177.0</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>164.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -5147,14 +5174,17 @@
       </c>
       <c r="FE11" t="n">
         <v>48.0</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5632,14 +5662,17 @@
       </c>
       <c r="FE12" t="n">
         <v>122.0</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -6117,14 +6150,17 @@
       </c>
       <c r="FE13" t="n">
         <v>73.0</v>
+      </c>
+      <c r="FF13" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -6602,14 +6638,17 @@
       </c>
       <c r="FE14" t="n">
         <v>20.0</v>
+      </c>
+      <c r="FF14" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -7087,14 +7126,17 @@
       </c>
       <c r="FE15" t="n">
         <v>36.0</v>
+      </c>
+      <c r="FF15" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -7572,14 +7614,17 @@
       </c>
       <c r="FE16" t="n">
         <v>39.0</v>
+      </c>
+      <c r="FF16" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -8057,14 +8102,17 @@
       </c>
       <c r="FE17" t="n">
         <v>9.0</v>
+      </c>
+      <c r="FF17" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -8542,14 +8590,17 @@
       </c>
       <c r="FE18" t="n">
         <v>93.0</v>
+      </c>
+      <c r="FF18" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -9027,14 +9078,17 @@
       </c>
       <c r="FE19" t="n">
         <v>256.0</v>
+      </c>
+      <c r="FF19" t="n">
+        <v>252.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -9512,14 +9566,17 @@
       </c>
       <c r="FE20" t="n">
         <v>563.0</v>
+      </c>
+      <c r="FF20" t="n">
+        <v>546.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -9997,14 +10054,17 @@
       </c>
       <c r="FE21" t="n">
         <v>138.0</v>
+      </c>
+      <c r="FF21" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -10482,14 +10542,17 @@
       </c>
       <c r="FE22" t="n">
         <v>72.0</v>
+      </c>
+      <c r="FF22" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -10967,14 +11030,17 @@
       </c>
       <c r="FE23" t="n">
         <v>104.0</v>
+      </c>
+      <c r="FF23" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -11452,14 +11518,17 @@
       </c>
       <c r="FE24" t="n">
         <v>114.0</v>
+      </c>
+      <c r="FF24" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -11937,14 +12006,17 @@
       </c>
       <c r="FE25" t="n">
         <v>347.0</v>
+      </c>
+      <c r="FF25" t="n">
+        <v>341.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -12422,14 +12494,17 @@
       </c>
       <c r="FE26" t="n">
         <v>3246.0</v>
+      </c>
+      <c r="FF26" t="n">
+        <v>3172.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -12590,13 +12665,14 @@
       <c r="FC27"/>
       <c r="FD27"/>
       <c r="FE27"/>
+      <c r="FF27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" t="s">
         <v>187</v>
-      </c>
-      <c r="B28" t="s">
-        <v>186</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -12757,6 +12833,7 @@
       <c r="FC28"/>
       <c r="FD28"/>
       <c r="FE28"/>
+      <c r="FF28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -12773,7 +12850,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2">
@@ -13265,13 +13342,16 @@
       <c r="FE3" t="s" s="10">
         <v>162</v>
       </c>
+      <c r="FF3" t="s" s="10">
+        <v>163</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -13749,14 +13829,17 @@
       </c>
       <c r="FE4" t="n">
         <v>36.0</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -14234,14 +14317,17 @@
       </c>
       <c r="FE5" t="n">
         <v>41.0</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -14719,14 +14805,17 @@
       </c>
       <c r="FE6" t="n">
         <v>27.0</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -15204,14 +15293,17 @@
       </c>
       <c r="FE7" t="n">
         <v>19.0</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -15689,14 +15781,17 @@
       </c>
       <c r="FE8" t="n">
         <v>527.0</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>532.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -16174,14 +16269,17 @@
       </c>
       <c r="FE9" t="n">
         <v>39.0</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -16659,14 +16757,17 @@
       </c>
       <c r="FE10" t="n">
         <v>114.0</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -17144,14 +17245,17 @@
       </c>
       <c r="FE11" t="n">
         <v>36.0</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -17629,14 +17733,17 @@
       </c>
       <c r="FE12" t="n">
         <v>74.0</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -18114,14 +18221,17 @@
       </c>
       <c r="FE13" t="n">
         <v>38.0</v>
+      </c>
+      <c r="FF13" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -18599,14 +18709,17 @@
       </c>
       <c r="FE14" t="n">
         <v>18.0</v>
+      </c>
+      <c r="FF14" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -19084,14 +19197,17 @@
       </c>
       <c r="FE15" t="n">
         <v>26.0</v>
+      </c>
+      <c r="FF15" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -19569,14 +19685,17 @@
       </c>
       <c r="FE16" t="n">
         <v>25.0</v>
+      </c>
+      <c r="FF16" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -20054,14 +20173,17 @@
       </c>
       <c r="FE17" t="n">
         <v>5.0</v>
+      </c>
+      <c r="FF17" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -20539,14 +20661,17 @@
       </c>
       <c r="FE18" t="n">
         <v>53.0</v>
+      </c>
+      <c r="FF18" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -21024,14 +21149,17 @@
       </c>
       <c r="FE19" t="n">
         <v>141.0</v>
+      </c>
+      <c r="FF19" t="n">
+        <v>142.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -21509,14 +21637,17 @@
       </c>
       <c r="FE20" t="n">
         <v>362.0</v>
+      </c>
+      <c r="FF20" t="n">
+        <v>366.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -21994,14 +22125,17 @@
       </c>
       <c r="FE21" t="n">
         <v>96.0</v>
+      </c>
+      <c r="FF21" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -22479,14 +22613,17 @@
       </c>
       <c r="FE22" t="n">
         <v>45.0</v>
+      </c>
+      <c r="FF22" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -22963,15 +23100,18 @@
         <v>49.0</v>
       </c>
       <c r="FE23" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="FF23" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -23449,14 +23589,17 @@
       </c>
       <c r="FE24" t="n">
         <v>83.0</v>
+      </c>
+      <c r="FF24" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -23934,14 +24077,17 @@
       </c>
       <c r="FE25" t="n">
         <v>211.0</v>
+      </c>
+      <c r="FF25" t="n">
+        <v>204.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -24419,14 +24565,17 @@
       </c>
       <c r="FE26" t="n">
         <v>2068.0</v>
+      </c>
+      <c r="FF26" t="n">
+        <v>2034.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -24587,13 +24736,14 @@
       <c r="FC27"/>
       <c r="FD27"/>
       <c r="FE27"/>
+      <c r="FF27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" t="s">
         <v>187</v>
-      </c>
-      <c r="B28" t="s">
-        <v>186</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -24754,6 +24904,7 @@
       <c r="FC28"/>
       <c r="FD28"/>
       <c r="FE28"/>
+      <c r="FF28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -24770,7 +24921,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
@@ -25140,7 +25291,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -25164,7 +25315,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -25261,14 +25412,17 @@
       </c>
       <c r="FE3" t="s" s="10">
         <v>162</v>
+      </c>
+      <c r="FF3" t="s" s="10">
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -25746,14 +25900,17 @@
       </c>
       <c r="FE4" t="n">
         <v>35.0</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -26231,14 +26388,17 @@
       </c>
       <c r="FE5" t="n">
         <v>33.0</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -26715,15 +26875,18 @@
         <v>8.0</v>
       </c>
       <c r="FE6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="FF6" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -27200,15 +27363,18 @@
         <v>13.0</v>
       </c>
       <c r="FE7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="FF7" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -27686,14 +27852,17 @@
       </c>
       <c r="FE8" t="n">
         <v>215.0</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>208.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -28171,14 +28340,17 @@
       </c>
       <c r="FE9" t="n">
         <v>28.0</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -28656,14 +28828,17 @@
       </c>
       <c r="FE10" t="n">
         <v>63.0</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -29141,14 +29316,17 @@
       </c>
       <c r="FE11" t="n">
         <v>12.0</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -29625,15 +29803,18 @@
         <v>46.0</v>
       </c>
       <c r="FE12" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="FF12" t="n">
         <v>48.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -30111,14 +30292,17 @@
       </c>
       <c r="FE13" t="n">
         <v>35.0</v>
+      </c>
+      <c r="FF13" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -30596,14 +30780,17 @@
       </c>
       <c r="FE14" t="n">
         <v>2.0</v>
+      </c>
+      <c r="FF14" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -31081,14 +31268,17 @@
       </c>
       <c r="FE15" t="n">
         <v>10.0</v>
+      </c>
+      <c r="FF15" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -31565,15 +31755,18 @@
         <v>12.0</v>
       </c>
       <c r="FE16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="FF16" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -32050,15 +32243,18 @@
         <v>4.0</v>
       </c>
       <c r="FE17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="FF17" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -32536,14 +32732,17 @@
       </c>
       <c r="FE18" t="n">
         <v>39.0</v>
+      </c>
+      <c r="FF18" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -33021,14 +33220,17 @@
       </c>
       <c r="FE19" t="n">
         <v>105.0</v>
+      </c>
+      <c r="FF19" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -33506,14 +33708,17 @@
       </c>
       <c r="FE20" t="n">
         <v>191.0</v>
+      </c>
+      <c r="FF20" t="n">
+        <v>180.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -33991,14 +34196,17 @@
       </c>
       <c r="FE21" t="n">
         <v>41.0</v>
+      </c>
+      <c r="FF21" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -34476,14 +34684,17 @@
       </c>
       <c r="FE22" t="n">
         <v>27.0</v>
+      </c>
+      <c r="FF22" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -34961,14 +35172,17 @@
       </c>
       <c r="FE23" t="n">
         <v>52.0</v>
+      </c>
+      <c r="FF23" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -35446,14 +35660,17 @@
       </c>
       <c r="FE24" t="n">
         <v>31.0</v>
+      </c>
+      <c r="FF24" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -35931,14 +36148,17 @@
       </c>
       <c r="FE25" t="n">
         <v>133.0</v>
+      </c>
+      <c r="FF25" t="n">
+        <v>134.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -36416,14 +36636,17 @@
       </c>
       <c r="FE26" t="n">
         <v>1140.0</v>
+      </c>
+      <c r="FF26" t="n">
+        <v>1107.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -36584,13 +36807,14 @@
       <c r="FC27"/>
       <c r="FD27"/>
       <c r="FE27"/>
+      <c r="FF27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" t="s">
         <v>187</v>
-      </c>
-      <c r="B28" t="s">
-        <v>186</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -36751,6 +36975,7 @@
       <c r="FC28"/>
       <c r="FD28"/>
       <c r="FE28"/>
+      <c r="FF28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="217">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/18/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/19/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -508,6 +508,9 @@
     <t>2020-09-18</t>
   </si>
   <si>
+    <t>2020-09-19</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -652,10 +655,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/18/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/19/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/18/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/19/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1274,13 +1277,16 @@
       <c r="FF3" t="s" s="10">
         <v>163</v>
       </c>
+      <c r="FG3" t="s" s="10">
+        <v>164</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1761,14 +1767,17 @@
       </c>
       <c r="FF4" t="n">
         <v>62.0</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2249,14 +2258,17 @@
       </c>
       <c r="FF5" t="n">
         <v>74.0</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2737,14 +2749,17 @@
       </c>
       <c r="FF6" t="n">
         <v>39.0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -3225,14 +3240,17 @@
       </c>
       <c r="FF7" t="n">
         <v>31.0</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3713,14 +3731,17 @@
       </c>
       <c r="FF8" t="n">
         <v>754.0</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>733.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -4201,14 +4222,17 @@
       </c>
       <c r="FF9" t="n">
         <v>64.0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4689,14 +4713,17 @@
       </c>
       <c r="FF10" t="n">
         <v>164.0</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>159.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -5177,14 +5204,17 @@
       </c>
       <c r="FF11" t="n">
         <v>42.0</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5665,14 +5695,17 @@
       </c>
       <c r="FF12" t="n">
         <v>128.0</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -6153,14 +6186,17 @@
       </c>
       <c r="FF13" t="n">
         <v>56.0</v>
+      </c>
+      <c r="FG13" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -6641,14 +6677,17 @@
       </c>
       <c r="FF14" t="n">
         <v>19.0</v>
+      </c>
+      <c r="FG14" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -7128,15 +7167,18 @@
         <v>36.0</v>
       </c>
       <c r="FF15" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="FG15" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -7616,15 +7658,18 @@
         <v>39.0</v>
       </c>
       <c r="FF16" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="FG16" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -8105,14 +8150,17 @@
       </c>
       <c r="FF17" t="n">
         <v>10.0</v>
+      </c>
+      <c r="FG17" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -8593,14 +8641,17 @@
       </c>
       <c r="FF18" t="n">
         <v>89.0</v>
+      </c>
+      <c r="FG18" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -9081,14 +9132,17 @@
       </c>
       <c r="FF19" t="n">
         <v>252.0</v>
+      </c>
+      <c r="FG19" t="n">
+        <v>253.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -9569,14 +9623,17 @@
       </c>
       <c r="FF20" t="n">
         <v>546.0</v>
+      </c>
+      <c r="FG20" t="n">
+        <v>561.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -10057,14 +10114,17 @@
       </c>
       <c r="FF21" t="n">
         <v>147.0</v>
+      </c>
+      <c r="FG21" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -10545,14 +10605,17 @@
       </c>
       <c r="FF22" t="n">
         <v>62.0</v>
+      </c>
+      <c r="FG22" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -11033,14 +11096,17 @@
       </c>
       <c r="FF23" t="n">
         <v>110.0</v>
+      </c>
+      <c r="FG23" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -11521,14 +11587,17 @@
       </c>
       <c r="FF24" t="n">
         <v>108.0</v>
+      </c>
+      <c r="FG24" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -12009,14 +12078,17 @@
       </c>
       <c r="FF25" t="n">
         <v>341.0</v>
+      </c>
+      <c r="FG25" t="n">
+        <v>309.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -12497,14 +12569,17 @@
       </c>
       <c r="FF26" t="n">
         <v>3172.0</v>
+      </c>
+      <c r="FG26" t="n">
+        <v>3124.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -12666,13 +12741,14 @@
       <c r="FD27"/>
       <c r="FE27"/>
       <c r="FF27"/>
+      <c r="FG27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" t="s">
         <v>188</v>
-      </c>
-      <c r="B28" t="s">
-        <v>187</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -12834,6 +12910,7 @@
       <c r="FD28"/>
       <c r="FE28"/>
       <c r="FF28"/>
+      <c r="FG28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -12850,7 +12927,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
@@ -13345,13 +13422,16 @@
       <c r="FF3" t="s" s="10">
         <v>163</v>
       </c>
+      <c r="FG3" t="s" s="10">
+        <v>164</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -13832,14 +13912,17 @@
       </c>
       <c r="FF4" t="n">
         <v>31.0</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -14320,14 +14403,17 @@
       </c>
       <c r="FF5" t="n">
         <v>38.0</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -14808,14 +14894,17 @@
       </c>
       <c r="FF6" t="n">
         <v>30.0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -15296,14 +15385,17 @@
       </c>
       <c r="FF7" t="n">
         <v>18.0</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -15784,14 +15876,17 @@
       </c>
       <c r="FF8" t="n">
         <v>532.0</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>518.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -16272,14 +16367,17 @@
       </c>
       <c r="FF9" t="n">
         <v>40.0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -16760,14 +16858,17 @@
       </c>
       <c r="FF10" t="n">
         <v>99.0</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -17248,14 +17349,17 @@
       </c>
       <c r="FF11" t="n">
         <v>25.0</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -17736,14 +17840,17 @@
       </c>
       <c r="FF12" t="n">
         <v>79.0</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -18224,14 +18331,17 @@
       </c>
       <c r="FF13" t="n">
         <v>39.0</v>
+      </c>
+      <c r="FG13" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -18712,14 +18822,17 @@
       </c>
       <c r="FF14" t="n">
         <v>15.0</v>
+      </c>
+      <c r="FG14" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -19200,14 +19313,17 @@
       </c>
       <c r="FF15" t="n">
         <v>25.0</v>
+      </c>
+      <c r="FG15" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -19688,14 +19804,17 @@
       </c>
       <c r="FF16" t="n">
         <v>23.0</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -20176,14 +20295,17 @@
       </c>
       <c r="FF17" t="n">
         <v>6.0</v>
+      </c>
+      <c r="FG17" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -20664,14 +20786,17 @@
       </c>
       <c r="FF18" t="n">
         <v>54.0</v>
+      </c>
+      <c r="FG18" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -21151,15 +21276,18 @@
         <v>141.0</v>
       </c>
       <c r="FF19" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="FG19" t="n">
         <v>142.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -21640,14 +21768,17 @@
       </c>
       <c r="FF20" t="n">
         <v>366.0</v>
+      </c>
+      <c r="FG20" t="n">
+        <v>376.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -22127,15 +22258,18 @@
         <v>96.0</v>
       </c>
       <c r="FF21" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="FG21" t="n">
         <v>101.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -22615,15 +22749,18 @@
         <v>45.0</v>
       </c>
       <c r="FF22" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="FG22" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -23104,14 +23241,17 @@
       </c>
       <c r="FF23" t="n">
         <v>52.0</v>
+      </c>
+      <c r="FG23" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -23592,14 +23732,17 @@
       </c>
       <c r="FF24" t="n">
         <v>76.0</v>
+      </c>
+      <c r="FG24" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -24080,14 +24223,17 @@
       </c>
       <c r="FF25" t="n">
         <v>204.0</v>
+      </c>
+      <c r="FG25" t="n">
+        <v>186.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -24568,14 +24714,17 @@
       </c>
       <c r="FF26" t="n">
         <v>2034.0</v>
+      </c>
+      <c r="FG26" t="n">
+        <v>2005.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -24737,13 +24886,14 @@
       <c r="FD27"/>
       <c r="FE27"/>
       <c r="FF27"/>
+      <c r="FG27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" t="s">
         <v>188</v>
-      </c>
-      <c r="B28" t="s">
-        <v>187</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -24905,6 +25055,7 @@
       <c r="FD28"/>
       <c r="FE28"/>
       <c r="FF28"/>
+      <c r="FG28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -24921,7 +25072,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2">
@@ -25291,7 +25442,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -25315,7 +25466,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -25415,14 +25566,17 @@
       </c>
       <c r="FF3" t="s" s="10">
         <v>163</v>
+      </c>
+      <c r="FG3" t="s" s="10">
+        <v>164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -25903,14 +26057,17 @@
       </c>
       <c r="FF4" t="n">
         <v>31.0</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -26391,14 +26548,17 @@
       </c>
       <c r="FF5" t="n">
         <v>34.0</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -26879,14 +27039,17 @@
       </c>
       <c r="FF6" t="n">
         <v>9.0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -27367,14 +27530,17 @@
       </c>
       <c r="FF7" t="n">
         <v>13.0</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -27855,14 +28021,17 @@
       </c>
       <c r="FF8" t="n">
         <v>208.0</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>201.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -28343,14 +28512,17 @@
       </c>
       <c r="FF9" t="n">
         <v>24.0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -28831,14 +29003,17 @@
       </c>
       <c r="FF10" t="n">
         <v>65.0</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -29319,14 +29494,17 @@
       </c>
       <c r="FF11" t="n">
         <v>17.0</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -29807,14 +29985,17 @@
       </c>
       <c r="FF12" t="n">
         <v>48.0</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -30294,15 +30475,18 @@
         <v>35.0</v>
       </c>
       <c r="FF13" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="FG13" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -30782,15 +30966,18 @@
         <v>2.0</v>
       </c>
       <c r="FF14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="FG14" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -31271,14 +31458,17 @@
       </c>
       <c r="FF15" t="n">
         <v>12.0</v>
+      </c>
+      <c r="FG15" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -31759,14 +31949,17 @@
       </c>
       <c r="FF16" t="n">
         <v>14.0</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -32247,14 +32440,17 @@
       </c>
       <c r="FF17" t="n">
         <v>4.0</v>
+      </c>
+      <c r="FG17" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -32735,14 +32931,17 @@
       </c>
       <c r="FF18" t="n">
         <v>34.0</v>
+      </c>
+      <c r="FG18" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -33223,14 +33422,17 @@
       </c>
       <c r="FF19" t="n">
         <v>100.0</v>
+      </c>
+      <c r="FG19" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -33711,14 +33913,17 @@
       </c>
       <c r="FF20" t="n">
         <v>180.0</v>
+      </c>
+      <c r="FG20" t="n">
+        <v>185.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -34199,14 +34404,17 @@
       </c>
       <c r="FF21" t="n">
         <v>46.0</v>
+      </c>
+      <c r="FG21" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -34687,14 +34895,17 @@
       </c>
       <c r="FF22" t="n">
         <v>23.0</v>
+      </c>
+      <c r="FG22" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -35175,14 +35386,17 @@
       </c>
       <c r="FF23" t="n">
         <v>58.0</v>
+      </c>
+      <c r="FG23" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -35663,14 +35877,17 @@
       </c>
       <c r="FF24" t="n">
         <v>32.0</v>
+      </c>
+      <c r="FG24" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -36151,14 +36368,17 @@
       </c>
       <c r="FF25" t="n">
         <v>134.0</v>
+      </c>
+      <c r="FG25" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -36639,14 +36859,17 @@
       </c>
       <c r="FF26" t="n">
         <v>1107.0</v>
+      </c>
+      <c r="FG26" t="n">
+        <v>1083.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -36808,13 +37031,14 @@
       <c r="FD27"/>
       <c r="FE27"/>
       <c r="FF27"/>
+      <c r="FG27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" t="s">
         <v>188</v>
-      </c>
-      <c r="B28" t="s">
-        <v>187</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -36976,6 +37200,7 @@
       <c r="FD28"/>
       <c r="FE28"/>
       <c r="FF28"/>
+      <c r="FG28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/original-sources/DSHS_tsa_hosp.xlsx
+++ b/original-sources/DSHS_tsa_hosp.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="218">
   <si>
-    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/19/20 at 9:30 AM CST</t>
+    <t>Total Lab-Confirmed COVID-19 Hospitalized Patients by Trauma Service Area (TSA), 4/12/2020 - 09/20/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -511,6 +511,9 @@
     <t>2020-09-19</t>
   </si>
   <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
     <t>A.</t>
   </si>
   <si>
@@ -655,10 +658,10 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/19/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (General) by Trauma Service Area (TSA), 4/12/2020 - 09/20/20 at 9:30 AM CST</t>
   </si>
   <si>
-    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/19/20 at 9:30 AM CST</t>
+    <t>Lab-Confirmed COVID-19 Hospitalized Patients (ICU) by Trauma Service Area (TSA), 4/12/2020 - 09/20/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>44051</t>
@@ -1280,13 +1283,16 @@
       <c r="FG3" t="s" s="10">
         <v>164</v>
       </c>
+      <c r="FH3" t="s" s="10">
+        <v>165</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C4" t="n">
         <v>17.0</v>
@@ -1769,15 +1775,18 @@
         <v>62.0</v>
       </c>
       <c r="FG4" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="FH4" t="n">
         <v>63.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5" t="n">
         <v>34.0</v>
@@ -2261,14 +2270,17 @@
       </c>
       <c r="FG5" t="n">
         <v>90.0</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -2752,14 +2764,17 @@
       </c>
       <c r="FG6" t="n">
         <v>29.0</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C7" t="n">
         <v>6.0</v>
@@ -3243,14 +3258,17 @@
       </c>
       <c r="FG7" t="n">
         <v>28.0</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C8" t="n">
         <v>369.0</v>
@@ -3734,14 +3752,17 @@
       </c>
       <c r="FG8" t="n">
         <v>733.0</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>754.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C9" t="n">
         <v>14.0</v>
@@ -4225,14 +4246,17 @@
       </c>
       <c r="FG9" t="n">
         <v>67.0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C10" t="n">
         <v>32.0</v>
@@ -4716,14 +4740,17 @@
       </c>
       <c r="FG10" t="n">
         <v>159.0</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>157.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C11" t="n">
         <v>15.0</v>
@@ -5207,14 +5234,17 @@
       </c>
       <c r="FG11" t="n">
         <v>31.0</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C12" t="n">
         <v>14.0</v>
@@ -5698,14 +5728,17 @@
       </c>
       <c r="FG12" t="n">
         <v>138.0</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>140.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -6189,14 +6222,17 @@
       </c>
       <c r="FG13" t="n">
         <v>58.0</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -6680,14 +6716,17 @@
       </c>
       <c r="FG14" t="n">
         <v>20.0</v>
+      </c>
+      <c r="FH14" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C15" t="n">
         <v>11.0</v>
@@ -7170,15 +7209,18 @@
         <v>37.0</v>
       </c>
       <c r="FG15" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="FH15" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C16" t="n">
         <v>9.0</v>
@@ -7662,14 +7704,17 @@
       </c>
       <c r="FG16" t="n">
         <v>37.0</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -8153,14 +8198,17 @@
       </c>
       <c r="FG17" t="n">
         <v>14.0</v>
+      </c>
+      <c r="FH17" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -8644,14 +8692,17 @@
       </c>
       <c r="FG18" t="n">
         <v>82.0</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" t="n">
         <v>57.0</v>
@@ -9135,14 +9186,17 @@
       </c>
       <c r="FG19" t="n">
         <v>253.0</v>
+      </c>
+      <c r="FH19" t="n">
+        <v>234.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C20" t="n">
         <v>516.0</v>
@@ -9626,14 +9680,17 @@
       </c>
       <c r="FG20" t="n">
         <v>561.0</v>
+      </c>
+      <c r="FH20" t="n">
+        <v>525.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C21" t="n">
         <v>76.0</v>
@@ -10117,14 +10174,17 @@
       </c>
       <c r="FG21" t="n">
         <v>143.0</v>
+      </c>
+      <c r="FH21" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C22" t="n">
         <v>16.0</v>
@@ -10608,14 +10668,17 @@
       </c>
       <c r="FG22" t="n">
         <v>61.0</v>
+      </c>
+      <c r="FH22" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C23" t="n">
         <v>25.0</v>
@@ -11099,14 +11162,17 @@
       </c>
       <c r="FG23" t="n">
         <v>99.0</v>
+      </c>
+      <c r="FH23" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C24" t="n">
         <v>9.0</v>
@@ -11590,14 +11656,17 @@
       </c>
       <c r="FG24" t="n">
         <v>112.0</v>
+      </c>
+      <c r="FH24" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C25" t="n">
         <v>57.0</v>
@@ -12080,15 +12149,18 @@
         <v>341.0</v>
       </c>
       <c r="FG25" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="FH25" t="n">
         <v>309.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C26" t="n">
         <v>1338.0</v>
@@ -12572,14 +12644,17 @@
       </c>
       <c r="FG26" t="n">
         <v>3124.0</v>
+      </c>
+      <c r="FH26" t="n">
+        <v>6162.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -12742,13 +12817,14 @@
       <c r="FE27"/>
       <c r="FF27"/>
       <c r="FG27"/>
+      <c r="FH27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s">
         <v>189</v>
-      </c>
-      <c r="B28" t="s">
-        <v>188</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -12911,6 +12987,7 @@
       <c r="FE28"/>
       <c r="FF28"/>
       <c r="FG28"/>
+      <c r="FH28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -12927,7 +13004,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2">
@@ -13425,13 +13502,16 @@
       <c r="FG3" t="s" s="10">
         <v>164</v>
       </c>
+      <c r="FH3" t="s" s="10">
+        <v>165</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C4" t="n">
         <v>13.0</v>
@@ -13915,14 +13995,17 @@
       </c>
       <c r="FG4" t="n">
         <v>28.0</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5" t="n">
         <v>22.0</v>
@@ -14406,14 +14489,17 @@
       </c>
       <c r="FG5" t="n">
         <v>48.0</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -14897,14 +14983,17 @@
       </c>
       <c r="FG6" t="n">
         <v>22.0</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -15388,14 +15477,17 @@
       </c>
       <c r="FG7" t="n">
         <v>19.0</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C8" t="n">
         <v>208.0</v>
@@ -15879,14 +15971,17 @@
       </c>
       <c r="FG8" t="n">
         <v>518.0</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>530.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -16370,14 +16465,17 @@
       </c>
       <c r="FG9" t="n">
         <v>36.0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -16861,14 +16959,17 @@
       </c>
       <c r="FG10" t="n">
         <v>96.0</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C11" t="n">
         <v>10.0</v>
@@ -17352,14 +17453,17 @@
       </c>
       <c r="FG11" t="n">
         <v>21.0</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C12" t="n">
         <v>8.0</v>
@@ -17842,15 +17946,18 @@
         <v>79.0</v>
       </c>
       <c r="FG12" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="FH12" t="n">
         <v>85.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C13" t="n">
         <v>6.0</v>
@@ -18334,14 +18441,17 @@
       </c>
       <c r="FG13" t="n">
         <v>41.0</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -18825,14 +18935,17 @@
       </c>
       <c r="FG14" t="n">
         <v>16.0</v>
+      </c>
+      <c r="FH14" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -19315,15 +19428,18 @@
         <v>25.0</v>
       </c>
       <c r="FG15" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="FH15" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -19807,14 +19923,17 @@
       </c>
       <c r="FG16" t="n">
         <v>20.0</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C17" t="n">
         <v>16.0</v>
@@ -20298,14 +20417,17 @@
       </c>
       <c r="FG17" t="n">
         <v>11.0</v>
+      </c>
+      <c r="FH17" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C18" t="n">
         <v>10.0</v>
@@ -20789,14 +20911,17 @@
       </c>
       <c r="FG18" t="n">
         <v>52.0</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>63.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" t="n">
         <v>35.0</v>
@@ -21280,14 +21405,17 @@
       </c>
       <c r="FG19" t="n">
         <v>142.0</v>
+      </c>
+      <c r="FH19" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C20" t="n">
         <v>302.0</v>
@@ -21771,14 +21899,17 @@
       </c>
       <c r="FG20" t="n">
         <v>376.0</v>
+      </c>
+      <c r="FH20" t="n">
+        <v>341.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C21" t="n">
         <v>46.0</v>
@@ -22262,14 +22393,17 @@
       </c>
       <c r="FG21" t="n">
         <v>101.0</v>
+      </c>
+      <c r="FH21" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C22" t="n">
         <v>12.0</v>
@@ -22753,14 +22887,17 @@
       </c>
       <c r="FG22" t="n">
         <v>39.0</v>
+      </c>
+      <c r="FH22" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C23" t="n">
         <v>13.0</v>
@@ -23244,14 +23381,17 @@
       </c>
       <c r="FG23" t="n">
         <v>50.0</v>
+      </c>
+      <c r="FH23" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C24" t="n">
         <v>4.0</v>
@@ -23735,14 +23875,17 @@
       </c>
       <c r="FG24" t="n">
         <v>74.0</v>
+      </c>
+      <c r="FH24" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C25" t="n">
         <v>39.0</v>
@@ -24226,14 +24369,17 @@
       </c>
       <c r="FG25" t="n">
         <v>186.0</v>
+      </c>
+      <c r="FH25" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C26" t="n">
         <v>775.0</v>
@@ -24717,14 +24863,17 @@
       </c>
       <c r="FG26" t="n">
         <v>2005.0</v>
+      </c>
+      <c r="FH26" t="n">
+        <v>3968.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -24887,13 +25036,14 @@
       <c r="FE27"/>
       <c r="FF27"/>
       <c r="FG27"/>
+      <c r="FH27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s">
         <v>189</v>
-      </c>
-      <c r="B28" t="s">
-        <v>188</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -25056,6 +25206,7 @@
       <c r="FE28"/>
       <c r="FF28"/>
       <c r="FG28"/>
+      <c r="FH28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -25072,7 +25223,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
@@ -25442,7 +25593,7 @@
         <v>121</v>
       </c>
       <c r="DQ3" t="s" s="10">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="DR3" t="s" s="10">
         <v>123</v>
@@ -25466,7 +25617,7 @@
         <v>129</v>
       </c>
       <c r="DY3" t="s" s="10">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="DZ3" t="s" s="10">
         <v>131</v>
@@ -25569,14 +25720,17 @@
       </c>
       <c r="FG3" t="s" s="10">
         <v>164</v>
+      </c>
+      <c r="FH3" t="s" s="10">
+        <v>165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -26060,14 +26214,17 @@
       </c>
       <c r="FG4" t="n">
         <v>35.0</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5" t="n">
         <v>12.0</v>
@@ -26551,14 +26708,17 @@
       </c>
       <c r="FG5" t="n">
         <v>40.0</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -27042,14 +27202,17 @@
       </c>
       <c r="FG6" t="n">
         <v>7.0</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -27533,14 +27696,17 @@
       </c>
       <c r="FG7" t="n">
         <v>9.0</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C8" t="n">
         <v>161.0</v>
@@ -28024,14 +28190,17 @@
       </c>
       <c r="FG8" t="n">
         <v>201.0</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>206.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C9" t="n">
         <v>12.0</v>
@@ -28515,14 +28684,17 @@
       </c>
       <c r="FG9" t="n">
         <v>31.0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C10" t="n">
         <v>16.0</v>
@@ -29006,14 +29178,17 @@
       </c>
       <c r="FG10" t="n">
         <v>62.0</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -29497,14 +29672,17 @@
       </c>
       <c r="FG11" t="n">
         <v>10.0</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -29988,14 +30166,17 @@
       </c>
       <c r="FG12" t="n">
         <v>51.0</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -30479,14 +30660,17 @@
       </c>
       <c r="FG13" t="n">
         <v>17.0</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -30969,15 +31153,18 @@
         <v>4.0</v>
       </c>
       <c r="FG14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="FH14" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C15" t="n">
         <v>10.0</v>
@@ -31460,15 +31647,18 @@
         <v>12.0</v>
       </c>
       <c r="FG15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="FH15" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C16" t="n">
         <v>5.0</v>
@@ -31952,14 +32142,17 @@
       </c>
       <c r="FG16" t="n">
         <v>17.0</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C17" t="n">
         <v>8.0</v>
@@ -32442,15 +32635,18 @@
         <v>4.0</v>
       </c>
       <c r="FG17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="FH17" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C18" t="n">
         <v>12.0</v>
@@ -32934,14 +33130,17 @@
       </c>
       <c r="FG18" t="n">
         <v>29.0</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" t="n">
         <v>22.0</v>
@@ -33425,14 +33624,17 @@
       </c>
       <c r="FG19" t="n">
         <v>101.0</v>
+      </c>
+      <c r="FH19" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C20" t="n">
         <v>214.0</v>
@@ -33916,14 +34118,17 @@
       </c>
       <c r="FG20" t="n">
         <v>185.0</v>
+      </c>
+      <c r="FH20" t="n">
+        <v>176.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C21" t="n">
         <v>30.0</v>
@@ -34407,14 +34612,17 @@
       </c>
       <c r="FG21" t="n">
         <v>41.0</v>
+      </c>
+      <c r="FH21" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C22" t="n">
         <v>4.0</v>
@@ -34898,14 +35106,17 @@
       </c>
       <c r="FG22" t="n">
         <v>22.0</v>
+      </c>
+      <c r="FH22" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C23" t="n">
         <v>12.0</v>
@@ -35389,14 +35600,17 @@
       </c>
       <c r="FG23" t="n">
         <v>49.0</v>
+      </c>
+      <c r="FH23" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C24" t="n">
         <v>5.0</v>
@@ -35880,14 +36094,17 @@
       </c>
       <c r="FG24" t="n">
         <v>38.0</v>
+      </c>
+      <c r="FH24" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C25" t="n">
         <v>18.0</v>
@@ -36371,14 +36588,17 @@
       </c>
       <c r="FG25" t="n">
         <v>118.0</v>
+      </c>
+      <c r="FH25" t="n">
+        <v>126.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C26" t="n">
         <v>563.0</v>
@@ -36862,14 +37082,17 @@
       </c>
       <c r="FG26" t="n">
         <v>1083.0</v>
+      </c>
+      <c r="FH26" t="n">
+        <v>2114.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -37032,13 +37255,14 @@
       <c r="FE27"/>
       <c r="FF27"/>
       <c r="FG27"/>
+      <c r="FH27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s">
         <v>189</v>
-      </c>
-      <c r="B28" t="s">
-        <v>188</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -37201,6 +37425,7 @@
       <c r="FE28"/>
       <c r="FF28"/>
       <c r="FG28"/>
+      <c r="FH28"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
